--- a/docs/planningdocuments/gannt/GanttChart_POS 6.xlsx
+++ b/docs/planningdocuments/gannt/GanttChart_POS 6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/CPS353-POS/docs/planningdocuments/gannt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CPS353-POS\docs\planningdocuments\gannt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A29CF6F-2BC9-BD4E-94D1-5F2D322F0058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1789DFD3-EE0E-4655-9AAA-8DB0ECF04048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="1440" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="121">
   <si>
     <t>GANTT CHART</t>
   </si>
@@ -69,27 +69,6 @@
     <t>PCT OF TASK COMPLETE</t>
   </si>
   <si>
-    <t>W1 9/8/2021</t>
-  </si>
-  <si>
-    <t>W2 9/15/2021</t>
-  </si>
-  <si>
-    <t>W3 9/22/2021</t>
-  </si>
-  <si>
-    <t>W4 9/29/2021</t>
-  </si>
-  <si>
-    <t>W5 10/6/2021</t>
-  </si>
-  <si>
-    <t>W8 10/27/2021</t>
-  </si>
-  <si>
-    <t>W9 11/3/2021</t>
-  </si>
-  <si>
     <t>W10 11/10/2021</t>
   </si>
   <si>
@@ -111,12 +90,6 @@
     <t>2.3.1</t>
   </si>
   <si>
-    <t>3.2.2</t>
-  </si>
-  <si>
-    <t>3.3.1</t>
-  </si>
-  <si>
     <t>Anthony Denizard</t>
   </si>
   <si>
@@ -190,9 +163,6 @@
   </si>
   <si>
     <t>Olamide</t>
-  </si>
-  <si>
-    <t>Erica</t>
   </si>
   <si>
     <t xml:space="preserve">Christina  </t>
@@ -232,12 +202,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Creating Database </t>
-  </si>
-  <si>
-    <t>Establishing DB Organization</t>
-  </si>
-  <si>
     <t xml:space="preserve">Meetings </t>
   </si>
   <si>
@@ -253,15 +217,6 @@
     <t xml:space="preserve">Erica, All Optional </t>
   </si>
   <si>
-    <t xml:space="preserve">Charlie, Olamide, Beesanne, Christina </t>
-  </si>
-  <si>
-    <t>Review CSS/HTML/JavaScript</t>
-  </si>
-  <si>
-    <t>Review PHP/MySQL/JavaScript</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create Directory Structure </t>
   </si>
   <si>
@@ -292,39 +247,6 @@
     <t xml:space="preserve">Email Notifications </t>
   </si>
   <si>
-    <t>3.3.2</t>
-  </si>
-  <si>
-    <t>3.3.3</t>
-  </si>
-  <si>
-    <t>3.4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outline DB Tables </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landing Page UI / Frontend </t>
-  </si>
-  <si>
-    <t>Login - Register System / Backend</t>
-  </si>
-  <si>
-    <t>3.4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shopping Cart / Backend </t>
-  </si>
-  <si>
-    <t>3.4.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financial Reports / Backend </t>
-  </si>
-  <si>
-    <t>User Tables</t>
-  </si>
-  <si>
     <t xml:space="preserve">Webex Group Week 4 </t>
   </si>
   <si>
@@ -340,24 +262,9 @@
     <t>Webex Group Week 6</t>
   </si>
   <si>
-    <t xml:space="preserve">Checkout Page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Classes </t>
-  </si>
-  <si>
     <t>POS - Power House Phitness (PHP)</t>
   </si>
   <si>
-    <t>Test table for phpmyadmin or test classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adding sql into user classes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">modify form </t>
-  </si>
-  <si>
     <t xml:space="preserve">error handeling </t>
   </si>
   <si>
@@ -367,12 +274,6 @@
     <t xml:space="preserve">roles class with access levels </t>
   </si>
   <si>
-    <t xml:space="preserve">order isory </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financeal </t>
-  </si>
-  <si>
     <t xml:space="preserve">php code for calculations </t>
   </si>
   <si>
@@ -385,12 +286,6 @@
     <t xml:space="preserve">test tables for reports </t>
   </si>
   <si>
-    <t>W6 10/10/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">make ddiagrams for UI Plan </t>
-  </si>
-  <si>
     <t xml:space="preserve">link landing page to login </t>
   </si>
   <si>
@@ -413,6 +308,144 @@
   </si>
   <si>
     <t>W6 10/10/2022</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Erica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Beesanne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rental Checkout Customer Page </t>
+  </si>
+  <si>
+    <t>Rental Check-in Employee Portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin Inventory Page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Tables </t>
+  </si>
+  <si>
+    <t>Upload to XAMMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Data for Products </t>
+  </si>
+  <si>
+    <t>Create Products Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Data to Unchanging Tables </t>
+  </si>
+  <si>
+    <t>In-Person Group Week 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intialize the Sessions class </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Begin Encrypting Data </t>
+  </si>
+  <si>
+    <t>W1 9/8/2022</t>
+  </si>
+  <si>
+    <t>W2 9/15/2022</t>
+  </si>
+  <si>
+    <t>W3 9/22/2022</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>W4 9/29/2022</t>
+  </si>
+  <si>
+    <t>W5 10/6/2022</t>
+  </si>
+  <si>
+    <t>W7 10/17/2022</t>
+  </si>
+  <si>
+    <t>W8 10/27/2022</t>
+  </si>
+  <si>
+    <t>W9 11/3/2022</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make diagrams for UI Plan </t>
+  </si>
+  <si>
+    <t>Test Creation of all 5 users</t>
+  </si>
+  <si>
+    <t>Implement SQL Queries in User Class Functions</t>
+  </si>
+  <si>
+    <t>Create Test Table PHPmyAdminj</t>
+  </si>
+  <si>
+    <t>Store Order History</t>
   </si>
 </sst>
 </file>
@@ -422,7 +455,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -618,8 +651,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,6 +736,84 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FFEDEDED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor rgb="FFEDEDED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFCE4D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFEDEDED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFCE4D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -835,17 +965,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -859,11 +978,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1013,8 +1147,40 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1030,14 +1196,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1048,41 +1209,254 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="24" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1401,24 +1775,26 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BZ91"/>
+  <dimension ref="A1:BZ94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B33" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="35.1640625" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" customWidth="1"/>
-    <col min="9" max="78" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="9" max="35" width="3.44140625" customWidth="1"/>
+    <col min="36" max="36" width="3.44140625" style="114" customWidth="1"/>
+    <col min="37" max="78" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1454,7 +1830,7 @@
       <c r="AG1" s="9"/>
       <c r="AH1" s="9"/>
       <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
+      <c r="AJ1" s="159"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
       <c r="AM1" s="1"/>
@@ -1498,45 +1874,45 @@
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
-    <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
       <c r="AF2" s="11"/>
       <c r="AG2" s="11"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
+      <c r="AJ2" s="160"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
       <c r="AM2" s="1"/>
@@ -1580,7 +1956,7 @@
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
-    <row r="3" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -1616,7 +1992,7 @@
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
+      <c r="AJ3" s="159"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="1"/>
@@ -1660,43 +2036,43 @@
       <c r="BY3" s="1"/>
       <c r="BZ3" s="1"/>
     </row>
-    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="64" t="s">
+      <c r="I4" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -1704,7 +2080,7 @@
       <c r="AG4" s="9"/>
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
+      <c r="AJ4" s="159"/>
       <c r="AK4" s="9"/>
       <c r="AL4" s="9"/>
       <c r="AM4" s="1"/>
@@ -1748,42 +2124,42 @@
       <c r="BY4" s="1"/>
       <c r="BZ4" s="1"/>
     </row>
-    <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="75">
-        <v>44837</v>
-      </c>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63"/>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="63"/>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="63"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="69">
+        <v>44846</v>
+      </c>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -1792,7 +2168,7 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
+      <c r="AJ5" s="161"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="20"/>
       <c r="AM5" s="1"/>
@@ -1836,14 +2212,14 @@
       <c r="BY5" s="1"/>
       <c r="BZ5" s="1"/>
     </row>
-    <row r="6" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="48" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="49" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -1876,7 +2252,7 @@
       <c r="AG6" s="21"/>
       <c r="AH6" s="21"/>
       <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
+      <c r="AJ6" s="107"/>
       <c r="AK6" s="21"/>
       <c r="AL6" s="21"/>
       <c r="AM6" s="21"/>
@@ -1920,14 +2296,14 @@
       <c r="BY6" s="21"/>
       <c r="BZ6" s="21"/>
     </row>
-    <row r="7" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="22" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="50" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
@@ -1960,7 +2336,7 @@
       <c r="AG7" s="21"/>
       <c r="AH7" s="21"/>
       <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
+      <c r="AJ7" s="107"/>
       <c r="AK7" s="21"/>
       <c r="AL7" s="21"/>
       <c r="AM7" s="21"/>
@@ -2004,7 +2380,7 @@
       <c r="BY7" s="21"/>
       <c r="BZ7" s="21"/>
     </row>
-    <row r="8" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -2040,7 +2416,7 @@
       <c r="AG8" s="21"/>
       <c r="AH8" s="21"/>
       <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
+      <c r="AJ8" s="107"/>
       <c r="AK8" s="21"/>
       <c r="AL8" s="21"/>
       <c r="AM8" s="21"/>
@@ -2084,302 +2460,442 @@
       <c r="BY8" s="21"/>
       <c r="BZ8" s="21"/>
     </row>
-    <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="68"/>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="68"/>
-      <c r="AE9" s="68"/>
-      <c r="AF9" s="68"/>
-      <c r="AG9" s="68"/>
-      <c r="AH9" s="68"/>
-      <c r="AI9" s="68"/>
-      <c r="AJ9" s="68"/>
-      <c r="AK9" s="68"/>
-      <c r="AL9" s="68"/>
-      <c r="AM9" s="69"/>
-      <c r="AN9" s="68"/>
-      <c r="AO9" s="68"/>
-      <c r="AP9" s="68"/>
-      <c r="AQ9" s="68"/>
-      <c r="AR9" s="68"/>
-      <c r="AS9" s="68"/>
-      <c r="AT9" s="68"/>
-      <c r="AU9" s="68"/>
-      <c r="AV9" s="68"/>
-      <c r="AW9" s="68"/>
-      <c r="AX9" s="68"/>
-      <c r="AY9" s="68"/>
-      <c r="AZ9" s="68"/>
-      <c r="BA9" s="68"/>
-      <c r="BB9" s="69"/>
-      <c r="BC9" s="68"/>
-      <c r="BD9" s="68"/>
-      <c r="BE9" s="68"/>
-      <c r="BF9" s="68"/>
-      <c r="BG9" s="68"/>
-      <c r="BH9" s="68"/>
-      <c r="BI9" s="68"/>
-      <c r="BJ9" s="68"/>
-      <c r="BK9" s="68"/>
-      <c r="BL9" s="68"/>
-      <c r="BM9" s="68"/>
-      <c r="BN9" s="68"/>
-      <c r="BO9" s="68"/>
-      <c r="BP9" s="68"/>
-      <c r="BQ9" s="68"/>
-      <c r="BR9" s="68"/>
-      <c r="BS9" s="68"/>
-      <c r="BT9" s="68"/>
-      <c r="BU9" s="68"/>
-      <c r="BV9" s="68"/>
-      <c r="BW9" s="68"/>
-      <c r="BX9" s="68"/>
-      <c r="BY9" s="68"/>
-      <c r="BZ9" s="73"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="60"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="60"/>
+      <c r="AL9" s="60"/>
+      <c r="AM9" s="59"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="60"/>
+      <c r="AP9" s="60"/>
+      <c r="AQ9" s="60"/>
+      <c r="AR9" s="60"/>
+      <c r="AS9" s="60"/>
+      <c r="AT9" s="60"/>
+      <c r="AU9" s="60"/>
+      <c r="AV9" s="60"/>
+      <c r="AW9" s="60"/>
+      <c r="AX9" s="60"/>
+      <c r="AY9" s="60"/>
+      <c r="AZ9" s="60"/>
+      <c r="BA9" s="60"/>
+      <c r="BB9" s="59"/>
+      <c r="BC9" s="60"/>
+      <c r="BD9" s="60"/>
+      <c r="BE9" s="60"/>
+      <c r="BF9" s="60"/>
+      <c r="BG9" s="60"/>
+      <c r="BH9" s="60"/>
+      <c r="BI9" s="60"/>
+      <c r="BJ9" s="60"/>
+      <c r="BK9" s="60"/>
+      <c r="BL9" s="60"/>
+      <c r="BM9" s="60"/>
+      <c r="BN9" s="60"/>
+      <c r="BO9" s="60"/>
+      <c r="BP9" s="60"/>
+      <c r="BQ9" s="60"/>
+      <c r="BR9" s="60"/>
+      <c r="BS9" s="60"/>
+      <c r="BT9" s="60"/>
+      <c r="BU9" s="60"/>
+      <c r="BV9" s="60"/>
+      <c r="BW9" s="60"/>
+      <c r="BX9" s="60"/>
+      <c r="BY9" s="60"/>
+      <c r="BZ9" s="61"/>
     </row>
-    <row r="10" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="70" t="s">
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD10" s="63"/>
+      <c r="AE10" s="63"/>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="63"/>
+      <c r="AK10" s="63"/>
+      <c r="AL10" s="64"/>
+      <c r="AM10" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN10" s="63"/>
+      <c r="AO10" s="63"/>
+      <c r="AP10" s="63"/>
+      <c r="AQ10" s="64"/>
+      <c r="AR10" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS10" s="63"/>
+      <c r="AT10" s="63"/>
+      <c r="AU10" s="63"/>
+      <c r="AV10" s="64"/>
+      <c r="AW10" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX10" s="63"/>
+      <c r="AY10" s="63"/>
+      <c r="AZ10" s="63"/>
+      <c r="BA10" s="64"/>
+      <c r="BB10" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="70" t="s">
+      <c r="BC10" s="63"/>
+      <c r="BD10" s="63"/>
+      <c r="BE10" s="63"/>
+      <c r="BF10" s="64"/>
+      <c r="BG10" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="70" t="s">
+      <c r="BH10" s="63"/>
+      <c r="BI10" s="63"/>
+      <c r="BJ10" s="63"/>
+      <c r="BK10" s="64"/>
+      <c r="BL10" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="70" t="s">
+      <c r="BM10" s="63"/>
+      <c r="BN10" s="63"/>
+      <c r="BO10" s="63"/>
+      <c r="BP10" s="64"/>
+      <c r="BQ10" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="70" t="s">
+      <c r="BR10" s="63"/>
+      <c r="BS10" s="63"/>
+      <c r="BT10" s="63"/>
+      <c r="BU10" s="64"/>
+      <c r="BV10" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="71"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI10" s="71"/>
-      <c r="AJ10" s="71"/>
-      <c r="AK10" s="71"/>
-      <c r="AL10" s="72"/>
-      <c r="AM10" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN10" s="71"/>
-      <c r="AO10" s="71"/>
-      <c r="AP10" s="71"/>
-      <c r="AQ10" s="72"/>
-      <c r="AR10" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS10" s="71"/>
-      <c r="AT10" s="71"/>
-      <c r="AU10" s="71"/>
-      <c r="AV10" s="72"/>
-      <c r="AW10" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX10" s="71"/>
-      <c r="AY10" s="71"/>
-      <c r="AZ10" s="71"/>
-      <c r="BA10" s="72"/>
-      <c r="BB10" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="BC10" s="71"/>
-      <c r="BD10" s="71"/>
-      <c r="BE10" s="71"/>
-      <c r="BF10" s="72"/>
-      <c r="BG10" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="BH10" s="71"/>
-      <c r="BI10" s="71"/>
-      <c r="BJ10" s="71"/>
-      <c r="BK10" s="72"/>
-      <c r="BL10" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="BM10" s="71"/>
-      <c r="BN10" s="71"/>
-      <c r="BO10" s="71"/>
-      <c r="BP10" s="72"/>
-      <c r="BQ10" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="BR10" s="71"/>
-      <c r="BS10" s="71"/>
-      <c r="BT10" s="71"/>
-      <c r="BU10" s="72"/>
-      <c r="BV10" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="BW10" s="71"/>
-      <c r="BX10" s="71"/>
-      <c r="BY10" s="71"/>
-      <c r="BZ10" s="72"/>
+      <c r="BW10" s="63"/>
+      <c r="BX10" s="63"/>
+      <c r="BY10" s="63"/>
+      <c r="BZ10" s="64"/>
     </row>
-    <row r="11" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="26">
         <v>1</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="29"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="29"/>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="29"/>
-      <c r="AR11" s="29"/>
-      <c r="AS11" s="29"/>
-      <c r="AT11" s="29"/>
-      <c r="AU11" s="29"/>
-      <c r="AV11" s="29"/>
-      <c r="AW11" s="29"/>
-      <c r="AX11" s="29"/>
-      <c r="AY11" s="29"/>
-      <c r="AZ11" s="29"/>
-      <c r="BA11" s="29"/>
-      <c r="BB11" s="29"/>
-      <c r="BC11" s="29"/>
-      <c r="BD11" s="29"/>
-      <c r="BE11" s="29"/>
-      <c r="BF11" s="29"/>
-      <c r="BG11" s="29"/>
-      <c r="BH11" s="29"/>
-      <c r="BI11" s="29"/>
-      <c r="BJ11" s="29"/>
-      <c r="BK11" s="29"/>
-      <c r="BL11" s="29"/>
-      <c r="BM11" s="29"/>
-      <c r="BN11" s="29"/>
-      <c r="BO11" s="29"/>
-      <c r="BP11" s="29"/>
-      <c r="BQ11" s="29"/>
-      <c r="BR11" s="29"/>
-      <c r="BS11" s="29"/>
-      <c r="BT11" s="29"/>
-      <c r="BU11" s="29"/>
-      <c r="BV11" s="29"/>
-      <c r="BW11" s="29"/>
-      <c r="BX11" s="29"/>
-      <c r="BY11" s="29"/>
-      <c r="BZ11" s="29"/>
+      <c r="I11" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="R11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="S11" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="T11" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="U11" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="V11" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="W11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y11" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z11" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA11" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC11" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD11" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE11" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF11" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH11" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI11" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ11" s="163" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK11" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM11" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN11" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO11" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP11" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR11" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS11" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT11" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU11" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW11" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX11" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY11" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ11" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB11" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC11" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD11" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE11" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG11" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH11" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI11" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ11" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL11" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM11" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="BN11" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO11" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="BQ11" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR11" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="BS11" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="BT11" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV11" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="BW11" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="BX11" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY11" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="BZ11" s="29" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="12" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="33">
         <v>1.1000000000000001</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E12" s="35">
         <v>44809</v>
@@ -2421,7 +2937,7 @@
       <c r="AG12" s="38"/>
       <c r="AH12" s="38"/>
       <c r="AI12" s="38"/>
-      <c r="AJ12" s="38"/>
+      <c r="AJ12" s="139"/>
       <c r="AK12" s="38"/>
       <c r="AL12" s="38"/>
       <c r="AM12" s="38"/>
@@ -2465,16 +2981,16 @@
       <c r="BY12" s="38"/>
       <c r="BZ12" s="38"/>
     </row>
-    <row r="13" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="33" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E13" s="35">
         <v>44809</v>
@@ -2516,7 +3032,7 @@
       <c r="AG13" s="38"/>
       <c r="AH13" s="38"/>
       <c r="AI13" s="38"/>
-      <c r="AJ13" s="38"/>
+      <c r="AJ13" s="139"/>
       <c r="AK13" s="38"/>
       <c r="AL13" s="38"/>
       <c r="AM13" s="38"/>
@@ -2560,16 +3076,16 @@
       <c r="BY13" s="38"/>
       <c r="BZ13" s="38"/>
     </row>
-    <row r="14" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="33">
         <v>1.2</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E14" s="35">
         <v>44810</v>
@@ -2611,7 +3127,7 @@
       <c r="AG14" s="38"/>
       <c r="AH14" s="38"/>
       <c r="AI14" s="38"/>
-      <c r="AJ14" s="38"/>
+      <c r="AJ14" s="139"/>
       <c r="AK14" s="38"/>
       <c r="AL14" s="38"/>
       <c r="AM14" s="38"/>
@@ -2655,16 +3171,16 @@
       <c r="BY14" s="38"/>
       <c r="BZ14" s="38"/>
     </row>
-    <row r="15" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="33">
         <v>1.3</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E15" s="35">
         <v>44810</v>
@@ -2706,7 +3222,7 @@
       <c r="AG15" s="38"/>
       <c r="AH15" s="38"/>
       <c r="AI15" s="38"/>
-      <c r="AJ15" s="38"/>
+      <c r="AJ15" s="139"/>
       <c r="AK15" s="38"/>
       <c r="AL15" s="38"/>
       <c r="AM15" s="38"/>
@@ -2750,16 +3266,16 @@
       <c r="BY15" s="38"/>
       <c r="BZ15" s="38"/>
     </row>
-    <row r="16" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="33">
         <v>1.4</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E16" s="35">
         <v>44809</v>
@@ -2801,7 +3317,7 @@
       <c r="AG16" s="38"/>
       <c r="AH16" s="38"/>
       <c r="AI16" s="38"/>
-      <c r="AJ16" s="38"/>
+      <c r="AJ16" s="139"/>
       <c r="AK16" s="38"/>
       <c r="AL16" s="38"/>
       <c r="AM16" s="38"/>
@@ -2845,16 +3361,16 @@
       <c r="BY16" s="38"/>
       <c r="BZ16" s="38"/>
     </row>
-    <row r="17" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="33">
         <v>1.5</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E17" s="35">
         <v>44824</v>
@@ -2896,7 +3412,7 @@
       <c r="AG17" s="38"/>
       <c r="AH17" s="38"/>
       <c r="AI17" s="38"/>
-      <c r="AJ17" s="38"/>
+      <c r="AJ17" s="139"/>
       <c r="AK17" s="38"/>
       <c r="AL17" s="38"/>
       <c r="AM17" s="38"/>
@@ -2940,16 +3456,16 @@
       <c r="BY17" s="38"/>
       <c r="BZ17" s="38"/>
     </row>
-    <row r="18" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="33">
         <v>1.6</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E18" s="35">
         <v>44830</v>
@@ -2991,7 +3507,7 @@
       <c r="AG18" s="38"/>
       <c r="AH18" s="38"/>
       <c r="AI18" s="38"/>
-      <c r="AJ18" s="38"/>
+      <c r="AJ18" s="139"/>
       <c r="AK18" s="38"/>
       <c r="AL18" s="38"/>
       <c r="AM18" s="38"/>
@@ -3035,16 +3551,16 @@
       <c r="BY18" s="38"/>
       <c r="BZ18" s="38"/>
     </row>
-    <row r="19" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="33">
         <v>1.7</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E19" s="35">
         <v>44830</v>
@@ -3086,7 +3602,7 @@
       <c r="AG19" s="38"/>
       <c r="AH19" s="38"/>
       <c r="AI19" s="38"/>
-      <c r="AJ19" s="38"/>
+      <c r="AJ19" s="139"/>
       <c r="AK19" s="38"/>
       <c r="AL19" s="38"/>
       <c r="AM19" s="38"/>
@@ -3130,7 +3646,7 @@
       <c r="BY19" s="38"/>
       <c r="BZ19" s="38"/>
     </row>
-    <row r="20" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="33"/>
       <c r="C20" s="34"/>
@@ -3166,7 +3682,7 @@
       <c r="AG20" s="38"/>
       <c r="AH20" s="38"/>
       <c r="AI20" s="38"/>
-      <c r="AJ20" s="38"/>
+      <c r="AJ20" s="139"/>
       <c r="AK20" s="38"/>
       <c r="AL20" s="38"/>
       <c r="AM20" s="38"/>
@@ -3210,7 +3726,7 @@
       <c r="BY20" s="38"/>
       <c r="BZ20" s="38"/>
     </row>
-    <row r="21" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="33"/>
       <c r="C21" s="34"/>
@@ -3246,7 +3762,7 @@
       <c r="AG21" s="38"/>
       <c r="AH21" s="38"/>
       <c r="AI21" s="38"/>
-      <c r="AJ21" s="38"/>
+      <c r="AJ21" s="139"/>
       <c r="AK21" s="38"/>
       <c r="AL21" s="38"/>
       <c r="AM21" s="38"/>
@@ -3290,13 +3806,13 @@
       <c r="BY21" s="38"/>
       <c r="BZ21" s="38"/>
     </row>
-    <row r="22" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="26">
         <v>2</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
@@ -3330,7 +3846,7 @@
       <c r="AG22" s="29"/>
       <c r="AH22" s="29"/>
       <c r="AI22" s="29"/>
-      <c r="AJ22" s="29"/>
+      <c r="AJ22" s="164"/>
       <c r="AK22" s="29"/>
       <c r="AL22" s="29"/>
       <c r="AM22" s="29"/>
@@ -3374,16 +3890,16 @@
       <c r="BY22" s="29"/>
       <c r="BZ22" s="29"/>
     </row>
-    <row r="23" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="33">
         <v>2.1</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
@@ -3420,7 +3936,7 @@
       <c r="AG23" s="39"/>
       <c r="AH23" s="45"/>
       <c r="AI23" s="45"/>
-      <c r="AJ23" s="45"/>
+      <c r="AJ23" s="139"/>
       <c r="AK23" s="45"/>
       <c r="AL23" s="45"/>
       <c r="AM23" s="45"/>
@@ -3464,16 +3980,16 @@
       <c r="BY23" s="38"/>
       <c r="BZ23" s="38"/>
     </row>
-    <row r="24" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="33">
         <v>2.2000000000000002</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
@@ -3511,7 +4027,7 @@
       <c r="AG24" s="39"/>
       <c r="AH24" s="38"/>
       <c r="AI24" s="38"/>
-      <c r="AJ24" s="45"/>
+      <c r="AJ24" s="139"/>
       <c r="AK24" s="45"/>
       <c r="AL24" s="45"/>
       <c r="AM24" s="45"/>
@@ -3555,16 +4071,16 @@
       <c r="BY24" s="38"/>
       <c r="BZ24" s="38"/>
     </row>
-    <row r="25" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="33">
         <v>2.2999999999999998</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
@@ -3602,7 +4118,7 @@
       <c r="AG25" s="39"/>
       <c r="AH25" s="38"/>
       <c r="AI25" s="38"/>
-      <c r="AJ25" s="45"/>
+      <c r="AJ25" s="139"/>
       <c r="AK25" s="45"/>
       <c r="AL25" s="45"/>
       <c r="AM25" s="45"/>
@@ -3646,16 +4162,16 @@
       <c r="BY25" s="38"/>
       <c r="BZ25" s="38"/>
     </row>
-    <row r="26" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="33" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
@@ -3692,7 +4208,7 @@
       <c r="AG26" s="39"/>
       <c r="AH26" s="38"/>
       <c r="AI26" s="38"/>
-      <c r="AJ26" s="45"/>
+      <c r="AJ26" s="139"/>
       <c r="AK26" s="45"/>
       <c r="AL26" s="45"/>
       <c r="AM26" s="45"/>
@@ -3736,16 +4252,16 @@
       <c r="BY26" s="38"/>
       <c r="BZ26" s="38"/>
     </row>
-    <row r="27" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="33">
         <v>2.4</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
@@ -3783,7 +4299,7 @@
       <c r="AG27" s="39"/>
       <c r="AH27" s="38"/>
       <c r="AI27" s="38"/>
-      <c r="AJ27" s="45"/>
+      <c r="AJ27" s="139"/>
       <c r="AK27" s="45"/>
       <c r="AL27" s="45"/>
       <c r="AM27" s="45"/>
@@ -3827,16 +4343,16 @@
       <c r="BY27" s="38"/>
       <c r="BZ27" s="38"/>
     </row>
-    <row r="28" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="33">
         <v>2.5</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
@@ -3874,7 +4390,7 @@
       <c r="AG28" s="39"/>
       <c r="AH28" s="38"/>
       <c r="AI28" s="38"/>
-      <c r="AJ28" s="45"/>
+      <c r="AJ28" s="139"/>
       <c r="AK28" s="45"/>
       <c r="AL28" s="45"/>
       <c r="AM28" s="45"/>
@@ -3918,16 +4434,16 @@
       <c r="BY28" s="38"/>
       <c r="BZ28" s="38"/>
     </row>
-    <row r="29" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="33">
         <v>2.6</v>
       </c>
       <c r="C29" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="34" t="s">
         <v>40</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>49</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
@@ -3964,7 +4480,7 @@
       <c r="AG29" s="39"/>
       <c r="AH29" s="38"/>
       <c r="AI29" s="38"/>
-      <c r="AJ29" s="45"/>
+      <c r="AJ29" s="139"/>
       <c r="AK29" s="45"/>
       <c r="AL29" s="45"/>
       <c r="AM29" s="45"/>
@@ -4008,16 +4524,16 @@
       <c r="BY29" s="38"/>
       <c r="BZ29" s="38"/>
     </row>
-    <row r="30" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
       <c r="B30" s="33">
         <v>2.7</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
@@ -4055,7 +4571,7 @@
       <c r="AG30" s="39"/>
       <c r="AH30" s="38"/>
       <c r="AI30" s="38"/>
-      <c r="AJ30" s="45"/>
+      <c r="AJ30" s="139"/>
       <c r="AK30" s="45"/>
       <c r="AL30" s="45"/>
       <c r="AM30" s="45"/>
@@ -4099,16 +4615,16 @@
       <c r="BY30" s="38"/>
       <c r="BZ30" s="38"/>
     </row>
-    <row r="31" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
       <c r="B31" s="33">
         <v>2.8</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
@@ -4146,7 +4662,7 @@
       <c r="AG31" s="39"/>
       <c r="AH31" s="38"/>
       <c r="AI31" s="38"/>
-      <c r="AJ31" s="45"/>
+      <c r="AJ31" s="139"/>
       <c r="AK31" s="45"/>
       <c r="AL31" s="45"/>
       <c r="AM31" s="45"/>
@@ -4190,16 +4706,16 @@
       <c r="BY31" s="38"/>
       <c r="BZ31" s="38"/>
     </row>
-    <row r="32" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
       <c r="B32" s="33">
         <v>2.9</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
@@ -4236,7 +4752,7 @@
       <c r="AG32" s="39"/>
       <c r="AH32" s="38"/>
       <c r="AI32" s="38"/>
-      <c r="AJ32" s="45"/>
+      <c r="AJ32" s="139"/>
       <c r="AK32" s="45"/>
       <c r="AL32" s="45"/>
       <c r="AM32" s="45"/>
@@ -4280,16 +4796,16 @@
       <c r="BY32" s="38"/>
       <c r="BZ32" s="38"/>
     </row>
-    <row r="33" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
       <c r="B33" s="46">
         <v>2.1</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
@@ -4326,7 +4842,7 @@
       <c r="AG33" s="39"/>
       <c r="AH33" s="38"/>
       <c r="AI33" s="38"/>
-      <c r="AJ33" s="45"/>
+      <c r="AJ33" s="139"/>
       <c r="AK33" s="45"/>
       <c r="AL33" s="45"/>
       <c r="AM33" s="45"/>
@@ -4370,7 +4886,7 @@
       <c r="BY33" s="38"/>
       <c r="BZ33" s="38"/>
     </row>
-    <row r="34" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
       <c r="B34" s="46">
         <v>2.11</v>
@@ -4408,7 +4924,7 @@
       <c r="AG34" s="39"/>
       <c r="AH34" s="38"/>
       <c r="AI34" s="38"/>
-      <c r="AJ34" s="38"/>
+      <c r="AJ34" s="139"/>
       <c r="AK34" s="38"/>
       <c r="AL34" s="38"/>
       <c r="AM34" s="38"/>
@@ -4452,13 +4968,13 @@
       <c r="BY34" s="38"/>
       <c r="BZ34" s="38"/>
     </row>
-    <row r="35" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="26">
         <v>3</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
@@ -4492,7 +5008,7 @@
       <c r="AG35" s="29"/>
       <c r="AH35" s="29"/>
       <c r="AI35" s="29"/>
-      <c r="AJ35" s="29"/>
+      <c r="AJ35" s="164"/>
       <c r="AK35" s="29"/>
       <c r="AL35" s="29"/>
       <c r="AM35" s="29"/>
@@ -4536,509 +5052,457 @@
       <c r="BY35" s="29"/>
       <c r="BZ35" s="29"/>
     </row>
-    <row r="36" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="32"/>
-      <c r="B36" s="33">
-        <v>3.1</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36">
-        <f>DAYS360(E36,F36)</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="37">
-        <v>1</v>
-      </c>
-      <c r="I36" s="42"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="38"/>
-      <c r="AB36" s="38"/>
-      <c r="AC36" s="39"/>
-      <c r="AD36" s="39"/>
-      <c r="AE36" s="39"/>
-      <c r="AF36" s="39"/>
-      <c r="AG36" s="39"/>
-      <c r="AH36" s="38"/>
-      <c r="AI36" s="38"/>
-      <c r="AJ36" s="38"/>
-      <c r="AK36" s="38"/>
-      <c r="AL36" s="38"/>
-      <c r="AM36" s="38"/>
-      <c r="AN36" s="38"/>
-      <c r="AO36" s="38"/>
-      <c r="AP36" s="38"/>
-      <c r="AQ36" s="38"/>
-      <c r="AR36" s="40"/>
-      <c r="AS36" s="40"/>
-      <c r="AT36" s="40"/>
-      <c r="AU36" s="40"/>
-      <c r="AV36" s="40"/>
-      <c r="AW36" s="38"/>
-      <c r="AX36" s="38"/>
-      <c r="AY36" s="38"/>
-      <c r="AZ36" s="38"/>
-      <c r="BA36" s="38"/>
-      <c r="BB36" s="38"/>
-      <c r="BC36" s="38"/>
-      <c r="BD36" s="38"/>
-      <c r="BE36" s="38"/>
-      <c r="BF36" s="38"/>
-      <c r="BG36" s="41"/>
-      <c r="BH36" s="41"/>
-      <c r="BI36" s="41"/>
-      <c r="BJ36" s="41"/>
-      <c r="BK36" s="41"/>
-      <c r="BL36" s="38"/>
-      <c r="BM36" s="38"/>
-      <c r="BN36" s="38"/>
-      <c r="BO36" s="38"/>
-      <c r="BP36" s="38"/>
-      <c r="BQ36" s="38"/>
-      <c r="BR36" s="38"/>
-      <c r="BS36" s="38"/>
-      <c r="BT36" s="38"/>
-      <c r="BU36" s="38"/>
-      <c r="BV36" s="38"/>
-      <c r="BW36" s="38"/>
-      <c r="BX36" s="38"/>
-      <c r="BY36" s="38"/>
-      <c r="BZ36" s="38"/>
+    <row r="36" spans="1:78" s="97" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="100"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="102" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="104"/>
+      <c r="N36" s="104"/>
+      <c r="O36" s="104"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="104"/>
+      <c r="R36" s="104"/>
+      <c r="S36" s="104"/>
+      <c r="T36" s="104"/>
+      <c r="U36" s="104"/>
+      <c r="V36" s="104"/>
+      <c r="W36" s="104"/>
+      <c r="X36" s="104"/>
+      <c r="Y36" s="104"/>
+      <c r="Z36" s="104"/>
+      <c r="AA36" s="104"/>
+      <c r="AB36" s="104"/>
+      <c r="AC36" s="104"/>
+      <c r="AD36" s="104"/>
+      <c r="AE36" s="104"/>
+      <c r="AF36" s="104"/>
+      <c r="AG36" s="104"/>
+      <c r="AH36" s="104"/>
+      <c r="AI36" s="104"/>
+      <c r="AJ36" s="165"/>
+      <c r="AK36" s="104"/>
+      <c r="AL36" s="104"/>
+      <c r="AM36" s="104"/>
+      <c r="AN36" s="104"/>
+      <c r="AO36" s="104"/>
+      <c r="AP36" s="104"/>
+      <c r="AQ36" s="104"/>
+      <c r="AR36" s="104"/>
+      <c r="AS36" s="104"/>
+      <c r="AT36" s="104"/>
+      <c r="AU36" s="104"/>
+      <c r="AV36" s="104"/>
+      <c r="AW36" s="104"/>
+      <c r="AX36" s="104"/>
+      <c r="AY36" s="104"/>
+      <c r="AZ36" s="104"/>
+      <c r="BA36" s="104"/>
+      <c r="BB36" s="104"/>
+      <c r="BC36" s="104"/>
+      <c r="BD36" s="104"/>
+      <c r="BE36" s="104"/>
+      <c r="BF36" s="104"/>
+      <c r="BG36" s="104"/>
+      <c r="BH36" s="104"/>
+      <c r="BI36" s="104"/>
+      <c r="BJ36" s="104"/>
+      <c r="BK36" s="104"/>
+      <c r="BL36" s="104"/>
+      <c r="BM36" s="104"/>
+      <c r="BN36" s="104"/>
+      <c r="BO36" s="104"/>
+      <c r="BP36" s="104"/>
+      <c r="BQ36" s="104"/>
+      <c r="BR36" s="104"/>
+      <c r="BS36" s="104"/>
+      <c r="BT36" s="104"/>
+      <c r="BU36" s="104"/>
+      <c r="BV36" s="104"/>
+      <c r="BW36" s="104"/>
+      <c r="BX36" s="104"/>
+      <c r="BY36" s="104"/>
+      <c r="BZ36" s="104"/>
     </row>
-    <row r="37" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="32"/>
-      <c r="B37" s="33">
-        <v>3.2</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="36">
-        <v>0</v>
-      </c>
-      <c r="H37" s="37">
-        <v>1</v>
-      </c>
-      <c r="I37" s="42"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="38"/>
-      <c r="AB37" s="38"/>
-      <c r="AC37" s="39"/>
-      <c r="AD37" s="39"/>
-      <c r="AE37" s="39"/>
-      <c r="AF37" s="39"/>
-      <c r="AG37" s="39"/>
-      <c r="AH37" s="38"/>
-      <c r="AI37" s="38"/>
-      <c r="AJ37" s="38"/>
-      <c r="AK37" s="38"/>
-      <c r="AL37" s="38"/>
-      <c r="AM37" s="38"/>
-      <c r="AN37" s="38"/>
-      <c r="AO37" s="38"/>
-      <c r="AP37" s="38"/>
-      <c r="AQ37" s="38"/>
-      <c r="AR37" s="40"/>
-      <c r="AS37" s="40"/>
-      <c r="AT37" s="40"/>
-      <c r="AU37" s="40"/>
-      <c r="AV37" s="40"/>
-      <c r="AW37" s="38"/>
-      <c r="AX37" s="38"/>
-      <c r="AY37" s="38"/>
-      <c r="AZ37" s="38"/>
-      <c r="BA37" s="38"/>
-      <c r="BB37" s="38"/>
-      <c r="BC37" s="38"/>
-      <c r="BD37" s="38"/>
-      <c r="BE37" s="38"/>
-      <c r="BF37" s="38"/>
-      <c r="BG37" s="41"/>
-      <c r="BH37" s="41"/>
-      <c r="BI37" s="41"/>
-      <c r="BJ37" s="41"/>
-      <c r="BK37" s="41"/>
-      <c r="BL37" s="38"/>
-      <c r="BM37" s="38"/>
-      <c r="BN37" s="38"/>
-      <c r="BO37" s="38"/>
-      <c r="BP37" s="38"/>
-      <c r="BQ37" s="38"/>
-      <c r="BR37" s="38"/>
-      <c r="BS37" s="38"/>
-      <c r="BT37" s="38"/>
-      <c r="BU37" s="38"/>
-      <c r="BV37" s="38"/>
-      <c r="BW37" s="38"/>
-      <c r="BX37" s="38"/>
-      <c r="BY37" s="38"/>
-      <c r="BZ37" s="38"/>
+    <row r="37" spans="1:78" s="114" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="107"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="154" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="112"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="111"/>
+      <c r="P37" s="111"/>
+      <c r="Q37" s="111"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="111"/>
+      <c r="T37" s="111"/>
+      <c r="U37" s="111"/>
+      <c r="V37" s="111"/>
+      <c r="W37" s="111"/>
+      <c r="X37" s="111"/>
+      <c r="Y37" s="111"/>
+      <c r="Z37" s="111"/>
+      <c r="AA37" s="111"/>
+      <c r="AB37" s="111"/>
+      <c r="AC37" s="111"/>
+      <c r="AD37" s="111"/>
+      <c r="AE37" s="111"/>
+      <c r="AF37" s="111"/>
+      <c r="AG37" s="111"/>
+      <c r="AH37" s="111"/>
+      <c r="AI37" s="111"/>
+      <c r="AJ37" s="155"/>
+      <c r="AK37" s="155"/>
+      <c r="AL37" s="156"/>
+      <c r="AM37" s="111"/>
+      <c r="AN37" s="111"/>
+      <c r="AO37" s="111"/>
+      <c r="AP37" s="111"/>
+      <c r="AQ37" s="111"/>
+      <c r="AR37" s="111"/>
+      <c r="AS37" s="111"/>
+      <c r="AT37" s="111"/>
+      <c r="AU37" s="111"/>
+      <c r="AV37" s="111"/>
+      <c r="AW37" s="111"/>
+      <c r="AX37" s="111"/>
+      <c r="AY37" s="111"/>
+      <c r="AZ37" s="111"/>
+      <c r="BA37" s="111"/>
+      <c r="BB37" s="111"/>
+      <c r="BC37" s="111"/>
+      <c r="BD37" s="111"/>
+      <c r="BE37" s="111"/>
+      <c r="BF37" s="111"/>
+      <c r="BG37" s="111"/>
+      <c r="BH37" s="111"/>
+      <c r="BI37" s="111"/>
+      <c r="BJ37" s="111"/>
+      <c r="BK37" s="111"/>
+      <c r="BL37" s="111"/>
+      <c r="BM37" s="111"/>
+      <c r="BN37" s="111"/>
+      <c r="BO37" s="111"/>
+      <c r="BP37" s="111"/>
+      <c r="BQ37" s="111"/>
+      <c r="BR37" s="111"/>
+      <c r="BS37" s="111"/>
+      <c r="BT37" s="111"/>
+      <c r="BU37" s="111"/>
+      <c r="BV37" s="111"/>
+      <c r="BW37" s="111"/>
+      <c r="BX37" s="111"/>
+      <c r="BY37" s="111"/>
+      <c r="BZ37" s="111"/>
     </row>
-    <row r="38" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="32"/>
-      <c r="B38" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36">
-        <f t="shared" ref="G38:G39" si="4">DAYS360(E38,F38)</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="52">
-        <v>0.4</v>
-      </c>
-      <c r="I38" s="42"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="38"/>
-      <c r="Z38" s="38"/>
-      <c r="AA38" s="38"/>
-      <c r="AB38" s="38"/>
-      <c r="AC38" s="39"/>
-      <c r="AD38" s="39"/>
-      <c r="AE38" s="39"/>
-      <c r="AF38" s="39"/>
-      <c r="AG38" s="39"/>
-      <c r="AH38" s="38"/>
-      <c r="AI38" s="38"/>
-      <c r="AJ38" s="38"/>
-      <c r="AK38" s="38"/>
-      <c r="AL38" s="38"/>
-      <c r="AM38" s="38"/>
-      <c r="AN38" s="38"/>
-      <c r="AO38" s="38"/>
-      <c r="AP38" s="38"/>
-      <c r="AQ38" s="38"/>
-      <c r="AR38" s="40"/>
-      <c r="AS38" s="40"/>
-      <c r="AT38" s="40"/>
-      <c r="AU38" s="40"/>
-      <c r="AV38" s="40"/>
-      <c r="AW38" s="38"/>
-      <c r="AX38" s="38"/>
-      <c r="AY38" s="38"/>
-      <c r="AZ38" s="38"/>
-      <c r="BA38" s="38"/>
-      <c r="BB38" s="38"/>
-      <c r="BC38" s="38"/>
-      <c r="BD38" s="38"/>
-      <c r="BE38" s="38"/>
-      <c r="BF38" s="38"/>
-      <c r="BG38" s="41"/>
-      <c r="BH38" s="41"/>
-      <c r="BI38" s="41"/>
-      <c r="BJ38" s="41"/>
-      <c r="BK38" s="41"/>
-      <c r="BL38" s="38"/>
-      <c r="BM38" s="38"/>
-      <c r="BN38" s="38"/>
-      <c r="BO38" s="38"/>
-      <c r="BP38" s="38"/>
-      <c r="BQ38" s="38"/>
-      <c r="BR38" s="38"/>
-      <c r="BS38" s="38"/>
-      <c r="BT38" s="38"/>
-      <c r="BU38" s="38"/>
-      <c r="BV38" s="38"/>
-      <c r="BW38" s="38"/>
-      <c r="BX38" s="38"/>
-      <c r="BY38" s="38"/>
-      <c r="BZ38" s="38"/>
+    <row r="38" spans="1:78" s="114" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="107"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="154" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="112"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="113"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="111"/>
+      <c r="P38" s="111"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="111"/>
+      <c r="U38" s="111"/>
+      <c r="V38" s="111"/>
+      <c r="W38" s="111"/>
+      <c r="X38" s="111"/>
+      <c r="Y38" s="111"/>
+      <c r="Z38" s="111"/>
+      <c r="AA38" s="111"/>
+      <c r="AB38" s="111"/>
+      <c r="AC38" s="111"/>
+      <c r="AD38" s="111"/>
+      <c r="AE38" s="111"/>
+      <c r="AF38" s="111"/>
+      <c r="AG38" s="111"/>
+      <c r="AH38" s="111"/>
+      <c r="AI38" s="111"/>
+      <c r="AJ38" s="155"/>
+      <c r="AK38" s="155"/>
+      <c r="AL38" s="156"/>
+      <c r="AM38" s="111"/>
+      <c r="AN38" s="111"/>
+      <c r="AO38" s="111"/>
+      <c r="AP38" s="111"/>
+      <c r="AQ38" s="111"/>
+      <c r="AR38" s="111"/>
+      <c r="AS38" s="111"/>
+      <c r="AT38" s="111"/>
+      <c r="AU38" s="111"/>
+      <c r="AV38" s="111"/>
+      <c r="AW38" s="111"/>
+      <c r="AX38" s="111"/>
+      <c r="AY38" s="111"/>
+      <c r="AZ38" s="111"/>
+      <c r="BA38" s="111"/>
+      <c r="BB38" s="111"/>
+      <c r="BC38" s="111"/>
+      <c r="BD38" s="111"/>
+      <c r="BE38" s="111"/>
+      <c r="BF38" s="111"/>
+      <c r="BG38" s="111"/>
+      <c r="BH38" s="111"/>
+      <c r="BI38" s="111"/>
+      <c r="BJ38" s="111"/>
+      <c r="BK38" s="111"/>
+      <c r="BL38" s="111"/>
+      <c r="BM38" s="111"/>
+      <c r="BN38" s="111"/>
+      <c r="BO38" s="111"/>
+      <c r="BP38" s="111"/>
+      <c r="BQ38" s="111"/>
+      <c r="BR38" s="111"/>
+      <c r="BS38" s="111"/>
+      <c r="BT38" s="111"/>
+      <c r="BU38" s="111"/>
+      <c r="BV38" s="111"/>
+      <c r="BW38" s="111"/>
+      <c r="BX38" s="111"/>
+      <c r="BY38" s="111"/>
+      <c r="BZ38" s="111"/>
     </row>
-    <row r="39" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="32"/>
-      <c r="B39" s="33">
-        <v>3.3</v>
-      </c>
-      <c r="C39" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="I39" s="42"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="38"/>
-      <c r="Z39" s="38"/>
-      <c r="AA39" s="38"/>
-      <c r="AB39" s="38"/>
-      <c r="AC39" s="39"/>
-      <c r="AD39" s="39"/>
-      <c r="AE39" s="39"/>
-      <c r="AF39" s="39"/>
-      <c r="AG39" s="39"/>
-      <c r="AH39" s="38"/>
-      <c r="AI39" s="38"/>
-      <c r="AJ39" s="38"/>
-      <c r="AK39" s="38"/>
-      <c r="AL39" s="38"/>
-      <c r="AM39" s="38"/>
-      <c r="AN39" s="38"/>
-      <c r="AO39" s="38"/>
-      <c r="AP39" s="38"/>
-      <c r="AQ39" s="38"/>
-      <c r="AR39" s="40"/>
-      <c r="AS39" s="40"/>
-      <c r="AT39" s="40"/>
-      <c r="AU39" s="40"/>
-      <c r="AV39" s="40"/>
-      <c r="AW39" s="38"/>
-      <c r="AX39" s="38"/>
-      <c r="AY39" s="38"/>
-      <c r="AZ39" s="38"/>
-      <c r="BA39" s="38"/>
-      <c r="BB39" s="38"/>
-      <c r="BC39" s="38"/>
-      <c r="BD39" s="38"/>
-      <c r="BE39" s="38"/>
-      <c r="BF39" s="38"/>
-      <c r="BG39" s="41"/>
-      <c r="BH39" s="41"/>
-      <c r="BI39" s="41"/>
-      <c r="BJ39" s="41"/>
-      <c r="BK39" s="41"/>
-      <c r="BL39" s="38"/>
-      <c r="BM39" s="38"/>
-      <c r="BN39" s="38"/>
-      <c r="BO39" s="38"/>
-      <c r="BP39" s="38"/>
-      <c r="BQ39" s="38"/>
-      <c r="BR39" s="38"/>
-      <c r="BS39" s="38"/>
-      <c r="BT39" s="38"/>
-      <c r="BU39" s="38"/>
-      <c r="BV39" s="38"/>
-      <c r="BW39" s="38"/>
-      <c r="BX39" s="38"/>
-      <c r="BY39" s="38"/>
-      <c r="BZ39" s="38"/>
+    <row r="39" spans="1:78" s="114" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="107"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="112"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="111"/>
+      <c r="P39" s="111"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="111"/>
+      <c r="U39" s="111"/>
+      <c r="V39" s="111"/>
+      <c r="W39" s="111"/>
+      <c r="X39" s="111"/>
+      <c r="Y39" s="111"/>
+      <c r="Z39" s="111"/>
+      <c r="AA39" s="111"/>
+      <c r="AB39" s="111"/>
+      <c r="AC39" s="111"/>
+      <c r="AD39" s="111"/>
+      <c r="AE39" s="111"/>
+      <c r="AF39" s="111"/>
+      <c r="AG39" s="111"/>
+      <c r="AH39" s="111"/>
+      <c r="AI39" s="111"/>
+      <c r="AJ39" s="111"/>
+      <c r="AK39" s="111"/>
+      <c r="AL39" s="111"/>
+      <c r="AM39" s="111"/>
+      <c r="AN39" s="111"/>
+      <c r="AO39" s="111"/>
+      <c r="AP39" s="111"/>
+      <c r="AQ39" s="111"/>
+      <c r="AR39" s="111"/>
+      <c r="AS39" s="111"/>
+      <c r="AT39" s="111"/>
+      <c r="AU39" s="111"/>
+      <c r="AV39" s="111"/>
+      <c r="AW39" s="111"/>
+      <c r="AX39" s="111"/>
+      <c r="AY39" s="111"/>
+      <c r="AZ39" s="111"/>
+      <c r="BA39" s="111"/>
+      <c r="BB39" s="111"/>
+      <c r="BC39" s="111"/>
+      <c r="BD39" s="111"/>
+      <c r="BE39" s="111"/>
+      <c r="BF39" s="111"/>
+      <c r="BG39" s="111"/>
+      <c r="BH39" s="111"/>
+      <c r="BI39" s="111"/>
+      <c r="BJ39" s="111"/>
+      <c r="BK39" s="111"/>
+      <c r="BL39" s="111"/>
+      <c r="BM39" s="111"/>
+      <c r="BN39" s="111"/>
+      <c r="BO39" s="111"/>
+      <c r="BP39" s="111"/>
+      <c r="BQ39" s="111"/>
+      <c r="BR39" s="111"/>
+      <c r="BS39" s="111"/>
+      <c r="BT39" s="111"/>
+      <c r="BU39" s="111"/>
+      <c r="BV39" s="111"/>
+      <c r="BW39" s="111"/>
+      <c r="BX39" s="111"/>
+      <c r="BY39" s="111"/>
+      <c r="BZ39" s="111"/>
     </row>
-    <row r="40" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="32"/>
-      <c r="B40" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36">
-        <f t="shared" ref="G40" si="5">DAYS360(E40,F40)</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="I40" s="42"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="44"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
-      <c r="AA40" s="38"/>
-      <c r="AB40" s="38"/>
-      <c r="AC40" s="39"/>
-      <c r="AD40" s="39"/>
-      <c r="AE40" s="39"/>
-      <c r="AF40" s="39"/>
-      <c r="AG40" s="39"/>
-      <c r="AH40" s="38"/>
-      <c r="AI40" s="38"/>
-      <c r="AJ40" s="38"/>
-      <c r="AK40" s="38"/>
-      <c r="AL40" s="38"/>
-      <c r="AM40" s="38"/>
-      <c r="AN40" s="38"/>
-      <c r="AO40" s="38"/>
-      <c r="AP40" s="38"/>
-      <c r="AQ40" s="38"/>
-      <c r="AR40" s="40"/>
-      <c r="AS40" s="40"/>
-      <c r="AT40" s="40"/>
-      <c r="AU40" s="40"/>
-      <c r="AV40" s="40"/>
-      <c r="AW40" s="38"/>
-      <c r="AX40" s="38"/>
-      <c r="AY40" s="38"/>
-      <c r="AZ40" s="38"/>
-      <c r="BA40" s="38"/>
-      <c r="BB40" s="38"/>
-      <c r="BC40" s="38"/>
-      <c r="BD40" s="38"/>
-      <c r="BE40" s="38"/>
-      <c r="BF40" s="38"/>
-      <c r="BG40" s="41"/>
-      <c r="BH40" s="41"/>
-      <c r="BI40" s="41"/>
-      <c r="BJ40" s="41"/>
-      <c r="BK40" s="41"/>
-      <c r="BL40" s="38"/>
-      <c r="BM40" s="38"/>
-      <c r="BN40" s="38"/>
-      <c r="BO40" s="38"/>
-      <c r="BP40" s="38"/>
-      <c r="BQ40" s="38"/>
-      <c r="BR40" s="38"/>
-      <c r="BS40" s="38"/>
-      <c r="BT40" s="38"/>
-      <c r="BU40" s="38"/>
-      <c r="BV40" s="38"/>
-      <c r="BW40" s="38"/>
-      <c r="BX40" s="38"/>
-      <c r="BY40" s="38"/>
-      <c r="BZ40" s="38"/>
+    <row r="40" spans="1:78" s="97" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="94"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="96"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="90"/>
+      <c r="P40" s="90"/>
+      <c r="Q40" s="90"/>
+      <c r="R40" s="90"/>
+      <c r="S40" s="89"/>
+      <c r="T40" s="89"/>
+      <c r="U40" s="89"/>
+      <c r="V40" s="89"/>
+      <c r="W40" s="89"/>
+      <c r="X40" s="89"/>
+      <c r="Y40" s="89"/>
+      <c r="Z40" s="89"/>
+      <c r="AA40" s="89"/>
+      <c r="AB40" s="89"/>
+      <c r="AC40" s="91"/>
+      <c r="AD40" s="91"/>
+      <c r="AE40" s="91"/>
+      <c r="AF40" s="91"/>
+      <c r="AG40" s="91"/>
+      <c r="AH40" s="89"/>
+      <c r="AI40" s="89"/>
+      <c r="AJ40" s="89"/>
+      <c r="AK40" s="89"/>
+      <c r="AL40" s="89"/>
+      <c r="AM40" s="89"/>
+      <c r="AN40" s="89"/>
+      <c r="AO40" s="89"/>
+      <c r="AP40" s="89"/>
+      <c r="AQ40" s="89"/>
+      <c r="AR40" s="92"/>
+      <c r="AS40" s="92"/>
+      <c r="AT40" s="92"/>
+      <c r="AU40" s="92"/>
+      <c r="AV40" s="92"/>
+      <c r="AW40" s="89"/>
+      <c r="AX40" s="89"/>
+      <c r="AY40" s="89"/>
+      <c r="AZ40" s="89"/>
+      <c r="BA40" s="89"/>
+      <c r="BB40" s="89"/>
+      <c r="BC40" s="89"/>
+      <c r="BD40" s="89"/>
+      <c r="BE40" s="89"/>
+      <c r="BF40" s="89"/>
+      <c r="BG40" s="93"/>
+      <c r="BH40" s="93"/>
+      <c r="BI40" s="93"/>
+      <c r="BJ40" s="93"/>
+      <c r="BK40" s="93"/>
+      <c r="BL40" s="89"/>
+      <c r="BM40" s="89"/>
+      <c r="BN40" s="89"/>
+      <c r="BO40" s="89"/>
+      <c r="BP40" s="89"/>
+      <c r="BQ40" s="89"/>
+      <c r="BR40" s="89"/>
+      <c r="BS40" s="89"/>
+      <c r="BT40" s="89"/>
+      <c r="BU40" s="89"/>
+      <c r="BV40" s="89"/>
+      <c r="BW40" s="89"/>
+      <c r="BX40" s="89"/>
+      <c r="BY40" s="89"/>
+      <c r="BZ40" s="89"/>
     </row>
-    <row r="41" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
-      <c r="B41" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>48</v>
-      </c>
+      <c r="B41" s="53"/>
+      <c r="C41" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="54"/>
       <c r="E41" s="35"/>
       <c r="F41" s="35"/>
       <c r="G41" s="36"/>
-      <c r="H41" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="I41" s="42"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="38"/>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="38"/>
-      <c r="Z41" s="38"/>
-      <c r="AA41" s="38"/>
-      <c r="AB41" s="38"/>
-      <c r="AC41" s="39"/>
-      <c r="AD41" s="39"/>
-      <c r="AE41" s="39"/>
-      <c r="AF41" s="39"/>
-      <c r="AG41" s="39"/>
-      <c r="AH41" s="38"/>
-      <c r="AI41" s="38"/>
-      <c r="AJ41" s="38"/>
-      <c r="AK41" s="38"/>
-      <c r="AL41" s="38"/>
-      <c r="AM41" s="38"/>
-      <c r="AN41" s="38"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="166"/>
+      <c r="J41" s="166"/>
+      <c r="K41" s="166"/>
+      <c r="L41" s="166"/>
+      <c r="M41" s="166"/>
+      <c r="N41" s="166"/>
+      <c r="O41" s="166"/>
+      <c r="P41" s="166"/>
+      <c r="Q41" s="166"/>
+      <c r="R41" s="166"/>
+      <c r="S41" s="166"/>
+      <c r="T41" s="166"/>
+      <c r="U41" s="166"/>
+      <c r="V41" s="166"/>
+      <c r="W41" s="166"/>
+      <c r="X41" s="166"/>
+      <c r="Y41" s="166"/>
+      <c r="Z41" s="166"/>
+      <c r="AA41" s="166"/>
+      <c r="AB41" s="166"/>
+      <c r="AC41" s="166"/>
+      <c r="AD41" s="166"/>
+      <c r="AE41" s="166"/>
+      <c r="AF41" s="166"/>
+      <c r="AG41" s="166"/>
+      <c r="AH41" s="139"/>
+      <c r="AI41" s="139"/>
+      <c r="AJ41" s="158"/>
+      <c r="AK41" s="158"/>
+      <c r="AL41" s="158"/>
+      <c r="AM41" s="58"/>
+      <c r="AN41" s="139"/>
       <c r="AO41" s="38"/>
       <c r="AP41" s="38"/>
       <c r="AQ41" s="38"/>
@@ -5078,55 +5542,49 @@
       <c r="BY41" s="38"/>
       <c r="BZ41" s="38"/>
     </row>
-    <row r="42" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
-      <c r="B42" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>53</v>
-      </c>
+      <c r="B42" s="53"/>
+      <c r="C42" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="54"/>
       <c r="E42" s="35"/>
       <c r="F42" s="35"/>
       <c r="G42" s="36"/>
-      <c r="H42" s="37">
-        <v>0.2</v>
-      </c>
-      <c r="I42" s="42"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="38"/>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="38"/>
-      <c r="Z42" s="38"/>
-      <c r="AA42" s="38"/>
-      <c r="AB42" s="38"/>
-      <c r="AC42" s="39"/>
-      <c r="AD42" s="39"/>
-      <c r="AE42" s="39"/>
-      <c r="AF42" s="39"/>
-      <c r="AG42" s="39"/>
-      <c r="AH42" s="38"/>
-      <c r="AI42" s="38"/>
-      <c r="AJ42" s="38"/>
-      <c r="AK42" s="38"/>
-      <c r="AL42" s="38"/>
-      <c r="AM42" s="38"/>
-      <c r="AN42" s="38"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="166"/>
+      <c r="J42" s="166"/>
+      <c r="K42" s="166"/>
+      <c r="L42" s="166"/>
+      <c r="M42" s="166"/>
+      <c r="N42" s="166"/>
+      <c r="O42" s="166"/>
+      <c r="P42" s="166"/>
+      <c r="Q42" s="166"/>
+      <c r="R42" s="166"/>
+      <c r="S42" s="166"/>
+      <c r="T42" s="166"/>
+      <c r="U42" s="166"/>
+      <c r="V42" s="166"/>
+      <c r="W42" s="166"/>
+      <c r="X42" s="166"/>
+      <c r="Y42" s="166"/>
+      <c r="Z42" s="166"/>
+      <c r="AA42" s="166"/>
+      <c r="AB42" s="166"/>
+      <c r="AC42" s="166"/>
+      <c r="AD42" s="166"/>
+      <c r="AE42" s="166"/>
+      <c r="AF42" s="166"/>
+      <c r="AG42" s="166"/>
+      <c r="AH42" s="139"/>
+      <c r="AI42" s="139"/>
+      <c r="AJ42" s="158"/>
+      <c r="AK42" s="158"/>
+      <c r="AL42" s="158"/>
+      <c r="AM42" s="58"/>
+      <c r="AN42" s="139"/>
       <c r="AO42" s="38"/>
       <c r="AP42" s="38"/>
       <c r="AQ42" s="38"/>
@@ -5166,55 +5624,49 @@
       <c r="BY42" s="38"/>
       <c r="BZ42" s="38"/>
     </row>
-    <row r="43" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="32"/>
-      <c r="B43" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>72</v>
-      </c>
+      <c r="B43" s="53"/>
+      <c r="C43" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="54"/>
       <c r="E43" s="35"/>
       <c r="F43" s="35"/>
       <c r="G43" s="36"/>
-      <c r="H43" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
-      <c r="X43" s="38"/>
-      <c r="Y43" s="38"/>
-      <c r="Z43" s="38"/>
-      <c r="AA43" s="38"/>
-      <c r="AB43" s="38"/>
-      <c r="AC43" s="39"/>
-      <c r="AD43" s="39"/>
-      <c r="AE43" s="39"/>
-      <c r="AF43" s="39"/>
-      <c r="AG43" s="39"/>
-      <c r="AH43" s="38"/>
-      <c r="AI43" s="38"/>
-      <c r="AJ43" s="38"/>
-      <c r="AK43" s="38"/>
-      <c r="AL43" s="38"/>
-      <c r="AM43" s="38"/>
-      <c r="AN43" s="38"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="166"/>
+      <c r="K43" s="166"/>
+      <c r="L43" s="166"/>
+      <c r="M43" s="166"/>
+      <c r="N43" s="166"/>
+      <c r="O43" s="166"/>
+      <c r="P43" s="166"/>
+      <c r="Q43" s="166"/>
+      <c r="R43" s="166"/>
+      <c r="S43" s="166"/>
+      <c r="T43" s="166"/>
+      <c r="U43" s="166"/>
+      <c r="V43" s="166"/>
+      <c r="W43" s="166"/>
+      <c r="X43" s="166"/>
+      <c r="Y43" s="166"/>
+      <c r="Z43" s="166"/>
+      <c r="AA43" s="166"/>
+      <c r="AB43" s="166"/>
+      <c r="AC43" s="166"/>
+      <c r="AD43" s="166"/>
+      <c r="AE43" s="166"/>
+      <c r="AF43" s="166"/>
+      <c r="AG43" s="166"/>
+      <c r="AH43" s="139"/>
+      <c r="AI43" s="139"/>
+      <c r="AJ43" s="158"/>
+      <c r="AK43" s="158"/>
+      <c r="AL43" s="158"/>
+      <c r="AM43" s="58"/>
+      <c r="AN43" s="168"/>
       <c r="AO43" s="38"/>
       <c r="AP43" s="38"/>
       <c r="AQ43" s="38"/>
@@ -5254,55 +5706,49 @@
       <c r="BY43" s="38"/>
       <c r="BZ43" s="38"/>
     </row>
-    <row r="44" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
-      <c r="B44" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>52</v>
-      </c>
+      <c r="B44" s="53"/>
+      <c r="C44" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="54"/>
       <c r="E44" s="35"/>
       <c r="F44" s="35"/>
       <c r="G44" s="36"/>
-      <c r="H44" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="I44" s="42"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="38"/>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="38"/>
-      <c r="Z44" s="38"/>
-      <c r="AA44" s="38"/>
-      <c r="AB44" s="38"/>
-      <c r="AC44" s="39"/>
-      <c r="AD44" s="39"/>
-      <c r="AE44" s="39"/>
-      <c r="AF44" s="39"/>
-      <c r="AG44" s="39"/>
-      <c r="AH44" s="38"/>
-      <c r="AI44" s="38"/>
-      <c r="AJ44" s="38"/>
-      <c r="AK44" s="38"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="166"/>
+      <c r="J44" s="166"/>
+      <c r="K44" s="166"/>
+      <c r="L44" s="166"/>
+      <c r="M44" s="166"/>
+      <c r="N44" s="166"/>
+      <c r="O44" s="166"/>
+      <c r="P44" s="166"/>
+      <c r="Q44" s="166"/>
+      <c r="R44" s="166"/>
+      <c r="S44" s="166"/>
+      <c r="T44" s="166"/>
+      <c r="U44" s="166"/>
+      <c r="V44" s="166"/>
+      <c r="W44" s="166"/>
+      <c r="X44" s="166"/>
+      <c r="Y44" s="166"/>
+      <c r="Z44" s="166"/>
+      <c r="AA44" s="166"/>
+      <c r="AB44" s="166"/>
+      <c r="AC44" s="166"/>
+      <c r="AD44" s="166"/>
+      <c r="AE44" s="166"/>
+      <c r="AF44" s="166"/>
+      <c r="AG44" s="166"/>
+      <c r="AH44" s="139"/>
+      <c r="AI44" s="139"/>
+      <c r="AJ44" s="139"/>
+      <c r="AK44" s="139"/>
       <c r="AL44" s="38"/>
       <c r="AM44" s="38"/>
-      <c r="AN44" s="38"/>
+      <c r="AN44" s="167"/>
       <c r="AO44" s="38"/>
       <c r="AP44" s="38"/>
       <c r="AQ44" s="38"/>
@@ -5342,52 +5788,46 @@
       <c r="BY44" s="38"/>
       <c r="BZ44" s="38"/>
     </row>
-    <row r="45" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="32"/>
-      <c r="B45" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>51</v>
-      </c>
+      <c r="B45" s="53"/>
+      <c r="C45" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="54"/>
       <c r="E45" s="35"/>
       <c r="F45" s="35"/>
       <c r="G45" s="36"/>
-      <c r="H45" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="I45" s="42"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="44"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="38"/>
-      <c r="W45" s="38"/>
-      <c r="X45" s="38"/>
-      <c r="Y45" s="38"/>
-      <c r="Z45" s="38"/>
-      <c r="AA45" s="38"/>
-      <c r="AB45" s="38"/>
-      <c r="AC45" s="39"/>
-      <c r="AD45" s="39"/>
-      <c r="AE45" s="39"/>
-      <c r="AF45" s="39"/>
-      <c r="AG45" s="39"/>
-      <c r="AH45" s="38"/>
-      <c r="AI45" s="38"/>
-      <c r="AJ45" s="38"/>
-      <c r="AK45" s="38"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="166"/>
+      <c r="J45" s="166"/>
+      <c r="K45" s="166"/>
+      <c r="L45" s="166"/>
+      <c r="M45" s="166"/>
+      <c r="N45" s="166"/>
+      <c r="O45" s="166"/>
+      <c r="P45" s="166"/>
+      <c r="Q45" s="166"/>
+      <c r="R45" s="166"/>
+      <c r="S45" s="166"/>
+      <c r="T45" s="166"/>
+      <c r="U45" s="166"/>
+      <c r="V45" s="166"/>
+      <c r="W45" s="166"/>
+      <c r="X45" s="166"/>
+      <c r="Y45" s="166"/>
+      <c r="Z45" s="166"/>
+      <c r="AA45" s="166"/>
+      <c r="AB45" s="166"/>
+      <c r="AC45" s="166"/>
+      <c r="AD45" s="166"/>
+      <c r="AE45" s="166"/>
+      <c r="AF45" s="166"/>
+      <c r="AG45" s="166"/>
+      <c r="AH45" s="139"/>
+      <c r="AI45" s="139"/>
+      <c r="AJ45" s="139"/>
+      <c r="AK45" s="139"/>
       <c r="AL45" s="38"/>
       <c r="AM45" s="38"/>
       <c r="AN45" s="38"/>
@@ -5430,50 +5870,46 @@
       <c r="BY45" s="38"/>
       <c r="BZ45" s="38"/>
     </row>
-    <row r="46" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="32"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>52</v>
-      </c>
+      <c r="B46" s="53"/>
+      <c r="C46" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="54"/>
       <c r="E46" s="35"/>
       <c r="F46" s="35"/>
       <c r="G46" s="36"/>
-      <c r="H46" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="I46" s="42"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="44"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="38"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="38"/>
-      <c r="V46" s="38"/>
-      <c r="W46" s="38"/>
-      <c r="X46" s="38"/>
-      <c r="Y46" s="38"/>
-      <c r="Z46" s="38"/>
-      <c r="AA46" s="38"/>
-      <c r="AB46" s="38"/>
-      <c r="AC46" s="39"/>
-      <c r="AD46" s="39"/>
-      <c r="AE46" s="39"/>
-      <c r="AF46" s="39"/>
-      <c r="AG46" s="39"/>
-      <c r="AH46" s="38"/>
-      <c r="AI46" s="38"/>
-      <c r="AJ46" s="38"/>
-      <c r="AK46" s="38"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="166"/>
+      <c r="J46" s="166"/>
+      <c r="K46" s="166"/>
+      <c r="L46" s="166"/>
+      <c r="M46" s="166"/>
+      <c r="N46" s="166"/>
+      <c r="O46" s="166"/>
+      <c r="P46" s="166"/>
+      <c r="Q46" s="166"/>
+      <c r="R46" s="166"/>
+      <c r="S46" s="166"/>
+      <c r="T46" s="166"/>
+      <c r="U46" s="166"/>
+      <c r="V46" s="166"/>
+      <c r="W46" s="166"/>
+      <c r="X46" s="166"/>
+      <c r="Y46" s="166"/>
+      <c r="Z46" s="166"/>
+      <c r="AA46" s="166"/>
+      <c r="AB46" s="166"/>
+      <c r="AC46" s="166"/>
+      <c r="AD46" s="166"/>
+      <c r="AE46" s="166"/>
+      <c r="AF46" s="166"/>
+      <c r="AG46" s="166"/>
+      <c r="AH46" s="139"/>
+      <c r="AI46" s="139"/>
+      <c r="AJ46" s="139"/>
+      <c r="AK46" s="139"/>
       <c r="AL46" s="38"/>
       <c r="AM46" s="38"/>
       <c r="AN46" s="38"/>
@@ -5516,50 +5952,46 @@
       <c r="BY46" s="38"/>
       <c r="BZ46" s="38"/>
     </row>
-    <row r="47" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="32"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>51</v>
-      </c>
+      <c r="B47" s="53"/>
+      <c r="C47" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="54"/>
       <c r="E47" s="35"/>
       <c r="F47" s="35"/>
       <c r="G47" s="36"/>
-      <c r="H47" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="I47" s="42"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="44"/>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="44"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="38"/>
-      <c r="X47" s="38"/>
-      <c r="Y47" s="38"/>
-      <c r="Z47" s="38"/>
-      <c r="AA47" s="38"/>
-      <c r="AB47" s="38"/>
-      <c r="AC47" s="39"/>
-      <c r="AD47" s="39"/>
-      <c r="AE47" s="39"/>
-      <c r="AF47" s="39"/>
-      <c r="AG47" s="39"/>
-      <c r="AH47" s="38"/>
-      <c r="AI47" s="38"/>
-      <c r="AJ47" s="38"/>
-      <c r="AK47" s="38"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="166"/>
+      <c r="J47" s="166"/>
+      <c r="K47" s="166"/>
+      <c r="L47" s="166"/>
+      <c r="M47" s="166"/>
+      <c r="N47" s="166"/>
+      <c r="O47" s="166"/>
+      <c r="P47" s="166"/>
+      <c r="Q47" s="166"/>
+      <c r="R47" s="166"/>
+      <c r="S47" s="166"/>
+      <c r="T47" s="166"/>
+      <c r="U47" s="166"/>
+      <c r="V47" s="166"/>
+      <c r="W47" s="166"/>
+      <c r="X47" s="166"/>
+      <c r="Y47" s="166"/>
+      <c r="Z47" s="166"/>
+      <c r="AA47" s="166"/>
+      <c r="AB47" s="166"/>
+      <c r="AC47" s="166"/>
+      <c r="AD47" s="166"/>
+      <c r="AE47" s="166"/>
+      <c r="AF47" s="166"/>
+      <c r="AG47" s="166"/>
+      <c r="AH47" s="139"/>
+      <c r="AI47" s="139"/>
+      <c r="AJ47" s="139"/>
+      <c r="AK47" s="139"/>
       <c r="AL47" s="38"/>
       <c r="AM47" s="38"/>
       <c r="AN47" s="38"/>
@@ -5602,13 +6034,13 @@
       <c r="BY47" s="38"/>
       <c r="BZ47" s="38"/>
     </row>
-    <row r="48" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="32"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="34"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="54"/>
       <c r="E48" s="35"/>
       <c r="F48" s="35"/>
       <c r="G48" s="36"/>
@@ -5640,7 +6072,7 @@
       <c r="AG48" s="39"/>
       <c r="AH48" s="38"/>
       <c r="AI48" s="38"/>
-      <c r="AJ48" s="38"/>
+      <c r="AJ48" s="139"/>
       <c r="AK48" s="38"/>
       <c r="AL48" s="38"/>
       <c r="AM48" s="38"/>
@@ -5684,46 +6116,46 @@
       <c r="BY48" s="38"/>
       <c r="BZ48" s="38"/>
     </row>
-    <row r="49" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="77"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="54"/>
       <c r="E49" s="35"/>
       <c r="F49" s="35"/>
       <c r="G49" s="36"/>
       <c r="H49" s="37"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="84"/>
-      <c r="O49" s="84"/>
-      <c r="P49" s="84"/>
-      <c r="Q49" s="84"/>
-      <c r="R49" s="84"/>
-      <c r="S49" s="84"/>
-      <c r="T49" s="84"/>
-      <c r="U49" s="84"/>
-      <c r="V49" s="84"/>
-      <c r="W49" s="84"/>
-      <c r="X49" s="84"/>
-      <c r="Y49" s="84"/>
-      <c r="Z49" s="84"/>
-      <c r="AA49" s="84"/>
-      <c r="AB49" s="84"/>
-      <c r="AC49" s="84"/>
-      <c r="AD49" s="84"/>
-      <c r="AE49" s="84"/>
-      <c r="AF49" s="84"/>
-      <c r="AG49" s="84"/>
-      <c r="AH49" s="83"/>
-      <c r="AI49" s="83"/>
-      <c r="AJ49" s="83"/>
-      <c r="AK49" s="83"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="38"/>
+      <c r="V49" s="38"/>
+      <c r="W49" s="38"/>
+      <c r="X49" s="38"/>
+      <c r="Y49" s="38"/>
+      <c r="Z49" s="38"/>
+      <c r="AA49" s="38"/>
+      <c r="AB49" s="38"/>
+      <c r="AC49" s="39"/>
+      <c r="AD49" s="39"/>
+      <c r="AE49" s="39"/>
+      <c r="AF49" s="39"/>
+      <c r="AG49" s="39"/>
+      <c r="AH49" s="38"/>
+      <c r="AI49" s="38"/>
+      <c r="AJ49" s="139"/>
+      <c r="AK49" s="38"/>
       <c r="AL49" s="38"/>
       <c r="AM49" s="38"/>
       <c r="AN49" s="38"/>
@@ -5766,46 +6198,46 @@
       <c r="BY49" s="38"/>
       <c r="BZ49" s="38"/>
     </row>
-    <row r="50" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="79" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="77"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="54"/>
       <c r="E50" s="35"/>
       <c r="F50" s="35"/>
       <c r="G50" s="36"/>
       <c r="H50" s="37"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="84"/>
-      <c r="R50" s="84"/>
-      <c r="S50" s="84"/>
-      <c r="T50" s="84"/>
-      <c r="U50" s="84"/>
-      <c r="V50" s="84"/>
-      <c r="W50" s="84"/>
-      <c r="X50" s="84"/>
-      <c r="Y50" s="84"/>
-      <c r="Z50" s="84"/>
-      <c r="AA50" s="84"/>
-      <c r="AB50" s="84"/>
-      <c r="AC50" s="84"/>
-      <c r="AD50" s="84"/>
-      <c r="AE50" s="84"/>
-      <c r="AF50" s="84"/>
-      <c r="AG50" s="84"/>
-      <c r="AH50" s="83"/>
-      <c r="AI50" s="83"/>
-      <c r="AJ50" s="83"/>
-      <c r="AK50" s="83"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="38"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="38"/>
+      <c r="Z50" s="38"/>
+      <c r="AA50" s="38"/>
+      <c r="AB50" s="38"/>
+      <c r="AC50" s="39"/>
+      <c r="AD50" s="39"/>
+      <c r="AE50" s="39"/>
+      <c r="AF50" s="39"/>
+      <c r="AG50" s="39"/>
+      <c r="AH50" s="38"/>
+      <c r="AI50" s="38"/>
+      <c r="AJ50" s="139"/>
+      <c r="AK50" s="38"/>
       <c r="AL50" s="38"/>
       <c r="AM50" s="38"/>
       <c r="AN50" s="38"/>
@@ -5848,46 +6280,46 @@
       <c r="BY50" s="38"/>
       <c r="BZ50" s="38"/>
     </row>
-    <row r="51" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51" s="77"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="54"/>
       <c r="E51" s="35"/>
       <c r="F51" s="35"/>
       <c r="G51" s="36"/>
       <c r="H51" s="37"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="84"/>
-      <c r="S51" s="84"/>
-      <c r="T51" s="84"/>
-      <c r="U51" s="84"/>
-      <c r="V51" s="84"/>
-      <c r="W51" s="84"/>
-      <c r="X51" s="84"/>
-      <c r="Y51" s="84"/>
-      <c r="Z51" s="84"/>
-      <c r="AA51" s="84"/>
-      <c r="AB51" s="84"/>
-      <c r="AC51" s="84"/>
-      <c r="AD51" s="84"/>
-      <c r="AE51" s="84"/>
-      <c r="AF51" s="84"/>
-      <c r="AG51" s="84"/>
-      <c r="AH51" s="83"/>
-      <c r="AI51" s="83"/>
-      <c r="AJ51" s="83"/>
-      <c r="AK51" s="83"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="38"/>
+      <c r="T51" s="38"/>
+      <c r="U51" s="38"/>
+      <c r="V51" s="38"/>
+      <c r="W51" s="38"/>
+      <c r="X51" s="38"/>
+      <c r="Y51" s="38"/>
+      <c r="Z51" s="38"/>
+      <c r="AA51" s="38"/>
+      <c r="AB51" s="38"/>
+      <c r="AC51" s="39"/>
+      <c r="AD51" s="39"/>
+      <c r="AE51" s="39"/>
+      <c r="AF51" s="39"/>
+      <c r="AG51" s="39"/>
+      <c r="AH51" s="38"/>
+      <c r="AI51" s="38"/>
+      <c r="AJ51" s="139"/>
+      <c r="AK51" s="38"/>
       <c r="AL51" s="38"/>
       <c r="AM51" s="38"/>
       <c r="AN51" s="38"/>
@@ -5930,46 +6362,46 @@
       <c r="BY51" s="38"/>
       <c r="BZ51" s="38"/>
     </row>
-    <row r="52" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="32"/>
-      <c r="B52" s="76"/>
-      <c r="C52" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="77"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="54"/>
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
       <c r="G52" s="36"/>
       <c r="H52" s="37"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
-      <c r="Q52" s="84"/>
-      <c r="R52" s="84"/>
-      <c r="S52" s="84"/>
-      <c r="T52" s="84"/>
-      <c r="U52" s="84"/>
-      <c r="V52" s="84"/>
-      <c r="W52" s="84"/>
-      <c r="X52" s="84"/>
-      <c r="Y52" s="84"/>
-      <c r="Z52" s="84"/>
-      <c r="AA52" s="84"/>
-      <c r="AB52" s="84"/>
-      <c r="AC52" s="84"/>
-      <c r="AD52" s="84"/>
-      <c r="AE52" s="84"/>
-      <c r="AF52" s="84"/>
-      <c r="AG52" s="84"/>
-      <c r="AH52" s="83"/>
-      <c r="AI52" s="83"/>
-      <c r="AJ52" s="83"/>
-      <c r="AK52" s="83"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="38"/>
+      <c r="U52" s="38"/>
+      <c r="V52" s="38"/>
+      <c r="W52" s="38"/>
+      <c r="X52" s="38"/>
+      <c r="Y52" s="38"/>
+      <c r="Z52" s="38"/>
+      <c r="AA52" s="38"/>
+      <c r="AB52" s="38"/>
+      <c r="AC52" s="39"/>
+      <c r="AD52" s="39"/>
+      <c r="AE52" s="39"/>
+      <c r="AF52" s="39"/>
+      <c r="AG52" s="39"/>
+      <c r="AH52" s="38"/>
+      <c r="AI52" s="38"/>
+      <c r="AJ52" s="139"/>
+      <c r="AK52" s="38"/>
       <c r="AL52" s="38"/>
       <c r="AM52" s="38"/>
       <c r="AN52" s="38"/>
@@ -6012,46 +6444,44 @@
       <c r="BY52" s="38"/>
       <c r="BZ52" s="38"/>
     </row>
-    <row r="53" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="77"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="54"/>
       <c r="E53" s="35"/>
       <c r="F53" s="35"/>
       <c r="G53" s="36"/>
       <c r="H53" s="37"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="84"/>
-      <c r="S53" s="84"/>
-      <c r="T53" s="84"/>
-      <c r="U53" s="84"/>
-      <c r="V53" s="84"/>
-      <c r="W53" s="84"/>
-      <c r="X53" s="84"/>
-      <c r="Y53" s="84"/>
-      <c r="Z53" s="84"/>
-      <c r="AA53" s="84"/>
-      <c r="AB53" s="84"/>
-      <c r="AC53" s="84"/>
-      <c r="AD53" s="84"/>
-      <c r="AE53" s="84"/>
-      <c r="AF53" s="84"/>
-      <c r="AG53" s="84"/>
-      <c r="AH53" s="83"/>
-      <c r="AI53" s="83"/>
-      <c r="AJ53" s="83"/>
-      <c r="AK53" s="83"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="44"/>
+      <c r="S53" s="38"/>
+      <c r="T53" s="38"/>
+      <c r="U53" s="38"/>
+      <c r="V53" s="38"/>
+      <c r="W53" s="38"/>
+      <c r="X53" s="38"/>
+      <c r="Y53" s="38"/>
+      <c r="Z53" s="38"/>
+      <c r="AA53" s="38"/>
+      <c r="AB53" s="38"/>
+      <c r="AC53" s="39"/>
+      <c r="AD53" s="39"/>
+      <c r="AE53" s="39"/>
+      <c r="AF53" s="39"/>
+      <c r="AG53" s="39"/>
+      <c r="AH53" s="38"/>
+      <c r="AI53" s="38"/>
+      <c r="AJ53" s="139"/>
+      <c r="AK53" s="38"/>
       <c r="AL53" s="38"/>
       <c r="AM53" s="38"/>
       <c r="AN53" s="38"/>
@@ -6094,130 +6524,130 @@
       <c r="BY53" s="38"/>
       <c r="BZ53" s="38"/>
     </row>
-    <row r="54" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="79" t="s">
-        <v>105</v>
-      </c>
-      <c r="D54" s="77"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="84"/>
-      <c r="T54" s="84"/>
-      <c r="U54" s="84"/>
-      <c r="V54" s="84"/>
-      <c r="W54" s="84"/>
-      <c r="X54" s="84"/>
-      <c r="Y54" s="84"/>
-      <c r="Z54" s="84"/>
-      <c r="AA54" s="84"/>
-      <c r="AB54" s="84"/>
-      <c r="AC54" s="84"/>
-      <c r="AD54" s="84"/>
-      <c r="AE54" s="84"/>
-      <c r="AF54" s="84"/>
-      <c r="AG54" s="84"/>
-      <c r="AH54" s="83"/>
-      <c r="AI54" s="83"/>
-      <c r="AJ54" s="83"/>
-      <c r="AK54" s="83"/>
-      <c r="AL54" s="38"/>
-      <c r="AM54" s="38"/>
-      <c r="AN54" s="38"/>
-      <c r="AO54" s="38"/>
-      <c r="AP54" s="38"/>
-      <c r="AQ54" s="38"/>
-      <c r="AR54" s="40"/>
-      <c r="AS54" s="40"/>
-      <c r="AT54" s="40"/>
-      <c r="AU54" s="40"/>
-      <c r="AV54" s="40"/>
-      <c r="AW54" s="38"/>
-      <c r="AX54" s="38"/>
-      <c r="AY54" s="38"/>
-      <c r="AZ54" s="38"/>
-      <c r="BA54" s="38"/>
-      <c r="BB54" s="38"/>
-      <c r="BC54" s="38"/>
-      <c r="BD54" s="38"/>
-      <c r="BE54" s="38"/>
-      <c r="BF54" s="38"/>
-      <c r="BG54" s="41"/>
-      <c r="BH54" s="41"/>
-      <c r="BI54" s="41"/>
-      <c r="BJ54" s="41"/>
-      <c r="BK54" s="41"/>
-      <c r="BL54" s="38"/>
-      <c r="BM54" s="38"/>
-      <c r="BN54" s="38"/>
-      <c r="BO54" s="38"/>
-      <c r="BP54" s="38"/>
-      <c r="BQ54" s="38"/>
-      <c r="BR54" s="38"/>
-      <c r="BS54" s="38"/>
-      <c r="BT54" s="38"/>
-      <c r="BU54" s="38"/>
-      <c r="BV54" s="38"/>
-      <c r="BW54" s="38"/>
-      <c r="BX54" s="38"/>
-      <c r="BY54" s="38"/>
-      <c r="BZ54" s="38"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="83"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="86"/>
+      <c r="I54" s="87"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="89"/>
+      <c r="L54" s="89"/>
+      <c r="M54" s="89"/>
+      <c r="N54" s="90"/>
+      <c r="O54" s="90"/>
+      <c r="P54" s="90"/>
+      <c r="Q54" s="90"/>
+      <c r="R54" s="90"/>
+      <c r="S54" s="89"/>
+      <c r="T54" s="89"/>
+      <c r="U54" s="89"/>
+      <c r="V54" s="89"/>
+      <c r="W54" s="89"/>
+      <c r="X54" s="89"/>
+      <c r="Y54" s="89"/>
+      <c r="Z54" s="89"/>
+      <c r="AA54" s="89"/>
+      <c r="AB54" s="89"/>
+      <c r="AC54" s="91"/>
+      <c r="AD54" s="91"/>
+      <c r="AE54" s="91"/>
+      <c r="AF54" s="91"/>
+      <c r="AG54" s="91"/>
+      <c r="AH54" s="89"/>
+      <c r="AI54" s="89"/>
+      <c r="AJ54" s="89"/>
+      <c r="AK54" s="89"/>
+      <c r="AL54" s="89"/>
+      <c r="AM54" s="89"/>
+      <c r="AN54" s="89"/>
+      <c r="AO54" s="89"/>
+      <c r="AP54" s="89"/>
+      <c r="AQ54" s="89"/>
+      <c r="AR54" s="92"/>
+      <c r="AS54" s="92"/>
+      <c r="AT54" s="92"/>
+      <c r="AU54" s="92"/>
+      <c r="AV54" s="92"/>
+      <c r="AW54" s="89"/>
+      <c r="AX54" s="89"/>
+      <c r="AY54" s="89"/>
+      <c r="AZ54" s="89"/>
+      <c r="BA54" s="89"/>
+      <c r="BB54" s="89"/>
+      <c r="BC54" s="89"/>
+      <c r="BD54" s="89"/>
+      <c r="BE54" s="89"/>
+      <c r="BF54" s="89"/>
+      <c r="BG54" s="93"/>
+      <c r="BH54" s="93"/>
+      <c r="BI54" s="93"/>
+      <c r="BJ54" s="93"/>
+      <c r="BK54" s="93"/>
+      <c r="BL54" s="89"/>
+      <c r="BM54" s="89"/>
+      <c r="BN54" s="89"/>
+      <c r="BO54" s="89"/>
+      <c r="BP54" s="89"/>
+      <c r="BQ54" s="89"/>
+      <c r="BR54" s="89"/>
+      <c r="BS54" s="89"/>
+      <c r="BT54" s="89"/>
+      <c r="BU54" s="89"/>
+      <c r="BV54" s="89"/>
+      <c r="BW54" s="89"/>
+      <c r="BX54" s="89"/>
+      <c r="BY54" s="89"/>
+      <c r="BZ54" s="89"/>
     </row>
-    <row r="55" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" s="77"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="54"/>
       <c r="E55" s="35"/>
       <c r="F55" s="35"/>
       <c r="G55" s="36"/>
       <c r="H55" s="37"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="84"/>
-      <c r="Q55" s="84"/>
-      <c r="R55" s="84"/>
-      <c r="S55" s="84"/>
-      <c r="T55" s="84"/>
-      <c r="U55" s="84"/>
-      <c r="V55" s="84"/>
-      <c r="W55" s="84"/>
-      <c r="X55" s="84"/>
-      <c r="Y55" s="84"/>
-      <c r="Z55" s="84"/>
-      <c r="AA55" s="84"/>
-      <c r="AB55" s="84"/>
-      <c r="AC55" s="84"/>
-      <c r="AD55" s="84"/>
-      <c r="AE55" s="84"/>
-      <c r="AF55" s="84"/>
-      <c r="AG55" s="84"/>
-      <c r="AH55" s="83"/>
-      <c r="AI55" s="83"/>
-      <c r="AJ55" s="83"/>
-      <c r="AK55" s="83"/>
-      <c r="AL55" s="38"/>
-      <c r="AM55" s="38"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="44"/>
+      <c r="S55" s="38"/>
+      <c r="T55" s="38"/>
+      <c r="U55" s="38"/>
+      <c r="V55" s="38"/>
+      <c r="W55" s="38"/>
+      <c r="X55" s="38"/>
+      <c r="Y55" s="38"/>
+      <c r="Z55" s="38"/>
+      <c r="AA55" s="38"/>
+      <c r="AB55" s="38"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="39"/>
+      <c r="AF55" s="39"/>
+      <c r="AG55" s="39"/>
+      <c r="AH55" s="38"/>
+      <c r="AI55" s="158"/>
+      <c r="AJ55" s="158"/>
+      <c r="AK55" s="158"/>
+      <c r="AL55" s="158"/>
+      <c r="AM55" s="58"/>
       <c r="AN55" s="38"/>
       <c r="AO55" s="38"/>
       <c r="AP55" s="38"/>
@@ -6258,13 +6688,13 @@
       <c r="BY55" s="38"/>
       <c r="BZ55" s="38"/>
     </row>
-    <row r="56" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32"/>
-      <c r="B56" s="76"/>
-      <c r="C56" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" s="77"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="54"/>
       <c r="E56" s="35"/>
       <c r="F56" s="35"/>
       <c r="G56" s="36"/>
@@ -6289,17 +6719,17 @@
       <c r="Z56" s="38"/>
       <c r="AA56" s="38"/>
       <c r="AB56" s="38"/>
-      <c r="AC56" s="39"/>
-      <c r="AD56" s="39"/>
-      <c r="AE56" s="39"/>
-      <c r="AF56" s="39"/>
-      <c r="AG56" s="39"/>
-      <c r="AH56" s="38"/>
-      <c r="AI56" s="38"/>
-      <c r="AJ56" s="38"/>
-      <c r="AK56" s="38"/>
-      <c r="AL56" s="38"/>
-      <c r="AM56" s="38"/>
+      <c r="AC56" s="139"/>
+      <c r="AD56" s="139"/>
+      <c r="AE56" s="139"/>
+      <c r="AF56" s="139"/>
+      <c r="AG56" s="139"/>
+      <c r="AH56" s="139"/>
+      <c r="AI56" s="158"/>
+      <c r="AJ56" s="158"/>
+      <c r="AK56" s="158"/>
+      <c r="AL56" s="158"/>
+      <c r="AM56" s="58"/>
       <c r="AN56" s="38"/>
       <c r="AO56" s="38"/>
       <c r="AP56" s="38"/>
@@ -6340,13 +6770,13 @@
       <c r="BY56" s="38"/>
       <c r="BZ56" s="38"/>
     </row>
-    <row r="57" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="32"/>
-      <c r="B57" s="76"/>
-      <c r="C57" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" s="77"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="54"/>
       <c r="E57" s="35"/>
       <c r="F57" s="35"/>
       <c r="G57" s="36"/>
@@ -6371,17 +6801,17 @@
       <c r="Z57" s="38"/>
       <c r="AA57" s="38"/>
       <c r="AB57" s="38"/>
-      <c r="AC57" s="39"/>
-      <c r="AD57" s="39"/>
-      <c r="AE57" s="39"/>
-      <c r="AF57" s="39"/>
-      <c r="AG57" s="39"/>
-      <c r="AH57" s="38"/>
-      <c r="AI57" s="38"/>
-      <c r="AJ57" s="38"/>
-      <c r="AK57" s="38"/>
-      <c r="AL57" s="38"/>
-      <c r="AM57" s="38"/>
+      <c r="AC57" s="139"/>
+      <c r="AD57" s="139"/>
+      <c r="AE57" s="139"/>
+      <c r="AF57" s="139"/>
+      <c r="AG57" s="139"/>
+      <c r="AH57" s="139"/>
+      <c r="AI57" s="158"/>
+      <c r="AJ57" s="158"/>
+      <c r="AK57" s="158"/>
+      <c r="AL57" s="158"/>
+      <c r="AM57" s="58"/>
       <c r="AN57" s="38"/>
       <c r="AO57" s="38"/>
       <c r="AP57" s="38"/>
@@ -6422,13 +6852,13 @@
       <c r="BY57" s="38"/>
       <c r="BZ57" s="38"/>
     </row>
-    <row r="58" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="32"/>
-      <c r="B58" s="76"/>
-      <c r="C58" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="D58" s="77"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="54"/>
       <c r="E58" s="35"/>
       <c r="F58" s="35"/>
       <c r="G58" s="36"/>
@@ -6459,11 +6889,11 @@
       <c r="AF58" s="39"/>
       <c r="AG58" s="39"/>
       <c r="AH58" s="38"/>
-      <c r="AI58" s="38"/>
-      <c r="AJ58" s="38"/>
-      <c r="AK58" s="38"/>
-      <c r="AL58" s="38"/>
-      <c r="AM58" s="38"/>
+      <c r="AI58" s="158"/>
+      <c r="AJ58" s="158"/>
+      <c r="AK58" s="158"/>
+      <c r="AL58" s="158"/>
+      <c r="AM58" s="58"/>
       <c r="AN58" s="38"/>
       <c r="AO58" s="38"/>
       <c r="AP58" s="38"/>
@@ -6504,13 +6934,13 @@
       <c r="BY58" s="38"/>
       <c r="BZ58" s="38"/>
     </row>
-    <row r="59" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
-      <c r="B59" s="76"/>
-      <c r="C59" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="D59" s="77"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="54"/>
       <c r="E59" s="35"/>
       <c r="F59" s="35"/>
       <c r="G59" s="36"/>
@@ -6541,11 +6971,11 @@
       <c r="AF59" s="39"/>
       <c r="AG59" s="39"/>
       <c r="AH59" s="38"/>
-      <c r="AI59" s="38"/>
-      <c r="AJ59" s="38"/>
-      <c r="AK59" s="38"/>
-      <c r="AL59" s="38"/>
-      <c r="AM59" s="38"/>
+      <c r="AI59" s="158"/>
+      <c r="AJ59" s="158"/>
+      <c r="AK59" s="158"/>
+      <c r="AL59" s="158"/>
+      <c r="AM59" s="58"/>
       <c r="AN59" s="38"/>
       <c r="AO59" s="38"/>
       <c r="AP59" s="38"/>
@@ -6586,13 +7016,13 @@
       <c r="BY59" s="38"/>
       <c r="BZ59" s="38"/>
     </row>
-    <row r="60" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="32"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="80" t="s">
-        <v>111</v>
-      </c>
-      <c r="D60" s="77"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" s="54"/>
       <c r="E60" s="35"/>
       <c r="F60" s="35"/>
       <c r="G60" s="36"/>
@@ -6623,11 +7053,11 @@
       <c r="AF60" s="39"/>
       <c r="AG60" s="39"/>
       <c r="AH60" s="38"/>
-      <c r="AI60" s="38"/>
-      <c r="AJ60" s="38"/>
-      <c r="AK60" s="38"/>
-      <c r="AL60" s="38"/>
-      <c r="AM60" s="38"/>
+      <c r="AI60" s="169"/>
+      <c r="AJ60" s="169"/>
+      <c r="AK60" s="169"/>
+      <c r="AL60" s="169"/>
+      <c r="AM60" s="170"/>
       <c r="AN60" s="38"/>
       <c r="AO60" s="38"/>
       <c r="AP60" s="38"/>
@@ -6668,13 +7098,11 @@
       <c r="BY60" s="38"/>
       <c r="BZ60" s="38"/>
     </row>
-    <row r="61" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="32"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61" s="77"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="54"/>
       <c r="E61" s="35"/>
       <c r="F61" s="35"/>
       <c r="G61" s="36"/>
@@ -6704,12 +7132,12 @@
       <c r="AE61" s="39"/>
       <c r="AF61" s="39"/>
       <c r="AG61" s="39"/>
-      <c r="AH61" s="38"/>
-      <c r="AI61" s="38"/>
-      <c r="AJ61" s="38"/>
-      <c r="AK61" s="38"/>
-      <c r="AL61" s="38"/>
-      <c r="AM61" s="38"/>
+      <c r="AH61" s="139"/>
+      <c r="AI61" s="139"/>
+      <c r="AJ61" s="139"/>
+      <c r="AK61" s="139"/>
+      <c r="AL61" s="139"/>
+      <c r="AM61" s="139"/>
       <c r="AN61" s="38"/>
       <c r="AO61" s="38"/>
       <c r="AP61" s="38"/>
@@ -6750,13 +7178,11 @@
       <c r="BY61" s="38"/>
       <c r="BZ61" s="38"/>
     </row>
-    <row r="62" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="D62" s="77"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="54"/>
       <c r="E62" s="35"/>
       <c r="F62" s="35"/>
       <c r="G62" s="36"/>
@@ -6786,12 +7212,12 @@
       <c r="AE62" s="39"/>
       <c r="AF62" s="39"/>
       <c r="AG62" s="39"/>
-      <c r="AH62" s="38"/>
-      <c r="AI62" s="38"/>
-      <c r="AJ62" s="38"/>
-      <c r="AK62" s="38"/>
-      <c r="AL62" s="38"/>
-      <c r="AM62" s="38"/>
+      <c r="AH62" s="139"/>
+      <c r="AI62" s="139"/>
+      <c r="AJ62" s="139"/>
+      <c r="AK62" s="139"/>
+      <c r="AL62" s="139"/>
+      <c r="AM62" s="139"/>
       <c r="AN62" s="38"/>
       <c r="AO62" s="38"/>
       <c r="AP62" s="38"/>
@@ -6832,13 +7258,11 @@
       <c r="BY62" s="38"/>
       <c r="BZ62" s="38"/>
     </row>
-    <row r="63" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="32"/>
-      <c r="B63" s="76"/>
-      <c r="C63" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="D63" s="77"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="54"/>
       <c r="E63" s="35"/>
       <c r="F63" s="35"/>
       <c r="G63" s="36"/>
@@ -6868,12 +7292,12 @@
       <c r="AE63" s="39"/>
       <c r="AF63" s="39"/>
       <c r="AG63" s="39"/>
-      <c r="AH63" s="38"/>
-      <c r="AI63" s="38"/>
-      <c r="AJ63" s="38"/>
-      <c r="AK63" s="38"/>
-      <c r="AL63" s="38"/>
-      <c r="AM63" s="38"/>
+      <c r="AH63" s="139"/>
+      <c r="AI63" s="139"/>
+      <c r="AJ63" s="139"/>
+      <c r="AK63" s="139"/>
+      <c r="AL63" s="139"/>
+      <c r="AM63" s="139"/>
       <c r="AN63" s="38"/>
       <c r="AO63" s="38"/>
       <c r="AP63" s="38"/>
@@ -6914,177 +7338,177 @@
       <c r="BY63" s="38"/>
       <c r="BZ63" s="38"/>
     </row>
-    <row r="64" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="32"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="D64" s="77"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="44"/>
-      <c r="O64" s="44"/>
-      <c r="P64" s="44"/>
-      <c r="Q64" s="44"/>
-      <c r="R64" s="44"/>
-      <c r="S64" s="38"/>
-      <c r="T64" s="38"/>
-      <c r="U64" s="38"/>
-      <c r="V64" s="38"/>
-      <c r="W64" s="38"/>
-      <c r="X64" s="38"/>
-      <c r="Y64" s="38"/>
-      <c r="Z64" s="38"/>
-      <c r="AA64" s="38"/>
-      <c r="AB64" s="38"/>
-      <c r="AC64" s="39"/>
-      <c r="AD64" s="39"/>
-      <c r="AE64" s="39"/>
-      <c r="AF64" s="39"/>
-      <c r="AG64" s="39"/>
-      <c r="AH64" s="38"/>
-      <c r="AI64" s="38"/>
-      <c r="AJ64" s="38"/>
-      <c r="AK64" s="38"/>
-      <c r="AL64" s="38"/>
-      <c r="AM64" s="38"/>
-      <c r="AN64" s="38"/>
-      <c r="AO64" s="38"/>
-      <c r="AP64" s="38"/>
-      <c r="AQ64" s="38"/>
-      <c r="AR64" s="40"/>
-      <c r="AS64" s="40"/>
-      <c r="AT64" s="40"/>
-      <c r="AU64" s="40"/>
-      <c r="AV64" s="40"/>
-      <c r="AW64" s="38"/>
-      <c r="AX64" s="38"/>
-      <c r="AY64" s="38"/>
-      <c r="AZ64" s="38"/>
-      <c r="BA64" s="38"/>
-      <c r="BB64" s="38"/>
-      <c r="BC64" s="38"/>
-      <c r="BD64" s="38"/>
-      <c r="BE64" s="38"/>
-      <c r="BF64" s="38"/>
-      <c r="BG64" s="41"/>
-      <c r="BH64" s="41"/>
-      <c r="BI64" s="41"/>
-      <c r="BJ64" s="41"/>
-      <c r="BK64" s="41"/>
-      <c r="BL64" s="38"/>
-      <c r="BM64" s="38"/>
-      <c r="BN64" s="38"/>
-      <c r="BO64" s="38"/>
-      <c r="BP64" s="38"/>
-      <c r="BQ64" s="38"/>
-      <c r="BR64" s="38"/>
-      <c r="BS64" s="38"/>
-      <c r="BT64" s="38"/>
-      <c r="BU64" s="38"/>
-      <c r="BV64" s="38"/>
-      <c r="BW64" s="38"/>
-      <c r="BX64" s="38"/>
-      <c r="BY64" s="38"/>
-      <c r="BZ64" s="38"/>
+    <row r="64" spans="1:78" s="97" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="94"/>
+      <c r="B64" s="81"/>
+      <c r="C64" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" s="83"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="86"/>
+      <c r="I64" s="87"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="89"/>
+      <c r="L64" s="89"/>
+      <c r="M64" s="89"/>
+      <c r="N64" s="90"/>
+      <c r="O64" s="90"/>
+      <c r="P64" s="90"/>
+      <c r="Q64" s="90"/>
+      <c r="R64" s="90"/>
+      <c r="S64" s="89"/>
+      <c r="T64" s="89"/>
+      <c r="U64" s="89"/>
+      <c r="V64" s="89"/>
+      <c r="W64" s="89"/>
+      <c r="X64" s="89"/>
+      <c r="Y64" s="89"/>
+      <c r="Z64" s="89"/>
+      <c r="AA64" s="89"/>
+      <c r="AB64" s="89"/>
+      <c r="AC64" s="91"/>
+      <c r="AD64" s="91"/>
+      <c r="AE64" s="91"/>
+      <c r="AF64" s="91"/>
+      <c r="AG64" s="91"/>
+      <c r="AH64" s="89"/>
+      <c r="AI64" s="89"/>
+      <c r="AJ64" s="91"/>
+      <c r="AK64" s="89"/>
+      <c r="AL64" s="89"/>
+      <c r="AM64" s="89"/>
+      <c r="AN64" s="89"/>
+      <c r="AO64" s="89"/>
+      <c r="AP64" s="89"/>
+      <c r="AQ64" s="89"/>
+      <c r="AR64" s="92"/>
+      <c r="AS64" s="92"/>
+      <c r="AT64" s="92"/>
+      <c r="AU64" s="92"/>
+      <c r="AV64" s="92"/>
+      <c r="AW64" s="89"/>
+      <c r="AX64" s="89"/>
+      <c r="AY64" s="89"/>
+      <c r="AZ64" s="89"/>
+      <c r="BA64" s="89"/>
+      <c r="BB64" s="89"/>
+      <c r="BC64" s="89"/>
+      <c r="BD64" s="89"/>
+      <c r="BE64" s="89"/>
+      <c r="BF64" s="89"/>
+      <c r="BG64" s="93"/>
+      <c r="BH64" s="93"/>
+      <c r="BI64" s="93"/>
+      <c r="BJ64" s="93"/>
+      <c r="BK64" s="93"/>
+      <c r="BL64" s="89"/>
+      <c r="BM64" s="89"/>
+      <c r="BN64" s="89"/>
+      <c r="BO64" s="89"/>
+      <c r="BP64" s="89"/>
+      <c r="BQ64" s="89"/>
+      <c r="BR64" s="89"/>
+      <c r="BS64" s="89"/>
+      <c r="BT64" s="89"/>
+      <c r="BU64" s="89"/>
+      <c r="BV64" s="89"/>
+      <c r="BW64" s="89"/>
+      <c r="BX64" s="89"/>
+      <c r="BY64" s="89"/>
+      <c r="BZ64" s="89"/>
     </row>
-    <row r="65" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="32"/>
-      <c r="B65" s="76"/>
-      <c r="C65" s="79" t="s">
-        <v>117</v>
-      </c>
-      <c r="D65" s="77"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="44"/>
-      <c r="O65" s="44"/>
-      <c r="P65" s="44"/>
-      <c r="Q65" s="44"/>
-      <c r="R65" s="44"/>
-      <c r="S65" s="38"/>
-      <c r="T65" s="38"/>
-      <c r="U65" s="38"/>
-      <c r="V65" s="38"/>
-      <c r="W65" s="38"/>
-      <c r="X65" s="38"/>
-      <c r="Y65" s="38"/>
-      <c r="Z65" s="38"/>
-      <c r="AA65" s="38"/>
-      <c r="AB65" s="38"/>
-      <c r="AC65" s="39"/>
-      <c r="AD65" s="39"/>
-      <c r="AE65" s="39"/>
-      <c r="AF65" s="39"/>
-      <c r="AG65" s="39"/>
-      <c r="AH65" s="83"/>
-      <c r="AI65" s="83"/>
-      <c r="AJ65" s="83"/>
-      <c r="AK65" s="83"/>
-      <c r="AL65" s="83"/>
-      <c r="AM65" s="83"/>
-      <c r="AN65" s="38"/>
-      <c r="AO65" s="38"/>
-      <c r="AP65" s="38"/>
-      <c r="AQ65" s="38"/>
-      <c r="AR65" s="40"/>
-      <c r="AS65" s="40"/>
-      <c r="AT65" s="40"/>
-      <c r="AU65" s="40"/>
-      <c r="AV65" s="40"/>
-      <c r="AW65" s="38"/>
-      <c r="AX65" s="38"/>
-      <c r="AY65" s="38"/>
-      <c r="AZ65" s="38"/>
-      <c r="BA65" s="38"/>
-      <c r="BB65" s="38"/>
-      <c r="BC65" s="38"/>
-      <c r="BD65" s="38"/>
-      <c r="BE65" s="38"/>
-      <c r="BF65" s="38"/>
-      <c r="BG65" s="41"/>
-      <c r="BH65" s="41"/>
-      <c r="BI65" s="41"/>
-      <c r="BJ65" s="41"/>
-      <c r="BK65" s="41"/>
-      <c r="BL65" s="38"/>
-      <c r="BM65" s="38"/>
-      <c r="BN65" s="38"/>
-      <c r="BO65" s="38"/>
-      <c r="BP65" s="38"/>
-      <c r="BQ65" s="38"/>
-      <c r="BR65" s="38"/>
-      <c r="BS65" s="38"/>
-      <c r="BT65" s="38"/>
-      <c r="BU65" s="38"/>
-      <c r="BV65" s="38"/>
-      <c r="BW65" s="38"/>
-      <c r="BX65" s="38"/>
-      <c r="BY65" s="38"/>
-      <c r="BZ65" s="38"/>
+    <row r="65" spans="1:78" s="129" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="115"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="117" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" s="118"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="119"/>
+      <c r="G65" s="120"/>
+      <c r="H65" s="121"/>
+      <c r="I65" s="122"/>
+      <c r="J65" s="123"/>
+      <c r="K65" s="124"/>
+      <c r="L65" s="124"/>
+      <c r="M65" s="124"/>
+      <c r="N65" s="125"/>
+      <c r="O65" s="125"/>
+      <c r="P65" s="125"/>
+      <c r="Q65" s="125"/>
+      <c r="R65" s="125"/>
+      <c r="S65" s="124"/>
+      <c r="T65" s="124"/>
+      <c r="U65" s="124"/>
+      <c r="V65" s="124"/>
+      <c r="W65" s="124"/>
+      <c r="X65" s="124"/>
+      <c r="Y65" s="124"/>
+      <c r="Z65" s="124"/>
+      <c r="AA65" s="124"/>
+      <c r="AB65" s="124"/>
+      <c r="AC65" s="126"/>
+      <c r="AD65" s="126"/>
+      <c r="AE65" s="126"/>
+      <c r="AF65" s="126"/>
+      <c r="AG65" s="126"/>
+      <c r="AH65" s="124"/>
+      <c r="AI65" s="124"/>
+      <c r="AJ65" s="126"/>
+      <c r="AK65" s="124"/>
+      <c r="AL65" s="124"/>
+      <c r="AM65" s="124"/>
+      <c r="AN65" s="124"/>
+      <c r="AO65" s="124"/>
+      <c r="AP65" s="124"/>
+      <c r="AQ65" s="124"/>
+      <c r="AR65" s="127"/>
+      <c r="AS65" s="127"/>
+      <c r="AT65" s="127"/>
+      <c r="AU65" s="127"/>
+      <c r="AV65" s="127"/>
+      <c r="AW65" s="124"/>
+      <c r="AX65" s="124"/>
+      <c r="AY65" s="124"/>
+      <c r="AZ65" s="124"/>
+      <c r="BA65" s="124"/>
+      <c r="BB65" s="124"/>
+      <c r="BC65" s="124"/>
+      <c r="BD65" s="124"/>
+      <c r="BE65" s="124"/>
+      <c r="BF65" s="124"/>
+      <c r="BG65" s="128"/>
+      <c r="BH65" s="128"/>
+      <c r="BI65" s="128"/>
+      <c r="BJ65" s="128"/>
+      <c r="BK65" s="128"/>
+      <c r="BL65" s="124"/>
+      <c r="BM65" s="124"/>
+      <c r="BN65" s="124"/>
+      <c r="BO65" s="124"/>
+      <c r="BP65" s="124"/>
+      <c r="BQ65" s="124"/>
+      <c r="BR65" s="124"/>
+      <c r="BS65" s="124"/>
+      <c r="BT65" s="124"/>
+      <c r="BU65" s="124"/>
+      <c r="BV65" s="124"/>
+      <c r="BW65" s="124"/>
+      <c r="BX65" s="124"/>
+      <c r="BY65" s="124"/>
+      <c r="BZ65" s="124"/>
     </row>
-    <row r="66" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
-      <c r="B66" s="76"/>
-      <c r="C66" s="79" t="s">
-        <v>116</v>
-      </c>
-      <c r="D66" s="77"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" s="54"/>
       <c r="E66" s="35"/>
       <c r="F66" s="35"/>
       <c r="G66" s="36"/>
@@ -7109,17 +7533,17 @@
       <c r="Z66" s="38"/>
       <c r="AA66" s="38"/>
       <c r="AB66" s="38"/>
-      <c r="AC66" s="39"/>
-      <c r="AD66" s="39"/>
-      <c r="AE66" s="39"/>
-      <c r="AF66" s="39"/>
-      <c r="AG66" s="39"/>
-      <c r="AH66" s="38"/>
-      <c r="AI66" s="38"/>
-      <c r="AJ66" s="38"/>
-      <c r="AK66" s="38"/>
-      <c r="AL66" s="38"/>
-      <c r="AM66" s="38"/>
+      <c r="AC66" s="139"/>
+      <c r="AD66" s="139"/>
+      <c r="AE66" s="139"/>
+      <c r="AF66" s="139"/>
+      <c r="AG66" s="139"/>
+      <c r="AH66" s="157"/>
+      <c r="AI66" s="157"/>
+      <c r="AJ66" s="157"/>
+      <c r="AK66" s="157"/>
+      <c r="AL66" s="157"/>
+      <c r="AM66" s="58"/>
       <c r="AN66" s="38"/>
       <c r="AO66" s="38"/>
       <c r="AP66" s="38"/>
@@ -7160,13 +7584,13 @@
       <c r="BY66" s="38"/>
       <c r="BZ66" s="38"/>
     </row>
-    <row r="67" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="32"/>
-      <c r="B67" s="76"/>
-      <c r="C67" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="D67" s="77"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="54"/>
       <c r="E67" s="35"/>
       <c r="F67" s="35"/>
       <c r="G67" s="36"/>
@@ -7191,16 +7615,16 @@
       <c r="Z67" s="38"/>
       <c r="AA67" s="38"/>
       <c r="AB67" s="38"/>
-      <c r="AC67" s="39"/>
-      <c r="AD67" s="39"/>
-      <c r="AE67" s="39"/>
-      <c r="AF67" s="39"/>
-      <c r="AG67" s="39"/>
-      <c r="AH67" s="38"/>
-      <c r="AI67" s="38"/>
-      <c r="AJ67" s="38"/>
-      <c r="AK67" s="38"/>
-      <c r="AL67" s="38"/>
+      <c r="AC67" s="139"/>
+      <c r="AD67" s="139"/>
+      <c r="AE67" s="139"/>
+      <c r="AF67" s="139"/>
+      <c r="AG67" s="139"/>
+      <c r="AH67" s="39"/>
+      <c r="AI67" s="39"/>
+      <c r="AJ67" s="139"/>
+      <c r="AK67" s="39"/>
+      <c r="AL67" s="39"/>
       <c r="AM67" s="38"/>
       <c r="AN67" s="38"/>
       <c r="AO67" s="38"/>
@@ -7242,13 +7666,13 @@
       <c r="BY67" s="38"/>
       <c r="BZ67" s="38"/>
     </row>
-    <row r="68" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="32"/>
-      <c r="B68" s="76"/>
-      <c r="C68" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="D68" s="77"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="54"/>
       <c r="E68" s="35"/>
       <c r="F68" s="35"/>
       <c r="G68" s="36"/>
@@ -7273,16 +7697,17 @@
       <c r="Z68" s="38"/>
       <c r="AA68" s="38"/>
       <c r="AB68" s="38"/>
-      <c r="AC68" s="39"/>
-      <c r="AD68" s="39"/>
-      <c r="AE68" s="39"/>
-      <c r="AF68" s="39"/>
-      <c r="AG68" s="39"/>
-      <c r="AH68" s="38"/>
-      <c r="AI68" s="38"/>
-      <c r="AJ68" s="38"/>
-      <c r="AK68" s="38"/>
-      <c r="AL68" s="38"/>
+      <c r="AC68" s="139"/>
+      <c r="AD68" s="139"/>
+      <c r="AE68" s="139"/>
+      <c r="AF68" s="139"/>
+      <c r="AG68" s="139"/>
+      <c r="AH68" s="39"/>
+      <c r="AI68" s="39"/>
+      <c r="AJ68" s="139"/>
+      <c r="AK68" s="39"/>
+      <c r="AL68" s="39"/>
+      <c r="AM68" s="38"/>
       <c r="AN68" s="38"/>
       <c r="AO68" s="38"/>
       <c r="AP68" s="38"/>
@@ -7323,13 +7748,13 @@
       <c r="BY68" s="38"/>
       <c r="BZ68" s="38"/>
     </row>
-    <row r="69" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:78" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
-      <c r="B69" s="76"/>
-      <c r="C69" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="D69" s="77"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="54"/>
       <c r="E69" s="35"/>
       <c r="F69" s="35"/>
       <c r="G69" s="36"/>
@@ -7354,17 +7779,17 @@
       <c r="Z69" s="38"/>
       <c r="AA69" s="38"/>
       <c r="AB69" s="38"/>
-      <c r="AC69" s="39"/>
-      <c r="AD69" s="39"/>
-      <c r="AE69" s="39"/>
-      <c r="AF69" s="39"/>
-      <c r="AG69" s="39"/>
-      <c r="AH69" s="38"/>
-      <c r="AI69" s="38"/>
-      <c r="AJ69" s="38"/>
-      <c r="AK69" s="38"/>
-      <c r="AL69" s="38"/>
-      <c r="AM69" s="83"/>
+      <c r="AC69" s="139"/>
+      <c r="AD69" s="139"/>
+      <c r="AE69" s="139"/>
+      <c r="AF69" s="139"/>
+      <c r="AG69" s="139"/>
+      <c r="AH69" s="39"/>
+      <c r="AI69" s="39"/>
+      <c r="AJ69" s="139"/>
+      <c r="AK69" s="157"/>
+      <c r="AL69" s="157"/>
+      <c r="AM69" s="58"/>
       <c r="AN69" s="38"/>
       <c r="AO69" s="38"/>
       <c r="AP69" s="38"/>
@@ -7405,13 +7830,13 @@
       <c r="BY69" s="38"/>
       <c r="BZ69" s="38"/>
     </row>
-    <row r="70" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="32"/>
-      <c r="B70" s="76"/>
-      <c r="C70" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="D70" s="77"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="54"/>
       <c r="E70" s="35"/>
       <c r="F70" s="35"/>
       <c r="G70" s="36"/>
@@ -7436,17 +7861,17 @@
       <c r="Z70" s="38"/>
       <c r="AA70" s="38"/>
       <c r="AB70" s="38"/>
-      <c r="AC70" s="39"/>
-      <c r="AD70" s="39"/>
-      <c r="AE70" s="39"/>
-      <c r="AF70" s="39"/>
-      <c r="AG70" s="39"/>
-      <c r="AH70" s="38"/>
-      <c r="AI70" s="38"/>
-      <c r="AJ70" s="38"/>
-      <c r="AK70" s="38"/>
-      <c r="AL70" s="38"/>
-      <c r="AM70" s="83"/>
+      <c r="AC70" s="139"/>
+      <c r="AD70" s="139"/>
+      <c r="AE70" s="139"/>
+      <c r="AF70" s="139"/>
+      <c r="AG70" s="139"/>
+      <c r="AH70" s="39"/>
+      <c r="AI70" s="39"/>
+      <c r="AJ70" s="139"/>
+      <c r="AK70" s="157"/>
+      <c r="AL70" s="157"/>
+      <c r="AM70" s="58"/>
       <c r="AN70" s="38"/>
       <c r="AO70" s="38"/>
       <c r="AP70" s="38"/>
@@ -7487,13 +7912,13 @@
       <c r="BY70" s="38"/>
       <c r="BZ70" s="38"/>
     </row>
-    <row r="71" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="32"/>
-      <c r="B71" s="76"/>
-      <c r="C71" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="77"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="54"/>
       <c r="E71" s="35"/>
       <c r="F71" s="35"/>
       <c r="G71" s="36"/>
@@ -7518,17 +7943,17 @@
       <c r="Z71" s="38"/>
       <c r="AA71" s="38"/>
       <c r="AB71" s="38"/>
-      <c r="AC71" s="39"/>
-      <c r="AD71" s="39"/>
-      <c r="AE71" s="39"/>
-      <c r="AF71" s="39"/>
-      <c r="AG71" s="39"/>
-      <c r="AH71" s="38"/>
-      <c r="AI71" s="38"/>
-      <c r="AJ71" s="38"/>
-      <c r="AK71" s="38"/>
-      <c r="AL71" s="38"/>
-      <c r="AM71" s="38"/>
+      <c r="AC71" s="139"/>
+      <c r="AD71" s="139"/>
+      <c r="AE71" s="139"/>
+      <c r="AF71" s="139"/>
+      <c r="AG71" s="139"/>
+      <c r="AH71" s="39"/>
+      <c r="AI71" s="39"/>
+      <c r="AJ71" s="139"/>
+      <c r="AK71" s="157"/>
+      <c r="AL71" s="157"/>
+      <c r="AM71" s="58"/>
       <c r="AN71" s="38"/>
       <c r="AO71" s="38"/>
       <c r="AP71" s="38"/>
@@ -7569,11 +7994,11 @@
       <c r="BY71" s="38"/>
       <c r="BZ71" s="38"/>
     </row>
-    <row r="72" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="32"/>
-      <c r="B72" s="76"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="77"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="54"/>
       <c r="E72" s="35"/>
       <c r="F72" s="35"/>
       <c r="G72" s="36"/>
@@ -7605,7 +8030,7 @@
       <c r="AG72" s="39"/>
       <c r="AH72" s="38"/>
       <c r="AI72" s="38"/>
-      <c r="AJ72" s="38"/>
+      <c r="AJ72" s="139"/>
       <c r="AK72" s="38"/>
       <c r="AL72" s="38"/>
       <c r="AM72" s="38"/>
@@ -7649,411 +8074,421 @@
       <c r="BY72" s="38"/>
       <c r="BZ72" s="38"/>
     </row>
-    <row r="73" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="32"/>
-      <c r="B73" s="76"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="38"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="44"/>
-      <c r="O73" s="44"/>
-      <c r="P73" s="44"/>
-      <c r="Q73" s="44"/>
-      <c r="R73" s="44"/>
-      <c r="S73" s="38"/>
-      <c r="T73" s="38"/>
-      <c r="U73" s="38"/>
-      <c r="V73" s="38"/>
-      <c r="W73" s="38"/>
-      <c r="X73" s="38"/>
-      <c r="Y73" s="38"/>
-      <c r="Z73" s="38"/>
-      <c r="AA73" s="38"/>
-      <c r="AB73" s="38"/>
-      <c r="AC73" s="39"/>
-      <c r="AD73" s="39"/>
-      <c r="AE73" s="39"/>
-      <c r="AF73" s="39"/>
-      <c r="AG73" s="39"/>
-      <c r="AH73" s="38"/>
-      <c r="AI73" s="38"/>
-      <c r="AJ73" s="38"/>
-      <c r="AK73" s="38"/>
-      <c r="AL73" s="38"/>
-      <c r="AM73" s="38"/>
-      <c r="AN73" s="38"/>
-      <c r="AO73" s="38"/>
-      <c r="AP73" s="38"/>
-      <c r="AQ73" s="38"/>
-      <c r="AR73" s="40"/>
-      <c r="AS73" s="40"/>
-      <c r="AT73" s="40"/>
-      <c r="AU73" s="40"/>
-      <c r="AV73" s="40"/>
-      <c r="AW73" s="38"/>
-      <c r="AX73" s="38"/>
-      <c r="AY73" s="38"/>
-      <c r="AZ73" s="38"/>
-      <c r="BA73" s="38"/>
-      <c r="BB73" s="38"/>
-      <c r="BC73" s="38"/>
-      <c r="BD73" s="38"/>
-      <c r="BE73" s="38"/>
-      <c r="BF73" s="38"/>
-      <c r="BG73" s="41"/>
-      <c r="BH73" s="41"/>
-      <c r="BI73" s="41"/>
-      <c r="BJ73" s="41"/>
-      <c r="BK73" s="41"/>
-      <c r="BL73" s="38"/>
-      <c r="BM73" s="38"/>
-      <c r="BN73" s="38"/>
-      <c r="BO73" s="38"/>
-      <c r="BP73" s="38"/>
-      <c r="BQ73" s="38"/>
-      <c r="BR73" s="38"/>
-      <c r="BS73" s="38"/>
-      <c r="BT73" s="38"/>
-      <c r="BU73" s="38"/>
-      <c r="BV73" s="38"/>
-      <c r="BW73" s="38"/>
-      <c r="BX73" s="38"/>
-      <c r="BY73" s="38"/>
-      <c r="BZ73" s="38"/>
+    <row r="73" spans="1:78" s="129" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="115"/>
+      <c r="B73" s="116"/>
+      <c r="C73" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="118"/>
+      <c r="E73" s="119"/>
+      <c r="F73" s="119"/>
+      <c r="G73" s="120"/>
+      <c r="H73" s="121"/>
+      <c r="I73" s="122"/>
+      <c r="J73" s="123"/>
+      <c r="K73" s="124"/>
+      <c r="L73" s="124"/>
+      <c r="M73" s="124"/>
+      <c r="N73" s="125"/>
+      <c r="O73" s="125"/>
+      <c r="P73" s="125"/>
+      <c r="Q73" s="125"/>
+      <c r="R73" s="125"/>
+      <c r="S73" s="124"/>
+      <c r="T73" s="124"/>
+      <c r="U73" s="124"/>
+      <c r="V73" s="124"/>
+      <c r="W73" s="124"/>
+      <c r="X73" s="124"/>
+      <c r="Y73" s="124"/>
+      <c r="Z73" s="124"/>
+      <c r="AA73" s="124"/>
+      <c r="AB73" s="124"/>
+      <c r="AC73" s="126"/>
+      <c r="AD73" s="126"/>
+      <c r="AE73" s="126"/>
+      <c r="AF73" s="126"/>
+      <c r="AG73" s="126"/>
+      <c r="AH73" s="124"/>
+      <c r="AI73" s="124"/>
+      <c r="AJ73" s="124"/>
+      <c r="AK73" s="124"/>
+      <c r="AL73" s="124"/>
+      <c r="AM73" s="124"/>
+      <c r="AN73" s="124"/>
+      <c r="AO73" s="124"/>
+      <c r="AP73" s="124"/>
+      <c r="AQ73" s="124"/>
+      <c r="AR73" s="127"/>
+      <c r="AS73" s="127"/>
+      <c r="AT73" s="127"/>
+      <c r="AU73" s="127"/>
+      <c r="AV73" s="127"/>
+      <c r="AW73" s="124"/>
+      <c r="AX73" s="124"/>
+      <c r="AY73" s="124"/>
+      <c r="AZ73" s="124"/>
+      <c r="BA73" s="124"/>
+      <c r="BB73" s="124"/>
+      <c r="BC73" s="124"/>
+      <c r="BD73" s="124"/>
+      <c r="BE73" s="124"/>
+      <c r="BF73" s="124"/>
+      <c r="BG73" s="128"/>
+      <c r="BH73" s="128"/>
+      <c r="BI73" s="128"/>
+      <c r="BJ73" s="128"/>
+      <c r="BK73" s="128"/>
+      <c r="BL73" s="124"/>
+      <c r="BM73" s="124"/>
+      <c r="BN73" s="124"/>
+      <c r="BO73" s="124"/>
+      <c r="BP73" s="124"/>
+      <c r="BQ73" s="124"/>
+      <c r="BR73" s="124"/>
+      <c r="BS73" s="124"/>
+      <c r="BT73" s="124"/>
+      <c r="BU73" s="124"/>
+      <c r="BV73" s="124"/>
+      <c r="BW73" s="124"/>
+      <c r="BX73" s="124"/>
+      <c r="BY73" s="124"/>
+      <c r="BZ73" s="124"/>
     </row>
-    <row r="74" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="32"/>
-      <c r="B74" s="76"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="38"/>
-      <c r="M74" s="38"/>
-      <c r="N74" s="44"/>
-      <c r="O74" s="44"/>
-      <c r="P74" s="44"/>
-      <c r="Q74" s="44"/>
-      <c r="R74" s="44"/>
-      <c r="S74" s="38"/>
-      <c r="T74" s="38"/>
-      <c r="U74" s="38"/>
-      <c r="V74" s="38"/>
-      <c r="W74" s="38"/>
-      <c r="X74" s="38"/>
-      <c r="Y74" s="38"/>
-      <c r="Z74" s="38"/>
-      <c r="AA74" s="38"/>
-      <c r="AB74" s="38"/>
-      <c r="AC74" s="39"/>
-      <c r="AD74" s="39"/>
-      <c r="AE74" s="39"/>
-      <c r="AF74" s="39"/>
-      <c r="AG74" s="39"/>
-      <c r="AH74" s="38"/>
-      <c r="AI74" s="38"/>
-      <c r="AJ74" s="38"/>
-      <c r="AK74" s="38"/>
-      <c r="AL74" s="38"/>
-      <c r="AM74" s="38"/>
-      <c r="AN74" s="38"/>
-      <c r="AO74" s="38"/>
-      <c r="AP74" s="38"/>
-      <c r="AQ74" s="38"/>
-      <c r="AR74" s="40"/>
-      <c r="AS74" s="40"/>
-      <c r="AT74" s="40"/>
-      <c r="AU74" s="40"/>
-      <c r="AV74" s="40"/>
-      <c r="AW74" s="38"/>
-      <c r="AX74" s="38"/>
-      <c r="AY74" s="38"/>
-      <c r="AZ74" s="38"/>
-      <c r="BA74" s="38"/>
-      <c r="BB74" s="38"/>
-      <c r="BC74" s="38"/>
-      <c r="BD74" s="38"/>
-      <c r="BE74" s="38"/>
-      <c r="BF74" s="38"/>
-      <c r="BG74" s="41"/>
-      <c r="BH74" s="41"/>
-      <c r="BI74" s="41"/>
-      <c r="BJ74" s="41"/>
-      <c r="BK74" s="41"/>
-      <c r="BL74" s="38"/>
-      <c r="BM74" s="38"/>
-      <c r="BN74" s="38"/>
-      <c r="BO74" s="38"/>
-      <c r="BP74" s="38"/>
-      <c r="BQ74" s="38"/>
-      <c r="BR74" s="38"/>
-      <c r="BS74" s="38"/>
-      <c r="BT74" s="38"/>
-      <c r="BU74" s="38"/>
-      <c r="BV74" s="38"/>
-      <c r="BW74" s="38"/>
-      <c r="BX74" s="38"/>
-      <c r="BY74" s="38"/>
-      <c r="BZ74" s="38"/>
+    <row r="74" spans="1:78" s="114" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="130"/>
+      <c r="B74" s="131"/>
+      <c r="C74" s="132" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="133"/>
+      <c r="E74" s="134"/>
+      <c r="F74" s="134"/>
+      <c r="G74" s="135"/>
+      <c r="H74" s="136"/>
+      <c r="I74" s="137"/>
+      <c r="J74" s="138"/>
+      <c r="K74" s="139"/>
+      <c r="L74" s="139"/>
+      <c r="M74" s="139"/>
+      <c r="N74" s="139"/>
+      <c r="O74" s="139"/>
+      <c r="P74" s="139"/>
+      <c r="Q74" s="139"/>
+      <c r="R74" s="139"/>
+      <c r="S74" s="139"/>
+      <c r="T74" s="139"/>
+      <c r="U74" s="139"/>
+      <c r="V74" s="139"/>
+      <c r="W74" s="139"/>
+      <c r="X74" s="139"/>
+      <c r="Y74" s="139"/>
+      <c r="Z74" s="139"/>
+      <c r="AA74" s="139"/>
+      <c r="AB74" s="139"/>
+      <c r="AC74" s="139"/>
+      <c r="AD74" s="139"/>
+      <c r="AE74" s="139"/>
+      <c r="AF74" s="139"/>
+      <c r="AG74" s="139"/>
+      <c r="AH74" s="139"/>
+      <c r="AI74" s="139"/>
+      <c r="AJ74" s="139"/>
+      <c r="AK74" s="139"/>
+      <c r="AL74" s="139"/>
+      <c r="AM74" s="139"/>
+      <c r="AN74" s="139"/>
+      <c r="AO74" s="139"/>
+      <c r="AP74" s="139"/>
+      <c r="AQ74" s="139"/>
+      <c r="AR74" s="139"/>
+      <c r="AS74" s="139"/>
+      <c r="AT74" s="139"/>
+      <c r="AU74" s="139"/>
+      <c r="AV74" s="139"/>
+      <c r="AW74" s="139"/>
+      <c r="AX74" s="139"/>
+      <c r="AY74" s="139"/>
+      <c r="AZ74" s="139"/>
+      <c r="BA74" s="139"/>
+      <c r="BB74" s="139"/>
+      <c r="BC74" s="139"/>
+      <c r="BD74" s="139"/>
+      <c r="BE74" s="139"/>
+      <c r="BF74" s="139"/>
+      <c r="BG74" s="139"/>
+      <c r="BH74" s="139"/>
+      <c r="BI74" s="139"/>
+      <c r="BJ74" s="139"/>
+      <c r="BK74" s="139"/>
+      <c r="BL74" s="139"/>
+      <c r="BM74" s="139"/>
+      <c r="BN74" s="139"/>
+      <c r="BO74" s="139"/>
+      <c r="BP74" s="139"/>
+      <c r="BQ74" s="139"/>
+      <c r="BR74" s="139"/>
+      <c r="BS74" s="139"/>
+      <c r="BT74" s="139"/>
+      <c r="BU74" s="139"/>
+      <c r="BV74" s="139"/>
+      <c r="BW74" s="139"/>
+      <c r="BX74" s="139"/>
+      <c r="BY74" s="139"/>
+      <c r="BZ74" s="139"/>
     </row>
-    <row r="75" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="32"/>
-      <c r="B75" s="76"/>
-      <c r="C75" s="80"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="38"/>
-      <c r="M75" s="38"/>
-      <c r="N75" s="44"/>
-      <c r="O75" s="44"/>
-      <c r="P75" s="44"/>
-      <c r="Q75" s="44"/>
-      <c r="R75" s="44"/>
-      <c r="S75" s="38"/>
-      <c r="T75" s="38"/>
-      <c r="U75" s="38"/>
-      <c r="V75" s="38"/>
-      <c r="W75" s="38"/>
-      <c r="X75" s="38"/>
-      <c r="Y75" s="38"/>
-      <c r="Z75" s="38"/>
-      <c r="AA75" s="38"/>
-      <c r="AB75" s="38"/>
-      <c r="AC75" s="39"/>
-      <c r="AD75" s="39"/>
-      <c r="AE75" s="39"/>
-      <c r="AF75" s="39"/>
-      <c r="AG75" s="39"/>
-      <c r="AH75" s="38"/>
-      <c r="AI75" s="38"/>
-      <c r="AJ75" s="38"/>
-      <c r="AK75" s="38"/>
-      <c r="AL75" s="38"/>
-      <c r="AM75" s="38"/>
-      <c r="AN75" s="38"/>
-      <c r="AO75" s="38"/>
-      <c r="AP75" s="38"/>
-      <c r="AQ75" s="38"/>
-      <c r="AR75" s="40"/>
-      <c r="AS75" s="40"/>
-      <c r="AT75" s="40"/>
-      <c r="AU75" s="40"/>
-      <c r="AV75" s="40"/>
-      <c r="AW75" s="38"/>
-      <c r="AX75" s="38"/>
-      <c r="AY75" s="38"/>
-      <c r="AZ75" s="38"/>
-      <c r="BA75" s="38"/>
-      <c r="BB75" s="38"/>
-      <c r="BC75" s="38"/>
-      <c r="BD75" s="38"/>
-      <c r="BE75" s="38"/>
-      <c r="BF75" s="38"/>
-      <c r="BG75" s="41"/>
-      <c r="BH75" s="41"/>
-      <c r="BI75" s="41"/>
-      <c r="BJ75" s="41"/>
-      <c r="BK75" s="41"/>
-      <c r="BL75" s="38"/>
-      <c r="BM75" s="38"/>
-      <c r="BN75" s="38"/>
-      <c r="BO75" s="38"/>
-      <c r="BP75" s="38"/>
-      <c r="BQ75" s="38"/>
-      <c r="BR75" s="38"/>
-      <c r="BS75" s="38"/>
-      <c r="BT75" s="38"/>
-      <c r="BU75" s="38"/>
-      <c r="BV75" s="38"/>
-      <c r="BW75" s="38"/>
-      <c r="BX75" s="38"/>
-      <c r="BY75" s="38"/>
-      <c r="BZ75" s="38"/>
+    <row r="75" spans="1:78" s="114" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="130"/>
+      <c r="B75" s="131"/>
+      <c r="C75" s="132" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" s="133"/>
+      <c r="E75" s="134"/>
+      <c r="F75" s="134"/>
+      <c r="G75" s="135"/>
+      <c r="H75" s="136"/>
+      <c r="I75" s="137"/>
+      <c r="J75" s="138"/>
+      <c r="K75" s="139"/>
+      <c r="L75" s="139"/>
+      <c r="M75" s="139"/>
+      <c r="N75" s="139"/>
+      <c r="O75" s="139"/>
+      <c r="P75" s="139"/>
+      <c r="Q75" s="139"/>
+      <c r="R75" s="139"/>
+      <c r="S75" s="139"/>
+      <c r="T75" s="139"/>
+      <c r="U75" s="139"/>
+      <c r="V75" s="139"/>
+      <c r="W75" s="139"/>
+      <c r="X75" s="139"/>
+      <c r="Y75" s="139"/>
+      <c r="Z75" s="139"/>
+      <c r="AA75" s="139"/>
+      <c r="AB75" s="139"/>
+      <c r="AC75" s="139"/>
+      <c r="AD75" s="139"/>
+      <c r="AE75" s="139"/>
+      <c r="AF75" s="139"/>
+      <c r="AG75" s="139"/>
+      <c r="AH75" s="139"/>
+      <c r="AI75" s="139"/>
+      <c r="AJ75" s="139"/>
+      <c r="AK75" s="139"/>
+      <c r="AL75" s="139"/>
+      <c r="AM75" s="139"/>
+      <c r="AN75" s="139"/>
+      <c r="AO75" s="139"/>
+      <c r="AP75" s="139"/>
+      <c r="AQ75" s="139"/>
+      <c r="AR75" s="139"/>
+      <c r="AS75" s="139"/>
+      <c r="AT75" s="139"/>
+      <c r="AU75" s="139"/>
+      <c r="AV75" s="139"/>
+      <c r="AW75" s="139"/>
+      <c r="AX75" s="139"/>
+      <c r="AY75" s="139"/>
+      <c r="AZ75" s="139"/>
+      <c r="BA75" s="139"/>
+      <c r="BB75" s="139"/>
+      <c r="BC75" s="139"/>
+      <c r="BD75" s="139"/>
+      <c r="BE75" s="139"/>
+      <c r="BF75" s="139"/>
+      <c r="BG75" s="139"/>
+      <c r="BH75" s="139"/>
+      <c r="BI75" s="139"/>
+      <c r="BJ75" s="139"/>
+      <c r="BK75" s="139"/>
+      <c r="BL75" s="139"/>
+      <c r="BM75" s="139"/>
+      <c r="BN75" s="139"/>
+      <c r="BO75" s="139"/>
+      <c r="BP75" s="139"/>
+      <c r="BQ75" s="139"/>
+      <c r="BR75" s="139"/>
+      <c r="BS75" s="139"/>
+      <c r="BT75" s="139"/>
+      <c r="BU75" s="139"/>
+      <c r="BV75" s="139"/>
+      <c r="BW75" s="139"/>
+      <c r="BX75" s="139"/>
+      <c r="BY75" s="139"/>
+      <c r="BZ75" s="139"/>
     </row>
-    <row r="76" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="32"/>
-      <c r="B76" s="76"/>
-      <c r="C76" s="80"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="38"/>
-      <c r="M76" s="38"/>
-      <c r="N76" s="44"/>
-      <c r="O76" s="44"/>
-      <c r="P76" s="44"/>
-      <c r="Q76" s="44"/>
-      <c r="R76" s="44"/>
-      <c r="S76" s="38"/>
-      <c r="T76" s="38"/>
-      <c r="U76" s="38"/>
-      <c r="V76" s="38"/>
-      <c r="W76" s="38"/>
-      <c r="X76" s="38"/>
-      <c r="Y76" s="38"/>
-      <c r="Z76" s="38"/>
-      <c r="AA76" s="38"/>
-      <c r="AB76" s="38"/>
-      <c r="AC76" s="39"/>
-      <c r="AD76" s="39"/>
-      <c r="AE76" s="39"/>
-      <c r="AF76" s="39"/>
-      <c r="AG76" s="39"/>
-      <c r="AH76" s="38"/>
-      <c r="AI76" s="38"/>
-      <c r="AJ76" s="38"/>
-      <c r="AK76" s="38"/>
-      <c r="AL76" s="38"/>
-      <c r="AM76" s="38"/>
-      <c r="AN76" s="38"/>
-      <c r="AO76" s="38"/>
-      <c r="AP76" s="38"/>
-      <c r="AQ76" s="38"/>
-      <c r="AR76" s="40"/>
-      <c r="AS76" s="40"/>
-      <c r="AT76" s="40"/>
-      <c r="AU76" s="40"/>
-      <c r="AV76" s="40"/>
-      <c r="AW76" s="38"/>
-      <c r="AX76" s="38"/>
-      <c r="AY76" s="38"/>
-      <c r="AZ76" s="38"/>
-      <c r="BA76" s="38"/>
-      <c r="BB76" s="38"/>
-      <c r="BC76" s="38"/>
-      <c r="BD76" s="38"/>
-      <c r="BE76" s="38"/>
-      <c r="BF76" s="38"/>
-      <c r="BG76" s="41"/>
-      <c r="BH76" s="41"/>
-      <c r="BI76" s="41"/>
-      <c r="BJ76" s="41"/>
-      <c r="BK76" s="41"/>
-      <c r="BL76" s="38"/>
-      <c r="BM76" s="38"/>
-      <c r="BN76" s="38"/>
-      <c r="BO76" s="38"/>
-      <c r="BP76" s="38"/>
-      <c r="BQ76" s="38"/>
-      <c r="BR76" s="38"/>
-      <c r="BS76" s="38"/>
-      <c r="BT76" s="38"/>
-      <c r="BU76" s="38"/>
-      <c r="BV76" s="38"/>
-      <c r="BW76" s="38"/>
-      <c r="BX76" s="38"/>
-      <c r="BY76" s="38"/>
-      <c r="BZ76" s="38"/>
+    <row r="76" spans="1:78" s="114" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="130"/>
+      <c r="B76" s="131"/>
+      <c r="C76" s="132"/>
+      <c r="D76" s="133"/>
+      <c r="E76" s="134"/>
+      <c r="F76" s="134"/>
+      <c r="G76" s="135"/>
+      <c r="H76" s="136"/>
+      <c r="I76" s="137"/>
+      <c r="J76" s="138"/>
+      <c r="K76" s="139"/>
+      <c r="L76" s="139"/>
+      <c r="M76" s="139"/>
+      <c r="N76" s="139"/>
+      <c r="O76" s="139"/>
+      <c r="P76" s="139"/>
+      <c r="Q76" s="139"/>
+      <c r="R76" s="139"/>
+      <c r="S76" s="139"/>
+      <c r="T76" s="139"/>
+      <c r="U76" s="139"/>
+      <c r="V76" s="139"/>
+      <c r="W76" s="139"/>
+      <c r="X76" s="139"/>
+      <c r="Y76" s="139"/>
+      <c r="Z76" s="139"/>
+      <c r="AA76" s="139"/>
+      <c r="AB76" s="139"/>
+      <c r="AC76" s="139"/>
+      <c r="AD76" s="139"/>
+      <c r="AE76" s="139"/>
+      <c r="AF76" s="139"/>
+      <c r="AG76" s="139"/>
+      <c r="AH76" s="139"/>
+      <c r="AI76" s="139"/>
+      <c r="AJ76" s="139"/>
+      <c r="AK76" s="139"/>
+      <c r="AL76" s="139"/>
+      <c r="AM76" s="139"/>
+      <c r="AN76" s="139"/>
+      <c r="AO76" s="139"/>
+      <c r="AP76" s="139"/>
+      <c r="AQ76" s="139"/>
+      <c r="AR76" s="139"/>
+      <c r="AS76" s="139"/>
+      <c r="AT76" s="139"/>
+      <c r="AU76" s="139"/>
+      <c r="AV76" s="139"/>
+      <c r="AW76" s="139"/>
+      <c r="AX76" s="139"/>
+      <c r="AY76" s="139"/>
+      <c r="AZ76" s="139"/>
+      <c r="BA76" s="139"/>
+      <c r="BB76" s="139"/>
+      <c r="BC76" s="139"/>
+      <c r="BD76" s="139"/>
+      <c r="BE76" s="139"/>
+      <c r="BF76" s="139"/>
+      <c r="BG76" s="139"/>
+      <c r="BH76" s="139"/>
+      <c r="BI76" s="139"/>
+      <c r="BJ76" s="139"/>
+      <c r="BK76" s="139"/>
+      <c r="BL76" s="139"/>
+      <c r="BM76" s="139"/>
+      <c r="BN76" s="139"/>
+      <c r="BO76" s="139"/>
+      <c r="BP76" s="139"/>
+      <c r="BQ76" s="139"/>
+      <c r="BR76" s="139"/>
+      <c r="BS76" s="139"/>
+      <c r="BT76" s="139"/>
+      <c r="BU76" s="139"/>
+      <c r="BV76" s="139"/>
+      <c r="BW76" s="139"/>
+      <c r="BX76" s="139"/>
+      <c r="BY76" s="139"/>
+      <c r="BZ76" s="139"/>
     </row>
-    <row r="77" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="32"/>
-      <c r="B77" s="76"/>
-      <c r="C77" s="80"/>
-      <c r="D77" s="77"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="38"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="44"/>
-      <c r="O77" s="44"/>
-      <c r="P77" s="44"/>
-      <c r="Q77" s="44"/>
-      <c r="R77" s="44"/>
-      <c r="S77" s="38"/>
-      <c r="T77" s="38"/>
-      <c r="U77" s="38"/>
-      <c r="V77" s="38"/>
-      <c r="W77" s="38"/>
-      <c r="X77" s="38"/>
-      <c r="Y77" s="38"/>
-      <c r="Z77" s="38"/>
-      <c r="AA77" s="38"/>
-      <c r="AB77" s="38"/>
-      <c r="AC77" s="39"/>
-      <c r="AD77" s="39"/>
-      <c r="AE77" s="39"/>
-      <c r="AF77" s="39"/>
-      <c r="AG77" s="39"/>
-      <c r="AH77" s="38"/>
-      <c r="AI77" s="38"/>
-      <c r="AJ77" s="38"/>
-      <c r="AK77" s="38"/>
-      <c r="AL77" s="38"/>
-      <c r="AM77" s="38"/>
-      <c r="AN77" s="38"/>
-      <c r="AO77" s="38"/>
-      <c r="AP77" s="38"/>
-      <c r="AQ77" s="38"/>
-      <c r="AR77" s="40"/>
-      <c r="AS77" s="40"/>
-      <c r="AT77" s="40"/>
-      <c r="AU77" s="40"/>
-      <c r="AV77" s="40"/>
-      <c r="AW77" s="38"/>
-      <c r="AX77" s="38"/>
-      <c r="AY77" s="38"/>
-      <c r="AZ77" s="38"/>
-      <c r="BA77" s="38"/>
-      <c r="BB77" s="38"/>
-      <c r="BC77" s="38"/>
-      <c r="BD77" s="38"/>
-      <c r="BE77" s="38"/>
-      <c r="BF77" s="38"/>
-      <c r="BG77" s="41"/>
-      <c r="BH77" s="41"/>
-      <c r="BI77" s="41"/>
-      <c r="BJ77" s="41"/>
-      <c r="BK77" s="41"/>
-      <c r="BL77" s="38"/>
-      <c r="BM77" s="38"/>
-      <c r="BN77" s="38"/>
-      <c r="BO77" s="38"/>
-      <c r="BP77" s="38"/>
-      <c r="BQ77" s="38"/>
-      <c r="BR77" s="38"/>
-      <c r="BS77" s="38"/>
-      <c r="BT77" s="38"/>
-      <c r="BU77" s="38"/>
-      <c r="BV77" s="38"/>
-      <c r="BW77" s="38"/>
-      <c r="BX77" s="38"/>
-      <c r="BY77" s="38"/>
-      <c r="BZ77" s="38"/>
+    <row r="77" spans="1:78" s="97" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="94"/>
+      <c r="B77" s="81"/>
+      <c r="C77" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="83"/>
+      <c r="E77" s="84"/>
+      <c r="F77" s="84"/>
+      <c r="G77" s="85"/>
+      <c r="H77" s="86"/>
+      <c r="I77" s="87"/>
+      <c r="J77" s="88"/>
+      <c r="K77" s="89"/>
+      <c r="L77" s="89"/>
+      <c r="M77" s="89"/>
+      <c r="N77" s="90"/>
+      <c r="O77" s="90"/>
+      <c r="P77" s="90"/>
+      <c r="Q77" s="90"/>
+      <c r="R77" s="90"/>
+      <c r="S77" s="89"/>
+      <c r="T77" s="89"/>
+      <c r="U77" s="89"/>
+      <c r="V77" s="89"/>
+      <c r="W77" s="89"/>
+      <c r="X77" s="89"/>
+      <c r="Y77" s="89"/>
+      <c r="Z77" s="89"/>
+      <c r="AA77" s="89"/>
+      <c r="AB77" s="89"/>
+      <c r="AC77" s="91"/>
+      <c r="AD77" s="91"/>
+      <c r="AE77" s="91"/>
+      <c r="AF77" s="91"/>
+      <c r="AG77" s="91"/>
+      <c r="AH77" s="89"/>
+      <c r="AI77" s="89"/>
+      <c r="AJ77" s="89"/>
+      <c r="AK77" s="89"/>
+      <c r="AL77" s="89"/>
+      <c r="AM77" s="89"/>
+      <c r="AN77" s="89"/>
+      <c r="AO77" s="89"/>
+      <c r="AP77" s="89"/>
+      <c r="AQ77" s="89"/>
+      <c r="AR77" s="92"/>
+      <c r="AS77" s="92"/>
+      <c r="AT77" s="92"/>
+      <c r="AU77" s="92"/>
+      <c r="AV77" s="92"/>
+      <c r="AW77" s="89"/>
+      <c r="AX77" s="89"/>
+      <c r="AY77" s="89"/>
+      <c r="AZ77" s="89"/>
+      <c r="BA77" s="89"/>
+      <c r="BB77" s="89"/>
+      <c r="BC77" s="89"/>
+      <c r="BD77" s="89"/>
+      <c r="BE77" s="89"/>
+      <c r="BF77" s="89"/>
+      <c r="BG77" s="93"/>
+      <c r="BH77" s="93"/>
+      <c r="BI77" s="93"/>
+      <c r="BJ77" s="93"/>
+      <c r="BK77" s="93"/>
+      <c r="BL77" s="89"/>
+      <c r="BM77" s="89"/>
+      <c r="BN77" s="89"/>
+      <c r="BO77" s="89"/>
+      <c r="BP77" s="89"/>
+      <c r="BQ77" s="89"/>
+      <c r="BR77" s="89"/>
+      <c r="BS77" s="89"/>
+      <c r="BT77" s="89"/>
+      <c r="BU77" s="89"/>
+      <c r="BV77" s="89"/>
+      <c r="BW77" s="89"/>
+      <c r="BX77" s="89"/>
+      <c r="BY77" s="89"/>
+      <c r="BZ77" s="89"/>
     </row>
-    <row r="78" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
-      <c r="B78" s="76"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="77"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="54"/>
       <c r="E78" s="35"/>
       <c r="F78" s="35"/>
       <c r="G78" s="36"/>
@@ -8083,12 +8518,12 @@
       <c r="AE78" s="39"/>
       <c r="AF78" s="39"/>
       <c r="AG78" s="39"/>
-      <c r="AH78" s="38"/>
-      <c r="AI78" s="38"/>
-      <c r="AJ78" s="38"/>
-      <c r="AK78" s="38"/>
-      <c r="AL78" s="38"/>
-      <c r="AM78" s="38"/>
+      <c r="AH78" s="158"/>
+      <c r="AI78" s="158"/>
+      <c r="AJ78" s="158"/>
+      <c r="AK78" s="158"/>
+      <c r="AL78" s="158"/>
+      <c r="AM78" s="58"/>
       <c r="AN78" s="38"/>
       <c r="AO78" s="38"/>
       <c r="AP78" s="38"/>
@@ -8129,11 +8564,13 @@
       <c r="BY78" s="38"/>
       <c r="BZ78" s="38"/>
     </row>
-    <row r="79" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="32"/>
-      <c r="B79" s="76"/>
-      <c r="C79" s="80"/>
-      <c r="D79" s="77"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="54"/>
       <c r="E79" s="35"/>
       <c r="F79" s="35"/>
       <c r="G79" s="36"/>
@@ -8163,12 +8600,12 @@
       <c r="AE79" s="39"/>
       <c r="AF79" s="39"/>
       <c r="AG79" s="39"/>
-      <c r="AH79" s="38"/>
-      <c r="AI79" s="38"/>
-      <c r="AJ79" s="38"/>
-      <c r="AK79" s="38"/>
-      <c r="AL79" s="38"/>
-      <c r="AM79" s="38"/>
+      <c r="AH79" s="158"/>
+      <c r="AI79" s="158"/>
+      <c r="AJ79" s="158"/>
+      <c r="AK79" s="158"/>
+      <c r="AL79" s="158"/>
+      <c r="AM79" s="58"/>
       <c r="AN79" s="38"/>
       <c r="AO79" s="38"/>
       <c r="AP79" s="38"/>
@@ -8209,11 +8646,11 @@
       <c r="BY79" s="38"/>
       <c r="BZ79" s="38"/>
     </row>
-    <row r="80" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="32"/>
-      <c r="B80" s="76"/>
-      <c r="C80" s="80"/>
-      <c r="D80" s="77"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="54"/>
       <c r="E80" s="35"/>
       <c r="F80" s="35"/>
       <c r="G80" s="36"/>
@@ -8245,7 +8682,7 @@
       <c r="AG80" s="39"/>
       <c r="AH80" s="38"/>
       <c r="AI80" s="38"/>
-      <c r="AJ80" s="38"/>
+      <c r="AJ80" s="139"/>
       <c r="AK80" s="38"/>
       <c r="AL80" s="38"/>
       <c r="AM80" s="38"/>
@@ -8289,11 +8726,11 @@
       <c r="BY80" s="38"/>
       <c r="BZ80" s="38"/>
     </row>
-    <row r="81" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="32"/>
-      <c r="B81" s="76"/>
-      <c r="C81" s="80"/>
-      <c r="D81" s="77"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="54"/>
       <c r="E81" s="35"/>
       <c r="F81" s="35"/>
       <c r="G81" s="36"/>
@@ -8325,7 +8762,7 @@
       <c r="AG81" s="39"/>
       <c r="AH81" s="38"/>
       <c r="AI81" s="38"/>
-      <c r="AJ81" s="38"/>
+      <c r="AJ81" s="139"/>
       <c r="AK81" s="38"/>
       <c r="AL81" s="38"/>
       <c r="AM81" s="38"/>
@@ -8369,11 +8806,11 @@
       <c r="BY81" s="38"/>
       <c r="BZ81" s="38"/>
     </row>
-    <row r="82" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="32"/>
-      <c r="B82" s="76"/>
-      <c r="C82" s="81"/>
-      <c r="D82" s="77"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="54"/>
       <c r="E82" s="35"/>
       <c r="F82" s="35"/>
       <c r="G82" s="36"/>
@@ -8405,7 +8842,7 @@
       <c r="AG82" s="39"/>
       <c r="AH82" s="38"/>
       <c r="AI82" s="38"/>
-      <c r="AJ82" s="38"/>
+      <c r="AJ82" s="139"/>
       <c r="AK82" s="38"/>
       <c r="AL82" s="38"/>
       <c r="AM82" s="38"/>
@@ -8449,112 +8886,95 @@
       <c r="BY82" s="38"/>
       <c r="BZ82" s="38"/>
     </row>
-    <row r="83" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="26">
-        <v>4</v>
-      </c>
-      <c r="C83" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="31"/>
-      <c r="L83" s="31"/>
-      <c r="M83" s="29"/>
-      <c r="N83" s="29"/>
-      <c r="O83" s="29"/>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="29"/>
-      <c r="R83" s="29"/>
-      <c r="S83" s="29"/>
-      <c r="T83" s="29"/>
-      <c r="U83" s="29"/>
-      <c r="V83" s="29"/>
-      <c r="W83" s="29"/>
-      <c r="X83" s="29"/>
-      <c r="Y83" s="29"/>
-      <c r="Z83" s="29"/>
-      <c r="AA83" s="29"/>
-      <c r="AB83" s="29"/>
-      <c r="AC83" s="29"/>
-      <c r="AD83" s="29"/>
-      <c r="AE83" s="29"/>
-      <c r="AF83" s="29"/>
-      <c r="AG83" s="29"/>
-      <c r="AH83" s="29"/>
-      <c r="AI83" s="29"/>
-      <c r="AJ83" s="29"/>
-      <c r="AK83" s="29"/>
-      <c r="AL83" s="29"/>
-      <c r="AM83" s="29"/>
-      <c r="AN83" s="29"/>
-      <c r="AO83" s="29"/>
-      <c r="AP83" s="29"/>
-      <c r="AQ83" s="29"/>
-      <c r="AR83" s="29"/>
-      <c r="AS83" s="29"/>
-      <c r="AT83" s="29"/>
-      <c r="AU83" s="29"/>
-      <c r="AV83" s="29"/>
-      <c r="AW83" s="29"/>
-      <c r="AX83" s="29"/>
-      <c r="AY83" s="29"/>
-      <c r="AZ83" s="29"/>
-      <c r="BA83" s="29"/>
-      <c r="BB83" s="29"/>
-      <c r="BC83" s="29"/>
-      <c r="BD83" s="29"/>
-      <c r="BE83" s="29"/>
-      <c r="BF83" s="29"/>
-      <c r="BG83" s="29"/>
-      <c r="BH83" s="29"/>
-      <c r="BI83" s="29"/>
-      <c r="BJ83" s="29"/>
-      <c r="BK83" s="29"/>
-      <c r="BL83" s="29"/>
-      <c r="BM83" s="29"/>
-      <c r="BN83" s="29"/>
-      <c r="BO83" s="29"/>
-      <c r="BP83" s="29"/>
-      <c r="BQ83" s="29"/>
-      <c r="BR83" s="29"/>
-      <c r="BS83" s="29"/>
-      <c r="BT83" s="29"/>
-      <c r="BU83" s="29"/>
-      <c r="BV83" s="29"/>
-      <c r="BW83" s="29"/>
-      <c r="BX83" s="29"/>
-      <c r="BY83" s="29"/>
-      <c r="BZ83" s="29"/>
+    <row r="83" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="32"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="38"/>
+      <c r="M83" s="38"/>
+      <c r="N83" s="44"/>
+      <c r="O83" s="44"/>
+      <c r="P83" s="44"/>
+      <c r="Q83" s="44"/>
+      <c r="R83" s="44"/>
+      <c r="S83" s="38"/>
+      <c r="T83" s="38"/>
+      <c r="U83" s="38"/>
+      <c r="V83" s="38"/>
+      <c r="W83" s="38"/>
+      <c r="X83" s="38"/>
+      <c r="Y83" s="38"/>
+      <c r="Z83" s="38"/>
+      <c r="AA83" s="38"/>
+      <c r="AB83" s="38"/>
+      <c r="AC83" s="39"/>
+      <c r="AD83" s="39"/>
+      <c r="AE83" s="39"/>
+      <c r="AF83" s="39"/>
+      <c r="AG83" s="39"/>
+      <c r="AH83" s="38"/>
+      <c r="AI83" s="38"/>
+      <c r="AJ83" s="139"/>
+      <c r="AK83" s="38"/>
+      <c r="AL83" s="38"/>
+      <c r="AM83" s="38"/>
+      <c r="AN83" s="38"/>
+      <c r="AO83" s="38"/>
+      <c r="AP83" s="38"/>
+      <c r="AQ83" s="38"/>
+      <c r="AR83" s="40"/>
+      <c r="AS83" s="40"/>
+      <c r="AT83" s="40"/>
+      <c r="AU83" s="40"/>
+      <c r="AV83" s="40"/>
+      <c r="AW83" s="38"/>
+      <c r="AX83" s="38"/>
+      <c r="AY83" s="38"/>
+      <c r="AZ83" s="38"/>
+      <c r="BA83" s="38"/>
+      <c r="BB83" s="38"/>
+      <c r="BC83" s="38"/>
+      <c r="BD83" s="38"/>
+      <c r="BE83" s="38"/>
+      <c r="BF83" s="38"/>
+      <c r="BG83" s="41"/>
+      <c r="BH83" s="41"/>
+      <c r="BI83" s="41"/>
+      <c r="BJ83" s="41"/>
+      <c r="BK83" s="41"/>
+      <c r="BL83" s="38"/>
+      <c r="BM83" s="38"/>
+      <c r="BN83" s="38"/>
+      <c r="BO83" s="38"/>
+      <c r="BP83" s="38"/>
+      <c r="BQ83" s="38"/>
+      <c r="BR83" s="38"/>
+      <c r="BS83" s="38"/>
+      <c r="BT83" s="38"/>
+      <c r="BU83" s="38"/>
+      <c r="BV83" s="38"/>
+      <c r="BW83" s="38"/>
+      <c r="BX83" s="38"/>
+      <c r="BY83" s="38"/>
+      <c r="BZ83" s="38"/>
     </row>
-    <row r="84" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="33">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C84" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="D84" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E84" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="F84" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="G84" s="36" t="e">
-        <f>DAYS360(E84,F84)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H84" s="37">
-        <v>1</v>
-      </c>
+    <row r="84" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="32"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="37"/>
       <c r="I84" s="42"/>
       <c r="J84" s="43"/>
       <c r="K84" s="38"/>
@@ -8582,7 +9002,7 @@
       <c r="AG84" s="39"/>
       <c r="AH84" s="38"/>
       <c r="AI84" s="38"/>
-      <c r="AJ84" s="38"/>
+      <c r="AJ84" s="139"/>
       <c r="AK84" s="38"/>
       <c r="AL84" s="38"/>
       <c r="AM84" s="38"/>
@@ -8626,118 +9046,108 @@
       <c r="BY84" s="38"/>
       <c r="BZ84" s="38"/>
     </row>
-    <row r="85" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="33">
-        <v>4.2</v>
-      </c>
-      <c r="C85" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="D85" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E85" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="F85" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="G85" s="36">
-        <v>0</v>
-      </c>
-      <c r="H85" s="37">
-        <v>1</v>
-      </c>
-      <c r="I85" s="42"/>
-      <c r="J85" s="43"/>
-      <c r="K85" s="38"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="38"/>
-      <c r="N85" s="44"/>
-      <c r="O85" s="44"/>
-      <c r="P85" s="44"/>
-      <c r="Q85" s="44"/>
-      <c r="R85" s="44"/>
-      <c r="S85" s="38"/>
-      <c r="T85" s="38"/>
-      <c r="U85" s="38"/>
-      <c r="V85" s="38"/>
-      <c r="W85" s="38"/>
-      <c r="X85" s="38"/>
-      <c r="Y85" s="38"/>
-      <c r="Z85" s="38"/>
-      <c r="AA85" s="38"/>
-      <c r="AB85" s="38"/>
-      <c r="AC85" s="39"/>
-      <c r="AD85" s="39"/>
-      <c r="AE85" s="39"/>
-      <c r="AF85" s="39"/>
-      <c r="AG85" s="39"/>
-      <c r="AH85" s="38"/>
-      <c r="AI85" s="38"/>
-      <c r="AJ85" s="38"/>
-      <c r="AK85" s="38"/>
-      <c r="AL85" s="38"/>
-      <c r="AM85" s="38"/>
-      <c r="AN85" s="38"/>
-      <c r="AO85" s="38"/>
-      <c r="AP85" s="38"/>
-      <c r="AQ85" s="38"/>
-      <c r="AR85" s="40"/>
-      <c r="AS85" s="40"/>
-      <c r="AT85" s="40"/>
-      <c r="AU85" s="40"/>
-      <c r="AV85" s="40"/>
-      <c r="AW85" s="38"/>
-      <c r="AX85" s="38"/>
-      <c r="AY85" s="38"/>
-      <c r="AZ85" s="38"/>
-      <c r="BA85" s="38"/>
-      <c r="BB85" s="38"/>
-      <c r="BC85" s="38"/>
-      <c r="BD85" s="38"/>
-      <c r="BE85" s="38"/>
-      <c r="BF85" s="38"/>
-      <c r="BG85" s="41"/>
-      <c r="BH85" s="41"/>
-      <c r="BI85" s="41"/>
-      <c r="BJ85" s="41"/>
-      <c r="BK85" s="41"/>
-      <c r="BL85" s="38"/>
-      <c r="BM85" s="38"/>
-      <c r="BN85" s="38"/>
-      <c r="BO85" s="38"/>
-      <c r="BP85" s="38"/>
-      <c r="BQ85" s="38"/>
-      <c r="BR85" s="38"/>
-      <c r="BS85" s="38"/>
-      <c r="BT85" s="38"/>
-      <c r="BU85" s="38"/>
-      <c r="BV85" s="38"/>
-      <c r="BW85" s="38"/>
-      <c r="BX85" s="38"/>
-      <c r="BY85" s="38"/>
-      <c r="BZ85" s="38"/>
+    <row r="85" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="26">
+        <v>4</v>
+      </c>
+      <c r="C85" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="31"/>
+      <c r="L85" s="31"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="29"/>
+      <c r="Q85" s="29"/>
+      <c r="R85" s="29"/>
+      <c r="S85" s="29"/>
+      <c r="T85" s="29"/>
+      <c r="U85" s="29"/>
+      <c r="V85" s="29"/>
+      <c r="W85" s="29"/>
+      <c r="X85" s="29"/>
+      <c r="Y85" s="29"/>
+      <c r="Z85" s="29"/>
+      <c r="AA85" s="29"/>
+      <c r="AB85" s="29"/>
+      <c r="AC85" s="29"/>
+      <c r="AD85" s="29"/>
+      <c r="AE85" s="29"/>
+      <c r="AF85" s="29"/>
+      <c r="AG85" s="29"/>
+      <c r="AH85" s="29"/>
+      <c r="AI85" s="29"/>
+      <c r="AJ85" s="29"/>
+      <c r="AK85" s="29"/>
+      <c r="AL85" s="29"/>
+      <c r="AM85" s="29"/>
+      <c r="AN85" s="29"/>
+      <c r="AO85" s="29"/>
+      <c r="AP85" s="29"/>
+      <c r="AQ85" s="29"/>
+      <c r="AR85" s="29"/>
+      <c r="AS85" s="29"/>
+      <c r="AT85" s="29"/>
+      <c r="AU85" s="29"/>
+      <c r="AV85" s="29"/>
+      <c r="AW85" s="29"/>
+      <c r="AX85" s="29"/>
+      <c r="AY85" s="29"/>
+      <c r="AZ85" s="29"/>
+      <c r="BA85" s="29"/>
+      <c r="BB85" s="29"/>
+      <c r="BC85" s="29"/>
+      <c r="BD85" s="29"/>
+      <c r="BE85" s="29"/>
+      <c r="BF85" s="29"/>
+      <c r="BG85" s="29"/>
+      <c r="BH85" s="29"/>
+      <c r="BI85" s="29"/>
+      <c r="BJ85" s="29"/>
+      <c r="BK85" s="29"/>
+      <c r="BL85" s="29"/>
+      <c r="BM85" s="29"/>
+      <c r="BN85" s="29"/>
+      <c r="BO85" s="29"/>
+      <c r="BP85" s="29"/>
+      <c r="BQ85" s="29"/>
+      <c r="BR85" s="29"/>
+      <c r="BS85" s="29"/>
+      <c r="BT85" s="29"/>
+      <c r="BU85" s="29"/>
+      <c r="BV85" s="29"/>
+      <c r="BW85" s="29"/>
+      <c r="BX85" s="29"/>
+      <c r="BY85" s="29"/>
+      <c r="BZ85" s="29"/>
     </row>
-    <row r="86" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="33" t="s">
-        <v>64</v>
+    <row r="86" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="33">
+        <v>4.0999999999999996</v>
       </c>
       <c r="C86" s="47" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D86" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E86" s="35">
-        <v>44823</v>
-      </c>
-      <c r="F86" s="35">
-        <v>44823</v>
-      </c>
-      <c r="G86" s="36">
-        <f t="shared" ref="G86:G90" si="6">DAYS360(E86,F86)</f>
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="E86" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F86" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G86" s="36" t="e">
+        <f>DAYS360(E86,F86)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="H86" s="37">
         <v>1</v>
@@ -8769,7 +9179,7 @@
       <c r="AG86" s="39"/>
       <c r="AH86" s="38"/>
       <c r="AI86" s="38"/>
-      <c r="AJ86" s="38"/>
+      <c r="AJ86" s="139"/>
       <c r="AK86" s="38"/>
       <c r="AL86" s="38"/>
       <c r="AM86" s="38"/>
@@ -8813,27 +9223,26 @@
       <c r="BY86" s="38"/>
       <c r="BZ86" s="38"/>
     </row>
-    <row r="87" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="33" t="s">
-        <v>66</v>
+    <row r="87" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="33">
+        <v>4.2</v>
       </c>
       <c r="C87" s="47" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D87" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E87" s="35">
-        <v>44829</v>
-      </c>
-      <c r="F87" s="35">
-        <v>44829</v>
+        <v>23</v>
+      </c>
+      <c r="E87" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="G87" s="36">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H87" s="52">
+      <c r="H87" s="37">
         <v>1</v>
       </c>
       <c r="I87" s="42"/>
@@ -8863,7 +9272,7 @@
       <c r="AG87" s="39"/>
       <c r="AH87" s="38"/>
       <c r="AI87" s="38"/>
-      <c r="AJ87" s="38"/>
+      <c r="AJ87" s="139"/>
       <c r="AK87" s="38"/>
       <c r="AL87" s="38"/>
       <c r="AM87" s="38"/>
@@ -8907,24 +9316,24 @@
       <c r="BY87" s="38"/>
       <c r="BZ87" s="38"/>
     </row>
-    <row r="88" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="33" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C88" s="47" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D88" s="34" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E88" s="35">
-        <v>44830</v>
+        <v>44823</v>
       </c>
       <c r="F88" s="35">
-        <v>44830</v>
+        <v>44823</v>
       </c>
       <c r="G88" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G88:G92" si="4">DAYS360(E88,F88)</f>
         <v>0</v>
       </c>
       <c r="H88" s="37">
@@ -8957,7 +9366,7 @@
       <c r="AG88" s="39"/>
       <c r="AH88" s="38"/>
       <c r="AI88" s="38"/>
-      <c r="AJ88" s="38"/>
+      <c r="AJ88" s="139"/>
       <c r="AK88" s="38"/>
       <c r="AL88" s="38"/>
       <c r="AM88" s="38"/>
@@ -9001,27 +9410,27 @@
       <c r="BY88" s="38"/>
       <c r="BZ88" s="38"/>
     </row>
-    <row r="89" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="33" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C89" s="47" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="D89" s="34" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E89" s="35">
-        <v>44837</v>
+        <v>44829</v>
       </c>
       <c r="F89" s="35">
-        <v>44837</v>
+        <v>44829</v>
       </c>
       <c r="G89" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H89" s="37">
+      <c r="H89" s="52">
         <v>1</v>
       </c>
       <c r="I89" s="42"/>
@@ -9051,7 +9460,7 @@
       <c r="AG89" s="39"/>
       <c r="AH89" s="38"/>
       <c r="AI89" s="38"/>
-      <c r="AJ89" s="38"/>
+      <c r="AJ89" s="139"/>
       <c r="AK89" s="38"/>
       <c r="AL89" s="38"/>
       <c r="AM89" s="38"/>
@@ -9095,26 +9504,28 @@
       <c r="BY89" s="38"/>
       <c r="BZ89" s="38"/>
     </row>
-    <row r="90" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="33"/>
+    <row r="90" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="33" t="s">
+        <v>53</v>
+      </c>
       <c r="C90" s="47" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D90" s="34" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E90" s="35">
-        <v>44844</v>
+        <v>44830</v>
       </c>
       <c r="F90" s="35">
-        <v>44844</v>
+        <v>44830</v>
       </c>
       <c r="G90" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H90" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" s="42"/>
       <c r="J90" s="43"/>
@@ -9143,7 +9554,7 @@
       <c r="AG90" s="39"/>
       <c r="AH90" s="38"/>
       <c r="AI90" s="38"/>
-      <c r="AJ90" s="38"/>
+      <c r="AJ90" s="139"/>
       <c r="AK90" s="38"/>
       <c r="AL90" s="38"/>
       <c r="AM90" s="38"/>
@@ -9187,18 +9598,29 @@
       <c r="BY90" s="38"/>
       <c r="BZ90" s="38"/>
     </row>
-    <row r="91" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C91" s="47"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
+        <v>67</v>
+      </c>
+      <c r="C91" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="35">
+        <v>44837</v>
+      </c>
+      <c r="F91" s="35">
+        <v>44837</v>
+      </c>
       <c r="G91" s="36">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H91" s="37"/>
+      <c r="H91" s="37">
+        <v>1</v>
+      </c>
       <c r="I91" s="42"/>
       <c r="J91" s="43"/>
       <c r="K91" s="38"/>
@@ -9226,7 +9648,7 @@
       <c r="AG91" s="39"/>
       <c r="AH91" s="38"/>
       <c r="AI91" s="38"/>
-      <c r="AJ91" s="38"/>
+      <c r="AJ91" s="139"/>
       <c r="AK91" s="38"/>
       <c r="AL91" s="38"/>
       <c r="AM91" s="38"/>
@@ -9270,8 +9692,293 @@
       <c r="BY91" s="38"/>
       <c r="BZ91" s="38"/>
     </row>
+    <row r="92" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="33"/>
+      <c r="C92" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D92" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="35">
+        <v>44844</v>
+      </c>
+      <c r="F92" s="35">
+        <v>44844</v>
+      </c>
+      <c r="G92" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="37">
+        <v>1</v>
+      </c>
+      <c r="I92" s="42"/>
+      <c r="J92" s="43"/>
+      <c r="K92" s="38"/>
+      <c r="L92" s="38"/>
+      <c r="M92" s="38"/>
+      <c r="N92" s="44"/>
+      <c r="O92" s="44"/>
+      <c r="P92" s="44"/>
+      <c r="Q92" s="44"/>
+      <c r="R92" s="44"/>
+      <c r="S92" s="38"/>
+      <c r="T92" s="38"/>
+      <c r="U92" s="38"/>
+      <c r="V92" s="38"/>
+      <c r="W92" s="38"/>
+      <c r="X92" s="38"/>
+      <c r="Y92" s="38"/>
+      <c r="Z92" s="38"/>
+      <c r="AA92" s="38"/>
+      <c r="AB92" s="38"/>
+      <c r="AC92" s="39"/>
+      <c r="AD92" s="39"/>
+      <c r="AE92" s="39"/>
+      <c r="AF92" s="39"/>
+      <c r="AG92" s="39"/>
+      <c r="AH92" s="38"/>
+      <c r="AI92" s="38"/>
+      <c r="AJ92" s="139"/>
+      <c r="AK92" s="38"/>
+      <c r="AL92" s="38"/>
+      <c r="AM92" s="38"/>
+      <c r="AN92" s="38"/>
+      <c r="AO92" s="38"/>
+      <c r="AP92" s="38"/>
+      <c r="AQ92" s="38"/>
+      <c r="AR92" s="40"/>
+      <c r="AS92" s="40"/>
+      <c r="AT92" s="40"/>
+      <c r="AU92" s="40"/>
+      <c r="AV92" s="40"/>
+      <c r="AW92" s="38"/>
+      <c r="AX92" s="38"/>
+      <c r="AY92" s="38"/>
+      <c r="AZ92" s="38"/>
+      <c r="BA92" s="38"/>
+      <c r="BB92" s="38"/>
+      <c r="BC92" s="38"/>
+      <c r="BD92" s="38"/>
+      <c r="BE92" s="38"/>
+      <c r="BF92" s="38"/>
+      <c r="BG92" s="41"/>
+      <c r="BH92" s="41"/>
+      <c r="BI92" s="41"/>
+      <c r="BJ92" s="41"/>
+      <c r="BK92" s="41"/>
+      <c r="BL92" s="38"/>
+      <c r="BM92" s="38"/>
+      <c r="BN92" s="38"/>
+      <c r="BO92" s="38"/>
+      <c r="BP92" s="38"/>
+      <c r="BQ92" s="38"/>
+      <c r="BR92" s="38"/>
+      <c r="BS92" s="38"/>
+      <c r="BT92" s="38"/>
+      <c r="BU92" s="38"/>
+      <c r="BV92" s="38"/>
+      <c r="BW92" s="38"/>
+      <c r="BX92" s="38"/>
+      <c r="BY92" s="38"/>
+      <c r="BZ92" s="38"/>
+    </row>
+    <row r="93" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" s="140" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="35">
+        <v>44844</v>
+      </c>
+      <c r="F93" s="35">
+        <v>44844</v>
+      </c>
+      <c r="G93" s="36">
+        <f t="shared" ref="G93" si="5">DAYS360(E93,F93)</f>
+        <v>0</v>
+      </c>
+      <c r="H93" s="37">
+        <v>1</v>
+      </c>
+      <c r="I93" s="42"/>
+      <c r="J93" s="43"/>
+      <c r="K93" s="38"/>
+      <c r="L93" s="38"/>
+      <c r="M93" s="38"/>
+      <c r="N93" s="44"/>
+      <c r="O93" s="44"/>
+      <c r="P93" s="44"/>
+      <c r="Q93" s="44"/>
+      <c r="R93" s="44"/>
+      <c r="S93" s="38"/>
+      <c r="T93" s="38"/>
+      <c r="U93" s="38"/>
+      <c r="V93" s="38"/>
+      <c r="W93" s="38"/>
+      <c r="X93" s="38"/>
+      <c r="Y93" s="38"/>
+      <c r="Z93" s="38"/>
+      <c r="AA93" s="38"/>
+      <c r="AB93" s="38"/>
+      <c r="AC93" s="39"/>
+      <c r="AD93" s="39"/>
+      <c r="AE93" s="39"/>
+      <c r="AF93" s="39"/>
+      <c r="AG93" s="39"/>
+      <c r="AH93" s="38"/>
+      <c r="AI93" s="38"/>
+      <c r="AJ93" s="139"/>
+      <c r="AK93" s="38"/>
+      <c r="AL93" s="38"/>
+      <c r="AM93" s="38"/>
+      <c r="AN93" s="38"/>
+      <c r="AO93" s="38"/>
+      <c r="AP93" s="38"/>
+      <c r="AQ93" s="38"/>
+      <c r="AR93" s="40"/>
+      <c r="AS93" s="40"/>
+      <c r="AT93" s="40"/>
+      <c r="AU93" s="40"/>
+      <c r="AV93" s="40"/>
+      <c r="AW93" s="38"/>
+      <c r="AX93" s="38"/>
+      <c r="AY93" s="38"/>
+      <c r="AZ93" s="38"/>
+      <c r="BA93" s="38"/>
+      <c r="BB93" s="38"/>
+      <c r="BC93" s="38"/>
+      <c r="BD93" s="38"/>
+      <c r="BE93" s="38"/>
+      <c r="BF93" s="38"/>
+      <c r="BG93" s="41"/>
+      <c r="BH93" s="41"/>
+      <c r="BI93" s="41"/>
+      <c r="BJ93" s="41"/>
+      <c r="BK93" s="41"/>
+      <c r="BL93" s="38"/>
+      <c r="BM93" s="38"/>
+      <c r="BN93" s="38"/>
+      <c r="BO93" s="38"/>
+      <c r="BP93" s="38"/>
+      <c r="BQ93" s="38"/>
+      <c r="BR93" s="38"/>
+      <c r="BS93" s="38"/>
+      <c r="BT93" s="38"/>
+      <c r="BU93" s="38"/>
+      <c r="BV93" s="38"/>
+      <c r="BW93" s="38"/>
+      <c r="BX93" s="38"/>
+      <c r="BY93" s="38"/>
+      <c r="BZ93" s="38"/>
+    </row>
+    <row r="94" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="141"/>
+      <c r="C94" s="142"/>
+      <c r="D94" s="143"/>
+      <c r="E94" s="144"/>
+      <c r="F94" s="144"/>
+      <c r="G94" s="145"/>
+      <c r="H94" s="146"/>
+      <c r="I94" s="147"/>
+      <c r="J94" s="148"/>
+      <c r="K94" s="149"/>
+      <c r="L94" s="149"/>
+      <c r="M94" s="149"/>
+      <c r="N94" s="150"/>
+      <c r="O94" s="150"/>
+      <c r="P94" s="150"/>
+      <c r="Q94" s="150"/>
+      <c r="R94" s="150"/>
+      <c r="S94" s="149"/>
+      <c r="T94" s="149"/>
+      <c r="U94" s="149"/>
+      <c r="V94" s="149"/>
+      <c r="W94" s="149"/>
+      <c r="X94" s="149"/>
+      <c r="Y94" s="149"/>
+      <c r="Z94" s="149"/>
+      <c r="AA94" s="149"/>
+      <c r="AB94" s="149"/>
+      <c r="AC94" s="151"/>
+      <c r="AD94" s="151"/>
+      <c r="AE94" s="151"/>
+      <c r="AF94" s="151"/>
+      <c r="AG94" s="151"/>
+      <c r="AH94" s="149"/>
+      <c r="AI94" s="149"/>
+      <c r="AJ94" s="162"/>
+      <c r="AK94" s="149"/>
+      <c r="AL94" s="149"/>
+      <c r="AM94" s="149"/>
+      <c r="AN94" s="149"/>
+      <c r="AO94" s="149"/>
+      <c r="AP94" s="149"/>
+      <c r="AQ94" s="149"/>
+      <c r="AR94" s="152"/>
+      <c r="AS94" s="152"/>
+      <c r="AT94" s="152"/>
+      <c r="AU94" s="152"/>
+      <c r="AV94" s="152"/>
+      <c r="AW94" s="149"/>
+      <c r="AX94" s="149"/>
+      <c r="AY94" s="149"/>
+      <c r="AZ94" s="149"/>
+      <c r="BA94" s="149"/>
+      <c r="BB94" s="149"/>
+      <c r="BC94" s="149"/>
+      <c r="BD94" s="149"/>
+      <c r="BE94" s="149"/>
+      <c r="BF94" s="149"/>
+      <c r="BG94" s="153"/>
+      <c r="BH94" s="153"/>
+      <c r="BI94" s="153"/>
+      <c r="BJ94" s="153"/>
+      <c r="BK94" s="153"/>
+      <c r="BL94" s="149"/>
+      <c r="BM94" s="149"/>
+      <c r="BN94" s="149"/>
+      <c r="BO94" s="149"/>
+      <c r="BP94" s="149"/>
+      <c r="BQ94" s="149"/>
+      <c r="BR94" s="149"/>
+      <c r="BS94" s="149"/>
+      <c r="BT94" s="149"/>
+      <c r="BU94" s="149"/>
+      <c r="BV94" s="149"/>
+      <c r="BW94" s="149"/>
+      <c r="BX94" s="149"/>
+      <c r="BY94" s="149"/>
+      <c r="BZ94" s="149"/>
+    </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:W9"/>
+    <mergeCell ref="X9:AL9"/>
+    <mergeCell ref="AM9:BA9"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AH10:AL10"/>
+    <mergeCell ref="AM10:AQ10"/>
+    <mergeCell ref="AR10:AV10"/>
+    <mergeCell ref="AW10:BA10"/>
     <mergeCell ref="BB9:BZ9"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="N10:R10"/>
@@ -9288,30 +9995,10 @@
     <mergeCell ref="BQ10:BU10"/>
     <mergeCell ref="BV10:BZ10"/>
     <mergeCell ref="S10:W10"/>
-    <mergeCell ref="AM9:BA9"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AH10:AL10"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="AR10:AV10"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:W9"/>
-    <mergeCell ref="X9:AL9"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
-  <conditionalFormatting sqref="H12:H21 H23:H91">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="H12:H21 H23:H94">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9320,8 +10007,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H21 H23:H91">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="H12:H21 H23:H94">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9336,9 +10023,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9571,27 +10261,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9616,9 +10294,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/planningdocuments/gannt/GanttChart_POS 6.xlsx
+++ b/docs/planningdocuments/gannt/GanttChart_POS 6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CPS353-POS\docs\planningdocuments\gannt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1789DFD3-EE0E-4655-9AAA-8DB0ECF04048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3C5AA1-1000-4348-80C3-12621C9118AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="126">
   <si>
     <t>GANTT CHART</t>
   </si>
@@ -447,6 +447,21 @@
   <si>
     <t>Store Order History</t>
   </si>
+  <si>
+    <t>Generate CSRF Tokens</t>
+  </si>
+  <si>
+    <t>Meet with Denizard to discuss implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow classes to call password hash function </t>
+  </si>
+  <si>
+    <t>Integrate with User Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use PDO in DB connector, change query to prepare. </t>
+  </si>
 </sst>
 </file>
 
@@ -455,7 +470,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -670,8 +685,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -814,6 +835,12 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -997,7 +1024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1159,54 +1186,6 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1279,28 +1258,21 @@
     <xf numFmtId="3" fontId="24" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1342,73 +1314,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1423,17 +1367,8 @@
     <xf numFmtId="0" fontId="27" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="24" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1444,19 +1379,109 @@
     <xf numFmtId="0" fontId="24" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1775,23 +1800,21 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BZ94"/>
+  <dimension ref="A1:BZ103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B33" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q56" sqref="Q56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D28" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI44" sqref="AI44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="49.21875" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="9" max="35" width="3.44140625" customWidth="1"/>
-    <col min="36" max="36" width="3.44140625" style="114" customWidth="1"/>
-    <col min="37" max="78" width="3.44140625" customWidth="1"/>
+    <col min="9" max="78" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1830,7 +1853,7 @@
       <c r="AG1" s="9"/>
       <c r="AH1" s="9"/>
       <c r="AI1" s="9"/>
-      <c r="AJ1" s="159"/>
+      <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
       <c r="AM1" s="1"/>
@@ -1876,43 +1899,43 @@
     </row>
     <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="136"/>
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="136"/>
       <c r="AF2" s="11"/>
       <c r="AG2" s="11"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
-      <c r="AJ2" s="160"/>
+      <c r="AJ2" s="124"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
       <c r="AM2" s="1"/>
@@ -1992,7 +2015,7 @@
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
-      <c r="AJ3" s="159"/>
+      <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="1"/>
@@ -2038,41 +2061,41 @@
     </row>
     <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="76" t="s">
+      <c r="C4" s="140"/>
+      <c r="D4" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="77" t="s">
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="68"/>
+      <c r="Q4" s="142"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="142"/>
+      <c r="T4" s="142"/>
+      <c r="U4" s="142"/>
+      <c r="V4" s="142"/>
+      <c r="W4" s="142"/>
+      <c r="X4" s="142"/>
+      <c r="Y4" s="142"/>
+      <c r="Z4" s="142"/>
+      <c r="AA4" s="142"/>
+      <c r="AB4" s="142"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -2080,7 +2103,7 @@
       <c r="AG4" s="9"/>
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
-      <c r="AJ4" s="159"/>
+      <c r="AJ4" s="9"/>
       <c r="AK4" s="9"/>
       <c r="AL4" s="9"/>
       <c r="AM4" s="1"/>
@@ -2126,40 +2149,40 @@
     </row>
     <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67" t="s">
+      <c r="C5" s="140"/>
+      <c r="D5" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="69">
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="154">
         <v>44846</v>
       </c>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="142"/>
+      <c r="S5" s="142"/>
+      <c r="T5" s="142"/>
+      <c r="U5" s="142"/>
+      <c r="V5" s="142"/>
+      <c r="W5" s="142"/>
+      <c r="X5" s="142"/>
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="142"/>
+      <c r="AA5" s="142"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -2168,7 +2191,7 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
-      <c r="AJ5" s="161"/>
+      <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="20"/>
       <c r="AM5" s="1"/>
@@ -2252,7 +2275,7 @@
       <c r="AG6" s="21"/>
       <c r="AH6" s="21"/>
       <c r="AI6" s="21"/>
-      <c r="AJ6" s="107"/>
+      <c r="AJ6" s="21"/>
       <c r="AK6" s="21"/>
       <c r="AL6" s="21"/>
       <c r="AM6" s="21"/>
@@ -2336,7 +2359,7 @@
       <c r="AG7" s="21"/>
       <c r="AH7" s="21"/>
       <c r="AI7" s="21"/>
-      <c r="AJ7" s="107"/>
+      <c r="AJ7" s="21"/>
       <c r="AK7" s="21"/>
       <c r="AL7" s="21"/>
       <c r="AM7" s="21"/>
@@ -2416,7 +2439,7 @@
       <c r="AG8" s="21"/>
       <c r="AH8" s="21"/>
       <c r="AI8" s="21"/>
-      <c r="AJ8" s="107"/>
+      <c r="AJ8" s="21"/>
       <c r="AK8" s="21"/>
       <c r="AL8" s="21"/>
       <c r="AM8" s="21"/>
@@ -2462,205 +2485,205 @@
     </row>
     <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="70" t="s">
+      <c r="G9" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="78" t="s">
+      <c r="H9" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="80"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="60"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="60"/>
-      <c r="AH9" s="60"/>
-      <c r="AI9" s="60"/>
-      <c r="AJ9" s="60"/>
-      <c r="AK9" s="60"/>
-      <c r="AL9" s="60"/>
-      <c r="AM9" s="59"/>
-      <c r="AN9" s="60"/>
-      <c r="AO9" s="60"/>
-      <c r="AP9" s="60"/>
-      <c r="AQ9" s="60"/>
-      <c r="AR9" s="60"/>
-      <c r="AS9" s="60"/>
-      <c r="AT9" s="60"/>
-      <c r="AU9" s="60"/>
-      <c r="AV9" s="60"/>
-      <c r="AW9" s="60"/>
-      <c r="AX9" s="60"/>
-      <c r="AY9" s="60"/>
-      <c r="AZ9" s="60"/>
-      <c r="BA9" s="60"/>
-      <c r="BB9" s="59"/>
-      <c r="BC9" s="60"/>
-      <c r="BD9" s="60"/>
-      <c r="BE9" s="60"/>
-      <c r="BF9" s="60"/>
-      <c r="BG9" s="60"/>
-      <c r="BH9" s="60"/>
-      <c r="BI9" s="60"/>
-      <c r="BJ9" s="60"/>
-      <c r="BK9" s="60"/>
-      <c r="BL9" s="60"/>
-      <c r="BM9" s="60"/>
-      <c r="BN9" s="60"/>
-      <c r="BO9" s="60"/>
-      <c r="BP9" s="60"/>
-      <c r="BQ9" s="60"/>
-      <c r="BR9" s="60"/>
-      <c r="BS9" s="60"/>
-      <c r="BT9" s="60"/>
-      <c r="BU9" s="60"/>
-      <c r="BV9" s="60"/>
-      <c r="BW9" s="60"/>
-      <c r="BX9" s="60"/>
-      <c r="BY9" s="60"/>
-      <c r="BZ9" s="61"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="147"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="147"/>
+      <c r="N9" s="147"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="147"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="147"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="147"/>
+      <c r="V9" s="147"/>
+      <c r="W9" s="147"/>
+      <c r="X9" s="148"/>
+      <c r="Y9" s="147"/>
+      <c r="Z9" s="147"/>
+      <c r="AA9" s="147"/>
+      <c r="AB9" s="147"/>
+      <c r="AC9" s="147"/>
+      <c r="AD9" s="147"/>
+      <c r="AE9" s="147"/>
+      <c r="AF9" s="147"/>
+      <c r="AG9" s="147"/>
+      <c r="AH9" s="147"/>
+      <c r="AI9" s="147"/>
+      <c r="AJ9" s="147"/>
+      <c r="AK9" s="147"/>
+      <c r="AL9" s="147"/>
+      <c r="AM9" s="148"/>
+      <c r="AN9" s="147"/>
+      <c r="AO9" s="147"/>
+      <c r="AP9" s="147"/>
+      <c r="AQ9" s="147"/>
+      <c r="AR9" s="147"/>
+      <c r="AS9" s="147"/>
+      <c r="AT9" s="147"/>
+      <c r="AU9" s="147"/>
+      <c r="AV9" s="147"/>
+      <c r="AW9" s="147"/>
+      <c r="AX9" s="147"/>
+      <c r="AY9" s="147"/>
+      <c r="AZ9" s="147"/>
+      <c r="BA9" s="147"/>
+      <c r="BB9" s="148"/>
+      <c r="BC9" s="147"/>
+      <c r="BD9" s="147"/>
+      <c r="BE9" s="147"/>
+      <c r="BF9" s="147"/>
+      <c r="BG9" s="147"/>
+      <c r="BH9" s="147"/>
+      <c r="BI9" s="147"/>
+      <c r="BJ9" s="147"/>
+      <c r="BK9" s="147"/>
+      <c r="BL9" s="147"/>
+      <c r="BM9" s="147"/>
+      <c r="BN9" s="147"/>
+      <c r="BO9" s="147"/>
+      <c r="BP9" s="147"/>
+      <c r="BQ9" s="147"/>
+      <c r="BR9" s="147"/>
+      <c r="BS9" s="147"/>
+      <c r="BT9" s="147"/>
+      <c r="BU9" s="147"/>
+      <c r="BV9" s="147"/>
+      <c r="BW9" s="147"/>
+      <c r="BX9" s="147"/>
+      <c r="BY9" s="147"/>
+      <c r="BZ9" s="152"/>
     </row>
     <row r="10" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="62" t="s">
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="62" t="s">
+      <c r="J10" s="150"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="149" t="s">
         <v>103</v>
       </c>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="62" t="s">
+      <c r="O10" s="150"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="150"/>
+      <c r="R10" s="151"/>
+      <c r="S10" s="149" t="s">
         <v>104</v>
       </c>
-      <c r="T10" s="63"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="62" t="s">
+      <c r="T10" s="150"/>
+      <c r="U10" s="150"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="151"/>
+      <c r="X10" s="149" t="s">
         <v>110</v>
       </c>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="63"/>
-      <c r="AA10" s="63"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="62" t="s">
+      <c r="Y10" s="150"/>
+      <c r="Z10" s="150"/>
+      <c r="AA10" s="150"/>
+      <c r="AB10" s="151"/>
+      <c r="AC10" s="149" t="s">
         <v>111</v>
       </c>
-      <c r="AD10" s="63"/>
-      <c r="AE10" s="63"/>
-      <c r="AF10" s="63"/>
-      <c r="AG10" s="64"/>
-      <c r="AH10" s="62" t="s">
+      <c r="AD10" s="150"/>
+      <c r="AE10" s="150"/>
+      <c r="AF10" s="150"/>
+      <c r="AG10" s="151"/>
+      <c r="AH10" s="149" t="s">
         <v>86</v>
       </c>
-      <c r="AI10" s="63"/>
-      <c r="AJ10" s="63"/>
-      <c r="AK10" s="63"/>
-      <c r="AL10" s="64"/>
-      <c r="AM10" s="62" t="s">
+      <c r="AI10" s="150"/>
+      <c r="AJ10" s="150"/>
+      <c r="AK10" s="150"/>
+      <c r="AL10" s="151"/>
+      <c r="AM10" s="149" t="s">
         <v>112</v>
       </c>
-      <c r="AN10" s="63"/>
-      <c r="AO10" s="63"/>
-      <c r="AP10" s="63"/>
-      <c r="AQ10" s="64"/>
-      <c r="AR10" s="62" t="s">
+      <c r="AN10" s="150"/>
+      <c r="AO10" s="150"/>
+      <c r="AP10" s="150"/>
+      <c r="AQ10" s="151"/>
+      <c r="AR10" s="149" t="s">
         <v>113</v>
       </c>
-      <c r="AS10" s="63"/>
-      <c r="AT10" s="63"/>
-      <c r="AU10" s="63"/>
-      <c r="AV10" s="64"/>
-      <c r="AW10" s="62" t="s">
+      <c r="AS10" s="150"/>
+      <c r="AT10" s="150"/>
+      <c r="AU10" s="150"/>
+      <c r="AV10" s="151"/>
+      <c r="AW10" s="149" t="s">
         <v>114</v>
       </c>
-      <c r="AX10" s="63"/>
-      <c r="AY10" s="63"/>
-      <c r="AZ10" s="63"/>
-      <c r="BA10" s="64"/>
-      <c r="BB10" s="62" t="s">
+      <c r="AX10" s="150"/>
+      <c r="AY10" s="150"/>
+      <c r="AZ10" s="150"/>
+      <c r="BA10" s="151"/>
+      <c r="BB10" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="BC10" s="63"/>
-      <c r="BD10" s="63"/>
-      <c r="BE10" s="63"/>
-      <c r="BF10" s="64"/>
-      <c r="BG10" s="62" t="s">
+      <c r="BC10" s="150"/>
+      <c r="BD10" s="150"/>
+      <c r="BE10" s="150"/>
+      <c r="BF10" s="151"/>
+      <c r="BG10" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="BH10" s="63"/>
-      <c r="BI10" s="63"/>
-      <c r="BJ10" s="63"/>
-      <c r="BK10" s="64"/>
-      <c r="BL10" s="62" t="s">
+      <c r="BH10" s="150"/>
+      <c r="BI10" s="150"/>
+      <c r="BJ10" s="150"/>
+      <c r="BK10" s="151"/>
+      <c r="BL10" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="BM10" s="63"/>
-      <c r="BN10" s="63"/>
-      <c r="BO10" s="63"/>
-      <c r="BP10" s="64"/>
-      <c r="BQ10" s="62" t="s">
+      <c r="BM10" s="150"/>
+      <c r="BN10" s="150"/>
+      <c r="BO10" s="150"/>
+      <c r="BP10" s="151"/>
+      <c r="BQ10" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="BR10" s="63"/>
-      <c r="BS10" s="63"/>
-      <c r="BT10" s="63"/>
-      <c r="BU10" s="64"/>
-      <c r="BV10" s="62" t="s">
+      <c r="BR10" s="150"/>
+      <c r="BS10" s="150"/>
+      <c r="BT10" s="150"/>
+      <c r="BU10" s="151"/>
+      <c r="BV10" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="BW10" s="63"/>
-      <c r="BX10" s="63"/>
-      <c r="BY10" s="63"/>
-      <c r="BZ10" s="64"/>
+      <c r="BW10" s="150"/>
+      <c r="BX10" s="150"/>
+      <c r="BY10" s="150"/>
+      <c r="BZ10" s="151"/>
     </row>
     <row r="11" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
@@ -2756,7 +2779,7 @@
       <c r="AI11" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="AJ11" s="163" t="s">
+      <c r="AJ11" s="125" t="s">
         <v>107</v>
       </c>
       <c r="AK11" s="31" t="s">
@@ -2937,7 +2960,7 @@
       <c r="AG12" s="38"/>
       <c r="AH12" s="38"/>
       <c r="AI12" s="38"/>
-      <c r="AJ12" s="139"/>
+      <c r="AJ12" s="38"/>
       <c r="AK12" s="38"/>
       <c r="AL12" s="38"/>
       <c r="AM12" s="38"/>
@@ -3032,7 +3055,7 @@
       <c r="AG13" s="38"/>
       <c r="AH13" s="38"/>
       <c r="AI13" s="38"/>
-      <c r="AJ13" s="139"/>
+      <c r="AJ13" s="38"/>
       <c r="AK13" s="38"/>
       <c r="AL13" s="38"/>
       <c r="AM13" s="38"/>
@@ -3127,7 +3150,7 @@
       <c r="AG14" s="38"/>
       <c r="AH14" s="38"/>
       <c r="AI14" s="38"/>
-      <c r="AJ14" s="139"/>
+      <c r="AJ14" s="38"/>
       <c r="AK14" s="38"/>
       <c r="AL14" s="38"/>
       <c r="AM14" s="38"/>
@@ -3222,7 +3245,7 @@
       <c r="AG15" s="38"/>
       <c r="AH15" s="38"/>
       <c r="AI15" s="38"/>
-      <c r="AJ15" s="139"/>
+      <c r="AJ15" s="38"/>
       <c r="AK15" s="38"/>
       <c r="AL15" s="38"/>
       <c r="AM15" s="38"/>
@@ -3317,7 +3340,7 @@
       <c r="AG16" s="38"/>
       <c r="AH16" s="38"/>
       <c r="AI16" s="38"/>
-      <c r="AJ16" s="139"/>
+      <c r="AJ16" s="38"/>
       <c r="AK16" s="38"/>
       <c r="AL16" s="38"/>
       <c r="AM16" s="38"/>
@@ -3412,7 +3435,7 @@
       <c r="AG17" s="38"/>
       <c r="AH17" s="38"/>
       <c r="AI17" s="38"/>
-      <c r="AJ17" s="139"/>
+      <c r="AJ17" s="38"/>
       <c r="AK17" s="38"/>
       <c r="AL17" s="38"/>
       <c r="AM17" s="38"/>
@@ -3507,7 +3530,7 @@
       <c r="AG18" s="38"/>
       <c r="AH18" s="38"/>
       <c r="AI18" s="38"/>
-      <c r="AJ18" s="139"/>
+      <c r="AJ18" s="38"/>
       <c r="AK18" s="38"/>
       <c r="AL18" s="38"/>
       <c r="AM18" s="38"/>
@@ -3602,7 +3625,7 @@
       <c r="AG19" s="38"/>
       <c r="AH19" s="38"/>
       <c r="AI19" s="38"/>
-      <c r="AJ19" s="139"/>
+      <c r="AJ19" s="38"/>
       <c r="AK19" s="38"/>
       <c r="AL19" s="38"/>
       <c r="AM19" s="38"/>
@@ -3682,7 +3705,7 @@
       <c r="AG20" s="38"/>
       <c r="AH20" s="38"/>
       <c r="AI20" s="38"/>
-      <c r="AJ20" s="139"/>
+      <c r="AJ20" s="38"/>
       <c r="AK20" s="38"/>
       <c r="AL20" s="38"/>
       <c r="AM20" s="38"/>
@@ -3762,7 +3785,7 @@
       <c r="AG21" s="38"/>
       <c r="AH21" s="38"/>
       <c r="AI21" s="38"/>
-      <c r="AJ21" s="139"/>
+      <c r="AJ21" s="38"/>
       <c r="AK21" s="38"/>
       <c r="AL21" s="38"/>
       <c r="AM21" s="38"/>
@@ -3846,7 +3869,7 @@
       <c r="AG22" s="29"/>
       <c r="AH22" s="29"/>
       <c r="AI22" s="29"/>
-      <c r="AJ22" s="164"/>
+      <c r="AJ22" s="126"/>
       <c r="AK22" s="29"/>
       <c r="AL22" s="29"/>
       <c r="AM22" s="29"/>
@@ -3936,7 +3959,7 @@
       <c r="AG23" s="39"/>
       <c r="AH23" s="45"/>
       <c r="AI23" s="45"/>
-      <c r="AJ23" s="139"/>
+      <c r="AJ23" s="38"/>
       <c r="AK23" s="45"/>
       <c r="AL23" s="45"/>
       <c r="AM23" s="45"/>
@@ -4027,7 +4050,7 @@
       <c r="AG24" s="39"/>
       <c r="AH24" s="38"/>
       <c r="AI24" s="38"/>
-      <c r="AJ24" s="139"/>
+      <c r="AJ24" s="38"/>
       <c r="AK24" s="45"/>
       <c r="AL24" s="45"/>
       <c r="AM24" s="45"/>
@@ -4118,7 +4141,7 @@
       <c r="AG25" s="39"/>
       <c r="AH25" s="38"/>
       <c r="AI25" s="38"/>
-      <c r="AJ25" s="139"/>
+      <c r="AJ25" s="38"/>
       <c r="AK25" s="45"/>
       <c r="AL25" s="45"/>
       <c r="AM25" s="45"/>
@@ -4208,7 +4231,7 @@
       <c r="AG26" s="39"/>
       <c r="AH26" s="38"/>
       <c r="AI26" s="38"/>
-      <c r="AJ26" s="139"/>
+      <c r="AJ26" s="38"/>
       <c r="AK26" s="45"/>
       <c r="AL26" s="45"/>
       <c r="AM26" s="45"/>
@@ -4299,7 +4322,7 @@
       <c r="AG27" s="39"/>
       <c r="AH27" s="38"/>
       <c r="AI27" s="38"/>
-      <c r="AJ27" s="139"/>
+      <c r="AJ27" s="38"/>
       <c r="AK27" s="45"/>
       <c r="AL27" s="45"/>
       <c r="AM27" s="45"/>
@@ -4390,7 +4413,7 @@
       <c r="AG28" s="39"/>
       <c r="AH28" s="38"/>
       <c r="AI28" s="38"/>
-      <c r="AJ28" s="139"/>
+      <c r="AJ28" s="38"/>
       <c r="AK28" s="45"/>
       <c r="AL28" s="45"/>
       <c r="AM28" s="45"/>
@@ -4480,7 +4503,7 @@
       <c r="AG29" s="39"/>
       <c r="AH29" s="38"/>
       <c r="AI29" s="38"/>
-      <c r="AJ29" s="139"/>
+      <c r="AJ29" s="38"/>
       <c r="AK29" s="45"/>
       <c r="AL29" s="45"/>
       <c r="AM29" s="45"/>
@@ -4571,7 +4594,7 @@
       <c r="AG30" s="39"/>
       <c r="AH30" s="38"/>
       <c r="AI30" s="38"/>
-      <c r="AJ30" s="139"/>
+      <c r="AJ30" s="38"/>
       <c r="AK30" s="45"/>
       <c r="AL30" s="45"/>
       <c r="AM30" s="45"/>
@@ -4662,7 +4685,7 @@
       <c r="AG31" s="39"/>
       <c r="AH31" s="38"/>
       <c r="AI31" s="38"/>
-      <c r="AJ31" s="139"/>
+      <c r="AJ31" s="38"/>
       <c r="AK31" s="45"/>
       <c r="AL31" s="45"/>
       <c r="AM31" s="45"/>
@@ -4752,7 +4775,7 @@
       <c r="AG32" s="39"/>
       <c r="AH32" s="38"/>
       <c r="AI32" s="38"/>
-      <c r="AJ32" s="139"/>
+      <c r="AJ32" s="38"/>
       <c r="AK32" s="45"/>
       <c r="AL32" s="45"/>
       <c r="AM32" s="45"/>
@@ -4842,7 +4865,7 @@
       <c r="AG33" s="39"/>
       <c r="AH33" s="38"/>
       <c r="AI33" s="38"/>
-      <c r="AJ33" s="139"/>
+      <c r="AJ33" s="38"/>
       <c r="AK33" s="45"/>
       <c r="AL33" s="45"/>
       <c r="AM33" s="45"/>
@@ -4924,7 +4947,7 @@
       <c r="AG34" s="39"/>
       <c r="AH34" s="38"/>
       <c r="AI34" s="38"/>
-      <c r="AJ34" s="139"/>
+      <c r="AJ34" s="38"/>
       <c r="AK34" s="38"/>
       <c r="AL34" s="38"/>
       <c r="AM34" s="38"/>
@@ -5008,7 +5031,7 @@
       <c r="AG35" s="29"/>
       <c r="AH35" s="29"/>
       <c r="AI35" s="29"/>
-      <c r="AJ35" s="164"/>
+      <c r="AJ35" s="126"/>
       <c r="AK35" s="29"/>
       <c r="AL35" s="29"/>
       <c r="AM35" s="29"/>
@@ -5052,1194 +5075,1190 @@
       <c r="BY35" s="29"/>
       <c r="BZ35" s="29"/>
     </row>
-    <row r="36" spans="1:78" s="97" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="100"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="102" t="s">
+    <row r="36" spans="1:78" s="75" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="78"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="104"/>
-      <c r="N36" s="104"/>
-      <c r="O36" s="104"/>
-      <c r="P36" s="104"/>
-      <c r="Q36" s="104"/>
-      <c r="R36" s="104"/>
-      <c r="S36" s="104"/>
-      <c r="T36" s="104"/>
-      <c r="U36" s="104"/>
-      <c r="V36" s="104"/>
-      <c r="W36" s="104"/>
-      <c r="X36" s="104"/>
-      <c r="Y36" s="104"/>
-      <c r="Z36" s="104"/>
-      <c r="AA36" s="104"/>
-      <c r="AB36" s="104"/>
-      <c r="AC36" s="104"/>
-      <c r="AD36" s="104"/>
-      <c r="AE36" s="104"/>
-      <c r="AF36" s="104"/>
-      <c r="AG36" s="104"/>
-      <c r="AH36" s="104"/>
-      <c r="AI36" s="104"/>
-      <c r="AJ36" s="165"/>
-      <c r="AK36" s="104"/>
-      <c r="AL36" s="104"/>
-      <c r="AM36" s="104"/>
-      <c r="AN36" s="104"/>
-      <c r="AO36" s="104"/>
-      <c r="AP36" s="104"/>
-      <c r="AQ36" s="104"/>
-      <c r="AR36" s="104"/>
-      <c r="AS36" s="104"/>
-      <c r="AT36" s="104"/>
-      <c r="AU36" s="104"/>
-      <c r="AV36" s="104"/>
-      <c r="AW36" s="104"/>
-      <c r="AX36" s="104"/>
-      <c r="AY36" s="104"/>
-      <c r="AZ36" s="104"/>
-      <c r="BA36" s="104"/>
-      <c r="BB36" s="104"/>
-      <c r="BC36" s="104"/>
-      <c r="BD36" s="104"/>
-      <c r="BE36" s="104"/>
-      <c r="BF36" s="104"/>
-      <c r="BG36" s="104"/>
-      <c r="BH36" s="104"/>
-      <c r="BI36" s="104"/>
-      <c r="BJ36" s="104"/>
-      <c r="BK36" s="104"/>
-      <c r="BL36" s="104"/>
-      <c r="BM36" s="104"/>
-      <c r="BN36" s="104"/>
-      <c r="BO36" s="104"/>
-      <c r="BP36" s="104"/>
-      <c r="BQ36" s="104"/>
-      <c r="BR36" s="104"/>
-      <c r="BS36" s="104"/>
-      <c r="BT36" s="104"/>
-      <c r="BU36" s="104"/>
-      <c r="BV36" s="104"/>
-      <c r="BW36" s="104"/>
-      <c r="BX36" s="104"/>
-      <c r="BY36" s="104"/>
-      <c r="BZ36" s="104"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="82"/>
+      <c r="U36" s="82"/>
+      <c r="V36" s="82"/>
+      <c r="W36" s="82"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="82"/>
+      <c r="Z36" s="82"/>
+      <c r="AA36" s="82"/>
+      <c r="AB36" s="82"/>
+      <c r="AC36" s="82"/>
+      <c r="AD36" s="82"/>
+      <c r="AE36" s="82"/>
+      <c r="AF36" s="82"/>
+      <c r="AG36" s="82"/>
+      <c r="AH36" s="82"/>
+      <c r="AI36" s="82"/>
+      <c r="AJ36" s="127"/>
+      <c r="AK36" s="82"/>
+      <c r="AL36" s="82"/>
+      <c r="AM36" s="82"/>
+      <c r="AN36" s="82"/>
+      <c r="AO36" s="82"/>
+      <c r="AP36" s="82"/>
+      <c r="AQ36" s="82"/>
+      <c r="AR36" s="82"/>
+      <c r="AS36" s="82"/>
+      <c r="AT36" s="82"/>
+      <c r="AU36" s="82"/>
+      <c r="AV36" s="82"/>
+      <c r="AW36" s="82"/>
+      <c r="AX36" s="82"/>
+      <c r="AY36" s="82"/>
+      <c r="AZ36" s="82"/>
+      <c r="BA36" s="82"/>
+      <c r="BB36" s="82"/>
+      <c r="BC36" s="82"/>
+      <c r="BD36" s="82"/>
+      <c r="BE36" s="82"/>
+      <c r="BF36" s="82"/>
+      <c r="BG36" s="82"/>
+      <c r="BH36" s="82"/>
+      <c r="BI36" s="82"/>
+      <c r="BJ36" s="82"/>
+      <c r="BK36" s="82"/>
+      <c r="BL36" s="82"/>
+      <c r="BM36" s="82"/>
+      <c r="BN36" s="82"/>
+      <c r="BO36" s="82"/>
+      <c r="BP36" s="82"/>
+      <c r="BQ36" s="82"/>
+      <c r="BR36" s="82"/>
+      <c r="BS36" s="82"/>
+      <c r="BT36" s="82"/>
+      <c r="BU36" s="82"/>
+      <c r="BV36" s="82"/>
+      <c r="BW36" s="82"/>
+      <c r="BX36" s="82"/>
+      <c r="BY36" s="82"/>
+      <c r="BZ36" s="82"/>
     </row>
-    <row r="37" spans="1:78" s="114" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="107"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="154" t="s">
+    <row r="37" spans="1:78" s="104" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="155"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="158"/>
+      <c r="J37" s="159"/>
+      <c r="K37" s="160"/>
+      <c r="L37" s="160"/>
+      <c r="M37" s="158"/>
+      <c r="N37" s="158"/>
+      <c r="O37" s="158"/>
+      <c r="P37" s="158"/>
+      <c r="Q37" s="158"/>
+      <c r="R37" s="158"/>
+      <c r="S37" s="158"/>
+      <c r="T37" s="158"/>
+      <c r="U37" s="158"/>
+      <c r="V37" s="158"/>
+      <c r="W37" s="158"/>
+      <c r="X37" s="158"/>
+      <c r="Y37" s="158"/>
+      <c r="Z37" s="158"/>
+      <c r="AA37" s="158"/>
+      <c r="AB37" s="158"/>
+      <c r="AC37" s="158"/>
+      <c r="AD37" s="158"/>
+      <c r="AE37" s="158"/>
+      <c r="AF37" s="158"/>
+      <c r="AG37" s="158"/>
+      <c r="AH37" s="158"/>
+      <c r="AI37" s="158"/>
+      <c r="AJ37" s="161"/>
+      <c r="AK37" s="158"/>
+      <c r="AL37" s="158"/>
+      <c r="AM37" s="158"/>
+      <c r="AN37" s="158"/>
+      <c r="AO37" s="158"/>
+      <c r="AP37" s="158"/>
+      <c r="AQ37" s="158"/>
+      <c r="AR37" s="158"/>
+      <c r="AS37" s="158"/>
+      <c r="AT37" s="158"/>
+      <c r="AU37" s="158"/>
+      <c r="AV37" s="158"/>
+      <c r="AW37" s="158"/>
+      <c r="AX37" s="158"/>
+      <c r="AY37" s="158"/>
+      <c r="AZ37" s="158"/>
+      <c r="BA37" s="158"/>
+      <c r="BB37" s="158"/>
+      <c r="BC37" s="158"/>
+      <c r="BD37" s="158"/>
+      <c r="BE37" s="158"/>
+      <c r="BF37" s="158"/>
+      <c r="BG37" s="158"/>
+      <c r="BH37" s="158"/>
+      <c r="BI37" s="158"/>
+      <c r="BJ37" s="158"/>
+      <c r="BK37" s="158"/>
+      <c r="BL37" s="158"/>
+      <c r="BM37" s="158"/>
+      <c r="BN37" s="158"/>
+      <c r="BO37" s="158"/>
+      <c r="BP37" s="158"/>
+      <c r="BQ37" s="158"/>
+      <c r="BR37" s="158"/>
+      <c r="BS37" s="158"/>
+      <c r="BT37" s="158"/>
+      <c r="BU37" s="158"/>
+      <c r="BV37" s="158"/>
+      <c r="BW37" s="158"/>
+      <c r="BX37" s="158"/>
+      <c r="BY37" s="158"/>
+      <c r="BZ37" s="158"/>
+    </row>
+    <row r="38" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="112"/>
-      <c r="K37" s="113"/>
-      <c r="L37" s="113"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="111"/>
-      <c r="P37" s="111"/>
-      <c r="Q37" s="111"/>
-      <c r="R37" s="111"/>
-      <c r="S37" s="111"/>
-      <c r="T37" s="111"/>
-      <c r="U37" s="111"/>
-      <c r="V37" s="111"/>
-      <c r="W37" s="111"/>
-      <c r="X37" s="111"/>
-      <c r="Y37" s="111"/>
-      <c r="Z37" s="111"/>
-      <c r="AA37" s="111"/>
-      <c r="AB37" s="111"/>
-      <c r="AC37" s="111"/>
-      <c r="AD37" s="111"/>
-      <c r="AE37" s="111"/>
-      <c r="AF37" s="111"/>
-      <c r="AG37" s="111"/>
-      <c r="AH37" s="111"/>
-      <c r="AI37" s="111"/>
-      <c r="AJ37" s="155"/>
-      <c r="AK37" s="155"/>
-      <c r="AL37" s="156"/>
-      <c r="AM37" s="111"/>
-      <c r="AN37" s="111"/>
-      <c r="AO37" s="111"/>
-      <c r="AP37" s="111"/>
-      <c r="AQ37" s="111"/>
-      <c r="AR37" s="111"/>
-      <c r="AS37" s="111"/>
-      <c r="AT37" s="111"/>
-      <c r="AU37" s="111"/>
-      <c r="AV37" s="111"/>
-      <c r="AW37" s="111"/>
-      <c r="AX37" s="111"/>
-      <c r="AY37" s="111"/>
-      <c r="AZ37" s="111"/>
-      <c r="BA37" s="111"/>
-      <c r="BB37" s="111"/>
-      <c r="BC37" s="111"/>
-      <c r="BD37" s="111"/>
-      <c r="BE37" s="111"/>
-      <c r="BF37" s="111"/>
-      <c r="BG37" s="111"/>
-      <c r="BH37" s="111"/>
-      <c r="BI37" s="111"/>
-      <c r="BJ37" s="111"/>
-      <c r="BK37" s="111"/>
-      <c r="BL37" s="111"/>
-      <c r="BM37" s="111"/>
-      <c r="BN37" s="111"/>
-      <c r="BO37" s="111"/>
-      <c r="BP37" s="111"/>
-      <c r="BQ37" s="111"/>
-      <c r="BR37" s="111"/>
-      <c r="BS37" s="111"/>
-      <c r="BT37" s="111"/>
-      <c r="BU37" s="111"/>
-      <c r="BV37" s="111"/>
-      <c r="BW37" s="111"/>
-      <c r="BX37" s="111"/>
-      <c r="BY37" s="111"/>
-      <c r="BZ37" s="111"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="88"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="87"/>
+      <c r="N38" s="87"/>
+      <c r="O38" s="87"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="87"/>
+      <c r="R38" s="87"/>
+      <c r="S38" s="87"/>
+      <c r="T38" s="87"/>
+      <c r="U38" s="87"/>
+      <c r="V38" s="87"/>
+      <c r="W38" s="87"/>
+      <c r="X38" s="87"/>
+      <c r="Y38" s="87"/>
+      <c r="Z38" s="87"/>
+      <c r="AA38" s="87"/>
+      <c r="AB38" s="87"/>
+      <c r="AC38" s="87"/>
+      <c r="AD38" s="87"/>
+      <c r="AE38" s="87"/>
+      <c r="AF38" s="87"/>
+      <c r="AG38" s="87"/>
+      <c r="AH38" s="87"/>
+      <c r="AI38" s="87"/>
+      <c r="AJ38" s="120"/>
+      <c r="AK38" s="120"/>
+      <c r="AL38" s="121"/>
+      <c r="AM38" s="87"/>
+      <c r="AN38" s="87"/>
+      <c r="AO38" s="87"/>
+      <c r="AP38" s="87"/>
+      <c r="AQ38" s="87"/>
+      <c r="AR38" s="87"/>
+      <c r="AS38" s="87"/>
+      <c r="AT38" s="87"/>
+      <c r="AU38" s="87"/>
+      <c r="AV38" s="87"/>
+      <c r="AW38" s="87"/>
+      <c r="AX38" s="87"/>
+      <c r="AY38" s="87"/>
+      <c r="AZ38" s="87"/>
+      <c r="BA38" s="87"/>
+      <c r="BB38" s="87"/>
+      <c r="BC38" s="87"/>
+      <c r="BD38" s="87"/>
+      <c r="BE38" s="87"/>
+      <c r="BF38" s="87"/>
+      <c r="BG38" s="87"/>
+      <c r="BH38" s="87"/>
+      <c r="BI38" s="87"/>
+      <c r="BJ38" s="87"/>
+      <c r="BK38" s="87"/>
+      <c r="BL38" s="87"/>
+      <c r="BM38" s="87"/>
+      <c r="BN38" s="87"/>
+      <c r="BO38" s="87"/>
+      <c r="BP38" s="87"/>
+      <c r="BQ38" s="87"/>
+      <c r="BR38" s="87"/>
+      <c r="BS38" s="87"/>
+      <c r="BT38" s="87"/>
+      <c r="BU38" s="87"/>
+      <c r="BV38" s="87"/>
+      <c r="BW38" s="87"/>
+      <c r="BX38" s="87"/>
+      <c r="BY38" s="87"/>
+      <c r="BZ38" s="87"/>
     </row>
-    <row r="38" spans="1:78" s="114" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="107"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="154" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="112"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="113"/>
-      <c r="M38" s="111"/>
-      <c r="N38" s="111"/>
-      <c r="O38" s="111"/>
-      <c r="P38" s="111"/>
-      <c r="Q38" s="111"/>
-      <c r="R38" s="111"/>
-      <c r="S38" s="111"/>
-      <c r="T38" s="111"/>
-      <c r="U38" s="111"/>
-      <c r="V38" s="111"/>
-      <c r="W38" s="111"/>
-      <c r="X38" s="111"/>
-      <c r="Y38" s="111"/>
-      <c r="Z38" s="111"/>
-      <c r="AA38" s="111"/>
-      <c r="AB38" s="111"/>
-      <c r="AC38" s="111"/>
-      <c r="AD38" s="111"/>
-      <c r="AE38" s="111"/>
-      <c r="AF38" s="111"/>
-      <c r="AG38" s="111"/>
-      <c r="AH38" s="111"/>
-      <c r="AI38" s="111"/>
-      <c r="AJ38" s="155"/>
-      <c r="AK38" s="155"/>
-      <c r="AL38" s="156"/>
-      <c r="AM38" s="111"/>
-      <c r="AN38" s="111"/>
-      <c r="AO38" s="111"/>
-      <c r="AP38" s="111"/>
-      <c r="AQ38" s="111"/>
-      <c r="AR38" s="111"/>
-      <c r="AS38" s="111"/>
-      <c r="AT38" s="111"/>
-      <c r="AU38" s="111"/>
-      <c r="AV38" s="111"/>
-      <c r="AW38" s="111"/>
-      <c r="AX38" s="111"/>
-      <c r="AY38" s="111"/>
-      <c r="AZ38" s="111"/>
-      <c r="BA38" s="111"/>
-      <c r="BB38" s="111"/>
-      <c r="BC38" s="111"/>
-      <c r="BD38" s="111"/>
-      <c r="BE38" s="111"/>
-      <c r="BF38" s="111"/>
-      <c r="BG38" s="111"/>
-      <c r="BH38" s="111"/>
-      <c r="BI38" s="111"/>
-      <c r="BJ38" s="111"/>
-      <c r="BK38" s="111"/>
-      <c r="BL38" s="111"/>
-      <c r="BM38" s="111"/>
-      <c r="BN38" s="111"/>
-      <c r="BO38" s="111"/>
-      <c r="BP38" s="111"/>
-      <c r="BQ38" s="111"/>
-      <c r="BR38" s="111"/>
-      <c r="BS38" s="111"/>
-      <c r="BT38" s="111"/>
-      <c r="BU38" s="111"/>
-      <c r="BV38" s="111"/>
-      <c r="BW38" s="111"/>
-      <c r="BX38" s="111"/>
-      <c r="BY38" s="111"/>
-      <c r="BZ38" s="111"/>
+    <row r="39" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="119" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="89"/>
+      <c r="M39" s="87"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="87"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="87"/>
+      <c r="R39" s="87"/>
+      <c r="S39" s="87"/>
+      <c r="T39" s="87"/>
+      <c r="U39" s="87"/>
+      <c r="V39" s="87"/>
+      <c r="W39" s="87"/>
+      <c r="X39" s="87"/>
+      <c r="Y39" s="87"/>
+      <c r="Z39" s="87"/>
+      <c r="AA39" s="87"/>
+      <c r="AB39" s="87"/>
+      <c r="AC39" s="87"/>
+      <c r="AD39" s="87"/>
+      <c r="AE39" s="87"/>
+      <c r="AF39" s="87"/>
+      <c r="AG39" s="87"/>
+      <c r="AH39" s="87"/>
+      <c r="AI39" s="87"/>
+      <c r="AJ39" s="120"/>
+      <c r="AK39" s="120"/>
+      <c r="AL39" s="121"/>
+      <c r="AM39" s="120"/>
+      <c r="AN39" s="120"/>
+      <c r="AO39" s="120"/>
+      <c r="AP39" s="120"/>
+      <c r="AQ39" s="120"/>
+      <c r="AR39" s="121"/>
+      <c r="AS39" s="87"/>
+      <c r="AT39" s="87"/>
+      <c r="AU39" s="87"/>
+      <c r="AV39" s="87"/>
+      <c r="AW39" s="87"/>
+      <c r="AX39" s="87"/>
+      <c r="AY39" s="87"/>
+      <c r="AZ39" s="87"/>
+      <c r="BA39" s="87"/>
+      <c r="BB39" s="87"/>
+      <c r="BC39" s="87"/>
+      <c r="BD39" s="87"/>
+      <c r="BE39" s="87"/>
+      <c r="BF39" s="87"/>
+      <c r="BG39" s="87"/>
+      <c r="BH39" s="87"/>
+      <c r="BI39" s="87"/>
+      <c r="BJ39" s="87"/>
+      <c r="BK39" s="87"/>
+      <c r="BL39" s="87"/>
+      <c r="BM39" s="87"/>
+      <c r="BN39" s="87"/>
+      <c r="BO39" s="87"/>
+      <c r="BP39" s="87"/>
+      <c r="BQ39" s="87"/>
+      <c r="BR39" s="87"/>
+      <c r="BS39" s="87"/>
+      <c r="BT39" s="87"/>
+      <c r="BU39" s="87"/>
+      <c r="BV39" s="87"/>
+      <c r="BW39" s="87"/>
+      <c r="BX39" s="87"/>
+      <c r="BY39" s="87"/>
+      <c r="BZ39" s="87"/>
     </row>
-    <row r="39" spans="1:78" s="114" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="107"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="112"/>
-      <c r="K39" s="113"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="111"/>
-      <c r="N39" s="111"/>
-      <c r="O39" s="111"/>
-      <c r="P39" s="111"/>
-      <c r="Q39" s="111"/>
-      <c r="R39" s="111"/>
-      <c r="S39" s="111"/>
-      <c r="T39" s="111"/>
-      <c r="U39" s="111"/>
-      <c r="V39" s="111"/>
-      <c r="W39" s="111"/>
-      <c r="X39" s="111"/>
-      <c r="Y39" s="111"/>
-      <c r="Z39" s="111"/>
-      <c r="AA39" s="111"/>
-      <c r="AB39" s="111"/>
-      <c r="AC39" s="111"/>
-      <c r="AD39" s="111"/>
-      <c r="AE39" s="111"/>
-      <c r="AF39" s="111"/>
-      <c r="AG39" s="111"/>
-      <c r="AH39" s="111"/>
-      <c r="AI39" s="111"/>
-      <c r="AJ39" s="111"/>
-      <c r="AK39" s="111"/>
-      <c r="AL39" s="111"/>
-      <c r="AM39" s="111"/>
-      <c r="AN39" s="111"/>
-      <c r="AO39" s="111"/>
-      <c r="AP39" s="111"/>
-      <c r="AQ39" s="111"/>
-      <c r="AR39" s="111"/>
-      <c r="AS39" s="111"/>
-      <c r="AT39" s="111"/>
-      <c r="AU39" s="111"/>
-      <c r="AV39" s="111"/>
-      <c r="AW39" s="111"/>
-      <c r="AX39" s="111"/>
-      <c r="AY39" s="111"/>
-      <c r="AZ39" s="111"/>
-      <c r="BA39" s="111"/>
-      <c r="BB39" s="111"/>
-      <c r="BC39" s="111"/>
-      <c r="BD39" s="111"/>
-      <c r="BE39" s="111"/>
-      <c r="BF39" s="111"/>
-      <c r="BG39" s="111"/>
-      <c r="BH39" s="111"/>
-      <c r="BI39" s="111"/>
-      <c r="BJ39" s="111"/>
-      <c r="BK39" s="111"/>
-      <c r="BL39" s="111"/>
-      <c r="BM39" s="111"/>
-      <c r="BN39" s="111"/>
-      <c r="BO39" s="111"/>
-      <c r="BP39" s="111"/>
-      <c r="BQ39" s="111"/>
-      <c r="BR39" s="111"/>
-      <c r="BS39" s="111"/>
-      <c r="BT39" s="111"/>
-      <c r="BU39" s="111"/>
-      <c r="BV39" s="111"/>
-      <c r="BW39" s="111"/>
-      <c r="BX39" s="111"/>
-      <c r="BY39" s="111"/>
-      <c r="BZ39" s="111"/>
-    </row>
-    <row r="40" spans="1:78" s="97" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="94"/>
-      <c r="B40" s="95"/>
-      <c r="C40" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="96"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="85"/>
+    <row r="40" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="119" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
       <c r="H40" s="86"/>
       <c r="I40" s="87"/>
       <c r="J40" s="88"/>
       <c r="K40" s="89"/>
       <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="90"/>
-      <c r="P40" s="90"/>
-      <c r="Q40" s="90"/>
-      <c r="R40" s="90"/>
-      <c r="S40" s="89"/>
-      <c r="T40" s="89"/>
-      <c r="U40" s="89"/>
-      <c r="V40" s="89"/>
-      <c r="W40" s="89"/>
-      <c r="X40" s="89"/>
-      <c r="Y40" s="89"/>
-      <c r="Z40" s="89"/>
-      <c r="AA40" s="89"/>
-      <c r="AB40" s="89"/>
-      <c r="AC40" s="91"/>
-      <c r="AD40" s="91"/>
-      <c r="AE40" s="91"/>
-      <c r="AF40" s="91"/>
-      <c r="AG40" s="91"/>
-      <c r="AH40" s="89"/>
-      <c r="AI40" s="89"/>
-      <c r="AJ40" s="89"/>
-      <c r="AK40" s="89"/>
-      <c r="AL40" s="89"/>
-      <c r="AM40" s="89"/>
-      <c r="AN40" s="89"/>
-      <c r="AO40" s="89"/>
-      <c r="AP40" s="89"/>
-      <c r="AQ40" s="89"/>
-      <c r="AR40" s="92"/>
-      <c r="AS40" s="92"/>
-      <c r="AT40" s="92"/>
-      <c r="AU40" s="92"/>
-      <c r="AV40" s="92"/>
-      <c r="AW40" s="89"/>
-      <c r="AX40" s="89"/>
-      <c r="AY40" s="89"/>
-      <c r="AZ40" s="89"/>
-      <c r="BA40" s="89"/>
-      <c r="BB40" s="89"/>
-      <c r="BC40" s="89"/>
-      <c r="BD40" s="89"/>
-      <c r="BE40" s="89"/>
-      <c r="BF40" s="89"/>
-      <c r="BG40" s="93"/>
-      <c r="BH40" s="93"/>
-      <c r="BI40" s="93"/>
-      <c r="BJ40" s="93"/>
-      <c r="BK40" s="93"/>
-      <c r="BL40" s="89"/>
-      <c r="BM40" s="89"/>
-      <c r="BN40" s="89"/>
-      <c r="BO40" s="89"/>
-      <c r="BP40" s="89"/>
-      <c r="BQ40" s="89"/>
-      <c r="BR40" s="89"/>
-      <c r="BS40" s="89"/>
-      <c r="BT40" s="89"/>
-      <c r="BU40" s="89"/>
-      <c r="BV40" s="89"/>
-      <c r="BW40" s="89"/>
-      <c r="BX40" s="89"/>
-      <c r="BY40" s="89"/>
-      <c r="BZ40" s="89"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="87"/>
+      <c r="S40" s="87"/>
+      <c r="T40" s="87"/>
+      <c r="U40" s="87"/>
+      <c r="V40" s="87"/>
+      <c r="W40" s="87"/>
+      <c r="X40" s="87"/>
+      <c r="Y40" s="87"/>
+      <c r="Z40" s="87"/>
+      <c r="AA40" s="87"/>
+      <c r="AB40" s="87"/>
+      <c r="AC40" s="87"/>
+      <c r="AD40" s="87"/>
+      <c r="AE40" s="87"/>
+      <c r="AF40" s="87"/>
+      <c r="AG40" s="87"/>
+      <c r="AH40" s="87"/>
+      <c r="AI40" s="87"/>
+      <c r="AJ40" s="120"/>
+      <c r="AK40" s="120"/>
+      <c r="AL40" s="121"/>
+      <c r="AM40" s="87"/>
+      <c r="AN40" s="87"/>
+      <c r="AO40" s="87"/>
+      <c r="AP40" s="87"/>
+      <c r="AQ40" s="120"/>
+      <c r="AR40" s="120"/>
+      <c r="AS40" s="120"/>
+      <c r="AT40" s="168"/>
+      <c r="AU40" s="87"/>
+      <c r="AV40" s="87"/>
+      <c r="AW40" s="87"/>
+      <c r="AX40" s="87"/>
+      <c r="AY40" s="87"/>
+      <c r="AZ40" s="87"/>
+      <c r="BA40" s="87"/>
+      <c r="BB40" s="87"/>
+      <c r="BC40" s="87"/>
+      <c r="BD40" s="87"/>
+      <c r="BE40" s="87"/>
+      <c r="BF40" s="87"/>
+      <c r="BG40" s="87"/>
+      <c r="BH40" s="87"/>
+      <c r="BI40" s="87"/>
+      <c r="BJ40" s="87"/>
+      <c r="BK40" s="87"/>
+      <c r="BL40" s="87"/>
+      <c r="BM40" s="87"/>
+      <c r="BN40" s="87"/>
+      <c r="BO40" s="87"/>
+      <c r="BP40" s="87"/>
+      <c r="BQ40" s="87"/>
+      <c r="BR40" s="87"/>
+      <c r="BS40" s="87"/>
+      <c r="BT40" s="87"/>
+      <c r="BU40" s="87"/>
+      <c r="BV40" s="87"/>
+      <c r="BW40" s="87"/>
+      <c r="BX40" s="87"/>
+      <c r="BY40" s="87"/>
+      <c r="BZ40" s="87"/>
     </row>
-    <row r="41" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="54"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="166"/>
-      <c r="J41" s="166"/>
-      <c r="K41" s="166"/>
-      <c r="L41" s="166"/>
-      <c r="M41" s="166"/>
-      <c r="N41" s="166"/>
-      <c r="O41" s="166"/>
-      <c r="P41" s="166"/>
-      <c r="Q41" s="166"/>
-      <c r="R41" s="166"/>
-      <c r="S41" s="166"/>
-      <c r="T41" s="166"/>
-      <c r="U41" s="166"/>
-      <c r="V41" s="166"/>
-      <c r="W41" s="166"/>
-      <c r="X41" s="166"/>
-      <c r="Y41" s="166"/>
-      <c r="Z41" s="166"/>
-      <c r="AA41" s="166"/>
-      <c r="AB41" s="166"/>
-      <c r="AC41" s="166"/>
-      <c r="AD41" s="166"/>
-      <c r="AE41" s="166"/>
-      <c r="AF41" s="166"/>
-      <c r="AG41" s="166"/>
-      <c r="AH41" s="139"/>
-      <c r="AI41" s="139"/>
-      <c r="AJ41" s="158"/>
-      <c r="AK41" s="158"/>
-      <c r="AL41" s="158"/>
-      <c r="AM41" s="58"/>
-      <c r="AN41" s="139"/>
-      <c r="AO41" s="38"/>
-      <c r="AP41" s="38"/>
-      <c r="AQ41" s="38"/>
-      <c r="AR41" s="40"/>
-      <c r="AS41" s="40"/>
-      <c r="AT41" s="40"/>
-      <c r="AU41" s="40"/>
-      <c r="AV41" s="40"/>
-      <c r="AW41" s="38"/>
-      <c r="AX41" s="38"/>
-      <c r="AY41" s="38"/>
-      <c r="AZ41" s="38"/>
-      <c r="BA41" s="38"/>
-      <c r="BB41" s="38"/>
-      <c r="BC41" s="38"/>
-      <c r="BD41" s="38"/>
-      <c r="BE41" s="38"/>
-      <c r="BF41" s="38"/>
-      <c r="BG41" s="41"/>
-      <c r="BH41" s="41"/>
-      <c r="BI41" s="41"/>
-      <c r="BJ41" s="41"/>
-      <c r="BK41" s="41"/>
-      <c r="BL41" s="38"/>
-      <c r="BM41" s="38"/>
-      <c r="BN41" s="38"/>
-      <c r="BO41" s="38"/>
-      <c r="BP41" s="38"/>
-      <c r="BQ41" s="38"/>
-      <c r="BR41" s="38"/>
-      <c r="BS41" s="38"/>
-      <c r="BT41" s="38"/>
-      <c r="BU41" s="38"/>
-      <c r="BV41" s="38"/>
-      <c r="BW41" s="38"/>
-      <c r="BX41" s="38"/>
-      <c r="BY41" s="38"/>
-      <c r="BZ41" s="38"/>
+    <row r="41" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="87"/>
+      <c r="Q41" s="87"/>
+      <c r="R41" s="87"/>
+      <c r="S41" s="87"/>
+      <c r="T41" s="87"/>
+      <c r="U41" s="87"/>
+      <c r="V41" s="87"/>
+      <c r="W41" s="87"/>
+      <c r="X41" s="87"/>
+      <c r="Y41" s="87"/>
+      <c r="Z41" s="87"/>
+      <c r="AA41" s="87"/>
+      <c r="AB41" s="87"/>
+      <c r="AC41" s="87"/>
+      <c r="AD41" s="87"/>
+      <c r="AE41" s="87"/>
+      <c r="AF41" s="87"/>
+      <c r="AG41" s="87"/>
+      <c r="AH41" s="87"/>
+      <c r="AI41" s="87"/>
+      <c r="AJ41" s="120"/>
+      <c r="AK41" s="120"/>
+      <c r="AL41" s="121"/>
+      <c r="AM41" s="87"/>
+      <c r="AN41" s="87"/>
+      <c r="AO41" s="87"/>
+      <c r="AP41" s="87"/>
+      <c r="AQ41" s="87"/>
+      <c r="AR41" s="87"/>
+      <c r="AS41" s="87"/>
+      <c r="AT41" s="87"/>
+      <c r="AU41" s="87"/>
+      <c r="AV41" s="87"/>
+      <c r="AW41" s="87"/>
+      <c r="AX41" s="87"/>
+      <c r="AY41" s="87"/>
+      <c r="AZ41" s="87"/>
+      <c r="BA41" s="87"/>
+      <c r="BB41" s="87"/>
+      <c r="BC41" s="87"/>
+      <c r="BD41" s="87"/>
+      <c r="BE41" s="87"/>
+      <c r="BF41" s="87"/>
+      <c r="BG41" s="87"/>
+      <c r="BH41" s="87"/>
+      <c r="BI41" s="87"/>
+      <c r="BJ41" s="87"/>
+      <c r="BK41" s="87"/>
+      <c r="BL41" s="87"/>
+      <c r="BM41" s="87"/>
+      <c r="BN41" s="87"/>
+      <c r="BO41" s="87"/>
+      <c r="BP41" s="87"/>
+      <c r="BQ41" s="87"/>
+      <c r="BR41" s="87"/>
+      <c r="BS41" s="87"/>
+      <c r="BT41" s="87"/>
+      <c r="BU41" s="87"/>
+      <c r="BV41" s="87"/>
+      <c r="BW41" s="87"/>
+      <c r="BX41" s="87"/>
+      <c r="BY41" s="87"/>
+      <c r="BZ41" s="87"/>
     </row>
-    <row r="42" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="54"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="166"/>
-      <c r="J42" s="166"/>
+    <row r="42" spans="1:78" s="104" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="155"/>
+      <c r="B42" s="162"/>
+      <c r="C42" s="163" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="164"/>
+      <c r="E42" s="164"/>
+      <c r="F42" s="164"/>
+      <c r="G42" s="164"/>
+      <c r="H42" s="164"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="165"/>
       <c r="K42" s="166"/>
       <c r="L42" s="166"/>
-      <c r="M42" s="166"/>
-      <c r="N42" s="166"/>
-      <c r="O42" s="166"/>
-      <c r="P42" s="166"/>
-      <c r="Q42" s="166"/>
-      <c r="R42" s="166"/>
-      <c r="S42" s="166"/>
-      <c r="T42" s="166"/>
-      <c r="U42" s="166"/>
-      <c r="V42" s="166"/>
-      <c r="W42" s="166"/>
-      <c r="X42" s="166"/>
-      <c r="Y42" s="166"/>
-      <c r="Z42" s="166"/>
-      <c r="AA42" s="166"/>
-      <c r="AB42" s="166"/>
-      <c r="AC42" s="166"/>
-      <c r="AD42" s="166"/>
-      <c r="AE42" s="166"/>
-      <c r="AF42" s="166"/>
-      <c r="AG42" s="166"/>
-      <c r="AH42" s="139"/>
-      <c r="AI42" s="139"/>
-      <c r="AJ42" s="158"/>
-      <c r="AK42" s="158"/>
-      <c r="AL42" s="158"/>
-      <c r="AM42" s="58"/>
-      <c r="AN42" s="139"/>
-      <c r="AO42" s="38"/>
-      <c r="AP42" s="38"/>
-      <c r="AQ42" s="38"/>
-      <c r="AR42" s="40"/>
-      <c r="AS42" s="40"/>
-      <c r="AT42" s="40"/>
-      <c r="AU42" s="40"/>
-      <c r="AV42" s="40"/>
-      <c r="AW42" s="38"/>
-      <c r="AX42" s="38"/>
-      <c r="AY42" s="38"/>
-      <c r="AZ42" s="38"/>
-      <c r="BA42" s="38"/>
-      <c r="BB42" s="38"/>
-      <c r="BC42" s="38"/>
-      <c r="BD42" s="38"/>
-      <c r="BE42" s="38"/>
-      <c r="BF42" s="38"/>
-      <c r="BG42" s="41"/>
-      <c r="BH42" s="41"/>
-      <c r="BI42" s="41"/>
-      <c r="BJ42" s="41"/>
-      <c r="BK42" s="41"/>
-      <c r="BL42" s="38"/>
-      <c r="BM42" s="38"/>
-      <c r="BN42" s="38"/>
-      <c r="BO42" s="38"/>
-      <c r="BP42" s="38"/>
-      <c r="BQ42" s="38"/>
-      <c r="BR42" s="38"/>
-      <c r="BS42" s="38"/>
-      <c r="BT42" s="38"/>
-      <c r="BU42" s="38"/>
-      <c r="BV42" s="38"/>
-      <c r="BW42" s="38"/>
-      <c r="BX42" s="38"/>
-      <c r="BY42" s="38"/>
-      <c r="BZ42" s="38"/>
+      <c r="M42" s="161"/>
+      <c r="N42" s="161"/>
+      <c r="O42" s="161"/>
+      <c r="P42" s="161"/>
+      <c r="Q42" s="161"/>
+      <c r="R42" s="161"/>
+      <c r="S42" s="161"/>
+      <c r="T42" s="161"/>
+      <c r="U42" s="161"/>
+      <c r="V42" s="161"/>
+      <c r="W42" s="161"/>
+      <c r="X42" s="161"/>
+      <c r="Y42" s="161"/>
+      <c r="Z42" s="161"/>
+      <c r="AA42" s="161"/>
+      <c r="AB42" s="161"/>
+      <c r="AC42" s="161"/>
+      <c r="AD42" s="161"/>
+      <c r="AE42" s="161"/>
+      <c r="AF42" s="161"/>
+      <c r="AG42" s="161"/>
+      <c r="AH42" s="161"/>
+      <c r="AI42" s="161"/>
+      <c r="AJ42" s="161"/>
+      <c r="AK42" s="161"/>
+      <c r="AL42" s="161"/>
+      <c r="AM42" s="161"/>
+      <c r="AN42" s="161"/>
+      <c r="AO42" s="161"/>
+      <c r="AP42" s="161"/>
+      <c r="AQ42" s="161"/>
+      <c r="AR42" s="161"/>
+      <c r="AS42" s="161"/>
+      <c r="AT42" s="161"/>
+      <c r="AU42" s="161"/>
+      <c r="AV42" s="161"/>
+      <c r="AW42" s="161"/>
+      <c r="AX42" s="161"/>
+      <c r="AY42" s="161"/>
+      <c r="AZ42" s="161"/>
+      <c r="BA42" s="161"/>
+      <c r="BB42" s="161"/>
+      <c r="BC42" s="161"/>
+      <c r="BD42" s="161"/>
+      <c r="BE42" s="161"/>
+      <c r="BF42" s="161"/>
+      <c r="BG42" s="161"/>
+      <c r="BH42" s="161"/>
+      <c r="BI42" s="161"/>
+      <c r="BJ42" s="161"/>
+      <c r="BK42" s="161"/>
+      <c r="BL42" s="161"/>
+      <c r="BM42" s="161"/>
+      <c r="BN42" s="161"/>
+      <c r="BO42" s="161"/>
+      <c r="BP42" s="161"/>
+      <c r="BQ42" s="161"/>
+      <c r="BR42" s="161"/>
+      <c r="BS42" s="161"/>
+      <c r="BT42" s="161"/>
+      <c r="BU42" s="161"/>
+      <c r="BV42" s="161"/>
+      <c r="BW42" s="161"/>
+      <c r="BX42" s="161"/>
+      <c r="BY42" s="161"/>
+      <c r="BZ42" s="161"/>
     </row>
-    <row r="43" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="54"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="166"/>
-      <c r="J43" s="166"/>
-      <c r="K43" s="166"/>
-      <c r="L43" s="166"/>
-      <c r="M43" s="166"/>
-      <c r="N43" s="166"/>
-      <c r="O43" s="166"/>
-      <c r="P43" s="166"/>
-      <c r="Q43" s="166"/>
-      <c r="R43" s="166"/>
-      <c r="S43" s="166"/>
-      <c r="T43" s="166"/>
-      <c r="U43" s="166"/>
-      <c r="V43" s="166"/>
-      <c r="W43" s="166"/>
-      <c r="X43" s="166"/>
-      <c r="Y43" s="166"/>
-      <c r="Z43" s="166"/>
-      <c r="AA43" s="166"/>
-      <c r="AB43" s="166"/>
-      <c r="AC43" s="166"/>
-      <c r="AD43" s="166"/>
-      <c r="AE43" s="166"/>
-      <c r="AF43" s="166"/>
-      <c r="AG43" s="166"/>
-      <c r="AH43" s="139"/>
-      <c r="AI43" s="139"/>
-      <c r="AJ43" s="158"/>
-      <c r="AK43" s="158"/>
-      <c r="AL43" s="158"/>
-      <c r="AM43" s="58"/>
-      <c r="AN43" s="168"/>
-      <c r="AO43" s="38"/>
-      <c r="AP43" s="38"/>
-      <c r="AQ43" s="38"/>
-      <c r="AR43" s="40"/>
-      <c r="AS43" s="40"/>
-      <c r="AT43" s="40"/>
-      <c r="AU43" s="40"/>
-      <c r="AV43" s="40"/>
-      <c r="AW43" s="38"/>
-      <c r="AX43" s="38"/>
-      <c r="AY43" s="38"/>
-      <c r="AZ43" s="38"/>
-      <c r="BA43" s="38"/>
-      <c r="BB43" s="38"/>
-      <c r="BC43" s="38"/>
-      <c r="BD43" s="38"/>
-      <c r="BE43" s="38"/>
-      <c r="BF43" s="38"/>
-      <c r="BG43" s="41"/>
-      <c r="BH43" s="41"/>
-      <c r="BI43" s="41"/>
-      <c r="BJ43" s="41"/>
-      <c r="BK43" s="41"/>
-      <c r="BL43" s="38"/>
-      <c r="BM43" s="38"/>
-      <c r="BN43" s="38"/>
-      <c r="BO43" s="38"/>
-      <c r="BP43" s="38"/>
-      <c r="BQ43" s="38"/>
-      <c r="BR43" s="38"/>
-      <c r="BS43" s="38"/>
-      <c r="BT43" s="38"/>
-      <c r="BU43" s="38"/>
-      <c r="BV43" s="38"/>
-      <c r="BW43" s="38"/>
-      <c r="BX43" s="38"/>
-      <c r="BY43" s="38"/>
-      <c r="BZ43" s="38"/>
+    <row r="43" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="119" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="89"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="87"/>
+      <c r="P43" s="87"/>
+      <c r="Q43" s="87"/>
+      <c r="R43" s="87"/>
+      <c r="S43" s="87"/>
+      <c r="T43" s="87"/>
+      <c r="U43" s="87"/>
+      <c r="V43" s="87"/>
+      <c r="W43" s="87"/>
+      <c r="X43" s="87"/>
+      <c r="Y43" s="87"/>
+      <c r="Z43" s="87"/>
+      <c r="AA43" s="87"/>
+      <c r="AB43" s="87"/>
+      <c r="AC43" s="87"/>
+      <c r="AD43" s="87"/>
+      <c r="AE43" s="87"/>
+      <c r="AF43" s="87"/>
+      <c r="AG43" s="87"/>
+      <c r="AH43" s="87"/>
+      <c r="AI43" s="87"/>
+      <c r="AJ43" s="120"/>
+      <c r="AK43" s="120"/>
+      <c r="AL43" s="121"/>
+      <c r="AM43" s="87"/>
+      <c r="AN43" s="87"/>
+      <c r="AO43" s="87"/>
+      <c r="AP43" s="87"/>
+      <c r="AQ43" s="87"/>
+      <c r="AR43" s="87"/>
+      <c r="AS43" s="87"/>
+      <c r="AT43" s="87"/>
+      <c r="AU43" s="87"/>
+      <c r="AV43" s="87"/>
+      <c r="AW43" s="87"/>
+      <c r="AX43" s="87"/>
+      <c r="AY43" s="87"/>
+      <c r="AZ43" s="87"/>
+      <c r="BA43" s="87"/>
+      <c r="BB43" s="87"/>
+      <c r="BC43" s="87"/>
+      <c r="BD43" s="87"/>
+      <c r="BE43" s="87"/>
+      <c r="BF43" s="87"/>
+      <c r="BG43" s="87"/>
+      <c r="BH43" s="87"/>
+      <c r="BI43" s="87"/>
+      <c r="BJ43" s="87"/>
+      <c r="BK43" s="87"/>
+      <c r="BL43" s="87"/>
+      <c r="BM43" s="87"/>
+      <c r="BN43" s="87"/>
+      <c r="BO43" s="87"/>
+      <c r="BP43" s="87"/>
+      <c r="BQ43" s="87"/>
+      <c r="BR43" s="87"/>
+      <c r="BS43" s="87"/>
+      <c r="BT43" s="87"/>
+      <c r="BU43" s="87"/>
+      <c r="BV43" s="87"/>
+      <c r="BW43" s="87"/>
+      <c r="BX43" s="87"/>
+      <c r="BY43" s="87"/>
+      <c r="BZ43" s="87"/>
     </row>
-    <row r="44" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="54"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="166"/>
-      <c r="J44" s="166"/>
-      <c r="K44" s="166"/>
-      <c r="L44" s="166"/>
-      <c r="M44" s="166"/>
-      <c r="N44" s="166"/>
-      <c r="O44" s="166"/>
-      <c r="P44" s="166"/>
-      <c r="Q44" s="166"/>
-      <c r="R44" s="166"/>
-      <c r="S44" s="166"/>
-      <c r="T44" s="166"/>
-      <c r="U44" s="166"/>
-      <c r="V44" s="166"/>
-      <c r="W44" s="166"/>
-      <c r="X44" s="166"/>
-      <c r="Y44" s="166"/>
-      <c r="Z44" s="166"/>
-      <c r="AA44" s="166"/>
-      <c r="AB44" s="166"/>
-      <c r="AC44" s="166"/>
-      <c r="AD44" s="166"/>
-      <c r="AE44" s="166"/>
-      <c r="AF44" s="166"/>
-      <c r="AG44" s="166"/>
-      <c r="AH44" s="139"/>
-      <c r="AI44" s="139"/>
-      <c r="AJ44" s="139"/>
-      <c r="AK44" s="139"/>
-      <c r="AL44" s="38"/>
-      <c r="AM44" s="38"/>
-      <c r="AN44" s="167"/>
-      <c r="AO44" s="38"/>
-      <c r="AP44" s="38"/>
-      <c r="AQ44" s="38"/>
-      <c r="AR44" s="40"/>
-      <c r="AS44" s="40"/>
-      <c r="AT44" s="40"/>
-      <c r="AU44" s="40"/>
-      <c r="AV44" s="40"/>
-      <c r="AW44" s="38"/>
-      <c r="AX44" s="38"/>
-      <c r="AY44" s="38"/>
-      <c r="AZ44" s="38"/>
-      <c r="BA44" s="38"/>
-      <c r="BB44" s="38"/>
-      <c r="BC44" s="38"/>
-      <c r="BD44" s="38"/>
-      <c r="BE44" s="38"/>
-      <c r="BF44" s="38"/>
-      <c r="BG44" s="41"/>
-      <c r="BH44" s="41"/>
-      <c r="BI44" s="41"/>
-      <c r="BJ44" s="41"/>
-      <c r="BK44" s="41"/>
-      <c r="BL44" s="38"/>
-      <c r="BM44" s="38"/>
-      <c r="BN44" s="38"/>
-      <c r="BO44" s="38"/>
-      <c r="BP44" s="38"/>
-      <c r="BQ44" s="38"/>
-      <c r="BR44" s="38"/>
-      <c r="BS44" s="38"/>
-      <c r="BT44" s="38"/>
-      <c r="BU44" s="38"/>
-      <c r="BV44" s="38"/>
-      <c r="BW44" s="38"/>
-      <c r="BX44" s="38"/>
-      <c r="BY44" s="38"/>
-      <c r="BZ44" s="38"/>
+    <row r="44" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="119" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="86"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="87"/>
+      <c r="R44" s="87"/>
+      <c r="S44" s="87"/>
+      <c r="T44" s="87"/>
+      <c r="U44" s="87"/>
+      <c r="V44" s="87"/>
+      <c r="W44" s="87"/>
+      <c r="X44" s="87"/>
+      <c r="Y44" s="87"/>
+      <c r="Z44" s="87"/>
+      <c r="AA44" s="87"/>
+      <c r="AB44" s="87"/>
+      <c r="AC44" s="87"/>
+      <c r="AD44" s="87"/>
+      <c r="AE44" s="87"/>
+      <c r="AF44" s="87"/>
+      <c r="AG44" s="87"/>
+      <c r="AH44" s="87"/>
+      <c r="AI44" s="87"/>
+      <c r="AJ44" s="87"/>
+      <c r="AK44" s="87"/>
+      <c r="AL44" s="87"/>
+      <c r="AM44" s="120"/>
+      <c r="AN44" s="120"/>
+      <c r="AO44" s="120"/>
+      <c r="AP44" s="120"/>
+      <c r="AQ44" s="120"/>
+      <c r="AR44" s="121"/>
+      <c r="AS44" s="87"/>
+      <c r="AT44" s="87"/>
+      <c r="AU44" s="87"/>
+      <c r="AV44" s="87"/>
+      <c r="AW44" s="87"/>
+      <c r="AX44" s="87"/>
+      <c r="AY44" s="87"/>
+      <c r="AZ44" s="87"/>
+      <c r="BA44" s="87"/>
+      <c r="BB44" s="87"/>
+      <c r="BC44" s="87"/>
+      <c r="BD44" s="87"/>
+      <c r="BE44" s="87"/>
+      <c r="BF44" s="87"/>
+      <c r="BG44" s="87"/>
+      <c r="BH44" s="87"/>
+      <c r="BI44" s="87"/>
+      <c r="BJ44" s="87"/>
+      <c r="BK44" s="87"/>
+      <c r="BL44" s="87"/>
+      <c r="BM44" s="87"/>
+      <c r="BN44" s="87"/>
+      <c r="BO44" s="87"/>
+      <c r="BP44" s="87"/>
+      <c r="BQ44" s="87"/>
+      <c r="BR44" s="87"/>
+      <c r="BS44" s="87"/>
+      <c r="BT44" s="87"/>
+      <c r="BU44" s="87"/>
+      <c r="BV44" s="87"/>
+      <c r="BW44" s="87"/>
+      <c r="BX44" s="87"/>
+      <c r="BY44" s="87"/>
+      <c r="BZ44" s="87"/>
     </row>
-    <row r="45" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" s="54"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="166"/>
-      <c r="J45" s="166"/>
-      <c r="K45" s="166"/>
-      <c r="L45" s="166"/>
-      <c r="M45" s="166"/>
-      <c r="N45" s="166"/>
-      <c r="O45" s="166"/>
-      <c r="P45" s="166"/>
-      <c r="Q45" s="166"/>
-      <c r="R45" s="166"/>
-      <c r="S45" s="166"/>
-      <c r="T45" s="166"/>
-      <c r="U45" s="166"/>
-      <c r="V45" s="166"/>
-      <c r="W45" s="166"/>
-      <c r="X45" s="166"/>
-      <c r="Y45" s="166"/>
-      <c r="Z45" s="166"/>
-      <c r="AA45" s="166"/>
-      <c r="AB45" s="166"/>
-      <c r="AC45" s="166"/>
-      <c r="AD45" s="166"/>
-      <c r="AE45" s="166"/>
-      <c r="AF45" s="166"/>
-      <c r="AG45" s="166"/>
-      <c r="AH45" s="139"/>
-      <c r="AI45" s="139"/>
-      <c r="AJ45" s="139"/>
-      <c r="AK45" s="139"/>
-      <c r="AL45" s="38"/>
-      <c r="AM45" s="38"/>
-      <c r="AN45" s="38"/>
-      <c r="AO45" s="38"/>
-      <c r="AP45" s="38"/>
-      <c r="AQ45" s="38"/>
-      <c r="AR45" s="40"/>
-      <c r="AS45" s="40"/>
-      <c r="AT45" s="40"/>
-      <c r="AU45" s="40"/>
-      <c r="AV45" s="40"/>
-      <c r="AW45" s="38"/>
-      <c r="AX45" s="38"/>
-      <c r="AY45" s="38"/>
-      <c r="AZ45" s="38"/>
-      <c r="BA45" s="38"/>
-      <c r="BB45" s="38"/>
-      <c r="BC45" s="38"/>
-      <c r="BD45" s="38"/>
-      <c r="BE45" s="38"/>
-      <c r="BF45" s="38"/>
-      <c r="BG45" s="41"/>
-      <c r="BH45" s="41"/>
-      <c r="BI45" s="41"/>
-      <c r="BJ45" s="41"/>
-      <c r="BK45" s="41"/>
-      <c r="BL45" s="38"/>
-      <c r="BM45" s="38"/>
-      <c r="BN45" s="38"/>
-      <c r="BO45" s="38"/>
-      <c r="BP45" s="38"/>
-      <c r="BQ45" s="38"/>
-      <c r="BR45" s="38"/>
-      <c r="BS45" s="38"/>
-      <c r="BT45" s="38"/>
-      <c r="BU45" s="38"/>
-      <c r="BV45" s="38"/>
-      <c r="BW45" s="38"/>
-      <c r="BX45" s="38"/>
-      <c r="BY45" s="38"/>
-      <c r="BZ45" s="38"/>
+    <row r="45" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="119" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="89"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="87"/>
+      <c r="O45" s="87"/>
+      <c r="P45" s="87"/>
+      <c r="Q45" s="87"/>
+      <c r="R45" s="87"/>
+      <c r="S45" s="87"/>
+      <c r="T45" s="87"/>
+      <c r="U45" s="87"/>
+      <c r="V45" s="87"/>
+      <c r="W45" s="87"/>
+      <c r="X45" s="87"/>
+      <c r="Y45" s="87"/>
+      <c r="Z45" s="87"/>
+      <c r="AA45" s="87"/>
+      <c r="AB45" s="87"/>
+      <c r="AC45" s="87"/>
+      <c r="AD45" s="87"/>
+      <c r="AE45" s="87"/>
+      <c r="AF45" s="87"/>
+      <c r="AG45" s="87"/>
+      <c r="AH45" s="87"/>
+      <c r="AI45" s="87"/>
+      <c r="AJ45" s="87"/>
+      <c r="AK45" s="87"/>
+      <c r="AL45" s="87"/>
+      <c r="AM45" s="120"/>
+      <c r="AN45" s="120"/>
+      <c r="AO45" s="120"/>
+      <c r="AP45" s="120"/>
+      <c r="AQ45" s="120"/>
+      <c r="AR45" s="121"/>
+      <c r="AS45" s="87"/>
+      <c r="AT45" s="87"/>
+      <c r="AU45" s="87"/>
+      <c r="AV45" s="87"/>
+      <c r="AW45" s="87"/>
+      <c r="AX45" s="87"/>
+      <c r="AY45" s="87"/>
+      <c r="AZ45" s="87"/>
+      <c r="BA45" s="87"/>
+      <c r="BB45" s="87"/>
+      <c r="BC45" s="87"/>
+      <c r="BD45" s="87"/>
+      <c r="BE45" s="87"/>
+      <c r="BF45" s="87"/>
+      <c r="BG45" s="87"/>
+      <c r="BH45" s="87"/>
+      <c r="BI45" s="87"/>
+      <c r="BJ45" s="87"/>
+      <c r="BK45" s="87"/>
+      <c r="BL45" s="87"/>
+      <c r="BM45" s="87"/>
+      <c r="BN45" s="87"/>
+      <c r="BO45" s="87"/>
+      <c r="BP45" s="87"/>
+      <c r="BQ45" s="87"/>
+      <c r="BR45" s="87"/>
+      <c r="BS45" s="87"/>
+      <c r="BT45" s="87"/>
+      <c r="BU45" s="87"/>
+      <c r="BV45" s="87"/>
+      <c r="BW45" s="87"/>
+      <c r="BX45" s="87"/>
+      <c r="BY45" s="87"/>
+      <c r="BZ45" s="87"/>
     </row>
-    <row r="46" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="54"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="166"/>
-      <c r="J46" s="166"/>
-      <c r="K46" s="166"/>
-      <c r="L46" s="166"/>
-      <c r="M46" s="166"/>
-      <c r="N46" s="166"/>
-      <c r="O46" s="166"/>
-      <c r="P46" s="166"/>
-      <c r="Q46" s="166"/>
-      <c r="R46" s="166"/>
-      <c r="S46" s="166"/>
-      <c r="T46" s="166"/>
-      <c r="U46" s="166"/>
-      <c r="V46" s="166"/>
-      <c r="W46" s="166"/>
-      <c r="X46" s="166"/>
-      <c r="Y46" s="166"/>
-      <c r="Z46" s="166"/>
-      <c r="AA46" s="166"/>
-      <c r="AB46" s="166"/>
-      <c r="AC46" s="166"/>
-      <c r="AD46" s="166"/>
-      <c r="AE46" s="166"/>
-      <c r="AF46" s="166"/>
-      <c r="AG46" s="166"/>
-      <c r="AH46" s="139"/>
-      <c r="AI46" s="139"/>
-      <c r="AJ46" s="139"/>
-      <c r="AK46" s="139"/>
-      <c r="AL46" s="38"/>
-      <c r="AM46" s="38"/>
-      <c r="AN46" s="38"/>
-      <c r="AO46" s="38"/>
-      <c r="AP46" s="38"/>
-      <c r="AQ46" s="38"/>
-      <c r="AR46" s="40"/>
-      <c r="AS46" s="40"/>
-      <c r="AT46" s="40"/>
-      <c r="AU46" s="40"/>
-      <c r="AV46" s="40"/>
-      <c r="AW46" s="38"/>
-      <c r="AX46" s="38"/>
-      <c r="AY46" s="38"/>
-      <c r="AZ46" s="38"/>
-      <c r="BA46" s="38"/>
-      <c r="BB46" s="38"/>
-      <c r="BC46" s="38"/>
-      <c r="BD46" s="38"/>
-      <c r="BE46" s="38"/>
-      <c r="BF46" s="38"/>
-      <c r="BG46" s="41"/>
-      <c r="BH46" s="41"/>
-      <c r="BI46" s="41"/>
-      <c r="BJ46" s="41"/>
-      <c r="BK46" s="41"/>
-      <c r="BL46" s="38"/>
-      <c r="BM46" s="38"/>
-      <c r="BN46" s="38"/>
-      <c r="BO46" s="38"/>
-      <c r="BP46" s="38"/>
-      <c r="BQ46" s="38"/>
-      <c r="BR46" s="38"/>
-      <c r="BS46" s="38"/>
-      <c r="BT46" s="38"/>
-      <c r="BU46" s="38"/>
-      <c r="BV46" s="38"/>
-      <c r="BW46" s="38"/>
-      <c r="BX46" s="38"/>
-      <c r="BY46" s="38"/>
-      <c r="BZ46" s="38"/>
+    <row r="46" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="119" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="89"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="87"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="87"/>
+      <c r="R46" s="87"/>
+      <c r="S46" s="87"/>
+      <c r="T46" s="87"/>
+      <c r="U46" s="87"/>
+      <c r="V46" s="87"/>
+      <c r="W46" s="87"/>
+      <c r="X46" s="87"/>
+      <c r="Y46" s="87"/>
+      <c r="Z46" s="87"/>
+      <c r="AA46" s="87"/>
+      <c r="AB46" s="87"/>
+      <c r="AC46" s="87"/>
+      <c r="AD46" s="87"/>
+      <c r="AE46" s="87"/>
+      <c r="AF46" s="87"/>
+      <c r="AG46" s="87"/>
+      <c r="AH46" s="87"/>
+      <c r="AI46" s="87"/>
+      <c r="AJ46" s="87"/>
+      <c r="AK46" s="87"/>
+      <c r="AL46" s="87"/>
+      <c r="AM46" s="120"/>
+      <c r="AN46" s="120"/>
+      <c r="AO46" s="120"/>
+      <c r="AP46" s="120"/>
+      <c r="AQ46" s="120"/>
+      <c r="AR46" s="121"/>
+      <c r="AS46" s="87"/>
+      <c r="AT46" s="87"/>
+      <c r="AU46" s="87"/>
+      <c r="AV46" s="87"/>
+      <c r="AW46" s="87"/>
+      <c r="AX46" s="87"/>
+      <c r="AY46" s="87"/>
+      <c r="AZ46" s="87"/>
+      <c r="BA46" s="87"/>
+      <c r="BB46" s="87"/>
+      <c r="BC46" s="87"/>
+      <c r="BD46" s="87"/>
+      <c r="BE46" s="87"/>
+      <c r="BF46" s="87"/>
+      <c r="BG46" s="87"/>
+      <c r="BH46" s="87"/>
+      <c r="BI46" s="87"/>
+      <c r="BJ46" s="87"/>
+      <c r="BK46" s="87"/>
+      <c r="BL46" s="87"/>
+      <c r="BM46" s="87"/>
+      <c r="BN46" s="87"/>
+      <c r="BO46" s="87"/>
+      <c r="BP46" s="87"/>
+      <c r="BQ46" s="87"/>
+      <c r="BR46" s="87"/>
+      <c r="BS46" s="87"/>
+      <c r="BT46" s="87"/>
+      <c r="BU46" s="87"/>
+      <c r="BV46" s="87"/>
+      <c r="BW46" s="87"/>
+      <c r="BX46" s="87"/>
+      <c r="BY46" s="87"/>
+      <c r="BZ46" s="87"/>
     </row>
-    <row r="47" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" s="54"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="166"/>
-      <c r="J47" s="166"/>
-      <c r="K47" s="166"/>
-      <c r="L47" s="166"/>
-      <c r="M47" s="166"/>
-      <c r="N47" s="166"/>
-      <c r="O47" s="166"/>
-      <c r="P47" s="166"/>
-      <c r="Q47" s="166"/>
-      <c r="R47" s="166"/>
-      <c r="S47" s="166"/>
-      <c r="T47" s="166"/>
-      <c r="U47" s="166"/>
-      <c r="V47" s="166"/>
-      <c r="W47" s="166"/>
-      <c r="X47" s="166"/>
-      <c r="Y47" s="166"/>
-      <c r="Z47" s="166"/>
-      <c r="AA47" s="166"/>
-      <c r="AB47" s="166"/>
-      <c r="AC47" s="166"/>
-      <c r="AD47" s="166"/>
-      <c r="AE47" s="166"/>
-      <c r="AF47" s="166"/>
-      <c r="AG47" s="166"/>
-      <c r="AH47" s="139"/>
-      <c r="AI47" s="139"/>
-      <c r="AJ47" s="139"/>
-      <c r="AK47" s="139"/>
-      <c r="AL47" s="38"/>
-      <c r="AM47" s="38"/>
-      <c r="AN47" s="38"/>
-      <c r="AO47" s="38"/>
-      <c r="AP47" s="38"/>
-      <c r="AQ47" s="38"/>
-      <c r="AR47" s="40"/>
-      <c r="AS47" s="40"/>
-      <c r="AT47" s="40"/>
-      <c r="AU47" s="40"/>
-      <c r="AV47" s="40"/>
-      <c r="AW47" s="38"/>
-      <c r="AX47" s="38"/>
-      <c r="AY47" s="38"/>
-      <c r="AZ47" s="38"/>
-      <c r="BA47" s="38"/>
-      <c r="BB47" s="38"/>
-      <c r="BC47" s="38"/>
-      <c r="BD47" s="38"/>
-      <c r="BE47" s="38"/>
-      <c r="BF47" s="38"/>
-      <c r="BG47" s="41"/>
-      <c r="BH47" s="41"/>
-      <c r="BI47" s="41"/>
-      <c r="BJ47" s="41"/>
-      <c r="BK47" s="41"/>
-      <c r="BL47" s="38"/>
-      <c r="BM47" s="38"/>
-      <c r="BN47" s="38"/>
-      <c r="BO47" s="38"/>
-      <c r="BP47" s="38"/>
-      <c r="BQ47" s="38"/>
-      <c r="BR47" s="38"/>
-      <c r="BS47" s="38"/>
-      <c r="BT47" s="38"/>
-      <c r="BU47" s="38"/>
-      <c r="BV47" s="38"/>
-      <c r="BW47" s="38"/>
-      <c r="BX47" s="38"/>
-      <c r="BY47" s="38"/>
-      <c r="BZ47" s="38"/>
+    <row r="47" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="87"/>
+      <c r="Q47" s="87"/>
+      <c r="R47" s="87"/>
+      <c r="S47" s="87"/>
+      <c r="T47" s="87"/>
+      <c r="U47" s="87"/>
+      <c r="V47" s="87"/>
+      <c r="W47" s="87"/>
+      <c r="X47" s="87"/>
+      <c r="Y47" s="87"/>
+      <c r="Z47" s="87"/>
+      <c r="AA47" s="87"/>
+      <c r="AB47" s="87"/>
+      <c r="AC47" s="87"/>
+      <c r="AD47" s="87"/>
+      <c r="AE47" s="87"/>
+      <c r="AF47" s="87"/>
+      <c r="AG47" s="87"/>
+      <c r="AH47" s="87"/>
+      <c r="AI47" s="87"/>
+      <c r="AJ47" s="87"/>
+      <c r="AK47" s="87"/>
+      <c r="AL47" s="87"/>
+      <c r="AM47" s="87"/>
+      <c r="AN47" s="87"/>
+      <c r="AO47" s="87"/>
+      <c r="AP47" s="87"/>
+      <c r="AQ47" s="87"/>
+      <c r="AR47" s="87"/>
+      <c r="AS47" s="87"/>
+      <c r="AT47" s="87"/>
+      <c r="AU47" s="87"/>
+      <c r="AV47" s="87"/>
+      <c r="AW47" s="87"/>
+      <c r="AX47" s="87"/>
+      <c r="AY47" s="87"/>
+      <c r="AZ47" s="87"/>
+      <c r="BA47" s="87"/>
+      <c r="BB47" s="87"/>
+      <c r="BC47" s="87"/>
+      <c r="BD47" s="87"/>
+      <c r="BE47" s="87"/>
+      <c r="BF47" s="87"/>
+      <c r="BG47" s="87"/>
+      <c r="BH47" s="87"/>
+      <c r="BI47" s="87"/>
+      <c r="BJ47" s="87"/>
+      <c r="BK47" s="87"/>
+      <c r="BL47" s="87"/>
+      <c r="BM47" s="87"/>
+      <c r="BN47" s="87"/>
+      <c r="BO47" s="87"/>
+      <c r="BP47" s="87"/>
+      <c r="BQ47" s="87"/>
+      <c r="BR47" s="87"/>
+      <c r="BS47" s="87"/>
+      <c r="BT47" s="87"/>
+      <c r="BU47" s="87"/>
+      <c r="BV47" s="87"/>
+      <c r="BW47" s="87"/>
+      <c r="BX47" s="87"/>
+      <c r="BY47" s="87"/>
+      <c r="BZ47" s="87"/>
     </row>
-    <row r="48" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" s="54"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="44"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="38"/>
-      <c r="Z48" s="38"/>
-      <c r="AA48" s="38"/>
-      <c r="AB48" s="38"/>
-      <c r="AC48" s="39"/>
-      <c r="AD48" s="39"/>
-      <c r="AE48" s="39"/>
-      <c r="AF48" s="39"/>
-      <c r="AG48" s="39"/>
-      <c r="AH48" s="38"/>
-      <c r="AI48" s="38"/>
-      <c r="AJ48" s="139"/>
-      <c r="AK48" s="38"/>
-      <c r="AL48" s="38"/>
-      <c r="AM48" s="38"/>
-      <c r="AN48" s="38"/>
-      <c r="AO48" s="38"/>
-      <c r="AP48" s="38"/>
-      <c r="AQ48" s="38"/>
-      <c r="AR48" s="40"/>
-      <c r="AS48" s="40"/>
-      <c r="AT48" s="40"/>
-      <c r="AU48" s="40"/>
-      <c r="AV48" s="40"/>
-      <c r="AW48" s="38"/>
-      <c r="AX48" s="38"/>
-      <c r="AY48" s="38"/>
-      <c r="AZ48" s="38"/>
-      <c r="BA48" s="38"/>
-      <c r="BB48" s="38"/>
-      <c r="BC48" s="38"/>
-      <c r="BD48" s="38"/>
-      <c r="BE48" s="38"/>
-      <c r="BF48" s="38"/>
-      <c r="BG48" s="41"/>
-      <c r="BH48" s="41"/>
-      <c r="BI48" s="41"/>
-      <c r="BJ48" s="41"/>
-      <c r="BK48" s="41"/>
-      <c r="BL48" s="38"/>
-      <c r="BM48" s="38"/>
-      <c r="BN48" s="38"/>
-      <c r="BO48" s="38"/>
-      <c r="BP48" s="38"/>
-      <c r="BQ48" s="38"/>
-      <c r="BR48" s="38"/>
-      <c r="BS48" s="38"/>
-      <c r="BT48" s="38"/>
-      <c r="BU48" s="38"/>
-      <c r="BV48" s="38"/>
-      <c r="BW48" s="38"/>
-      <c r="BX48" s="38"/>
-      <c r="BY48" s="38"/>
-      <c r="BZ48" s="38"/>
+    <row r="48" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="87"/>
+      <c r="P48" s="87"/>
+      <c r="Q48" s="87"/>
+      <c r="R48" s="87"/>
+      <c r="S48" s="87"/>
+      <c r="T48" s="87"/>
+      <c r="U48" s="87"/>
+      <c r="V48" s="87"/>
+      <c r="W48" s="87"/>
+      <c r="X48" s="87"/>
+      <c r="Y48" s="87"/>
+      <c r="Z48" s="87"/>
+      <c r="AA48" s="87"/>
+      <c r="AB48" s="87"/>
+      <c r="AC48" s="87"/>
+      <c r="AD48" s="87"/>
+      <c r="AE48" s="87"/>
+      <c r="AF48" s="87"/>
+      <c r="AG48" s="87"/>
+      <c r="AH48" s="87"/>
+      <c r="AI48" s="87"/>
+      <c r="AJ48" s="87"/>
+      <c r="AK48" s="87"/>
+      <c r="AL48" s="87"/>
+      <c r="AM48" s="87"/>
+      <c r="AN48" s="87"/>
+      <c r="AO48" s="87"/>
+      <c r="AP48" s="87"/>
+      <c r="AQ48" s="87"/>
+      <c r="AR48" s="87"/>
+      <c r="AS48" s="87"/>
+      <c r="AT48" s="87"/>
+      <c r="AU48" s="87"/>
+      <c r="AV48" s="87"/>
+      <c r="AW48" s="87"/>
+      <c r="AX48" s="87"/>
+      <c r="AY48" s="87"/>
+      <c r="AZ48" s="87"/>
+      <c r="BA48" s="87"/>
+      <c r="BB48" s="87"/>
+      <c r="BC48" s="87"/>
+      <c r="BD48" s="87"/>
+      <c r="BE48" s="87"/>
+      <c r="BF48" s="87"/>
+      <c r="BG48" s="87"/>
+      <c r="BH48" s="87"/>
+      <c r="BI48" s="87"/>
+      <c r="BJ48" s="87"/>
+      <c r="BK48" s="87"/>
+      <c r="BL48" s="87"/>
+      <c r="BM48" s="87"/>
+      <c r="BN48" s="87"/>
+      <c r="BO48" s="87"/>
+      <c r="BP48" s="87"/>
+      <c r="BQ48" s="87"/>
+      <c r="BR48" s="87"/>
+      <c r="BS48" s="87"/>
+      <c r="BT48" s="87"/>
+      <c r="BU48" s="87"/>
+      <c r="BV48" s="87"/>
+      <c r="BW48" s="87"/>
+      <c r="BX48" s="87"/>
+      <c r="BY48" s="87"/>
+      <c r="BZ48" s="87"/>
     </row>
-    <row r="49" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="44"/>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="44"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
-      <c r="W49" s="38"/>
-      <c r="X49" s="38"/>
-      <c r="Y49" s="38"/>
-      <c r="Z49" s="38"/>
-      <c r="AA49" s="38"/>
-      <c r="AB49" s="38"/>
-      <c r="AC49" s="39"/>
-      <c r="AD49" s="39"/>
-      <c r="AE49" s="39"/>
-      <c r="AF49" s="39"/>
-      <c r="AG49" s="39"/>
-      <c r="AH49" s="38"/>
-      <c r="AI49" s="38"/>
-      <c r="AJ49" s="139"/>
-      <c r="AK49" s="38"/>
-      <c r="AL49" s="38"/>
-      <c r="AM49" s="38"/>
-      <c r="AN49" s="38"/>
-      <c r="AO49" s="38"/>
-      <c r="AP49" s="38"/>
-      <c r="AQ49" s="38"/>
-      <c r="AR49" s="40"/>
-      <c r="AS49" s="40"/>
-      <c r="AT49" s="40"/>
-      <c r="AU49" s="40"/>
-      <c r="AV49" s="40"/>
-      <c r="AW49" s="38"/>
-      <c r="AX49" s="38"/>
-      <c r="AY49" s="38"/>
-      <c r="AZ49" s="38"/>
-      <c r="BA49" s="38"/>
-      <c r="BB49" s="38"/>
-      <c r="BC49" s="38"/>
-      <c r="BD49" s="38"/>
-      <c r="BE49" s="38"/>
-      <c r="BF49" s="38"/>
-      <c r="BG49" s="41"/>
-      <c r="BH49" s="41"/>
-      <c r="BI49" s="41"/>
-      <c r="BJ49" s="41"/>
-      <c r="BK49" s="41"/>
-      <c r="BL49" s="38"/>
-      <c r="BM49" s="38"/>
-      <c r="BN49" s="38"/>
-      <c r="BO49" s="38"/>
-      <c r="BP49" s="38"/>
-      <c r="BQ49" s="38"/>
-      <c r="BR49" s="38"/>
-      <c r="BS49" s="38"/>
-      <c r="BT49" s="38"/>
-      <c r="BU49" s="38"/>
-      <c r="BV49" s="38"/>
-      <c r="BW49" s="38"/>
-      <c r="BX49" s="38"/>
-      <c r="BY49" s="38"/>
-      <c r="BZ49" s="38"/>
+    <row r="49" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="72"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="74"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="68"/>
+      <c r="O49" s="68"/>
+      <c r="P49" s="68"/>
+      <c r="Q49" s="68"/>
+      <c r="R49" s="68"/>
+      <c r="S49" s="67"/>
+      <c r="T49" s="67"/>
+      <c r="U49" s="67"/>
+      <c r="V49" s="67"/>
+      <c r="W49" s="67"/>
+      <c r="X49" s="67"/>
+      <c r="Y49" s="67"/>
+      <c r="Z49" s="67"/>
+      <c r="AA49" s="67"/>
+      <c r="AB49" s="67"/>
+      <c r="AC49" s="69"/>
+      <c r="AD49" s="69"/>
+      <c r="AE49" s="69"/>
+      <c r="AF49" s="69"/>
+      <c r="AG49" s="69"/>
+      <c r="AH49" s="67"/>
+      <c r="AI49" s="67"/>
+      <c r="AJ49" s="67"/>
+      <c r="AK49" s="67"/>
+      <c r="AL49" s="67"/>
+      <c r="AM49" s="67"/>
+      <c r="AN49" s="67"/>
+      <c r="AO49" s="67"/>
+      <c r="AP49" s="67"/>
+      <c r="AQ49" s="67"/>
+      <c r="AR49" s="70"/>
+      <c r="AS49" s="70"/>
+      <c r="AT49" s="70"/>
+      <c r="AU49" s="70"/>
+      <c r="AV49" s="70"/>
+      <c r="AW49" s="67"/>
+      <c r="AX49" s="67"/>
+      <c r="AY49" s="67"/>
+      <c r="AZ49" s="67"/>
+      <c r="BA49" s="67"/>
+      <c r="BB49" s="67"/>
+      <c r="BC49" s="67"/>
+      <c r="BD49" s="67"/>
+      <c r="BE49" s="67"/>
+      <c r="BF49" s="67"/>
+      <c r="BG49" s="71"/>
+      <c r="BH49" s="71"/>
+      <c r="BI49" s="71"/>
+      <c r="BJ49" s="71"/>
+      <c r="BK49" s="71"/>
+      <c r="BL49" s="67"/>
+      <c r="BM49" s="67"/>
+      <c r="BN49" s="67"/>
+      <c r="BO49" s="67"/>
+      <c r="BP49" s="67"/>
+      <c r="BQ49" s="67"/>
+      <c r="BR49" s="67"/>
+      <c r="BS49" s="67"/>
+      <c r="BT49" s="67"/>
+      <c r="BU49" s="67"/>
+      <c r="BV49" s="67"/>
+      <c r="BW49" s="67"/>
+      <c r="BX49" s="67"/>
+      <c r="BY49" s="67"/>
+      <c r="BZ49" s="67"/>
     </row>
     <row r="50" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32"/>
       <c r="B50" s="53"/>
       <c r="C50" s="56" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D50" s="54"/>
       <c r="E50" s="35"/>
       <c r="F50" s="35"/>
       <c r="G50" s="36"/>
       <c r="H50" s="37"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="38"/>
-      <c r="W50" s="38"/>
-      <c r="X50" s="38"/>
-      <c r="Y50" s="38"/>
-      <c r="Z50" s="38"/>
-      <c r="AA50" s="38"/>
-      <c r="AB50" s="38"/>
-      <c r="AC50" s="39"/>
-      <c r="AD50" s="39"/>
-      <c r="AE50" s="39"/>
-      <c r="AF50" s="39"/>
-      <c r="AG50" s="39"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="128"/>
+      <c r="K50" s="128"/>
+      <c r="L50" s="128"/>
+      <c r="M50" s="128"/>
+      <c r="N50" s="128"/>
+      <c r="O50" s="128"/>
+      <c r="P50" s="128"/>
+      <c r="Q50" s="128"/>
+      <c r="R50" s="128"/>
+      <c r="S50" s="128"/>
+      <c r="T50" s="128"/>
+      <c r="U50" s="128"/>
+      <c r="V50" s="128"/>
+      <c r="W50" s="128"/>
+      <c r="X50" s="128"/>
+      <c r="Y50" s="128"/>
+      <c r="Z50" s="128"/>
+      <c r="AA50" s="128"/>
+      <c r="AB50" s="128"/>
+      <c r="AC50" s="128"/>
+      <c r="AD50" s="128"/>
+      <c r="AE50" s="128"/>
+      <c r="AF50" s="128"/>
+      <c r="AG50" s="128"/>
       <c r="AH50" s="38"/>
       <c r="AI50" s="38"/>
-      <c r="AJ50" s="139"/>
-      <c r="AK50" s="38"/>
-      <c r="AL50" s="38"/>
-      <c r="AM50" s="38"/>
+      <c r="AJ50" s="123"/>
+      <c r="AK50" s="123"/>
+      <c r="AL50" s="123"/>
+      <c r="AM50" s="58"/>
       <c r="AN50" s="38"/>
       <c r="AO50" s="38"/>
       <c r="AP50" s="38"/>
@@ -6284,44 +6303,44 @@
       <c r="A51" s="32"/>
       <c r="B51" s="53"/>
       <c r="C51" s="56" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="D51" s="54"/>
       <c r="E51" s="35"/>
       <c r="F51" s="35"/>
       <c r="G51" s="36"/>
       <c r="H51" s="37"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="38"/>
-      <c r="T51" s="38"/>
-      <c r="U51" s="38"/>
-      <c r="V51" s="38"/>
-      <c r="W51" s="38"/>
-      <c r="X51" s="38"/>
-      <c r="Y51" s="38"/>
-      <c r="Z51" s="38"/>
-      <c r="AA51" s="38"/>
-      <c r="AB51" s="38"/>
-      <c r="AC51" s="39"/>
-      <c r="AD51" s="39"/>
-      <c r="AE51" s="39"/>
-      <c r="AF51" s="39"/>
-      <c r="AG51" s="39"/>
+      <c r="I51" s="128"/>
+      <c r="J51" s="128"/>
+      <c r="K51" s="128"/>
+      <c r="L51" s="128"/>
+      <c r="M51" s="128"/>
+      <c r="N51" s="128"/>
+      <c r="O51" s="128"/>
+      <c r="P51" s="128"/>
+      <c r="Q51" s="128"/>
+      <c r="R51" s="128"/>
+      <c r="S51" s="128"/>
+      <c r="T51" s="128"/>
+      <c r="U51" s="128"/>
+      <c r="V51" s="128"/>
+      <c r="W51" s="128"/>
+      <c r="X51" s="128"/>
+      <c r="Y51" s="128"/>
+      <c r="Z51" s="128"/>
+      <c r="AA51" s="128"/>
+      <c r="AB51" s="128"/>
+      <c r="AC51" s="128"/>
+      <c r="AD51" s="128"/>
+      <c r="AE51" s="128"/>
+      <c r="AF51" s="128"/>
+      <c r="AG51" s="128"/>
       <c r="AH51" s="38"/>
       <c r="AI51" s="38"/>
-      <c r="AJ51" s="139"/>
-      <c r="AK51" s="38"/>
-      <c r="AL51" s="38"/>
-      <c r="AM51" s="38"/>
+      <c r="AJ51" s="123"/>
+      <c r="AK51" s="123"/>
+      <c r="AL51" s="123"/>
+      <c r="AM51" s="58"/>
       <c r="AN51" s="38"/>
       <c r="AO51" s="38"/>
       <c r="AP51" s="38"/>
@@ -6366,45 +6385,45 @@
       <c r="A52" s="32"/>
       <c r="B52" s="53"/>
       <c r="C52" s="56" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="D52" s="54"/>
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
       <c r="G52" s="36"/>
       <c r="H52" s="37"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="44"/>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="38"/>
-      <c r="T52" s="38"/>
-      <c r="U52" s="38"/>
-      <c r="V52" s="38"/>
-      <c r="W52" s="38"/>
-      <c r="X52" s="38"/>
-      <c r="Y52" s="38"/>
-      <c r="Z52" s="38"/>
-      <c r="AA52" s="38"/>
-      <c r="AB52" s="38"/>
-      <c r="AC52" s="39"/>
-      <c r="AD52" s="39"/>
-      <c r="AE52" s="39"/>
-      <c r="AF52" s="39"/>
-      <c r="AG52" s="39"/>
+      <c r="I52" s="128"/>
+      <c r="J52" s="128"/>
+      <c r="K52" s="128"/>
+      <c r="L52" s="128"/>
+      <c r="M52" s="128"/>
+      <c r="N52" s="128"/>
+      <c r="O52" s="128"/>
+      <c r="P52" s="128"/>
+      <c r="Q52" s="128"/>
+      <c r="R52" s="128"/>
+      <c r="S52" s="128"/>
+      <c r="T52" s="128"/>
+      <c r="U52" s="128"/>
+      <c r="V52" s="128"/>
+      <c r="W52" s="128"/>
+      <c r="X52" s="128"/>
+      <c r="Y52" s="128"/>
+      <c r="Z52" s="128"/>
+      <c r="AA52" s="128"/>
+      <c r="AB52" s="128"/>
+      <c r="AC52" s="128"/>
+      <c r="AD52" s="128"/>
+      <c r="AE52" s="128"/>
+      <c r="AF52" s="128"/>
+      <c r="AG52" s="128"/>
       <c r="AH52" s="38"/>
       <c r="AI52" s="38"/>
-      <c r="AJ52" s="139"/>
-      <c r="AK52" s="38"/>
-      <c r="AL52" s="38"/>
-      <c r="AM52" s="38"/>
-      <c r="AN52" s="38"/>
+      <c r="AJ52" s="123"/>
+      <c r="AK52" s="123"/>
+      <c r="AL52" s="123"/>
+      <c r="AM52" s="58"/>
+      <c r="AN52" s="130"/>
       <c r="AO52" s="38"/>
       <c r="AP52" s="38"/>
       <c r="AQ52" s="38"/>
@@ -6447,44 +6466,46 @@
     <row r="53" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32"/>
       <c r="B53" s="53"/>
-      <c r="C53" s="56"/>
+      <c r="C53" s="56" t="s">
+        <v>72</v>
+      </c>
       <c r="D53" s="54"/>
       <c r="E53" s="35"/>
       <c r="F53" s="35"/>
       <c r="G53" s="36"/>
       <c r="H53" s="37"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="44"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="44"/>
-      <c r="S53" s="38"/>
-      <c r="T53" s="38"/>
-      <c r="U53" s="38"/>
-      <c r="V53" s="38"/>
-      <c r="W53" s="38"/>
-      <c r="X53" s="38"/>
-      <c r="Y53" s="38"/>
-      <c r="Z53" s="38"/>
-      <c r="AA53" s="38"/>
-      <c r="AB53" s="38"/>
-      <c r="AC53" s="39"/>
-      <c r="AD53" s="39"/>
-      <c r="AE53" s="39"/>
-      <c r="AF53" s="39"/>
-      <c r="AG53" s="39"/>
+      <c r="I53" s="128"/>
+      <c r="J53" s="128"/>
+      <c r="K53" s="128"/>
+      <c r="L53" s="128"/>
+      <c r="M53" s="128"/>
+      <c r="N53" s="128"/>
+      <c r="O53" s="128"/>
+      <c r="P53" s="128"/>
+      <c r="Q53" s="128"/>
+      <c r="R53" s="128"/>
+      <c r="S53" s="128"/>
+      <c r="T53" s="128"/>
+      <c r="U53" s="128"/>
+      <c r="V53" s="128"/>
+      <c r="W53" s="128"/>
+      <c r="X53" s="128"/>
+      <c r="Y53" s="128"/>
+      <c r="Z53" s="128"/>
+      <c r="AA53" s="128"/>
+      <c r="AB53" s="128"/>
+      <c r="AC53" s="128"/>
+      <c r="AD53" s="128"/>
+      <c r="AE53" s="128"/>
+      <c r="AF53" s="128"/>
+      <c r="AG53" s="128"/>
       <c r="AH53" s="38"/>
       <c r="AI53" s="38"/>
-      <c r="AJ53" s="139"/>
+      <c r="AJ53" s="38"/>
       <c r="AK53" s="38"/>
       <c r="AL53" s="38"/>
       <c r="AM53" s="38"/>
-      <c r="AN53" s="38"/>
+      <c r="AN53" s="129"/>
       <c r="AO53" s="38"/>
       <c r="AP53" s="38"/>
       <c r="AQ53" s="38"/>
@@ -6526,128 +6547,128 @@
     </row>
     <row r="54" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="83"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="86"/>
-      <c r="I54" s="87"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="89"/>
-      <c r="L54" s="89"/>
-      <c r="M54" s="89"/>
-      <c r="N54" s="90"/>
-      <c r="O54" s="90"/>
-      <c r="P54" s="90"/>
-      <c r="Q54" s="90"/>
-      <c r="R54" s="90"/>
-      <c r="S54" s="89"/>
-      <c r="T54" s="89"/>
-      <c r="U54" s="89"/>
-      <c r="V54" s="89"/>
-      <c r="W54" s="89"/>
-      <c r="X54" s="89"/>
-      <c r="Y54" s="89"/>
-      <c r="Z54" s="89"/>
-      <c r="AA54" s="89"/>
-      <c r="AB54" s="89"/>
-      <c r="AC54" s="91"/>
-      <c r="AD54" s="91"/>
-      <c r="AE54" s="91"/>
-      <c r="AF54" s="91"/>
-      <c r="AG54" s="91"/>
-      <c r="AH54" s="89"/>
-      <c r="AI54" s="89"/>
-      <c r="AJ54" s="89"/>
-      <c r="AK54" s="89"/>
-      <c r="AL54" s="89"/>
-      <c r="AM54" s="89"/>
-      <c r="AN54" s="89"/>
-      <c r="AO54" s="89"/>
-      <c r="AP54" s="89"/>
-      <c r="AQ54" s="89"/>
-      <c r="AR54" s="92"/>
-      <c r="AS54" s="92"/>
-      <c r="AT54" s="92"/>
-      <c r="AU54" s="92"/>
-      <c r="AV54" s="92"/>
-      <c r="AW54" s="89"/>
-      <c r="AX54" s="89"/>
-      <c r="AY54" s="89"/>
-      <c r="AZ54" s="89"/>
-      <c r="BA54" s="89"/>
-      <c r="BB54" s="89"/>
-      <c r="BC54" s="89"/>
-      <c r="BD54" s="89"/>
-      <c r="BE54" s="89"/>
-      <c r="BF54" s="89"/>
-      <c r="BG54" s="93"/>
-      <c r="BH54" s="93"/>
-      <c r="BI54" s="93"/>
-      <c r="BJ54" s="93"/>
-      <c r="BK54" s="93"/>
-      <c r="BL54" s="89"/>
-      <c r="BM54" s="89"/>
-      <c r="BN54" s="89"/>
-      <c r="BO54" s="89"/>
-      <c r="BP54" s="89"/>
-      <c r="BQ54" s="89"/>
-      <c r="BR54" s="89"/>
-      <c r="BS54" s="89"/>
-      <c r="BT54" s="89"/>
-      <c r="BU54" s="89"/>
-      <c r="BV54" s="89"/>
-      <c r="BW54" s="89"/>
-      <c r="BX54" s="89"/>
-      <c r="BY54" s="89"/>
-      <c r="BZ54" s="89"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="54"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="128"/>
+      <c r="J54" s="128"/>
+      <c r="K54" s="128"/>
+      <c r="L54" s="128"/>
+      <c r="M54" s="128"/>
+      <c r="N54" s="128"/>
+      <c r="O54" s="128"/>
+      <c r="P54" s="128"/>
+      <c r="Q54" s="128"/>
+      <c r="R54" s="128"/>
+      <c r="S54" s="128"/>
+      <c r="T54" s="128"/>
+      <c r="U54" s="128"/>
+      <c r="V54" s="128"/>
+      <c r="W54" s="128"/>
+      <c r="X54" s="128"/>
+      <c r="Y54" s="128"/>
+      <c r="Z54" s="128"/>
+      <c r="AA54" s="128"/>
+      <c r="AB54" s="128"/>
+      <c r="AC54" s="128"/>
+      <c r="AD54" s="128"/>
+      <c r="AE54" s="128"/>
+      <c r="AF54" s="128"/>
+      <c r="AG54" s="128"/>
+      <c r="AH54" s="38"/>
+      <c r="AI54" s="38"/>
+      <c r="AJ54" s="38"/>
+      <c r="AK54" s="38"/>
+      <c r="AL54" s="38"/>
+      <c r="AM54" s="38"/>
+      <c r="AN54" s="38"/>
+      <c r="AO54" s="38"/>
+      <c r="AP54" s="38"/>
+      <c r="AQ54" s="38"/>
+      <c r="AR54" s="40"/>
+      <c r="AS54" s="40"/>
+      <c r="AT54" s="40"/>
+      <c r="AU54" s="40"/>
+      <c r="AV54" s="40"/>
+      <c r="AW54" s="38"/>
+      <c r="AX54" s="38"/>
+      <c r="AY54" s="38"/>
+      <c r="AZ54" s="38"/>
+      <c r="BA54" s="38"/>
+      <c r="BB54" s="38"/>
+      <c r="BC54" s="38"/>
+      <c r="BD54" s="38"/>
+      <c r="BE54" s="38"/>
+      <c r="BF54" s="38"/>
+      <c r="BG54" s="41"/>
+      <c r="BH54" s="41"/>
+      <c r="BI54" s="41"/>
+      <c r="BJ54" s="41"/>
+      <c r="BK54" s="41"/>
+      <c r="BL54" s="38"/>
+      <c r="BM54" s="38"/>
+      <c r="BN54" s="38"/>
+      <c r="BO54" s="38"/>
+      <c r="BP54" s="38"/>
+      <c r="BQ54" s="38"/>
+      <c r="BR54" s="38"/>
+      <c r="BS54" s="38"/>
+      <c r="BT54" s="38"/>
+      <c r="BU54" s="38"/>
+      <c r="BV54" s="38"/>
+      <c r="BW54" s="38"/>
+      <c r="BX54" s="38"/>
+      <c r="BY54" s="38"/>
+      <c r="BZ54" s="38"/>
     </row>
     <row r="55" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
       <c r="B55" s="53"/>
       <c r="C55" s="56" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D55" s="54"/>
       <c r="E55" s="35"/>
       <c r="F55" s="35"/>
       <c r="G55" s="36"/>
       <c r="H55" s="37"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="44"/>
-      <c r="O55" s="44"/>
-      <c r="P55" s="44"/>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="44"/>
-      <c r="S55" s="38"/>
-      <c r="T55" s="38"/>
-      <c r="U55" s="38"/>
-      <c r="V55" s="38"/>
-      <c r="W55" s="38"/>
-      <c r="X55" s="38"/>
-      <c r="Y55" s="38"/>
-      <c r="Z55" s="38"/>
-      <c r="AA55" s="38"/>
-      <c r="AB55" s="38"/>
-      <c r="AC55" s="39"/>
-      <c r="AD55" s="39"/>
-      <c r="AE55" s="39"/>
-      <c r="AF55" s="39"/>
-      <c r="AG55" s="39"/>
+      <c r="I55" s="128"/>
+      <c r="J55" s="128"/>
+      <c r="K55" s="128"/>
+      <c r="L55" s="128"/>
+      <c r="M55" s="128"/>
+      <c r="N55" s="128"/>
+      <c r="O55" s="128"/>
+      <c r="P55" s="128"/>
+      <c r="Q55" s="128"/>
+      <c r="R55" s="128"/>
+      <c r="S55" s="128"/>
+      <c r="T55" s="128"/>
+      <c r="U55" s="128"/>
+      <c r="V55" s="128"/>
+      <c r="W55" s="128"/>
+      <c r="X55" s="128"/>
+      <c r="Y55" s="128"/>
+      <c r="Z55" s="128"/>
+      <c r="AA55" s="128"/>
+      <c r="AB55" s="128"/>
+      <c r="AC55" s="128"/>
+      <c r="AD55" s="128"/>
+      <c r="AE55" s="128"/>
+      <c r="AF55" s="128"/>
+      <c r="AG55" s="128"/>
       <c r="AH55" s="38"/>
-      <c r="AI55" s="158"/>
-      <c r="AJ55" s="158"/>
-      <c r="AK55" s="158"/>
-      <c r="AL55" s="158"/>
-      <c r="AM55" s="58"/>
+      <c r="AI55" s="38"/>
+      <c r="AJ55" s="38"/>
+      <c r="AK55" s="38"/>
+      <c r="AL55" s="38"/>
+      <c r="AM55" s="38"/>
       <c r="AN55" s="38"/>
       <c r="AO55" s="38"/>
       <c r="AP55" s="38"/>
@@ -6692,44 +6713,44 @@
       <c r="A56" s="32"/>
       <c r="B56" s="53"/>
       <c r="C56" s="56" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D56" s="54"/>
       <c r="E56" s="35"/>
       <c r="F56" s="35"/>
       <c r="G56" s="36"/>
       <c r="H56" s="37"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="44"/>
-      <c r="O56" s="44"/>
-      <c r="P56" s="44"/>
-      <c r="Q56" s="44"/>
-      <c r="R56" s="44"/>
-      <c r="S56" s="38"/>
-      <c r="T56" s="38"/>
-      <c r="U56" s="38"/>
-      <c r="V56" s="38"/>
-      <c r="W56" s="38"/>
-      <c r="X56" s="38"/>
-      <c r="Y56" s="38"/>
-      <c r="Z56" s="38"/>
-      <c r="AA56" s="38"/>
-      <c r="AB56" s="38"/>
-      <c r="AC56" s="139"/>
-      <c r="AD56" s="139"/>
-      <c r="AE56" s="139"/>
-      <c r="AF56" s="139"/>
-      <c r="AG56" s="139"/>
-      <c r="AH56" s="139"/>
-      <c r="AI56" s="158"/>
-      <c r="AJ56" s="158"/>
-      <c r="AK56" s="158"/>
-      <c r="AL56" s="158"/>
-      <c r="AM56" s="58"/>
+      <c r="I56" s="128"/>
+      <c r="J56" s="128"/>
+      <c r="K56" s="128"/>
+      <c r="L56" s="128"/>
+      <c r="M56" s="128"/>
+      <c r="N56" s="128"/>
+      <c r="O56" s="128"/>
+      <c r="P56" s="128"/>
+      <c r="Q56" s="128"/>
+      <c r="R56" s="128"/>
+      <c r="S56" s="128"/>
+      <c r="T56" s="128"/>
+      <c r="U56" s="128"/>
+      <c r="V56" s="128"/>
+      <c r="W56" s="128"/>
+      <c r="X56" s="128"/>
+      <c r="Y56" s="128"/>
+      <c r="Z56" s="128"/>
+      <c r="AA56" s="128"/>
+      <c r="AB56" s="128"/>
+      <c r="AC56" s="128"/>
+      <c r="AD56" s="128"/>
+      <c r="AE56" s="128"/>
+      <c r="AF56" s="128"/>
+      <c r="AG56" s="128"/>
+      <c r="AH56" s="38"/>
+      <c r="AI56" s="38"/>
+      <c r="AJ56" s="38"/>
+      <c r="AK56" s="38"/>
+      <c r="AL56" s="38"/>
+      <c r="AM56" s="38"/>
       <c r="AN56" s="38"/>
       <c r="AO56" s="38"/>
       <c r="AP56" s="38"/>
@@ -6774,7 +6795,7 @@
       <c r="A57" s="32"/>
       <c r="B57" s="53"/>
       <c r="C57" s="56" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="D57" s="54"/>
       <c r="E57" s="35"/>
@@ -6801,17 +6822,17 @@
       <c r="Z57" s="38"/>
       <c r="AA57" s="38"/>
       <c r="AB57" s="38"/>
-      <c r="AC57" s="139"/>
-      <c r="AD57" s="139"/>
-      <c r="AE57" s="139"/>
-      <c r="AF57" s="139"/>
-      <c r="AG57" s="139"/>
-      <c r="AH57" s="139"/>
-      <c r="AI57" s="158"/>
-      <c r="AJ57" s="158"/>
-      <c r="AK57" s="158"/>
-      <c r="AL57" s="158"/>
-      <c r="AM57" s="58"/>
+      <c r="AC57" s="39"/>
+      <c r="AD57" s="39"/>
+      <c r="AE57" s="39"/>
+      <c r="AF57" s="39"/>
+      <c r="AG57" s="39"/>
+      <c r="AH57" s="38"/>
+      <c r="AI57" s="38"/>
+      <c r="AJ57" s="38"/>
+      <c r="AK57" s="38"/>
+      <c r="AL57" s="38"/>
+      <c r="AM57" s="38"/>
       <c r="AN57" s="38"/>
       <c r="AO57" s="38"/>
       <c r="AP57" s="38"/>
@@ -6856,7 +6877,7 @@
       <c r="A58" s="32"/>
       <c r="B58" s="53"/>
       <c r="C58" s="56" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D58" s="54"/>
       <c r="E58" s="35"/>
@@ -6889,11 +6910,11 @@
       <c r="AF58" s="39"/>
       <c r="AG58" s="39"/>
       <c r="AH58" s="38"/>
-      <c r="AI58" s="158"/>
-      <c r="AJ58" s="158"/>
-      <c r="AK58" s="158"/>
-      <c r="AL58" s="158"/>
-      <c r="AM58" s="58"/>
+      <c r="AI58" s="38"/>
+      <c r="AJ58" s="38"/>
+      <c r="AK58" s="38"/>
+      <c r="AL58" s="38"/>
+      <c r="AM58" s="38"/>
       <c r="AN58" s="38"/>
       <c r="AO58" s="38"/>
       <c r="AP58" s="38"/>
@@ -6938,7 +6959,7 @@
       <c r="A59" s="32"/>
       <c r="B59" s="53"/>
       <c r="C59" s="56" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D59" s="54"/>
       <c r="E59" s="35"/>
@@ -6971,11 +6992,11 @@
       <c r="AF59" s="39"/>
       <c r="AG59" s="39"/>
       <c r="AH59" s="38"/>
-      <c r="AI59" s="158"/>
-      <c r="AJ59" s="158"/>
-      <c r="AK59" s="158"/>
-      <c r="AL59" s="158"/>
-      <c r="AM59" s="58"/>
+      <c r="AI59" s="38"/>
+      <c r="AJ59" s="38"/>
+      <c r="AK59" s="38"/>
+      <c r="AL59" s="38"/>
+      <c r="AM59" s="38"/>
       <c r="AN59" s="38"/>
       <c r="AO59" s="38"/>
       <c r="AP59" s="38"/>
@@ -7020,7 +7041,7 @@
       <c r="A60" s="32"/>
       <c r="B60" s="53"/>
       <c r="C60" s="56" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="D60" s="54"/>
       <c r="E60" s="35"/>
@@ -7053,11 +7074,11 @@
       <c r="AF60" s="39"/>
       <c r="AG60" s="39"/>
       <c r="AH60" s="38"/>
-      <c r="AI60" s="169"/>
-      <c r="AJ60" s="169"/>
-      <c r="AK60" s="169"/>
-      <c r="AL60" s="169"/>
-      <c r="AM60" s="170"/>
+      <c r="AI60" s="38"/>
+      <c r="AJ60" s="38"/>
+      <c r="AK60" s="38"/>
+      <c r="AL60" s="38"/>
+      <c r="AM60" s="38"/>
       <c r="AN60" s="38"/>
       <c r="AO60" s="38"/>
       <c r="AP60" s="38"/>
@@ -7101,7 +7122,9 @@
     <row r="61" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="32"/>
       <c r="B61" s="53"/>
-      <c r="C61" s="56"/>
+      <c r="C61" s="56" t="s">
+        <v>78</v>
+      </c>
       <c r="D61" s="54"/>
       <c r="E61" s="35"/>
       <c r="F61" s="35"/>
@@ -7132,12 +7155,12 @@
       <c r="AE61" s="39"/>
       <c r="AF61" s="39"/>
       <c r="AG61" s="39"/>
-      <c r="AH61" s="139"/>
-      <c r="AI61" s="139"/>
-      <c r="AJ61" s="139"/>
-      <c r="AK61" s="139"/>
-      <c r="AL61" s="139"/>
-      <c r="AM61" s="139"/>
+      <c r="AH61" s="38"/>
+      <c r="AI61" s="38"/>
+      <c r="AJ61" s="38"/>
+      <c r="AK61" s="38"/>
+      <c r="AL61" s="38"/>
+      <c r="AM61" s="38"/>
       <c r="AN61" s="38"/>
       <c r="AO61" s="38"/>
       <c r="AP61" s="38"/>
@@ -7212,12 +7235,12 @@
       <c r="AE62" s="39"/>
       <c r="AF62" s="39"/>
       <c r="AG62" s="39"/>
-      <c r="AH62" s="139"/>
-      <c r="AI62" s="139"/>
-      <c r="AJ62" s="139"/>
-      <c r="AK62" s="139"/>
-      <c r="AL62" s="139"/>
-      <c r="AM62" s="139"/>
+      <c r="AH62" s="38"/>
+      <c r="AI62" s="38"/>
+      <c r="AJ62" s="38"/>
+      <c r="AK62" s="38"/>
+      <c r="AL62" s="38"/>
+      <c r="AM62" s="38"/>
       <c r="AN62" s="38"/>
       <c r="AO62" s="38"/>
       <c r="AP62" s="38"/>
@@ -7260,253 +7283,255 @@
     </row>
     <row r="63" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="32"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="44"/>
-      <c r="O63" s="44"/>
-      <c r="P63" s="44"/>
-      <c r="Q63" s="44"/>
-      <c r="R63" s="44"/>
-      <c r="S63" s="38"/>
-      <c r="T63" s="38"/>
-      <c r="U63" s="38"/>
-      <c r="V63" s="38"/>
-      <c r="W63" s="38"/>
-      <c r="X63" s="38"/>
-      <c r="Y63" s="38"/>
-      <c r="Z63" s="38"/>
-      <c r="AA63" s="38"/>
-      <c r="AB63" s="38"/>
-      <c r="AC63" s="39"/>
-      <c r="AD63" s="39"/>
-      <c r="AE63" s="39"/>
-      <c r="AF63" s="39"/>
-      <c r="AG63" s="39"/>
-      <c r="AH63" s="139"/>
-      <c r="AI63" s="139"/>
-      <c r="AJ63" s="139"/>
-      <c r="AK63" s="139"/>
-      <c r="AL63" s="139"/>
-      <c r="AM63" s="139"/>
-      <c r="AN63" s="38"/>
-      <c r="AO63" s="38"/>
-      <c r="AP63" s="38"/>
-      <c r="AQ63" s="38"/>
-      <c r="AR63" s="40"/>
-      <c r="AS63" s="40"/>
-      <c r="AT63" s="40"/>
-      <c r="AU63" s="40"/>
-      <c r="AV63" s="40"/>
-      <c r="AW63" s="38"/>
-      <c r="AX63" s="38"/>
-      <c r="AY63" s="38"/>
-      <c r="AZ63" s="38"/>
-      <c r="BA63" s="38"/>
-      <c r="BB63" s="38"/>
-      <c r="BC63" s="38"/>
-      <c r="BD63" s="38"/>
-      <c r="BE63" s="38"/>
-      <c r="BF63" s="38"/>
-      <c r="BG63" s="41"/>
-      <c r="BH63" s="41"/>
-      <c r="BI63" s="41"/>
-      <c r="BJ63" s="41"/>
-      <c r="BK63" s="41"/>
-      <c r="BL63" s="38"/>
-      <c r="BM63" s="38"/>
-      <c r="BN63" s="38"/>
-      <c r="BO63" s="38"/>
-      <c r="BP63" s="38"/>
-      <c r="BQ63" s="38"/>
-      <c r="BR63" s="38"/>
-      <c r="BS63" s="38"/>
-      <c r="BT63" s="38"/>
-      <c r="BU63" s="38"/>
-      <c r="BV63" s="38"/>
-      <c r="BW63" s="38"/>
-      <c r="BX63" s="38"/>
-      <c r="BY63" s="38"/>
-      <c r="BZ63" s="38"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="61"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="68"/>
+      <c r="P63" s="68"/>
+      <c r="Q63" s="68"/>
+      <c r="R63" s="68"/>
+      <c r="S63" s="67"/>
+      <c r="T63" s="67"/>
+      <c r="U63" s="67"/>
+      <c r="V63" s="67"/>
+      <c r="W63" s="67"/>
+      <c r="X63" s="67"/>
+      <c r="Y63" s="67"/>
+      <c r="Z63" s="67"/>
+      <c r="AA63" s="67"/>
+      <c r="AB63" s="67"/>
+      <c r="AC63" s="69"/>
+      <c r="AD63" s="69"/>
+      <c r="AE63" s="69"/>
+      <c r="AF63" s="69"/>
+      <c r="AG63" s="69"/>
+      <c r="AH63" s="67"/>
+      <c r="AI63" s="67"/>
+      <c r="AJ63" s="67"/>
+      <c r="AK63" s="67"/>
+      <c r="AL63" s="67"/>
+      <c r="AM63" s="67"/>
+      <c r="AN63" s="67"/>
+      <c r="AO63" s="67"/>
+      <c r="AP63" s="67"/>
+      <c r="AQ63" s="67"/>
+      <c r="AR63" s="70"/>
+      <c r="AS63" s="70"/>
+      <c r="AT63" s="70"/>
+      <c r="AU63" s="70"/>
+      <c r="AV63" s="70"/>
+      <c r="AW63" s="67"/>
+      <c r="AX63" s="67"/>
+      <c r="AY63" s="67"/>
+      <c r="AZ63" s="67"/>
+      <c r="BA63" s="67"/>
+      <c r="BB63" s="67"/>
+      <c r="BC63" s="67"/>
+      <c r="BD63" s="67"/>
+      <c r="BE63" s="67"/>
+      <c r="BF63" s="67"/>
+      <c r="BG63" s="71"/>
+      <c r="BH63" s="71"/>
+      <c r="BI63" s="71"/>
+      <c r="BJ63" s="71"/>
+      <c r="BK63" s="71"/>
+      <c r="BL63" s="67"/>
+      <c r="BM63" s="67"/>
+      <c r="BN63" s="67"/>
+      <c r="BO63" s="67"/>
+      <c r="BP63" s="67"/>
+      <c r="BQ63" s="67"/>
+      <c r="BR63" s="67"/>
+      <c r="BS63" s="67"/>
+      <c r="BT63" s="67"/>
+      <c r="BU63" s="67"/>
+      <c r="BV63" s="67"/>
+      <c r="BW63" s="67"/>
+      <c r="BX63" s="67"/>
+      <c r="BY63" s="67"/>
+      <c r="BZ63" s="67"/>
     </row>
-    <row r="64" spans="1:78" s="97" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="94"/>
-      <c r="B64" s="81"/>
-      <c r="C64" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="D64" s="83"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="86"/>
-      <c r="I64" s="87"/>
-      <c r="J64" s="88"/>
-      <c r="K64" s="89"/>
-      <c r="L64" s="89"/>
-      <c r="M64" s="89"/>
-      <c r="N64" s="90"/>
-      <c r="O64" s="90"/>
-      <c r="P64" s="90"/>
-      <c r="Q64" s="90"/>
-      <c r="R64" s="90"/>
-      <c r="S64" s="89"/>
-      <c r="T64" s="89"/>
-      <c r="U64" s="89"/>
-      <c r="V64" s="89"/>
-      <c r="W64" s="89"/>
-      <c r="X64" s="89"/>
-      <c r="Y64" s="89"/>
-      <c r="Z64" s="89"/>
-      <c r="AA64" s="89"/>
-      <c r="AB64" s="89"/>
-      <c r="AC64" s="91"/>
-      <c r="AD64" s="91"/>
-      <c r="AE64" s="91"/>
-      <c r="AF64" s="91"/>
-      <c r="AG64" s="91"/>
-      <c r="AH64" s="89"/>
-      <c r="AI64" s="89"/>
-      <c r="AJ64" s="91"/>
-      <c r="AK64" s="89"/>
-      <c r="AL64" s="89"/>
-      <c r="AM64" s="89"/>
-      <c r="AN64" s="89"/>
-      <c r="AO64" s="89"/>
-      <c r="AP64" s="89"/>
-      <c r="AQ64" s="89"/>
-      <c r="AR64" s="92"/>
-      <c r="AS64" s="92"/>
-      <c r="AT64" s="92"/>
-      <c r="AU64" s="92"/>
-      <c r="AV64" s="92"/>
-      <c r="AW64" s="89"/>
-      <c r="AX64" s="89"/>
-      <c r="AY64" s="89"/>
-      <c r="AZ64" s="89"/>
-      <c r="BA64" s="89"/>
-      <c r="BB64" s="89"/>
-      <c r="BC64" s="89"/>
-      <c r="BD64" s="89"/>
-      <c r="BE64" s="89"/>
-      <c r="BF64" s="89"/>
-      <c r="BG64" s="93"/>
-      <c r="BH64" s="93"/>
-      <c r="BI64" s="93"/>
-      <c r="BJ64" s="93"/>
-      <c r="BK64" s="93"/>
-      <c r="BL64" s="89"/>
-      <c r="BM64" s="89"/>
-      <c r="BN64" s="89"/>
-      <c r="BO64" s="89"/>
-      <c r="BP64" s="89"/>
-      <c r="BQ64" s="89"/>
-      <c r="BR64" s="89"/>
-      <c r="BS64" s="89"/>
-      <c r="BT64" s="89"/>
-      <c r="BU64" s="89"/>
-      <c r="BV64" s="89"/>
-      <c r="BW64" s="89"/>
-      <c r="BX64" s="89"/>
-      <c r="BY64" s="89"/>
-      <c r="BZ64" s="89"/>
+    <row r="64" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="32"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="54"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="44"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="38"/>
+      <c r="U64" s="38"/>
+      <c r="V64" s="38"/>
+      <c r="W64" s="38"/>
+      <c r="X64" s="38"/>
+      <c r="Y64" s="38"/>
+      <c r="Z64" s="38"/>
+      <c r="AA64" s="38"/>
+      <c r="AB64" s="38"/>
+      <c r="AC64" s="39"/>
+      <c r="AD64" s="39"/>
+      <c r="AE64" s="39"/>
+      <c r="AF64" s="39"/>
+      <c r="AG64" s="39"/>
+      <c r="AH64" s="38"/>
+      <c r="AI64" s="123"/>
+      <c r="AJ64" s="123"/>
+      <c r="AK64" s="123"/>
+      <c r="AL64" s="123"/>
+      <c r="AM64" s="58"/>
+      <c r="AN64" s="38"/>
+      <c r="AO64" s="38"/>
+      <c r="AP64" s="38"/>
+      <c r="AQ64" s="38"/>
+      <c r="AR64" s="40"/>
+      <c r="AS64" s="40"/>
+      <c r="AT64" s="40"/>
+      <c r="AU64" s="40"/>
+      <c r="AV64" s="40"/>
+      <c r="AW64" s="38"/>
+      <c r="AX64" s="38"/>
+      <c r="AY64" s="38"/>
+      <c r="AZ64" s="38"/>
+      <c r="BA64" s="38"/>
+      <c r="BB64" s="38"/>
+      <c r="BC64" s="38"/>
+      <c r="BD64" s="38"/>
+      <c r="BE64" s="38"/>
+      <c r="BF64" s="38"/>
+      <c r="BG64" s="41"/>
+      <c r="BH64" s="41"/>
+      <c r="BI64" s="41"/>
+      <c r="BJ64" s="41"/>
+      <c r="BK64" s="41"/>
+      <c r="BL64" s="38"/>
+      <c r="BM64" s="38"/>
+      <c r="BN64" s="38"/>
+      <c r="BO64" s="38"/>
+      <c r="BP64" s="38"/>
+      <c r="BQ64" s="38"/>
+      <c r="BR64" s="38"/>
+      <c r="BS64" s="38"/>
+      <c r="BT64" s="38"/>
+      <c r="BU64" s="38"/>
+      <c r="BV64" s="38"/>
+      <c r="BW64" s="38"/>
+      <c r="BX64" s="38"/>
+      <c r="BY64" s="38"/>
+      <c r="BZ64" s="38"/>
     </row>
-    <row r="65" spans="1:78" s="129" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="115"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="117" t="s">
-        <v>89</v>
-      </c>
-      <c r="D65" s="118"/>
-      <c r="E65" s="119"/>
-      <c r="F65" s="119"/>
-      <c r="G65" s="120"/>
-      <c r="H65" s="121"/>
-      <c r="I65" s="122"/>
-      <c r="J65" s="123"/>
-      <c r="K65" s="124"/>
-      <c r="L65" s="124"/>
-      <c r="M65" s="124"/>
-      <c r="N65" s="125"/>
-      <c r="O65" s="125"/>
-      <c r="P65" s="125"/>
-      <c r="Q65" s="125"/>
-      <c r="R65" s="125"/>
-      <c r="S65" s="124"/>
-      <c r="T65" s="124"/>
-      <c r="U65" s="124"/>
-      <c r="V65" s="124"/>
-      <c r="W65" s="124"/>
-      <c r="X65" s="124"/>
-      <c r="Y65" s="124"/>
-      <c r="Z65" s="124"/>
-      <c r="AA65" s="124"/>
-      <c r="AB65" s="124"/>
-      <c r="AC65" s="126"/>
-      <c r="AD65" s="126"/>
-      <c r="AE65" s="126"/>
-      <c r="AF65" s="126"/>
-      <c r="AG65" s="126"/>
-      <c r="AH65" s="124"/>
-      <c r="AI65" s="124"/>
-      <c r="AJ65" s="126"/>
-      <c r="AK65" s="124"/>
-      <c r="AL65" s="124"/>
-      <c r="AM65" s="124"/>
-      <c r="AN65" s="124"/>
-      <c r="AO65" s="124"/>
-      <c r="AP65" s="124"/>
-      <c r="AQ65" s="124"/>
-      <c r="AR65" s="127"/>
-      <c r="AS65" s="127"/>
-      <c r="AT65" s="127"/>
-      <c r="AU65" s="127"/>
-      <c r="AV65" s="127"/>
-      <c r="AW65" s="124"/>
-      <c r="AX65" s="124"/>
-      <c r="AY65" s="124"/>
-      <c r="AZ65" s="124"/>
-      <c r="BA65" s="124"/>
-      <c r="BB65" s="124"/>
-      <c r="BC65" s="124"/>
-      <c r="BD65" s="124"/>
-      <c r="BE65" s="124"/>
-      <c r="BF65" s="124"/>
-      <c r="BG65" s="128"/>
-      <c r="BH65" s="128"/>
-      <c r="BI65" s="128"/>
-      <c r="BJ65" s="128"/>
-      <c r="BK65" s="128"/>
-      <c r="BL65" s="124"/>
-      <c r="BM65" s="124"/>
-      <c r="BN65" s="124"/>
-      <c r="BO65" s="124"/>
-      <c r="BP65" s="124"/>
-      <c r="BQ65" s="124"/>
-      <c r="BR65" s="124"/>
-      <c r="BS65" s="124"/>
-      <c r="BT65" s="124"/>
-      <c r="BU65" s="124"/>
-      <c r="BV65" s="124"/>
-      <c r="BW65" s="124"/>
-      <c r="BX65" s="124"/>
-      <c r="BY65" s="124"/>
-      <c r="BZ65" s="124"/>
+    <row r="65" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="32"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="54"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="44"/>
+      <c r="R65" s="44"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="38"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="38"/>
+      <c r="AA65" s="38"/>
+      <c r="AB65" s="38"/>
+      <c r="AC65" s="38"/>
+      <c r="AD65" s="38"/>
+      <c r="AE65" s="38"/>
+      <c r="AF65" s="38"/>
+      <c r="AG65" s="38"/>
+      <c r="AH65" s="38"/>
+      <c r="AI65" s="123"/>
+      <c r="AJ65" s="123"/>
+      <c r="AK65" s="123"/>
+      <c r="AL65" s="123"/>
+      <c r="AM65" s="58"/>
+      <c r="AN65" s="38"/>
+      <c r="AO65" s="38"/>
+      <c r="AP65" s="38"/>
+      <c r="AQ65" s="38"/>
+      <c r="AR65" s="40"/>
+      <c r="AS65" s="40"/>
+      <c r="AT65" s="40"/>
+      <c r="AU65" s="40"/>
+      <c r="AV65" s="40"/>
+      <c r="AW65" s="38"/>
+      <c r="AX65" s="38"/>
+      <c r="AY65" s="38"/>
+      <c r="AZ65" s="38"/>
+      <c r="BA65" s="38"/>
+      <c r="BB65" s="38"/>
+      <c r="BC65" s="38"/>
+      <c r="BD65" s="38"/>
+      <c r="BE65" s="38"/>
+      <c r="BF65" s="38"/>
+      <c r="BG65" s="41"/>
+      <c r="BH65" s="41"/>
+      <c r="BI65" s="41"/>
+      <c r="BJ65" s="41"/>
+      <c r="BK65" s="41"/>
+      <c r="BL65" s="38"/>
+      <c r="BM65" s="38"/>
+      <c r="BN65" s="38"/>
+      <c r="BO65" s="38"/>
+      <c r="BP65" s="38"/>
+      <c r="BQ65" s="38"/>
+      <c r="BR65" s="38"/>
+      <c r="BS65" s="38"/>
+      <c r="BT65" s="38"/>
+      <c r="BU65" s="38"/>
+      <c r="BV65" s="38"/>
+      <c r="BW65" s="38"/>
+      <c r="BX65" s="38"/>
+      <c r="BY65" s="38"/>
+      <c r="BZ65" s="38"/>
     </row>
     <row r="66" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
       <c r="B66" s="53"/>
       <c r="C66" s="56" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D66" s="54"/>
       <c r="E66" s="35"/>
@@ -7533,16 +7558,16 @@
       <c r="Z66" s="38"/>
       <c r="AA66" s="38"/>
       <c r="AB66" s="38"/>
-      <c r="AC66" s="139"/>
-      <c r="AD66" s="139"/>
-      <c r="AE66" s="139"/>
-      <c r="AF66" s="139"/>
-      <c r="AG66" s="139"/>
-      <c r="AH66" s="157"/>
-      <c r="AI66" s="157"/>
-      <c r="AJ66" s="157"/>
-      <c r="AK66" s="157"/>
-      <c r="AL66" s="157"/>
+      <c r="AC66" s="38"/>
+      <c r="AD66" s="38"/>
+      <c r="AE66" s="38"/>
+      <c r="AF66" s="38"/>
+      <c r="AG66" s="38"/>
+      <c r="AH66" s="38"/>
+      <c r="AI66" s="123"/>
+      <c r="AJ66" s="123"/>
+      <c r="AK66" s="123"/>
+      <c r="AL66" s="123"/>
       <c r="AM66" s="58"/>
       <c r="AN66" s="38"/>
       <c r="AO66" s="38"/>
@@ -7588,7 +7613,7 @@
       <c r="A67" s="32"/>
       <c r="B67" s="53"/>
       <c r="C67" s="56" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D67" s="54"/>
       <c r="E67" s="35"/>
@@ -7615,17 +7640,17 @@
       <c r="Z67" s="38"/>
       <c r="AA67" s="38"/>
       <c r="AB67" s="38"/>
-      <c r="AC67" s="139"/>
-      <c r="AD67" s="139"/>
-      <c r="AE67" s="139"/>
-      <c r="AF67" s="139"/>
-      <c r="AG67" s="139"/>
-      <c r="AH67" s="39"/>
-      <c r="AI67" s="39"/>
-      <c r="AJ67" s="139"/>
-      <c r="AK67" s="39"/>
-      <c r="AL67" s="39"/>
-      <c r="AM67" s="38"/>
+      <c r="AC67" s="39"/>
+      <c r="AD67" s="39"/>
+      <c r="AE67" s="39"/>
+      <c r="AF67" s="39"/>
+      <c r="AG67" s="39"/>
+      <c r="AH67" s="38"/>
+      <c r="AI67" s="123"/>
+      <c r="AJ67" s="123"/>
+      <c r="AK67" s="123"/>
+      <c r="AL67" s="123"/>
+      <c r="AM67" s="58"/>
       <c r="AN67" s="38"/>
       <c r="AO67" s="38"/>
       <c r="AP67" s="38"/>
@@ -7670,7 +7695,7 @@
       <c r="A68" s="32"/>
       <c r="B68" s="53"/>
       <c r="C68" s="56" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D68" s="54"/>
       <c r="E68" s="35"/>
@@ -7697,17 +7722,17 @@
       <c r="Z68" s="38"/>
       <c r="AA68" s="38"/>
       <c r="AB68" s="38"/>
-      <c r="AC68" s="139"/>
-      <c r="AD68" s="139"/>
-      <c r="AE68" s="139"/>
-      <c r="AF68" s="139"/>
-      <c r="AG68" s="139"/>
-      <c r="AH68" s="39"/>
-      <c r="AI68" s="39"/>
-      <c r="AJ68" s="139"/>
-      <c r="AK68" s="39"/>
-      <c r="AL68" s="39"/>
-      <c r="AM68" s="38"/>
+      <c r="AC68" s="39"/>
+      <c r="AD68" s="39"/>
+      <c r="AE68" s="39"/>
+      <c r="AF68" s="39"/>
+      <c r="AG68" s="39"/>
+      <c r="AH68" s="38"/>
+      <c r="AI68" s="123"/>
+      <c r="AJ68" s="123"/>
+      <c r="AK68" s="123"/>
+      <c r="AL68" s="123"/>
+      <c r="AM68" s="58"/>
       <c r="AN68" s="38"/>
       <c r="AO68" s="38"/>
       <c r="AP68" s="38"/>
@@ -7748,11 +7773,11 @@
       <c r="BY68" s="38"/>
       <c r="BZ68" s="38"/>
     </row>
-    <row r="69" spans="1:78" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
       <c r="B69" s="53"/>
       <c r="C69" s="56" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="D69" s="54"/>
       <c r="E69" s="35"/>
@@ -7779,17 +7804,17 @@
       <c r="Z69" s="38"/>
       <c r="AA69" s="38"/>
       <c r="AB69" s="38"/>
-      <c r="AC69" s="139"/>
-      <c r="AD69" s="139"/>
-      <c r="AE69" s="139"/>
-      <c r="AF69" s="139"/>
-      <c r="AG69" s="139"/>
-      <c r="AH69" s="39"/>
-      <c r="AI69" s="39"/>
-      <c r="AJ69" s="139"/>
-      <c r="AK69" s="157"/>
-      <c r="AL69" s="157"/>
-      <c r="AM69" s="58"/>
+      <c r="AC69" s="39"/>
+      <c r="AD69" s="39"/>
+      <c r="AE69" s="39"/>
+      <c r="AF69" s="39"/>
+      <c r="AG69" s="39"/>
+      <c r="AH69" s="38"/>
+      <c r="AI69" s="131"/>
+      <c r="AJ69" s="131"/>
+      <c r="AK69" s="131"/>
+      <c r="AL69" s="131"/>
+      <c r="AM69" s="132"/>
       <c r="AN69" s="38"/>
       <c r="AO69" s="38"/>
       <c r="AP69" s="38"/>
@@ -7833,9 +7858,7 @@
     <row r="70" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="32"/>
       <c r="B70" s="53"/>
-      <c r="C70" s="56" t="s">
-        <v>95</v>
-      </c>
+      <c r="C70" s="56"/>
       <c r="D70" s="54"/>
       <c r="E70" s="35"/>
       <c r="F70" s="35"/>
@@ -7861,17 +7884,17 @@
       <c r="Z70" s="38"/>
       <c r="AA70" s="38"/>
       <c r="AB70" s="38"/>
-      <c r="AC70" s="139"/>
-      <c r="AD70" s="139"/>
-      <c r="AE70" s="139"/>
-      <c r="AF70" s="139"/>
-      <c r="AG70" s="139"/>
-      <c r="AH70" s="39"/>
-      <c r="AI70" s="39"/>
-      <c r="AJ70" s="139"/>
-      <c r="AK70" s="157"/>
-      <c r="AL70" s="157"/>
-      <c r="AM70" s="58"/>
+      <c r="AC70" s="39"/>
+      <c r="AD70" s="39"/>
+      <c r="AE70" s="39"/>
+      <c r="AF70" s="39"/>
+      <c r="AG70" s="39"/>
+      <c r="AH70" s="38"/>
+      <c r="AI70" s="38"/>
+      <c r="AJ70" s="38"/>
+      <c r="AK70" s="38"/>
+      <c r="AL70" s="38"/>
+      <c r="AM70" s="38"/>
       <c r="AN70" s="38"/>
       <c r="AO70" s="38"/>
       <c r="AP70" s="38"/>
@@ -7915,9 +7938,7 @@
     <row r="71" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="32"/>
       <c r="B71" s="53"/>
-      <c r="C71" s="56" t="s">
-        <v>96</v>
-      </c>
+      <c r="C71" s="56"/>
       <c r="D71" s="54"/>
       <c r="E71" s="35"/>
       <c r="F71" s="35"/>
@@ -7943,17 +7964,17 @@
       <c r="Z71" s="38"/>
       <c r="AA71" s="38"/>
       <c r="AB71" s="38"/>
-      <c r="AC71" s="139"/>
-      <c r="AD71" s="139"/>
-      <c r="AE71" s="139"/>
-      <c r="AF71" s="139"/>
-      <c r="AG71" s="139"/>
-      <c r="AH71" s="39"/>
-      <c r="AI71" s="39"/>
-      <c r="AJ71" s="139"/>
-      <c r="AK71" s="157"/>
-      <c r="AL71" s="157"/>
-      <c r="AM71" s="58"/>
+      <c r="AC71" s="39"/>
+      <c r="AD71" s="39"/>
+      <c r="AE71" s="39"/>
+      <c r="AF71" s="39"/>
+      <c r="AG71" s="39"/>
+      <c r="AH71" s="38"/>
+      <c r="AI71" s="38"/>
+      <c r="AJ71" s="38"/>
+      <c r="AK71" s="38"/>
+      <c r="AL71" s="38"/>
+      <c r="AM71" s="38"/>
       <c r="AN71" s="38"/>
       <c r="AO71" s="38"/>
       <c r="AP71" s="38"/>
@@ -8030,7 +8051,7 @@
       <c r="AG72" s="39"/>
       <c r="AH72" s="38"/>
       <c r="AI72" s="38"/>
-      <c r="AJ72" s="139"/>
+      <c r="AJ72" s="38"/>
       <c r="AK72" s="38"/>
       <c r="AL72" s="38"/>
       <c r="AM72" s="38"/>
@@ -8074,419 +8095,421 @@
       <c r="BY72" s="38"/>
       <c r="BZ72" s="38"/>
     </row>
-    <row r="73" spans="1:78" s="129" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="115"/>
-      <c r="B73" s="116"/>
-      <c r="C73" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="D73" s="118"/>
-      <c r="E73" s="119"/>
-      <c r="F73" s="119"/>
-      <c r="G73" s="120"/>
-      <c r="H73" s="121"/>
-      <c r="I73" s="122"/>
-      <c r="J73" s="123"/>
-      <c r="K73" s="124"/>
-      <c r="L73" s="124"/>
-      <c r="M73" s="124"/>
-      <c r="N73" s="125"/>
-      <c r="O73" s="125"/>
-      <c r="P73" s="125"/>
-      <c r="Q73" s="125"/>
-      <c r="R73" s="125"/>
-      <c r="S73" s="124"/>
-      <c r="T73" s="124"/>
-      <c r="U73" s="124"/>
-      <c r="V73" s="124"/>
-      <c r="W73" s="124"/>
-      <c r="X73" s="124"/>
-      <c r="Y73" s="124"/>
-      <c r="Z73" s="124"/>
-      <c r="AA73" s="124"/>
-      <c r="AB73" s="124"/>
-      <c r="AC73" s="126"/>
-      <c r="AD73" s="126"/>
-      <c r="AE73" s="126"/>
-      <c r="AF73" s="126"/>
-      <c r="AG73" s="126"/>
-      <c r="AH73" s="124"/>
-      <c r="AI73" s="124"/>
-      <c r="AJ73" s="124"/>
-      <c r="AK73" s="124"/>
-      <c r="AL73" s="124"/>
-      <c r="AM73" s="124"/>
-      <c r="AN73" s="124"/>
-      <c r="AO73" s="124"/>
-      <c r="AP73" s="124"/>
-      <c r="AQ73" s="124"/>
-      <c r="AR73" s="127"/>
-      <c r="AS73" s="127"/>
-      <c r="AT73" s="127"/>
-      <c r="AU73" s="127"/>
-      <c r="AV73" s="127"/>
-      <c r="AW73" s="124"/>
-      <c r="AX73" s="124"/>
-      <c r="AY73" s="124"/>
-      <c r="AZ73" s="124"/>
-      <c r="BA73" s="124"/>
-      <c r="BB73" s="124"/>
-      <c r="BC73" s="124"/>
-      <c r="BD73" s="124"/>
-      <c r="BE73" s="124"/>
-      <c r="BF73" s="124"/>
-      <c r="BG73" s="128"/>
-      <c r="BH73" s="128"/>
-      <c r="BI73" s="128"/>
-      <c r="BJ73" s="128"/>
-      <c r="BK73" s="128"/>
-      <c r="BL73" s="124"/>
-      <c r="BM73" s="124"/>
-      <c r="BN73" s="124"/>
-      <c r="BO73" s="124"/>
-      <c r="BP73" s="124"/>
-      <c r="BQ73" s="124"/>
-      <c r="BR73" s="124"/>
-      <c r="BS73" s="124"/>
-      <c r="BT73" s="124"/>
-      <c r="BU73" s="124"/>
-      <c r="BV73" s="124"/>
-      <c r="BW73" s="124"/>
-      <c r="BX73" s="124"/>
-      <c r="BY73" s="124"/>
-      <c r="BZ73" s="124"/>
+    <row r="73" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="72"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="61"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="67"/>
+      <c r="M73" s="67"/>
+      <c r="N73" s="68"/>
+      <c r="O73" s="68"/>
+      <c r="P73" s="68"/>
+      <c r="Q73" s="68"/>
+      <c r="R73" s="68"/>
+      <c r="S73" s="67"/>
+      <c r="T73" s="67"/>
+      <c r="U73" s="67"/>
+      <c r="V73" s="67"/>
+      <c r="W73" s="67"/>
+      <c r="X73" s="67"/>
+      <c r="Y73" s="67"/>
+      <c r="Z73" s="67"/>
+      <c r="AA73" s="67"/>
+      <c r="AB73" s="67"/>
+      <c r="AC73" s="69"/>
+      <c r="AD73" s="69"/>
+      <c r="AE73" s="69"/>
+      <c r="AF73" s="69"/>
+      <c r="AG73" s="69"/>
+      <c r="AH73" s="67"/>
+      <c r="AI73" s="67"/>
+      <c r="AJ73" s="69"/>
+      <c r="AK73" s="67"/>
+      <c r="AL73" s="67"/>
+      <c r="AM73" s="67"/>
+      <c r="AN73" s="67"/>
+      <c r="AO73" s="67"/>
+      <c r="AP73" s="67"/>
+      <c r="AQ73" s="67"/>
+      <c r="AR73" s="70"/>
+      <c r="AS73" s="70"/>
+      <c r="AT73" s="70"/>
+      <c r="AU73" s="70"/>
+      <c r="AV73" s="70"/>
+      <c r="AW73" s="67"/>
+      <c r="AX73" s="67"/>
+      <c r="AY73" s="67"/>
+      <c r="AZ73" s="67"/>
+      <c r="BA73" s="67"/>
+      <c r="BB73" s="67"/>
+      <c r="BC73" s="67"/>
+      <c r="BD73" s="67"/>
+      <c r="BE73" s="67"/>
+      <c r="BF73" s="67"/>
+      <c r="BG73" s="71"/>
+      <c r="BH73" s="71"/>
+      <c r="BI73" s="71"/>
+      <c r="BJ73" s="71"/>
+      <c r="BK73" s="71"/>
+      <c r="BL73" s="67"/>
+      <c r="BM73" s="67"/>
+      <c r="BN73" s="67"/>
+      <c r="BO73" s="67"/>
+      <c r="BP73" s="67"/>
+      <c r="BQ73" s="67"/>
+      <c r="BR73" s="67"/>
+      <c r="BS73" s="67"/>
+      <c r="BT73" s="67"/>
+      <c r="BU73" s="67"/>
+      <c r="BV73" s="67"/>
+      <c r="BW73" s="67"/>
+      <c r="BX73" s="67"/>
+      <c r="BY73" s="67"/>
+      <c r="BZ73" s="67"/>
     </row>
-    <row r="74" spans="1:78" s="114" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="130"/>
-      <c r="B74" s="131"/>
-      <c r="C74" s="132" t="s">
-        <v>97</v>
-      </c>
-      <c r="D74" s="133"/>
-      <c r="E74" s="134"/>
-      <c r="F74" s="134"/>
-      <c r="G74" s="135"/>
-      <c r="H74" s="136"/>
-      <c r="I74" s="137"/>
-      <c r="J74" s="138"/>
-      <c r="K74" s="139"/>
-      <c r="L74" s="139"/>
-      <c r="M74" s="139"/>
-      <c r="N74" s="139"/>
-      <c r="O74" s="139"/>
-      <c r="P74" s="139"/>
-      <c r="Q74" s="139"/>
-      <c r="R74" s="139"/>
-      <c r="S74" s="139"/>
-      <c r="T74" s="139"/>
-      <c r="U74" s="139"/>
-      <c r="V74" s="139"/>
-      <c r="W74" s="139"/>
-      <c r="X74" s="139"/>
-      <c r="Y74" s="139"/>
-      <c r="Z74" s="139"/>
-      <c r="AA74" s="139"/>
-      <c r="AB74" s="139"/>
-      <c r="AC74" s="139"/>
-      <c r="AD74" s="139"/>
-      <c r="AE74" s="139"/>
-      <c r="AF74" s="139"/>
-      <c r="AG74" s="139"/>
-      <c r="AH74" s="139"/>
-      <c r="AI74" s="139"/>
-      <c r="AJ74" s="139"/>
-      <c r="AK74" s="139"/>
-      <c r="AL74" s="139"/>
-      <c r="AM74" s="139"/>
-      <c r="AN74" s="139"/>
-      <c r="AO74" s="139"/>
-      <c r="AP74" s="139"/>
-      <c r="AQ74" s="139"/>
-      <c r="AR74" s="139"/>
-      <c r="AS74" s="139"/>
-      <c r="AT74" s="139"/>
-      <c r="AU74" s="139"/>
-      <c r="AV74" s="139"/>
-      <c r="AW74" s="139"/>
-      <c r="AX74" s="139"/>
-      <c r="AY74" s="139"/>
-      <c r="AZ74" s="139"/>
-      <c r="BA74" s="139"/>
-      <c r="BB74" s="139"/>
-      <c r="BC74" s="139"/>
-      <c r="BD74" s="139"/>
-      <c r="BE74" s="139"/>
-      <c r="BF74" s="139"/>
-      <c r="BG74" s="139"/>
-      <c r="BH74" s="139"/>
-      <c r="BI74" s="139"/>
-      <c r="BJ74" s="139"/>
-      <c r="BK74" s="139"/>
-      <c r="BL74" s="139"/>
-      <c r="BM74" s="139"/>
-      <c r="BN74" s="139"/>
-      <c r="BO74" s="139"/>
-      <c r="BP74" s="139"/>
-      <c r="BQ74" s="139"/>
-      <c r="BR74" s="139"/>
-      <c r="BS74" s="139"/>
-      <c r="BT74" s="139"/>
-      <c r="BU74" s="139"/>
-      <c r="BV74" s="139"/>
-      <c r="BW74" s="139"/>
-      <c r="BX74" s="139"/>
-      <c r="BY74" s="139"/>
-      <c r="BZ74" s="139"/>
+    <row r="74" spans="1:78" s="104" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="90"/>
+      <c r="B74" s="91"/>
+      <c r="C74" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" s="93"/>
+      <c r="E74" s="94"/>
+      <c r="F74" s="94"/>
+      <c r="G74" s="95"/>
+      <c r="H74" s="96"/>
+      <c r="I74" s="97"/>
+      <c r="J74" s="98"/>
+      <c r="K74" s="99"/>
+      <c r="L74" s="99"/>
+      <c r="M74" s="99"/>
+      <c r="N74" s="100"/>
+      <c r="O74" s="100"/>
+      <c r="P74" s="100"/>
+      <c r="Q74" s="100"/>
+      <c r="R74" s="100"/>
+      <c r="S74" s="99"/>
+      <c r="T74" s="99"/>
+      <c r="U74" s="99"/>
+      <c r="V74" s="99"/>
+      <c r="W74" s="99"/>
+      <c r="X74" s="99"/>
+      <c r="Y74" s="99"/>
+      <c r="Z74" s="99"/>
+      <c r="AA74" s="99"/>
+      <c r="AB74" s="99"/>
+      <c r="AC74" s="101"/>
+      <c r="AD74" s="101"/>
+      <c r="AE74" s="101"/>
+      <c r="AF74" s="101"/>
+      <c r="AG74" s="101"/>
+      <c r="AH74" s="99"/>
+      <c r="AI74" s="99"/>
+      <c r="AJ74" s="101"/>
+      <c r="AK74" s="99"/>
+      <c r="AL74" s="99"/>
+      <c r="AM74" s="99"/>
+      <c r="AN74" s="99"/>
+      <c r="AO74" s="99"/>
+      <c r="AP74" s="99"/>
+      <c r="AQ74" s="99"/>
+      <c r="AR74" s="102"/>
+      <c r="AS74" s="102"/>
+      <c r="AT74" s="102"/>
+      <c r="AU74" s="102"/>
+      <c r="AV74" s="102"/>
+      <c r="AW74" s="99"/>
+      <c r="AX74" s="99"/>
+      <c r="AY74" s="99"/>
+      <c r="AZ74" s="99"/>
+      <c r="BA74" s="99"/>
+      <c r="BB74" s="99"/>
+      <c r="BC74" s="99"/>
+      <c r="BD74" s="99"/>
+      <c r="BE74" s="99"/>
+      <c r="BF74" s="99"/>
+      <c r="BG74" s="103"/>
+      <c r="BH74" s="103"/>
+      <c r="BI74" s="103"/>
+      <c r="BJ74" s="103"/>
+      <c r="BK74" s="103"/>
+      <c r="BL74" s="99"/>
+      <c r="BM74" s="99"/>
+      <c r="BN74" s="99"/>
+      <c r="BO74" s="99"/>
+      <c r="BP74" s="99"/>
+      <c r="BQ74" s="99"/>
+      <c r="BR74" s="99"/>
+      <c r="BS74" s="99"/>
+      <c r="BT74" s="99"/>
+      <c r="BU74" s="99"/>
+      <c r="BV74" s="99"/>
+      <c r="BW74" s="99"/>
+      <c r="BX74" s="99"/>
+      <c r="BY74" s="99"/>
+      <c r="BZ74" s="99"/>
     </row>
-    <row r="75" spans="1:78" s="114" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="130"/>
-      <c r="B75" s="131"/>
-      <c r="C75" s="132" t="s">
-        <v>98</v>
-      </c>
-      <c r="D75" s="133"/>
-      <c r="E75" s="134"/>
-      <c r="F75" s="134"/>
-      <c r="G75" s="135"/>
-      <c r="H75" s="136"/>
-      <c r="I75" s="137"/>
-      <c r="J75" s="138"/>
-      <c r="K75" s="139"/>
-      <c r="L75" s="139"/>
-      <c r="M75" s="139"/>
-      <c r="N75" s="139"/>
-      <c r="O75" s="139"/>
-      <c r="P75" s="139"/>
-      <c r="Q75" s="139"/>
-      <c r="R75" s="139"/>
-      <c r="S75" s="139"/>
-      <c r="T75" s="139"/>
-      <c r="U75" s="139"/>
-      <c r="V75" s="139"/>
-      <c r="W75" s="139"/>
-      <c r="X75" s="139"/>
-      <c r="Y75" s="139"/>
-      <c r="Z75" s="139"/>
-      <c r="AA75" s="139"/>
-      <c r="AB75" s="139"/>
-      <c r="AC75" s="139"/>
-      <c r="AD75" s="139"/>
-      <c r="AE75" s="139"/>
-      <c r="AF75" s="139"/>
-      <c r="AG75" s="139"/>
-      <c r="AH75" s="139"/>
-      <c r="AI75" s="139"/>
-      <c r="AJ75" s="139"/>
-      <c r="AK75" s="139"/>
-      <c r="AL75" s="139"/>
-      <c r="AM75" s="139"/>
-      <c r="AN75" s="139"/>
-      <c r="AO75" s="139"/>
-      <c r="AP75" s="139"/>
-      <c r="AQ75" s="139"/>
-      <c r="AR75" s="139"/>
-      <c r="AS75" s="139"/>
-      <c r="AT75" s="139"/>
-      <c r="AU75" s="139"/>
-      <c r="AV75" s="139"/>
-      <c r="AW75" s="139"/>
-      <c r="AX75" s="139"/>
-      <c r="AY75" s="139"/>
-      <c r="AZ75" s="139"/>
-      <c r="BA75" s="139"/>
-      <c r="BB75" s="139"/>
-      <c r="BC75" s="139"/>
-      <c r="BD75" s="139"/>
-      <c r="BE75" s="139"/>
-      <c r="BF75" s="139"/>
-      <c r="BG75" s="139"/>
-      <c r="BH75" s="139"/>
-      <c r="BI75" s="139"/>
-      <c r="BJ75" s="139"/>
-      <c r="BK75" s="139"/>
-      <c r="BL75" s="139"/>
-      <c r="BM75" s="139"/>
-      <c r="BN75" s="139"/>
-      <c r="BO75" s="139"/>
-      <c r="BP75" s="139"/>
-      <c r="BQ75" s="139"/>
-      <c r="BR75" s="139"/>
-      <c r="BS75" s="139"/>
-      <c r="BT75" s="139"/>
-      <c r="BU75" s="139"/>
-      <c r="BV75" s="139"/>
-      <c r="BW75" s="139"/>
-      <c r="BX75" s="139"/>
-      <c r="BY75" s="139"/>
-      <c r="BZ75" s="139"/>
+    <row r="75" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="32"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="54"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="38"/>
+      <c r="N75" s="44"/>
+      <c r="O75" s="44"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="44"/>
+      <c r="R75" s="44"/>
+      <c r="S75" s="38"/>
+      <c r="T75" s="38"/>
+      <c r="U75" s="38"/>
+      <c r="V75" s="38"/>
+      <c r="W75" s="38"/>
+      <c r="X75" s="38"/>
+      <c r="Y75" s="38"/>
+      <c r="Z75" s="38"/>
+      <c r="AA75" s="38"/>
+      <c r="AB75" s="38"/>
+      <c r="AC75" s="38"/>
+      <c r="AD75" s="38"/>
+      <c r="AE75" s="38"/>
+      <c r="AF75" s="38"/>
+      <c r="AG75" s="38"/>
+      <c r="AH75" s="122"/>
+      <c r="AI75" s="122"/>
+      <c r="AJ75" s="122"/>
+      <c r="AK75" s="122"/>
+      <c r="AL75" s="122"/>
+      <c r="AM75" s="58"/>
+      <c r="AN75" s="38"/>
+      <c r="AO75" s="38"/>
+      <c r="AP75" s="38"/>
+      <c r="AQ75" s="38"/>
+      <c r="AR75" s="40"/>
+      <c r="AS75" s="40"/>
+      <c r="AT75" s="40"/>
+      <c r="AU75" s="40"/>
+      <c r="AV75" s="40"/>
+      <c r="AW75" s="38"/>
+      <c r="AX75" s="38"/>
+      <c r="AY75" s="38"/>
+      <c r="AZ75" s="38"/>
+      <c r="BA75" s="38"/>
+      <c r="BB75" s="38"/>
+      <c r="BC75" s="38"/>
+      <c r="BD75" s="38"/>
+      <c r="BE75" s="38"/>
+      <c r="BF75" s="38"/>
+      <c r="BG75" s="41"/>
+      <c r="BH75" s="41"/>
+      <c r="BI75" s="41"/>
+      <c r="BJ75" s="41"/>
+      <c r="BK75" s="41"/>
+      <c r="BL75" s="38"/>
+      <c r="BM75" s="38"/>
+      <c r="BN75" s="38"/>
+      <c r="BO75" s="38"/>
+      <c r="BP75" s="38"/>
+      <c r="BQ75" s="38"/>
+      <c r="BR75" s="38"/>
+      <c r="BS75" s="38"/>
+      <c r="BT75" s="38"/>
+      <c r="BU75" s="38"/>
+      <c r="BV75" s="38"/>
+      <c r="BW75" s="38"/>
+      <c r="BX75" s="38"/>
+      <c r="BY75" s="38"/>
+      <c r="BZ75" s="38"/>
     </row>
-    <row r="76" spans="1:78" s="114" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="130"/>
-      <c r="B76" s="131"/>
-      <c r="C76" s="132"/>
-      <c r="D76" s="133"/>
-      <c r="E76" s="134"/>
-      <c r="F76" s="134"/>
-      <c r="G76" s="135"/>
-      <c r="H76" s="136"/>
-      <c r="I76" s="137"/>
-      <c r="J76" s="138"/>
-      <c r="K76" s="139"/>
-      <c r="L76" s="139"/>
-      <c r="M76" s="139"/>
-      <c r="N76" s="139"/>
-      <c r="O76" s="139"/>
-      <c r="P76" s="139"/>
-      <c r="Q76" s="139"/>
-      <c r="R76" s="139"/>
-      <c r="S76" s="139"/>
-      <c r="T76" s="139"/>
-      <c r="U76" s="139"/>
-      <c r="V76" s="139"/>
-      <c r="W76" s="139"/>
-      <c r="X76" s="139"/>
-      <c r="Y76" s="139"/>
-      <c r="Z76" s="139"/>
-      <c r="AA76" s="139"/>
-      <c r="AB76" s="139"/>
-      <c r="AC76" s="139"/>
-      <c r="AD76" s="139"/>
-      <c r="AE76" s="139"/>
-      <c r="AF76" s="139"/>
-      <c r="AG76" s="139"/>
-      <c r="AH76" s="139"/>
-      <c r="AI76" s="139"/>
-      <c r="AJ76" s="139"/>
-      <c r="AK76" s="139"/>
-      <c r="AL76" s="139"/>
-      <c r="AM76" s="139"/>
-      <c r="AN76" s="139"/>
-      <c r="AO76" s="139"/>
-      <c r="AP76" s="139"/>
-      <c r="AQ76" s="139"/>
-      <c r="AR76" s="139"/>
-      <c r="AS76" s="139"/>
-      <c r="AT76" s="139"/>
-      <c r="AU76" s="139"/>
-      <c r="AV76" s="139"/>
-      <c r="AW76" s="139"/>
-      <c r="AX76" s="139"/>
-      <c r="AY76" s="139"/>
-      <c r="AZ76" s="139"/>
-      <c r="BA76" s="139"/>
-      <c r="BB76" s="139"/>
-      <c r="BC76" s="139"/>
-      <c r="BD76" s="139"/>
-      <c r="BE76" s="139"/>
-      <c r="BF76" s="139"/>
-      <c r="BG76" s="139"/>
-      <c r="BH76" s="139"/>
-      <c r="BI76" s="139"/>
-      <c r="BJ76" s="139"/>
-      <c r="BK76" s="139"/>
-      <c r="BL76" s="139"/>
-      <c r="BM76" s="139"/>
-      <c r="BN76" s="139"/>
-      <c r="BO76" s="139"/>
-      <c r="BP76" s="139"/>
-      <c r="BQ76" s="139"/>
-      <c r="BR76" s="139"/>
-      <c r="BS76" s="139"/>
-      <c r="BT76" s="139"/>
-      <c r="BU76" s="139"/>
-      <c r="BV76" s="139"/>
-      <c r="BW76" s="139"/>
-      <c r="BX76" s="139"/>
-      <c r="BY76" s="139"/>
-      <c r="BZ76" s="139"/>
+    <row r="76" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="32"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76" s="54"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="38"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="44"/>
+      <c r="O76" s="44"/>
+      <c r="P76" s="44"/>
+      <c r="Q76" s="44"/>
+      <c r="R76" s="44"/>
+      <c r="S76" s="38"/>
+      <c r="T76" s="38"/>
+      <c r="U76" s="38"/>
+      <c r="V76" s="38"/>
+      <c r="W76" s="38"/>
+      <c r="X76" s="38"/>
+      <c r="Y76" s="38"/>
+      <c r="Z76" s="38"/>
+      <c r="AA76" s="38"/>
+      <c r="AB76" s="38"/>
+      <c r="AC76" s="38"/>
+      <c r="AD76" s="38"/>
+      <c r="AE76" s="38"/>
+      <c r="AF76" s="38"/>
+      <c r="AG76" s="38"/>
+      <c r="AH76" s="39"/>
+      <c r="AI76" s="39"/>
+      <c r="AJ76" s="38"/>
+      <c r="AK76" s="39"/>
+      <c r="AL76" s="39"/>
+      <c r="AM76" s="38"/>
+      <c r="AN76" s="38"/>
+      <c r="AO76" s="38"/>
+      <c r="AP76" s="38"/>
+      <c r="AQ76" s="38"/>
+      <c r="AR76" s="40"/>
+      <c r="AS76" s="40"/>
+      <c r="AT76" s="40"/>
+      <c r="AU76" s="40"/>
+      <c r="AV76" s="40"/>
+      <c r="AW76" s="38"/>
+      <c r="AX76" s="38"/>
+      <c r="AY76" s="38"/>
+      <c r="AZ76" s="38"/>
+      <c r="BA76" s="38"/>
+      <c r="BB76" s="38"/>
+      <c r="BC76" s="38"/>
+      <c r="BD76" s="38"/>
+      <c r="BE76" s="38"/>
+      <c r="BF76" s="38"/>
+      <c r="BG76" s="41"/>
+      <c r="BH76" s="41"/>
+      <c r="BI76" s="41"/>
+      <c r="BJ76" s="41"/>
+      <c r="BK76" s="41"/>
+      <c r="BL76" s="38"/>
+      <c r="BM76" s="38"/>
+      <c r="BN76" s="38"/>
+      <c r="BO76" s="38"/>
+      <c r="BP76" s="38"/>
+      <c r="BQ76" s="38"/>
+      <c r="BR76" s="38"/>
+      <c r="BS76" s="38"/>
+      <c r="BT76" s="38"/>
+      <c r="BU76" s="38"/>
+      <c r="BV76" s="38"/>
+      <c r="BW76" s="38"/>
+      <c r="BX76" s="38"/>
+      <c r="BY76" s="38"/>
+      <c r="BZ76" s="38"/>
     </row>
-    <row r="77" spans="1:78" s="97" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="94"/>
-      <c r="B77" s="81"/>
-      <c r="C77" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="D77" s="83"/>
-      <c r="E77" s="84"/>
-      <c r="F77" s="84"/>
-      <c r="G77" s="85"/>
-      <c r="H77" s="86"/>
-      <c r="I77" s="87"/>
-      <c r="J77" s="88"/>
-      <c r="K77" s="89"/>
-      <c r="L77" s="89"/>
-      <c r="M77" s="89"/>
-      <c r="N77" s="90"/>
-      <c r="O77" s="90"/>
-      <c r="P77" s="90"/>
-      <c r="Q77" s="90"/>
-      <c r="R77" s="90"/>
-      <c r="S77" s="89"/>
-      <c r="T77" s="89"/>
-      <c r="U77" s="89"/>
-      <c r="V77" s="89"/>
-      <c r="W77" s="89"/>
-      <c r="X77" s="89"/>
-      <c r="Y77" s="89"/>
-      <c r="Z77" s="89"/>
-      <c r="AA77" s="89"/>
-      <c r="AB77" s="89"/>
-      <c r="AC77" s="91"/>
-      <c r="AD77" s="91"/>
-      <c r="AE77" s="91"/>
-      <c r="AF77" s="91"/>
-      <c r="AG77" s="91"/>
-      <c r="AH77" s="89"/>
-      <c r="AI77" s="89"/>
-      <c r="AJ77" s="89"/>
-      <c r="AK77" s="89"/>
-      <c r="AL77" s="89"/>
-      <c r="AM77" s="89"/>
-      <c r="AN77" s="89"/>
-      <c r="AO77" s="89"/>
-      <c r="AP77" s="89"/>
-      <c r="AQ77" s="89"/>
-      <c r="AR77" s="92"/>
-      <c r="AS77" s="92"/>
-      <c r="AT77" s="92"/>
-      <c r="AU77" s="92"/>
-      <c r="AV77" s="92"/>
-      <c r="AW77" s="89"/>
-      <c r="AX77" s="89"/>
-      <c r="AY77" s="89"/>
-      <c r="AZ77" s="89"/>
-      <c r="BA77" s="89"/>
-      <c r="BB77" s="89"/>
-      <c r="BC77" s="89"/>
-      <c r="BD77" s="89"/>
-      <c r="BE77" s="89"/>
-      <c r="BF77" s="89"/>
-      <c r="BG77" s="93"/>
-      <c r="BH77" s="93"/>
-      <c r="BI77" s="93"/>
-      <c r="BJ77" s="93"/>
-      <c r="BK77" s="93"/>
-      <c r="BL77" s="89"/>
-      <c r="BM77" s="89"/>
-      <c r="BN77" s="89"/>
-      <c r="BO77" s="89"/>
-      <c r="BP77" s="89"/>
-      <c r="BQ77" s="89"/>
-      <c r="BR77" s="89"/>
-      <c r="BS77" s="89"/>
-      <c r="BT77" s="89"/>
-      <c r="BU77" s="89"/>
-      <c r="BV77" s="89"/>
-      <c r="BW77" s="89"/>
-      <c r="BX77" s="89"/>
-      <c r="BY77" s="89"/>
-      <c r="BZ77" s="89"/>
+    <row r="77" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="32"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" s="54"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="44"/>
+      <c r="O77" s="44"/>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="44"/>
+      <c r="R77" s="44"/>
+      <c r="S77" s="38"/>
+      <c r="T77" s="38"/>
+      <c r="U77" s="38"/>
+      <c r="V77" s="38"/>
+      <c r="W77" s="38"/>
+      <c r="X77" s="38"/>
+      <c r="Y77" s="38"/>
+      <c r="Z77" s="38"/>
+      <c r="AA77" s="38"/>
+      <c r="AB77" s="38"/>
+      <c r="AC77" s="38"/>
+      <c r="AD77" s="38"/>
+      <c r="AE77" s="38"/>
+      <c r="AF77" s="38"/>
+      <c r="AG77" s="38"/>
+      <c r="AH77" s="39"/>
+      <c r="AI77" s="39"/>
+      <c r="AJ77" s="38"/>
+      <c r="AK77" s="39"/>
+      <c r="AL77" s="39"/>
+      <c r="AM77" s="38"/>
+      <c r="AN77" s="38"/>
+      <c r="AO77" s="38"/>
+      <c r="AP77" s="38"/>
+      <c r="AQ77" s="38"/>
+      <c r="AR77" s="40"/>
+      <c r="AS77" s="40"/>
+      <c r="AT77" s="40"/>
+      <c r="AU77" s="40"/>
+      <c r="AV77" s="40"/>
+      <c r="AW77" s="38"/>
+      <c r="AX77" s="38"/>
+      <c r="AY77" s="38"/>
+      <c r="AZ77" s="38"/>
+      <c r="BA77" s="38"/>
+      <c r="BB77" s="38"/>
+      <c r="BC77" s="38"/>
+      <c r="BD77" s="38"/>
+      <c r="BE77" s="38"/>
+      <c r="BF77" s="38"/>
+      <c r="BG77" s="41"/>
+      <c r="BH77" s="41"/>
+      <c r="BI77" s="41"/>
+      <c r="BJ77" s="41"/>
+      <c r="BK77" s="41"/>
+      <c r="BL77" s="38"/>
+      <c r="BM77" s="38"/>
+      <c r="BN77" s="38"/>
+      <c r="BO77" s="38"/>
+      <c r="BP77" s="38"/>
+      <c r="BQ77" s="38"/>
+      <c r="BR77" s="38"/>
+      <c r="BS77" s="38"/>
+      <c r="BT77" s="38"/>
+      <c r="BU77" s="38"/>
+      <c r="BV77" s="38"/>
+      <c r="BW77" s="38"/>
+      <c r="BX77" s="38"/>
+      <c r="BY77" s="38"/>
+      <c r="BZ77" s="38"/>
     </row>
-    <row r="78" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:78" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
       <c r="B78" s="53"/>
       <c r="C78" s="56" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D78" s="54"/>
       <c r="E78" s="35"/>
@@ -8513,16 +8536,16 @@
       <c r="Z78" s="38"/>
       <c r="AA78" s="38"/>
       <c r="AB78" s="38"/>
-      <c r="AC78" s="39"/>
-      <c r="AD78" s="39"/>
-      <c r="AE78" s="39"/>
-      <c r="AF78" s="39"/>
-      <c r="AG78" s="39"/>
-      <c r="AH78" s="158"/>
-      <c r="AI78" s="158"/>
-      <c r="AJ78" s="158"/>
-      <c r="AK78" s="158"/>
-      <c r="AL78" s="158"/>
+      <c r="AC78" s="38"/>
+      <c r="AD78" s="38"/>
+      <c r="AE78" s="38"/>
+      <c r="AF78" s="38"/>
+      <c r="AG78" s="38"/>
+      <c r="AH78" s="39"/>
+      <c r="AI78" s="39"/>
+      <c r="AJ78" s="38"/>
+      <c r="AK78" s="122"/>
+      <c r="AL78" s="122"/>
       <c r="AM78" s="58"/>
       <c r="AN78" s="38"/>
       <c r="AO78" s="38"/>
@@ -8568,7 +8591,7 @@
       <c r="A79" s="32"/>
       <c r="B79" s="53"/>
       <c r="C79" s="56" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D79" s="54"/>
       <c r="E79" s="35"/>
@@ -8595,16 +8618,16 @@
       <c r="Z79" s="38"/>
       <c r="AA79" s="38"/>
       <c r="AB79" s="38"/>
-      <c r="AC79" s="39"/>
-      <c r="AD79" s="39"/>
-      <c r="AE79" s="39"/>
-      <c r="AF79" s="39"/>
-      <c r="AG79" s="39"/>
-      <c r="AH79" s="158"/>
-      <c r="AI79" s="158"/>
-      <c r="AJ79" s="158"/>
-      <c r="AK79" s="158"/>
-      <c r="AL79" s="158"/>
+      <c r="AC79" s="38"/>
+      <c r="AD79" s="38"/>
+      <c r="AE79" s="38"/>
+      <c r="AF79" s="38"/>
+      <c r="AG79" s="38"/>
+      <c r="AH79" s="39"/>
+      <c r="AI79" s="39"/>
+      <c r="AJ79" s="38"/>
+      <c r="AK79" s="122"/>
+      <c r="AL79" s="122"/>
       <c r="AM79" s="58"/>
       <c r="AN79" s="38"/>
       <c r="AO79" s="38"/>
@@ -8649,7 +8672,9 @@
     <row r="80" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="32"/>
       <c r="B80" s="53"/>
-      <c r="C80" s="56"/>
+      <c r="C80" s="56" t="s">
+        <v>96</v>
+      </c>
       <c r="D80" s="54"/>
       <c r="E80" s="35"/>
       <c r="F80" s="35"/>
@@ -8675,17 +8700,17 @@
       <c r="Z80" s="38"/>
       <c r="AA80" s="38"/>
       <c r="AB80" s="38"/>
-      <c r="AC80" s="39"/>
-      <c r="AD80" s="39"/>
-      <c r="AE80" s="39"/>
-      <c r="AF80" s="39"/>
-      <c r="AG80" s="39"/>
-      <c r="AH80" s="38"/>
-      <c r="AI80" s="38"/>
-      <c r="AJ80" s="139"/>
-      <c r="AK80" s="38"/>
-      <c r="AL80" s="38"/>
-      <c r="AM80" s="38"/>
+      <c r="AC80" s="38"/>
+      <c r="AD80" s="38"/>
+      <c r="AE80" s="38"/>
+      <c r="AF80" s="38"/>
+      <c r="AG80" s="38"/>
+      <c r="AH80" s="39"/>
+      <c r="AI80" s="39"/>
+      <c r="AJ80" s="38"/>
+      <c r="AK80" s="122"/>
+      <c r="AL80" s="122"/>
+      <c r="AM80" s="58"/>
       <c r="AN80" s="38"/>
       <c r="AO80" s="38"/>
       <c r="AP80" s="38"/>
@@ -8762,7 +8787,7 @@
       <c r="AG81" s="39"/>
       <c r="AH81" s="38"/>
       <c r="AI81" s="38"/>
-      <c r="AJ81" s="139"/>
+      <c r="AJ81" s="38"/>
       <c r="AK81" s="38"/>
       <c r="AL81" s="38"/>
       <c r="AM81" s="38"/>
@@ -8806,90 +8831,94 @@
       <c r="BY81" s="38"/>
       <c r="BZ81" s="38"/>
     </row>
-    <row r="82" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="43"/>
-      <c r="K82" s="38"/>
-      <c r="L82" s="38"/>
-      <c r="M82" s="38"/>
-      <c r="N82" s="44"/>
-      <c r="O82" s="44"/>
-      <c r="P82" s="44"/>
-      <c r="Q82" s="44"/>
-      <c r="R82" s="44"/>
-      <c r="S82" s="38"/>
-      <c r="T82" s="38"/>
-      <c r="U82" s="38"/>
-      <c r="V82" s="38"/>
-      <c r="W82" s="38"/>
-      <c r="X82" s="38"/>
-      <c r="Y82" s="38"/>
-      <c r="Z82" s="38"/>
-      <c r="AA82" s="38"/>
-      <c r="AB82" s="38"/>
-      <c r="AC82" s="39"/>
-      <c r="AD82" s="39"/>
-      <c r="AE82" s="39"/>
-      <c r="AF82" s="39"/>
-      <c r="AG82" s="39"/>
-      <c r="AH82" s="38"/>
-      <c r="AI82" s="38"/>
-      <c r="AJ82" s="139"/>
-      <c r="AK82" s="38"/>
-      <c r="AL82" s="38"/>
-      <c r="AM82" s="38"/>
-      <c r="AN82" s="38"/>
-      <c r="AO82" s="38"/>
-      <c r="AP82" s="38"/>
-      <c r="AQ82" s="38"/>
-      <c r="AR82" s="40"/>
-      <c r="AS82" s="40"/>
-      <c r="AT82" s="40"/>
-      <c r="AU82" s="40"/>
-      <c r="AV82" s="40"/>
-      <c r="AW82" s="38"/>
-      <c r="AX82" s="38"/>
-      <c r="AY82" s="38"/>
-      <c r="AZ82" s="38"/>
-      <c r="BA82" s="38"/>
-      <c r="BB82" s="38"/>
-      <c r="BC82" s="38"/>
-      <c r="BD82" s="38"/>
-      <c r="BE82" s="38"/>
-      <c r="BF82" s="38"/>
-      <c r="BG82" s="41"/>
-      <c r="BH82" s="41"/>
-      <c r="BI82" s="41"/>
-      <c r="BJ82" s="41"/>
-      <c r="BK82" s="41"/>
-      <c r="BL82" s="38"/>
-      <c r="BM82" s="38"/>
-      <c r="BN82" s="38"/>
-      <c r="BO82" s="38"/>
-      <c r="BP82" s="38"/>
-      <c r="BQ82" s="38"/>
-      <c r="BR82" s="38"/>
-      <c r="BS82" s="38"/>
-      <c r="BT82" s="38"/>
-      <c r="BU82" s="38"/>
-      <c r="BV82" s="38"/>
-      <c r="BW82" s="38"/>
-      <c r="BX82" s="38"/>
-      <c r="BY82" s="38"/>
-      <c r="BZ82" s="38"/>
+    <row r="82" spans="1:78" s="104" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="90"/>
+      <c r="B82" s="91"/>
+      <c r="C82" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="93"/>
+      <c r="E82" s="94"/>
+      <c r="F82" s="94"/>
+      <c r="G82" s="95"/>
+      <c r="H82" s="96"/>
+      <c r="I82" s="97"/>
+      <c r="J82" s="98"/>
+      <c r="K82" s="99"/>
+      <c r="L82" s="99"/>
+      <c r="M82" s="99"/>
+      <c r="N82" s="100"/>
+      <c r="O82" s="100"/>
+      <c r="P82" s="100"/>
+      <c r="Q82" s="100"/>
+      <c r="R82" s="100"/>
+      <c r="S82" s="99"/>
+      <c r="T82" s="99"/>
+      <c r="U82" s="99"/>
+      <c r="V82" s="99"/>
+      <c r="W82" s="99"/>
+      <c r="X82" s="99"/>
+      <c r="Y82" s="99"/>
+      <c r="Z82" s="99"/>
+      <c r="AA82" s="99"/>
+      <c r="AB82" s="99"/>
+      <c r="AC82" s="101"/>
+      <c r="AD82" s="101"/>
+      <c r="AE82" s="101"/>
+      <c r="AF82" s="101"/>
+      <c r="AG82" s="101"/>
+      <c r="AH82" s="99"/>
+      <c r="AI82" s="99"/>
+      <c r="AJ82" s="99"/>
+      <c r="AK82" s="99"/>
+      <c r="AL82" s="99"/>
+      <c r="AM82" s="99"/>
+      <c r="AN82" s="99"/>
+      <c r="AO82" s="99"/>
+      <c r="AP82" s="99"/>
+      <c r="AQ82" s="99"/>
+      <c r="AR82" s="102"/>
+      <c r="AS82" s="102"/>
+      <c r="AT82" s="102"/>
+      <c r="AU82" s="102"/>
+      <c r="AV82" s="102"/>
+      <c r="AW82" s="99"/>
+      <c r="AX82" s="99"/>
+      <c r="AY82" s="99"/>
+      <c r="AZ82" s="99"/>
+      <c r="BA82" s="99"/>
+      <c r="BB82" s="99"/>
+      <c r="BC82" s="99"/>
+      <c r="BD82" s="99"/>
+      <c r="BE82" s="99"/>
+      <c r="BF82" s="99"/>
+      <c r="BG82" s="103"/>
+      <c r="BH82" s="103"/>
+      <c r="BI82" s="103"/>
+      <c r="BJ82" s="103"/>
+      <c r="BK82" s="103"/>
+      <c r="BL82" s="99"/>
+      <c r="BM82" s="99"/>
+      <c r="BN82" s="99"/>
+      <c r="BO82" s="99"/>
+      <c r="BP82" s="99"/>
+      <c r="BQ82" s="99"/>
+      <c r="BR82" s="99"/>
+      <c r="BS82" s="99"/>
+      <c r="BT82" s="99"/>
+      <c r="BU82" s="99"/>
+      <c r="BV82" s="99"/>
+      <c r="BW82" s="99"/>
+      <c r="BX82" s="99"/>
+      <c r="BY82" s="99"/>
+      <c r="BZ82" s="99"/>
     </row>
     <row r="83" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="32"/>
       <c r="B83" s="53"/>
-      <c r="C83" s="56"/>
+      <c r="C83" s="56" t="s">
+        <v>97</v>
+      </c>
       <c r="D83" s="54"/>
       <c r="E83" s="35"/>
       <c r="F83" s="35"/>
@@ -8900,11 +8929,11 @@
       <c r="K83" s="38"/>
       <c r="L83" s="38"/>
       <c r="M83" s="38"/>
-      <c r="N83" s="44"/>
-      <c r="O83" s="44"/>
-      <c r="P83" s="44"/>
-      <c r="Q83" s="44"/>
-      <c r="R83" s="44"/>
+      <c r="N83" s="38"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
+      <c r="Q83" s="38"/>
+      <c r="R83" s="38"/>
       <c r="S83" s="38"/>
       <c r="T83" s="38"/>
       <c r="U83" s="38"/>
@@ -8915,14 +8944,14 @@
       <c r="Z83" s="38"/>
       <c r="AA83" s="38"/>
       <c r="AB83" s="38"/>
-      <c r="AC83" s="39"/>
-      <c r="AD83" s="39"/>
-      <c r="AE83" s="39"/>
-      <c r="AF83" s="39"/>
-      <c r="AG83" s="39"/>
+      <c r="AC83" s="38"/>
+      <c r="AD83" s="38"/>
+      <c r="AE83" s="38"/>
+      <c r="AF83" s="38"/>
+      <c r="AG83" s="38"/>
       <c r="AH83" s="38"/>
       <c r="AI83" s="38"/>
-      <c r="AJ83" s="139"/>
+      <c r="AJ83" s="38"/>
       <c r="AK83" s="38"/>
       <c r="AL83" s="38"/>
       <c r="AM83" s="38"/>
@@ -8930,11 +8959,11 @@
       <c r="AO83" s="38"/>
       <c r="AP83" s="38"/>
       <c r="AQ83" s="38"/>
-      <c r="AR83" s="40"/>
-      <c r="AS83" s="40"/>
-      <c r="AT83" s="40"/>
-      <c r="AU83" s="40"/>
-      <c r="AV83" s="40"/>
+      <c r="AR83" s="38"/>
+      <c r="AS83" s="38"/>
+      <c r="AT83" s="38"/>
+      <c r="AU83" s="38"/>
+      <c r="AV83" s="38"/>
       <c r="AW83" s="38"/>
       <c r="AX83" s="38"/>
       <c r="AY83" s="38"/>
@@ -8945,11 +8974,11 @@
       <c r="BD83" s="38"/>
       <c r="BE83" s="38"/>
       <c r="BF83" s="38"/>
-      <c r="BG83" s="41"/>
-      <c r="BH83" s="41"/>
-      <c r="BI83" s="41"/>
-      <c r="BJ83" s="41"/>
-      <c r="BK83" s="41"/>
+      <c r="BG83" s="38"/>
+      <c r="BH83" s="38"/>
+      <c r="BI83" s="38"/>
+      <c r="BJ83" s="38"/>
+      <c r="BK83" s="38"/>
       <c r="BL83" s="38"/>
       <c r="BM83" s="38"/>
       <c r="BN83" s="38"/>
@@ -8969,7 +8998,9 @@
     <row r="84" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="32"/>
       <c r="B84" s="53"/>
-      <c r="C84" s="57"/>
+      <c r="C84" s="56" t="s">
+        <v>98</v>
+      </c>
       <c r="D84" s="54"/>
       <c r="E84" s="35"/>
       <c r="F84" s="35"/>
@@ -8980,11 +9011,11 @@
       <c r="K84" s="38"/>
       <c r="L84" s="38"/>
       <c r="M84" s="38"/>
-      <c r="N84" s="44"/>
-      <c r="O84" s="44"/>
-      <c r="P84" s="44"/>
-      <c r="Q84" s="44"/>
-      <c r="R84" s="44"/>
+      <c r="N84" s="38"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
+      <c r="Q84" s="38"/>
+      <c r="R84" s="38"/>
       <c r="S84" s="38"/>
       <c r="T84" s="38"/>
       <c r="U84" s="38"/>
@@ -8995,14 +9026,14 @@
       <c r="Z84" s="38"/>
       <c r="AA84" s="38"/>
       <c r="AB84" s="38"/>
-      <c r="AC84" s="39"/>
-      <c r="AD84" s="39"/>
-      <c r="AE84" s="39"/>
-      <c r="AF84" s="39"/>
-      <c r="AG84" s="39"/>
+      <c r="AC84" s="38"/>
+      <c r="AD84" s="38"/>
+      <c r="AE84" s="38"/>
+      <c r="AF84" s="38"/>
+      <c r="AG84" s="38"/>
       <c r="AH84" s="38"/>
       <c r="AI84" s="38"/>
-      <c r="AJ84" s="139"/>
+      <c r="AJ84" s="38"/>
       <c r="AK84" s="38"/>
       <c r="AL84" s="38"/>
       <c r="AM84" s="38"/>
@@ -9010,11 +9041,11 @@
       <c r="AO84" s="38"/>
       <c r="AP84" s="38"/>
       <c r="AQ84" s="38"/>
-      <c r="AR84" s="40"/>
-      <c r="AS84" s="40"/>
-      <c r="AT84" s="40"/>
-      <c r="AU84" s="40"/>
-      <c r="AV84" s="40"/>
+      <c r="AR84" s="38"/>
+      <c r="AS84" s="38"/>
+      <c r="AT84" s="38"/>
+      <c r="AU84" s="38"/>
+      <c r="AV84" s="38"/>
       <c r="AW84" s="38"/>
       <c r="AX84" s="38"/>
       <c r="AY84" s="38"/>
@@ -9025,11 +9056,11 @@
       <c r="BD84" s="38"/>
       <c r="BE84" s="38"/>
       <c r="BF84" s="38"/>
-      <c r="BG84" s="41"/>
-      <c r="BH84" s="41"/>
-      <c r="BI84" s="41"/>
-      <c r="BJ84" s="41"/>
-      <c r="BK84" s="41"/>
+      <c r="BG84" s="38"/>
+      <c r="BH84" s="38"/>
+      <c r="BI84" s="38"/>
+      <c r="BJ84" s="38"/>
+      <c r="BK84" s="38"/>
       <c r="BL84" s="38"/>
       <c r="BM84" s="38"/>
       <c r="BN84" s="38"/>
@@ -9046,205 +9077,179 @@
       <c r="BY84" s="38"/>
       <c r="BZ84" s="38"/>
     </row>
-    <row r="85" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="26">
-        <v>4</v>
-      </c>
-      <c r="C85" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="31"/>
-      <c r="L85" s="31"/>
-      <c r="M85" s="29"/>
-      <c r="N85" s="29"/>
-      <c r="O85" s="29"/>
-      <c r="P85" s="29"/>
-      <c r="Q85" s="29"/>
-      <c r="R85" s="29"/>
-      <c r="S85" s="29"/>
-      <c r="T85" s="29"/>
-      <c r="U85" s="29"/>
-      <c r="V85" s="29"/>
-      <c r="W85" s="29"/>
-      <c r="X85" s="29"/>
-      <c r="Y85" s="29"/>
-      <c r="Z85" s="29"/>
-      <c r="AA85" s="29"/>
-      <c r="AB85" s="29"/>
-      <c r="AC85" s="29"/>
-      <c r="AD85" s="29"/>
-      <c r="AE85" s="29"/>
-      <c r="AF85" s="29"/>
-      <c r="AG85" s="29"/>
-      <c r="AH85" s="29"/>
-      <c r="AI85" s="29"/>
-      <c r="AJ85" s="29"/>
-      <c r="AK85" s="29"/>
-      <c r="AL85" s="29"/>
-      <c r="AM85" s="29"/>
-      <c r="AN85" s="29"/>
-      <c r="AO85" s="29"/>
-      <c r="AP85" s="29"/>
-      <c r="AQ85" s="29"/>
-      <c r="AR85" s="29"/>
-      <c r="AS85" s="29"/>
-      <c r="AT85" s="29"/>
-      <c r="AU85" s="29"/>
-      <c r="AV85" s="29"/>
-      <c r="AW85" s="29"/>
-      <c r="AX85" s="29"/>
-      <c r="AY85" s="29"/>
-      <c r="AZ85" s="29"/>
-      <c r="BA85" s="29"/>
-      <c r="BB85" s="29"/>
-      <c r="BC85" s="29"/>
-      <c r="BD85" s="29"/>
-      <c r="BE85" s="29"/>
-      <c r="BF85" s="29"/>
-      <c r="BG85" s="29"/>
-      <c r="BH85" s="29"/>
-      <c r="BI85" s="29"/>
-      <c r="BJ85" s="29"/>
-      <c r="BK85" s="29"/>
-      <c r="BL85" s="29"/>
-      <c r="BM85" s="29"/>
-      <c r="BN85" s="29"/>
-      <c r="BO85" s="29"/>
-      <c r="BP85" s="29"/>
-      <c r="BQ85" s="29"/>
-      <c r="BR85" s="29"/>
-      <c r="BS85" s="29"/>
-      <c r="BT85" s="29"/>
-      <c r="BU85" s="29"/>
-      <c r="BV85" s="29"/>
-      <c r="BW85" s="29"/>
-      <c r="BX85" s="29"/>
-      <c r="BY85" s="29"/>
-      <c r="BZ85" s="29"/>
+    <row r="85" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="32"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="38"/>
+      <c r="N85" s="38"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
+      <c r="Q85" s="38"/>
+      <c r="R85" s="38"/>
+      <c r="S85" s="38"/>
+      <c r="T85" s="38"/>
+      <c r="U85" s="38"/>
+      <c r="V85" s="38"/>
+      <c r="W85" s="38"/>
+      <c r="X85" s="38"/>
+      <c r="Y85" s="38"/>
+      <c r="Z85" s="38"/>
+      <c r="AA85" s="38"/>
+      <c r="AB85" s="38"/>
+      <c r="AC85" s="38"/>
+      <c r="AD85" s="38"/>
+      <c r="AE85" s="38"/>
+      <c r="AF85" s="38"/>
+      <c r="AG85" s="38"/>
+      <c r="AH85" s="38"/>
+      <c r="AI85" s="38"/>
+      <c r="AJ85" s="38"/>
+      <c r="AK85" s="38"/>
+      <c r="AL85" s="38"/>
+      <c r="AM85" s="38"/>
+      <c r="AN85" s="38"/>
+      <c r="AO85" s="38"/>
+      <c r="AP85" s="38"/>
+      <c r="AQ85" s="38"/>
+      <c r="AR85" s="38"/>
+      <c r="AS85" s="38"/>
+      <c r="AT85" s="38"/>
+      <c r="AU85" s="38"/>
+      <c r="AV85" s="38"/>
+      <c r="AW85" s="38"/>
+      <c r="AX85" s="38"/>
+      <c r="AY85" s="38"/>
+      <c r="AZ85" s="38"/>
+      <c r="BA85" s="38"/>
+      <c r="BB85" s="38"/>
+      <c r="BC85" s="38"/>
+      <c r="BD85" s="38"/>
+      <c r="BE85" s="38"/>
+      <c r="BF85" s="38"/>
+      <c r="BG85" s="38"/>
+      <c r="BH85" s="38"/>
+      <c r="BI85" s="38"/>
+      <c r="BJ85" s="38"/>
+      <c r="BK85" s="38"/>
+      <c r="BL85" s="38"/>
+      <c r="BM85" s="38"/>
+      <c r="BN85" s="38"/>
+      <c r="BO85" s="38"/>
+      <c r="BP85" s="38"/>
+      <c r="BQ85" s="38"/>
+      <c r="BR85" s="38"/>
+      <c r="BS85" s="38"/>
+      <c r="BT85" s="38"/>
+      <c r="BU85" s="38"/>
+      <c r="BV85" s="38"/>
+      <c r="BW85" s="38"/>
+      <c r="BX85" s="38"/>
+      <c r="BY85" s="38"/>
+      <c r="BZ85" s="38"/>
     </row>
-    <row r="86" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="33">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C86" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="D86" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E86" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="F86" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G86" s="36" t="e">
-        <f>DAYS360(E86,F86)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H86" s="37">
-        <v>1</v>
-      </c>
-      <c r="I86" s="42"/>
-      <c r="J86" s="43"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="38"/>
-      <c r="M86" s="38"/>
-      <c r="N86" s="44"/>
-      <c r="O86" s="44"/>
-      <c r="P86" s="44"/>
-      <c r="Q86" s="44"/>
-      <c r="R86" s="44"/>
-      <c r="S86" s="38"/>
-      <c r="T86" s="38"/>
-      <c r="U86" s="38"/>
-      <c r="V86" s="38"/>
-      <c r="W86" s="38"/>
-      <c r="X86" s="38"/>
-      <c r="Y86" s="38"/>
-      <c r="Z86" s="38"/>
-      <c r="AA86" s="38"/>
-      <c r="AB86" s="38"/>
-      <c r="AC86" s="39"/>
-      <c r="AD86" s="39"/>
-      <c r="AE86" s="39"/>
-      <c r="AF86" s="39"/>
-      <c r="AG86" s="39"/>
-      <c r="AH86" s="38"/>
-      <c r="AI86" s="38"/>
-      <c r="AJ86" s="139"/>
-      <c r="AK86" s="38"/>
-      <c r="AL86" s="38"/>
-      <c r="AM86" s="38"/>
-      <c r="AN86" s="38"/>
-      <c r="AO86" s="38"/>
-      <c r="AP86" s="38"/>
-      <c r="AQ86" s="38"/>
-      <c r="AR86" s="40"/>
-      <c r="AS86" s="40"/>
-      <c r="AT86" s="40"/>
-      <c r="AU86" s="40"/>
-      <c r="AV86" s="40"/>
-      <c r="AW86" s="38"/>
-      <c r="AX86" s="38"/>
-      <c r="AY86" s="38"/>
-      <c r="AZ86" s="38"/>
-      <c r="BA86" s="38"/>
-      <c r="BB86" s="38"/>
-      <c r="BC86" s="38"/>
-      <c r="BD86" s="38"/>
-      <c r="BE86" s="38"/>
-      <c r="BF86" s="38"/>
-      <c r="BG86" s="41"/>
-      <c r="BH86" s="41"/>
-      <c r="BI86" s="41"/>
-      <c r="BJ86" s="41"/>
-      <c r="BK86" s="41"/>
-      <c r="BL86" s="38"/>
-      <c r="BM86" s="38"/>
-      <c r="BN86" s="38"/>
-      <c r="BO86" s="38"/>
-      <c r="BP86" s="38"/>
-      <c r="BQ86" s="38"/>
-      <c r="BR86" s="38"/>
-      <c r="BS86" s="38"/>
-      <c r="BT86" s="38"/>
-      <c r="BU86" s="38"/>
-      <c r="BV86" s="38"/>
-      <c r="BW86" s="38"/>
-      <c r="BX86" s="38"/>
-      <c r="BY86" s="38"/>
-      <c r="BZ86" s="38"/>
+    <row r="86" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="72"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" s="61"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="65"/>
+      <c r="J86" s="66"/>
+      <c r="K86" s="67"/>
+      <c r="L86" s="67"/>
+      <c r="M86" s="67"/>
+      <c r="N86" s="68"/>
+      <c r="O86" s="68"/>
+      <c r="P86" s="68"/>
+      <c r="Q86" s="68"/>
+      <c r="R86" s="68"/>
+      <c r="S86" s="67"/>
+      <c r="T86" s="67"/>
+      <c r="U86" s="67"/>
+      <c r="V86" s="67"/>
+      <c r="W86" s="67"/>
+      <c r="X86" s="67"/>
+      <c r="Y86" s="67"/>
+      <c r="Z86" s="67"/>
+      <c r="AA86" s="67"/>
+      <c r="AB86" s="67"/>
+      <c r="AC86" s="69"/>
+      <c r="AD86" s="69"/>
+      <c r="AE86" s="69"/>
+      <c r="AF86" s="69"/>
+      <c r="AG86" s="69"/>
+      <c r="AH86" s="67"/>
+      <c r="AI86" s="67"/>
+      <c r="AJ86" s="67"/>
+      <c r="AK86" s="67"/>
+      <c r="AL86" s="67"/>
+      <c r="AM86" s="67"/>
+      <c r="AN86" s="67"/>
+      <c r="AO86" s="67"/>
+      <c r="AP86" s="67"/>
+      <c r="AQ86" s="67"/>
+      <c r="AR86" s="70"/>
+      <c r="AS86" s="70"/>
+      <c r="AT86" s="70"/>
+      <c r="AU86" s="70"/>
+      <c r="AV86" s="70"/>
+      <c r="AW86" s="67"/>
+      <c r="AX86" s="67"/>
+      <c r="AY86" s="67"/>
+      <c r="AZ86" s="67"/>
+      <c r="BA86" s="67"/>
+      <c r="BB86" s="67"/>
+      <c r="BC86" s="67"/>
+      <c r="BD86" s="67"/>
+      <c r="BE86" s="67"/>
+      <c r="BF86" s="67"/>
+      <c r="BG86" s="71"/>
+      <c r="BH86" s="71"/>
+      <c r="BI86" s="71"/>
+      <c r="BJ86" s="71"/>
+      <c r="BK86" s="71"/>
+      <c r="BL86" s="67"/>
+      <c r="BM86" s="67"/>
+      <c r="BN86" s="67"/>
+      <c r="BO86" s="67"/>
+      <c r="BP86" s="67"/>
+      <c r="BQ86" s="67"/>
+      <c r="BR86" s="67"/>
+      <c r="BS86" s="67"/>
+      <c r="BT86" s="67"/>
+      <c r="BU86" s="67"/>
+      <c r="BV86" s="67"/>
+      <c r="BW86" s="67"/>
+      <c r="BX86" s="67"/>
+      <c r="BY86" s="67"/>
+      <c r="BZ86" s="67"/>
     </row>
-    <row r="87" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="33">
-        <v>4.2</v>
-      </c>
-      <c r="C87" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D87" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E87" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="F87" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G87" s="36">
-        <v>0</v>
-      </c>
-      <c r="H87" s="37">
-        <v>1</v>
-      </c>
+    <row r="87" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="32"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="54"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="37"/>
       <c r="I87" s="42"/>
       <c r="J87" s="43"/>
       <c r="K87" s="38"/>
@@ -9270,12 +9275,12 @@
       <c r="AE87" s="39"/>
       <c r="AF87" s="39"/>
       <c r="AG87" s="39"/>
-      <c r="AH87" s="38"/>
-      <c r="AI87" s="38"/>
-      <c r="AJ87" s="139"/>
-      <c r="AK87" s="38"/>
-      <c r="AL87" s="38"/>
-      <c r="AM87" s="38"/>
+      <c r="AH87" s="123"/>
+      <c r="AI87" s="123"/>
+      <c r="AJ87" s="123"/>
+      <c r="AK87" s="123"/>
+      <c r="AL87" s="123"/>
+      <c r="AM87" s="58"/>
       <c r="AN87" s="38"/>
       <c r="AO87" s="38"/>
       <c r="AP87" s="38"/>
@@ -9316,29 +9321,17 @@
       <c r="BY87" s="38"/>
       <c r="BZ87" s="38"/>
     </row>
-    <row r="88" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C88" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="D88" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E88" s="35">
-        <v>44823</v>
-      </c>
-      <c r="F88" s="35">
-        <v>44823</v>
-      </c>
-      <c r="G88" s="36">
-        <f t="shared" ref="G88:G92" si="4">DAYS360(E88,F88)</f>
-        <v>0</v>
-      </c>
-      <c r="H88" s="37">
-        <v>1</v>
-      </c>
+    <row r="88" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="32"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" s="54"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="37"/>
       <c r="I88" s="42"/>
       <c r="J88" s="43"/>
       <c r="K88" s="38"/>
@@ -9364,12 +9357,12 @@
       <c r="AE88" s="39"/>
       <c r="AF88" s="39"/>
       <c r="AG88" s="39"/>
-      <c r="AH88" s="38"/>
-      <c r="AI88" s="38"/>
-      <c r="AJ88" s="139"/>
-      <c r="AK88" s="38"/>
-      <c r="AL88" s="38"/>
-      <c r="AM88" s="38"/>
+      <c r="AH88" s="123"/>
+      <c r="AI88" s="123"/>
+      <c r="AJ88" s="123"/>
+      <c r="AK88" s="123"/>
+      <c r="AL88" s="123"/>
+      <c r="AM88" s="58"/>
       <c r="AN88" s="38"/>
       <c r="AO88" s="38"/>
       <c r="AP88" s="38"/>
@@ -9410,29 +9403,15 @@
       <c r="BY88" s="38"/>
       <c r="BZ88" s="38"/>
     </row>
-    <row r="89" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C89" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="D89" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E89" s="35">
-        <v>44829</v>
-      </c>
-      <c r="F89" s="35">
-        <v>44829</v>
-      </c>
-      <c r="G89" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H89" s="52">
-        <v>1</v>
-      </c>
+    <row r="89" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="32"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="37"/>
       <c r="I89" s="42"/>
       <c r="J89" s="43"/>
       <c r="K89" s="38"/>
@@ -9460,7 +9439,7 @@
       <c r="AG89" s="39"/>
       <c r="AH89" s="38"/>
       <c r="AI89" s="38"/>
-      <c r="AJ89" s="139"/>
+      <c r="AJ89" s="38"/>
       <c r="AK89" s="38"/>
       <c r="AL89" s="38"/>
       <c r="AM89" s="38"/>
@@ -9504,29 +9483,15 @@
       <c r="BY89" s="38"/>
       <c r="BZ89" s="38"/>
     </row>
-    <row r="90" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C90" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="D90" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E90" s="35">
-        <v>44830</v>
-      </c>
-      <c r="F90" s="35">
-        <v>44830</v>
-      </c>
-      <c r="G90" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H90" s="37">
-        <v>1</v>
-      </c>
+    <row r="90" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="32"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="37"/>
       <c r="I90" s="42"/>
       <c r="J90" s="43"/>
       <c r="K90" s="38"/>
@@ -9554,7 +9519,7 @@
       <c r="AG90" s="39"/>
       <c r="AH90" s="38"/>
       <c r="AI90" s="38"/>
-      <c r="AJ90" s="139"/>
+      <c r="AJ90" s="38"/>
       <c r="AK90" s="38"/>
       <c r="AL90" s="38"/>
       <c r="AM90" s="38"/>
@@ -9598,29 +9563,15 @@
       <c r="BY90" s="38"/>
       <c r="BZ90" s="38"/>
     </row>
-    <row r="91" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C91" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="D91" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E91" s="35">
-        <v>44837</v>
-      </c>
-      <c r="F91" s="35">
-        <v>44837</v>
-      </c>
-      <c r="G91" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H91" s="37">
-        <v>1</v>
-      </c>
+    <row r="91" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="32"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="37"/>
       <c r="I91" s="42"/>
       <c r="J91" s="43"/>
       <c r="K91" s="38"/>
@@ -9648,7 +9599,7 @@
       <c r="AG91" s="39"/>
       <c r="AH91" s="38"/>
       <c r="AI91" s="38"/>
-      <c r="AJ91" s="139"/>
+      <c r="AJ91" s="38"/>
       <c r="AK91" s="38"/>
       <c r="AL91" s="38"/>
       <c r="AM91" s="38"/>
@@ -9692,27 +9643,15 @@
       <c r="BY91" s="38"/>
       <c r="BZ91" s="38"/>
     </row>
-    <row r="92" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="33"/>
-      <c r="C92" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="D92" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E92" s="35">
-        <v>44844</v>
-      </c>
-      <c r="F92" s="35">
-        <v>44844</v>
-      </c>
-      <c r="G92" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H92" s="37">
-        <v>1</v>
-      </c>
+    <row r="92" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="32"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="37"/>
       <c r="I92" s="42"/>
       <c r="J92" s="43"/>
       <c r="K92" s="38"/>
@@ -9740,7 +9679,7 @@
       <c r="AG92" s="39"/>
       <c r="AH92" s="38"/>
       <c r="AI92" s="38"/>
-      <c r="AJ92" s="139"/>
+      <c r="AJ92" s="38"/>
       <c r="AK92" s="38"/>
       <c r="AL92" s="38"/>
       <c r="AM92" s="38"/>
@@ -9784,29 +9723,15 @@
       <c r="BY92" s="38"/>
       <c r="BZ92" s="38"/>
     </row>
-    <row r="93" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C93" s="140" t="s">
-        <v>99</v>
-      </c>
-      <c r="D93" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E93" s="35">
-        <v>44844</v>
-      </c>
-      <c r="F93" s="35">
-        <v>44844</v>
-      </c>
-      <c r="G93" s="36">
-        <f t="shared" ref="G93" si="5">DAYS360(E93,F93)</f>
-        <v>0</v>
-      </c>
-      <c r="H93" s="37">
-        <v>1</v>
-      </c>
+    <row r="93" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="32"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="37"/>
       <c r="I93" s="42"/>
       <c r="J93" s="43"/>
       <c r="K93" s="38"/>
@@ -9834,7 +9759,7 @@
       <c r="AG93" s="39"/>
       <c r="AH93" s="38"/>
       <c r="AI93" s="38"/>
-      <c r="AJ93" s="139"/>
+      <c r="AJ93" s="38"/>
       <c r="AK93" s="38"/>
       <c r="AL93" s="38"/>
       <c r="AM93" s="38"/>
@@ -9879,106 +9804,918 @@
       <c r="BZ93" s="38"/>
     </row>
     <row r="94" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="141"/>
-      <c r="C94" s="142"/>
-      <c r="D94" s="143"/>
-      <c r="E94" s="144"/>
-      <c r="F94" s="144"/>
-      <c r="G94" s="145"/>
-      <c r="H94" s="146"/>
-      <c r="I94" s="147"/>
-      <c r="J94" s="148"/>
-      <c r="K94" s="149"/>
-      <c r="L94" s="149"/>
-      <c r="M94" s="149"/>
-      <c r="N94" s="150"/>
-      <c r="O94" s="150"/>
-      <c r="P94" s="150"/>
-      <c r="Q94" s="150"/>
-      <c r="R94" s="150"/>
-      <c r="S94" s="149"/>
-      <c r="T94" s="149"/>
-      <c r="U94" s="149"/>
-      <c r="V94" s="149"/>
-      <c r="W94" s="149"/>
-      <c r="X94" s="149"/>
-      <c r="Y94" s="149"/>
-      <c r="Z94" s="149"/>
-      <c r="AA94" s="149"/>
-      <c r="AB94" s="149"/>
-      <c r="AC94" s="151"/>
-      <c r="AD94" s="151"/>
-      <c r="AE94" s="151"/>
-      <c r="AF94" s="151"/>
-      <c r="AG94" s="151"/>
-      <c r="AH94" s="149"/>
-      <c r="AI94" s="149"/>
-      <c r="AJ94" s="162"/>
-      <c r="AK94" s="149"/>
-      <c r="AL94" s="149"/>
-      <c r="AM94" s="149"/>
-      <c r="AN94" s="149"/>
-      <c r="AO94" s="149"/>
-      <c r="AP94" s="149"/>
-      <c r="AQ94" s="149"/>
-      <c r="AR94" s="152"/>
-      <c r="AS94" s="152"/>
-      <c r="AT94" s="152"/>
-      <c r="AU94" s="152"/>
-      <c r="AV94" s="152"/>
-      <c r="AW94" s="149"/>
-      <c r="AX94" s="149"/>
-      <c r="AY94" s="149"/>
-      <c r="AZ94" s="149"/>
-      <c r="BA94" s="149"/>
-      <c r="BB94" s="149"/>
-      <c r="BC94" s="149"/>
-      <c r="BD94" s="149"/>
-      <c r="BE94" s="149"/>
-      <c r="BF94" s="149"/>
-      <c r="BG94" s="153"/>
-      <c r="BH94" s="153"/>
-      <c r="BI94" s="153"/>
-      <c r="BJ94" s="153"/>
-      <c r="BK94" s="153"/>
-      <c r="BL94" s="149"/>
-      <c r="BM94" s="149"/>
-      <c r="BN94" s="149"/>
-      <c r="BO94" s="149"/>
-      <c r="BP94" s="149"/>
-      <c r="BQ94" s="149"/>
-      <c r="BR94" s="149"/>
-      <c r="BS94" s="149"/>
-      <c r="BT94" s="149"/>
-      <c r="BU94" s="149"/>
-      <c r="BV94" s="149"/>
-      <c r="BW94" s="149"/>
-      <c r="BX94" s="149"/>
-      <c r="BY94" s="149"/>
-      <c r="BZ94" s="149"/>
+      <c r="B94" s="26">
+        <v>4</v>
+      </c>
+      <c r="C94" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="31"/>
+      <c r="L94" s="31"/>
+      <c r="M94" s="29"/>
+      <c r="N94" s="29"/>
+      <c r="O94" s="29"/>
+      <c r="P94" s="29"/>
+      <c r="Q94" s="29"/>
+      <c r="R94" s="29"/>
+      <c r="S94" s="29"/>
+      <c r="T94" s="29"/>
+      <c r="U94" s="29"/>
+      <c r="V94" s="29"/>
+      <c r="W94" s="29"/>
+      <c r="X94" s="29"/>
+      <c r="Y94" s="29"/>
+      <c r="Z94" s="29"/>
+      <c r="AA94" s="29"/>
+      <c r="AB94" s="29"/>
+      <c r="AC94" s="29"/>
+      <c r="AD94" s="29"/>
+      <c r="AE94" s="29"/>
+      <c r="AF94" s="29"/>
+      <c r="AG94" s="29"/>
+      <c r="AH94" s="29"/>
+      <c r="AI94" s="29"/>
+      <c r="AJ94" s="29"/>
+      <c r="AK94" s="29"/>
+      <c r="AL94" s="29"/>
+      <c r="AM94" s="29"/>
+      <c r="AN94" s="29"/>
+      <c r="AO94" s="29"/>
+      <c r="AP94" s="29"/>
+      <c r="AQ94" s="29"/>
+      <c r="AR94" s="29"/>
+      <c r="AS94" s="29"/>
+      <c r="AT94" s="29"/>
+      <c r="AU94" s="29"/>
+      <c r="AV94" s="29"/>
+      <c r="AW94" s="29"/>
+      <c r="AX94" s="29"/>
+      <c r="AY94" s="29"/>
+      <c r="AZ94" s="29"/>
+      <c r="BA94" s="29"/>
+      <c r="BB94" s="29"/>
+      <c r="BC94" s="29"/>
+      <c r="BD94" s="29"/>
+      <c r="BE94" s="29"/>
+      <c r="BF94" s="29"/>
+      <c r="BG94" s="29"/>
+      <c r="BH94" s="29"/>
+      <c r="BI94" s="29"/>
+      <c r="BJ94" s="29"/>
+      <c r="BK94" s="29"/>
+      <c r="BL94" s="29"/>
+      <c r="BM94" s="29"/>
+      <c r="BN94" s="29"/>
+      <c r="BO94" s="29"/>
+      <c r="BP94" s="29"/>
+      <c r="BQ94" s="29"/>
+      <c r="BR94" s="29"/>
+      <c r="BS94" s="29"/>
+      <c r="BT94" s="29"/>
+      <c r="BU94" s="29"/>
+      <c r="BV94" s="29"/>
+      <c r="BW94" s="29"/>
+      <c r="BX94" s="29"/>
+      <c r="BY94" s="29"/>
+      <c r="BZ94" s="29"/>
+    </row>
+    <row r="95" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="33">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C95" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F95" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G95" s="36" t="e">
+        <f>DAYS360(E95,F95)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H95" s="37">
+        <v>1</v>
+      </c>
+      <c r="I95" s="42"/>
+      <c r="J95" s="43"/>
+      <c r="K95" s="38"/>
+      <c r="L95" s="38"/>
+      <c r="M95" s="38"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="44"/>
+      <c r="P95" s="44"/>
+      <c r="Q95" s="44"/>
+      <c r="R95" s="44"/>
+      <c r="S95" s="38"/>
+      <c r="T95" s="38"/>
+      <c r="U95" s="38"/>
+      <c r="V95" s="38"/>
+      <c r="W95" s="38"/>
+      <c r="X95" s="38"/>
+      <c r="Y95" s="38"/>
+      <c r="Z95" s="38"/>
+      <c r="AA95" s="38"/>
+      <c r="AB95" s="38"/>
+      <c r="AC95" s="39"/>
+      <c r="AD95" s="39"/>
+      <c r="AE95" s="39"/>
+      <c r="AF95" s="39"/>
+      <c r="AG95" s="39"/>
+      <c r="AH95" s="38"/>
+      <c r="AI95" s="38"/>
+      <c r="AJ95" s="38"/>
+      <c r="AK95" s="38"/>
+      <c r="AL95" s="38"/>
+      <c r="AM95" s="38"/>
+      <c r="AN95" s="38"/>
+      <c r="AO95" s="38"/>
+      <c r="AP95" s="38"/>
+      <c r="AQ95" s="38"/>
+      <c r="AR95" s="40"/>
+      <c r="AS95" s="40"/>
+      <c r="AT95" s="40"/>
+      <c r="AU95" s="40"/>
+      <c r="AV95" s="40"/>
+      <c r="AW95" s="38"/>
+      <c r="AX95" s="38"/>
+      <c r="AY95" s="38"/>
+      <c r="AZ95" s="38"/>
+      <c r="BA95" s="38"/>
+      <c r="BB95" s="38"/>
+      <c r="BC95" s="38"/>
+      <c r="BD95" s="38"/>
+      <c r="BE95" s="38"/>
+      <c r="BF95" s="38"/>
+      <c r="BG95" s="41"/>
+      <c r="BH95" s="41"/>
+      <c r="BI95" s="41"/>
+      <c r="BJ95" s="41"/>
+      <c r="BK95" s="41"/>
+      <c r="BL95" s="38"/>
+      <c r="BM95" s="38"/>
+      <c r="BN95" s="38"/>
+      <c r="BO95" s="38"/>
+      <c r="BP95" s="38"/>
+      <c r="BQ95" s="38"/>
+      <c r="BR95" s="38"/>
+      <c r="BS95" s="38"/>
+      <c r="BT95" s="38"/>
+      <c r="BU95" s="38"/>
+      <c r="BV95" s="38"/>
+      <c r="BW95" s="38"/>
+      <c r="BX95" s="38"/>
+      <c r="BY95" s="38"/>
+      <c r="BZ95" s="38"/>
+    </row>
+    <row r="96" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="33">
+        <v>4.2</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F96" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G96" s="36">
+        <v>0</v>
+      </c>
+      <c r="H96" s="37">
+        <v>1</v>
+      </c>
+      <c r="I96" s="42"/>
+      <c r="J96" s="43"/>
+      <c r="K96" s="38"/>
+      <c r="L96" s="38"/>
+      <c r="M96" s="38"/>
+      <c r="N96" s="44"/>
+      <c r="O96" s="44"/>
+      <c r="P96" s="44"/>
+      <c r="Q96" s="44"/>
+      <c r="R96" s="44"/>
+      <c r="S96" s="38"/>
+      <c r="T96" s="38"/>
+      <c r="U96" s="38"/>
+      <c r="V96" s="38"/>
+      <c r="W96" s="38"/>
+      <c r="X96" s="38"/>
+      <c r="Y96" s="38"/>
+      <c r="Z96" s="38"/>
+      <c r="AA96" s="38"/>
+      <c r="AB96" s="38"/>
+      <c r="AC96" s="39"/>
+      <c r="AD96" s="39"/>
+      <c r="AE96" s="39"/>
+      <c r="AF96" s="39"/>
+      <c r="AG96" s="39"/>
+      <c r="AH96" s="38"/>
+      <c r="AI96" s="38"/>
+      <c r="AJ96" s="38"/>
+      <c r="AK96" s="38"/>
+      <c r="AL96" s="38"/>
+      <c r="AM96" s="38"/>
+      <c r="AN96" s="38"/>
+      <c r="AO96" s="38"/>
+      <c r="AP96" s="38"/>
+      <c r="AQ96" s="38"/>
+      <c r="AR96" s="40"/>
+      <c r="AS96" s="40"/>
+      <c r="AT96" s="40"/>
+      <c r="AU96" s="40"/>
+      <c r="AV96" s="40"/>
+      <c r="AW96" s="38"/>
+      <c r="AX96" s="38"/>
+      <c r="AY96" s="38"/>
+      <c r="AZ96" s="38"/>
+      <c r="BA96" s="38"/>
+      <c r="BB96" s="38"/>
+      <c r="BC96" s="38"/>
+      <c r="BD96" s="38"/>
+      <c r="BE96" s="38"/>
+      <c r="BF96" s="38"/>
+      <c r="BG96" s="41"/>
+      <c r="BH96" s="41"/>
+      <c r="BI96" s="41"/>
+      <c r="BJ96" s="41"/>
+      <c r="BK96" s="41"/>
+      <c r="BL96" s="38"/>
+      <c r="BM96" s="38"/>
+      <c r="BN96" s="38"/>
+      <c r="BO96" s="38"/>
+      <c r="BP96" s="38"/>
+      <c r="BQ96" s="38"/>
+      <c r="BR96" s="38"/>
+      <c r="BS96" s="38"/>
+      <c r="BT96" s="38"/>
+      <c r="BU96" s="38"/>
+      <c r="BV96" s="38"/>
+      <c r="BW96" s="38"/>
+      <c r="BX96" s="38"/>
+      <c r="BY96" s="38"/>
+      <c r="BZ96" s="38"/>
+    </row>
+    <row r="97" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D97" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" s="35">
+        <v>44823</v>
+      </c>
+      <c r="F97" s="35">
+        <v>44823</v>
+      </c>
+      <c r="G97" s="36">
+        <f t="shared" ref="G97:G101" si="4">DAYS360(E97,F97)</f>
+        <v>0</v>
+      </c>
+      <c r="H97" s="37">
+        <v>1</v>
+      </c>
+      <c r="I97" s="42"/>
+      <c r="J97" s="43"/>
+      <c r="K97" s="38"/>
+      <c r="L97" s="38"/>
+      <c r="M97" s="38"/>
+      <c r="N97" s="44"/>
+      <c r="O97" s="44"/>
+      <c r="P97" s="44"/>
+      <c r="Q97" s="44"/>
+      <c r="R97" s="44"/>
+      <c r="S97" s="38"/>
+      <c r="T97" s="38"/>
+      <c r="U97" s="38"/>
+      <c r="V97" s="38"/>
+      <c r="W97" s="38"/>
+      <c r="X97" s="38"/>
+      <c r="Y97" s="38"/>
+      <c r="Z97" s="38"/>
+      <c r="AA97" s="38"/>
+      <c r="AB97" s="38"/>
+      <c r="AC97" s="39"/>
+      <c r="AD97" s="39"/>
+      <c r="AE97" s="39"/>
+      <c r="AF97" s="39"/>
+      <c r="AG97" s="39"/>
+      <c r="AH97" s="38"/>
+      <c r="AI97" s="38"/>
+      <c r="AJ97" s="38"/>
+      <c r="AK97" s="38"/>
+      <c r="AL97" s="38"/>
+      <c r="AM97" s="38"/>
+      <c r="AN97" s="38"/>
+      <c r="AO97" s="38"/>
+      <c r="AP97" s="38"/>
+      <c r="AQ97" s="38"/>
+      <c r="AR97" s="40"/>
+      <c r="AS97" s="40"/>
+      <c r="AT97" s="40"/>
+      <c r="AU97" s="40"/>
+      <c r="AV97" s="40"/>
+      <c r="AW97" s="38"/>
+      <c r="AX97" s="38"/>
+      <c r="AY97" s="38"/>
+      <c r="AZ97" s="38"/>
+      <c r="BA97" s="38"/>
+      <c r="BB97" s="38"/>
+      <c r="BC97" s="38"/>
+      <c r="BD97" s="38"/>
+      <c r="BE97" s="38"/>
+      <c r="BF97" s="38"/>
+      <c r="BG97" s="41"/>
+      <c r="BH97" s="41"/>
+      <c r="BI97" s="41"/>
+      <c r="BJ97" s="41"/>
+      <c r="BK97" s="41"/>
+      <c r="BL97" s="38"/>
+      <c r="BM97" s="38"/>
+      <c r="BN97" s="38"/>
+      <c r="BO97" s="38"/>
+      <c r="BP97" s="38"/>
+      <c r="BQ97" s="38"/>
+      <c r="BR97" s="38"/>
+      <c r="BS97" s="38"/>
+      <c r="BT97" s="38"/>
+      <c r="BU97" s="38"/>
+      <c r="BV97" s="38"/>
+      <c r="BW97" s="38"/>
+      <c r="BX97" s="38"/>
+      <c r="BY97" s="38"/>
+      <c r="BZ97" s="38"/>
+    </row>
+    <row r="98" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D98" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E98" s="35">
+        <v>44829</v>
+      </c>
+      <c r="F98" s="35">
+        <v>44829</v>
+      </c>
+      <c r="G98" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H98" s="52">
+        <v>1</v>
+      </c>
+      <c r="I98" s="42"/>
+      <c r="J98" s="43"/>
+      <c r="K98" s="38"/>
+      <c r="L98" s="38"/>
+      <c r="M98" s="38"/>
+      <c r="N98" s="44"/>
+      <c r="O98" s="44"/>
+      <c r="P98" s="44"/>
+      <c r="Q98" s="44"/>
+      <c r="R98" s="44"/>
+      <c r="S98" s="38"/>
+      <c r="T98" s="38"/>
+      <c r="U98" s="38"/>
+      <c r="V98" s="38"/>
+      <c r="W98" s="38"/>
+      <c r="X98" s="38"/>
+      <c r="Y98" s="38"/>
+      <c r="Z98" s="38"/>
+      <c r="AA98" s="38"/>
+      <c r="AB98" s="38"/>
+      <c r="AC98" s="39"/>
+      <c r="AD98" s="39"/>
+      <c r="AE98" s="39"/>
+      <c r="AF98" s="39"/>
+      <c r="AG98" s="39"/>
+      <c r="AH98" s="38"/>
+      <c r="AI98" s="38"/>
+      <c r="AJ98" s="38"/>
+      <c r="AK98" s="38"/>
+      <c r="AL98" s="38"/>
+      <c r="AM98" s="38"/>
+      <c r="AN98" s="38"/>
+      <c r="AO98" s="38"/>
+      <c r="AP98" s="38"/>
+      <c r="AQ98" s="38"/>
+      <c r="AR98" s="40"/>
+      <c r="AS98" s="40"/>
+      <c r="AT98" s="40"/>
+      <c r="AU98" s="40"/>
+      <c r="AV98" s="40"/>
+      <c r="AW98" s="38"/>
+      <c r="AX98" s="38"/>
+      <c r="AY98" s="38"/>
+      <c r="AZ98" s="38"/>
+      <c r="BA98" s="38"/>
+      <c r="BB98" s="38"/>
+      <c r="BC98" s="38"/>
+      <c r="BD98" s="38"/>
+      <c r="BE98" s="38"/>
+      <c r="BF98" s="38"/>
+      <c r="BG98" s="41"/>
+      <c r="BH98" s="41"/>
+      <c r="BI98" s="41"/>
+      <c r="BJ98" s="41"/>
+      <c r="BK98" s="41"/>
+      <c r="BL98" s="38"/>
+      <c r="BM98" s="38"/>
+      <c r="BN98" s="38"/>
+      <c r="BO98" s="38"/>
+      <c r="BP98" s="38"/>
+      <c r="BQ98" s="38"/>
+      <c r="BR98" s="38"/>
+      <c r="BS98" s="38"/>
+      <c r="BT98" s="38"/>
+      <c r="BU98" s="38"/>
+      <c r="BV98" s="38"/>
+      <c r="BW98" s="38"/>
+      <c r="BX98" s="38"/>
+      <c r="BY98" s="38"/>
+      <c r="BZ98" s="38"/>
+    </row>
+    <row r="99" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C99" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D99" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="35">
+        <v>44830</v>
+      </c>
+      <c r="F99" s="35">
+        <v>44830</v>
+      </c>
+      <c r="G99" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H99" s="37">
+        <v>1</v>
+      </c>
+      <c r="I99" s="42"/>
+      <c r="J99" s="43"/>
+      <c r="K99" s="38"/>
+      <c r="L99" s="38"/>
+      <c r="M99" s="38"/>
+      <c r="N99" s="44"/>
+      <c r="O99" s="44"/>
+      <c r="P99" s="44"/>
+      <c r="Q99" s="44"/>
+      <c r="R99" s="44"/>
+      <c r="S99" s="38"/>
+      <c r="T99" s="38"/>
+      <c r="U99" s="38"/>
+      <c r="V99" s="38"/>
+      <c r="W99" s="38"/>
+      <c r="X99" s="38"/>
+      <c r="Y99" s="38"/>
+      <c r="Z99" s="38"/>
+      <c r="AA99" s="38"/>
+      <c r="AB99" s="38"/>
+      <c r="AC99" s="39"/>
+      <c r="AD99" s="39"/>
+      <c r="AE99" s="39"/>
+      <c r="AF99" s="39"/>
+      <c r="AG99" s="39"/>
+      <c r="AH99" s="38"/>
+      <c r="AI99" s="38"/>
+      <c r="AJ99" s="38"/>
+      <c r="AK99" s="38"/>
+      <c r="AL99" s="38"/>
+      <c r="AM99" s="38"/>
+      <c r="AN99" s="38"/>
+      <c r="AO99" s="38"/>
+      <c r="AP99" s="38"/>
+      <c r="AQ99" s="38"/>
+      <c r="AR99" s="40"/>
+      <c r="AS99" s="40"/>
+      <c r="AT99" s="40"/>
+      <c r="AU99" s="40"/>
+      <c r="AV99" s="40"/>
+      <c r="AW99" s="38"/>
+      <c r="AX99" s="38"/>
+      <c r="AY99" s="38"/>
+      <c r="AZ99" s="38"/>
+      <c r="BA99" s="38"/>
+      <c r="BB99" s="38"/>
+      <c r="BC99" s="38"/>
+      <c r="BD99" s="38"/>
+      <c r="BE99" s="38"/>
+      <c r="BF99" s="38"/>
+      <c r="BG99" s="41"/>
+      <c r="BH99" s="41"/>
+      <c r="BI99" s="41"/>
+      <c r="BJ99" s="41"/>
+      <c r="BK99" s="41"/>
+      <c r="BL99" s="38"/>
+      <c r="BM99" s="38"/>
+      <c r="BN99" s="38"/>
+      <c r="BO99" s="38"/>
+      <c r="BP99" s="38"/>
+      <c r="BQ99" s="38"/>
+      <c r="BR99" s="38"/>
+      <c r="BS99" s="38"/>
+      <c r="BT99" s="38"/>
+      <c r="BU99" s="38"/>
+      <c r="BV99" s="38"/>
+      <c r="BW99" s="38"/>
+      <c r="BX99" s="38"/>
+      <c r="BY99" s="38"/>
+      <c r="BZ99" s="38"/>
+    </row>
+    <row r="100" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="35">
+        <v>44837</v>
+      </c>
+      <c r="F100" s="35">
+        <v>44837</v>
+      </c>
+      <c r="G100" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H100" s="37">
+        <v>1</v>
+      </c>
+      <c r="I100" s="42"/>
+      <c r="J100" s="43"/>
+      <c r="K100" s="38"/>
+      <c r="L100" s="38"/>
+      <c r="M100" s="38"/>
+      <c r="N100" s="44"/>
+      <c r="O100" s="44"/>
+      <c r="P100" s="44"/>
+      <c r="Q100" s="44"/>
+      <c r="R100" s="44"/>
+      <c r="S100" s="38"/>
+      <c r="T100" s="38"/>
+      <c r="U100" s="38"/>
+      <c r="V100" s="38"/>
+      <c r="W100" s="38"/>
+      <c r="X100" s="38"/>
+      <c r="Y100" s="38"/>
+      <c r="Z100" s="38"/>
+      <c r="AA100" s="38"/>
+      <c r="AB100" s="38"/>
+      <c r="AC100" s="39"/>
+      <c r="AD100" s="39"/>
+      <c r="AE100" s="39"/>
+      <c r="AF100" s="39"/>
+      <c r="AG100" s="39"/>
+      <c r="AH100" s="38"/>
+      <c r="AI100" s="38"/>
+      <c r="AJ100" s="38"/>
+      <c r="AK100" s="38"/>
+      <c r="AL100" s="38"/>
+      <c r="AM100" s="38"/>
+      <c r="AN100" s="38"/>
+      <c r="AO100" s="38"/>
+      <c r="AP100" s="38"/>
+      <c r="AQ100" s="38"/>
+      <c r="AR100" s="40"/>
+      <c r="AS100" s="40"/>
+      <c r="AT100" s="40"/>
+      <c r="AU100" s="40"/>
+      <c r="AV100" s="40"/>
+      <c r="AW100" s="38"/>
+      <c r="AX100" s="38"/>
+      <c r="AY100" s="38"/>
+      <c r="AZ100" s="38"/>
+      <c r="BA100" s="38"/>
+      <c r="BB100" s="38"/>
+      <c r="BC100" s="38"/>
+      <c r="BD100" s="38"/>
+      <c r="BE100" s="38"/>
+      <c r="BF100" s="38"/>
+      <c r="BG100" s="41"/>
+      <c r="BH100" s="41"/>
+      <c r="BI100" s="41"/>
+      <c r="BJ100" s="41"/>
+      <c r="BK100" s="41"/>
+      <c r="BL100" s="38"/>
+      <c r="BM100" s="38"/>
+      <c r="BN100" s="38"/>
+      <c r="BO100" s="38"/>
+      <c r="BP100" s="38"/>
+      <c r="BQ100" s="38"/>
+      <c r="BR100" s="38"/>
+      <c r="BS100" s="38"/>
+      <c r="BT100" s="38"/>
+      <c r="BU100" s="38"/>
+      <c r="BV100" s="38"/>
+      <c r="BW100" s="38"/>
+      <c r="BX100" s="38"/>
+      <c r="BY100" s="38"/>
+      <c r="BZ100" s="38"/>
+    </row>
+    <row r="101" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="33"/>
+      <c r="C101" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D101" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" s="35">
+        <v>44844</v>
+      </c>
+      <c r="F101" s="35">
+        <v>44844</v>
+      </c>
+      <c r="G101" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H101" s="37">
+        <v>1</v>
+      </c>
+      <c r="I101" s="42"/>
+      <c r="J101" s="43"/>
+      <c r="K101" s="38"/>
+      <c r="L101" s="38"/>
+      <c r="M101" s="38"/>
+      <c r="N101" s="44"/>
+      <c r="O101" s="44"/>
+      <c r="P101" s="44"/>
+      <c r="Q101" s="44"/>
+      <c r="R101" s="44"/>
+      <c r="S101" s="38"/>
+      <c r="T101" s="38"/>
+      <c r="U101" s="38"/>
+      <c r="V101" s="38"/>
+      <c r="W101" s="38"/>
+      <c r="X101" s="38"/>
+      <c r="Y101" s="38"/>
+      <c r="Z101" s="38"/>
+      <c r="AA101" s="38"/>
+      <c r="AB101" s="38"/>
+      <c r="AC101" s="39"/>
+      <c r="AD101" s="39"/>
+      <c r="AE101" s="39"/>
+      <c r="AF101" s="39"/>
+      <c r="AG101" s="39"/>
+      <c r="AH101" s="38"/>
+      <c r="AI101" s="38"/>
+      <c r="AJ101" s="38"/>
+      <c r="AK101" s="38"/>
+      <c r="AL101" s="38"/>
+      <c r="AM101" s="38"/>
+      <c r="AN101" s="38"/>
+      <c r="AO101" s="38"/>
+      <c r="AP101" s="38"/>
+      <c r="AQ101" s="38"/>
+      <c r="AR101" s="40"/>
+      <c r="AS101" s="40"/>
+      <c r="AT101" s="40"/>
+      <c r="AU101" s="40"/>
+      <c r="AV101" s="40"/>
+      <c r="AW101" s="38"/>
+      <c r="AX101" s="38"/>
+      <c r="AY101" s="38"/>
+      <c r="AZ101" s="38"/>
+      <c r="BA101" s="38"/>
+      <c r="BB101" s="38"/>
+      <c r="BC101" s="38"/>
+      <c r="BD101" s="38"/>
+      <c r="BE101" s="38"/>
+      <c r="BF101" s="38"/>
+      <c r="BG101" s="41"/>
+      <c r="BH101" s="41"/>
+      <c r="BI101" s="41"/>
+      <c r="BJ101" s="41"/>
+      <c r="BK101" s="41"/>
+      <c r="BL101" s="38"/>
+      <c r="BM101" s="38"/>
+      <c r="BN101" s="38"/>
+      <c r="BO101" s="38"/>
+      <c r="BP101" s="38"/>
+      <c r="BQ101" s="38"/>
+      <c r="BR101" s="38"/>
+      <c r="BS101" s="38"/>
+      <c r="BT101" s="38"/>
+      <c r="BU101" s="38"/>
+      <c r="BV101" s="38"/>
+      <c r="BW101" s="38"/>
+      <c r="BX101" s="38"/>
+      <c r="BY101" s="38"/>
+      <c r="BZ101" s="38"/>
+    </row>
+    <row r="102" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102" s="105" t="s">
+        <v>99</v>
+      </c>
+      <c r="D102" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="35">
+        <v>44844</v>
+      </c>
+      <c r="F102" s="35">
+        <v>44844</v>
+      </c>
+      <c r="G102" s="36">
+        <f t="shared" ref="G102" si="5">DAYS360(E102,F102)</f>
+        <v>0</v>
+      </c>
+      <c r="H102" s="37">
+        <v>1</v>
+      </c>
+      <c r="I102" s="42"/>
+      <c r="J102" s="43"/>
+      <c r="K102" s="38"/>
+      <c r="L102" s="38"/>
+      <c r="M102" s="38"/>
+      <c r="N102" s="44"/>
+      <c r="O102" s="44"/>
+      <c r="P102" s="44"/>
+      <c r="Q102" s="44"/>
+      <c r="R102" s="44"/>
+      <c r="S102" s="38"/>
+      <c r="T102" s="38"/>
+      <c r="U102" s="38"/>
+      <c r="V102" s="38"/>
+      <c r="W102" s="38"/>
+      <c r="X102" s="38"/>
+      <c r="Y102" s="38"/>
+      <c r="Z102" s="38"/>
+      <c r="AA102" s="38"/>
+      <c r="AB102" s="38"/>
+      <c r="AC102" s="39"/>
+      <c r="AD102" s="39"/>
+      <c r="AE102" s="39"/>
+      <c r="AF102" s="39"/>
+      <c r="AG102" s="39"/>
+      <c r="AH102" s="38"/>
+      <c r="AI102" s="38"/>
+      <c r="AJ102" s="38"/>
+      <c r="AK102" s="38"/>
+      <c r="AL102" s="38"/>
+      <c r="AM102" s="38"/>
+      <c r="AN102" s="38"/>
+      <c r="AO102" s="38"/>
+      <c r="AP102" s="38"/>
+      <c r="AQ102" s="38"/>
+      <c r="AR102" s="40"/>
+      <c r="AS102" s="40"/>
+      <c r="AT102" s="40"/>
+      <c r="AU102" s="40"/>
+      <c r="AV102" s="40"/>
+      <c r="AW102" s="38"/>
+      <c r="AX102" s="38"/>
+      <c r="AY102" s="38"/>
+      <c r="AZ102" s="38"/>
+      <c r="BA102" s="38"/>
+      <c r="BB102" s="38"/>
+      <c r="BC102" s="38"/>
+      <c r="BD102" s="38"/>
+      <c r="BE102" s="38"/>
+      <c r="BF102" s="38"/>
+      <c r="BG102" s="41"/>
+      <c r="BH102" s="41"/>
+      <c r="BI102" s="41"/>
+      <c r="BJ102" s="41"/>
+      <c r="BK102" s="41"/>
+      <c r="BL102" s="38"/>
+      <c r="BM102" s="38"/>
+      <c r="BN102" s="38"/>
+      <c r="BO102" s="38"/>
+      <c r="BP102" s="38"/>
+      <c r="BQ102" s="38"/>
+      <c r="BR102" s="38"/>
+      <c r="BS102" s="38"/>
+      <c r="BT102" s="38"/>
+      <c r="BU102" s="38"/>
+      <c r="BV102" s="38"/>
+      <c r="BW102" s="38"/>
+      <c r="BX102" s="38"/>
+      <c r="BY102" s="38"/>
+      <c r="BZ102" s="38"/>
+    </row>
+    <row r="103" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="106"/>
+      <c r="C103" s="107"/>
+      <c r="D103" s="108"/>
+      <c r="E103" s="109"/>
+      <c r="F103" s="109"/>
+      <c r="G103" s="110"/>
+      <c r="H103" s="111"/>
+      <c r="I103" s="112"/>
+      <c r="J103" s="113"/>
+      <c r="K103" s="114"/>
+      <c r="L103" s="114"/>
+      <c r="M103" s="114"/>
+      <c r="N103" s="115"/>
+      <c r="O103" s="115"/>
+      <c r="P103" s="115"/>
+      <c r="Q103" s="115"/>
+      <c r="R103" s="115"/>
+      <c r="S103" s="114"/>
+      <c r="T103" s="114"/>
+      <c r="U103" s="114"/>
+      <c r="V103" s="114"/>
+      <c r="W103" s="114"/>
+      <c r="X103" s="114"/>
+      <c r="Y103" s="114"/>
+      <c r="Z103" s="114"/>
+      <c r="AA103" s="114"/>
+      <c r="AB103" s="114"/>
+      <c r="AC103" s="116"/>
+      <c r="AD103" s="116"/>
+      <c r="AE103" s="116"/>
+      <c r="AF103" s="116"/>
+      <c r="AG103" s="116"/>
+      <c r="AH103" s="114"/>
+      <c r="AI103" s="114"/>
+      <c r="AJ103" s="114"/>
+      <c r="AK103" s="114"/>
+      <c r="AL103" s="114"/>
+      <c r="AM103" s="114"/>
+      <c r="AN103" s="114"/>
+      <c r="AO103" s="114"/>
+      <c r="AP103" s="114"/>
+      <c r="AQ103" s="114"/>
+      <c r="AR103" s="117"/>
+      <c r="AS103" s="117"/>
+      <c r="AT103" s="117"/>
+      <c r="AU103" s="117"/>
+      <c r="AV103" s="117"/>
+      <c r="AW103" s="114"/>
+      <c r="AX103" s="114"/>
+      <c r="AY103" s="114"/>
+      <c r="AZ103" s="114"/>
+      <c r="BA103" s="114"/>
+      <c r="BB103" s="114"/>
+      <c r="BC103" s="114"/>
+      <c r="BD103" s="114"/>
+      <c r="BE103" s="114"/>
+      <c r="BF103" s="114"/>
+      <c r="BG103" s="118"/>
+      <c r="BH103" s="118"/>
+      <c r="BI103" s="118"/>
+      <c r="BJ103" s="118"/>
+      <c r="BK103" s="118"/>
+      <c r="BL103" s="114"/>
+      <c r="BM103" s="114"/>
+      <c r="BN103" s="114"/>
+      <c r="BO103" s="114"/>
+      <c r="BP103" s="114"/>
+      <c r="BQ103" s="114"/>
+      <c r="BR103" s="114"/>
+      <c r="BS103" s="114"/>
+      <c r="BT103" s="114"/>
+      <c r="BU103" s="114"/>
+      <c r="BV103" s="114"/>
+      <c r="BW103" s="114"/>
+      <c r="BX103" s="114"/>
+      <c r="BY103" s="114"/>
+      <c r="BZ103" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:W9"/>
-    <mergeCell ref="X9:AL9"/>
-    <mergeCell ref="AM9:BA9"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AH10:AL10"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="AR10:AV10"/>
-    <mergeCell ref="AW10:BA10"/>
     <mergeCell ref="BB9:BZ9"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="N10:R10"/>
@@ -9995,9 +10732,29 @@
     <mergeCell ref="BQ10:BU10"/>
     <mergeCell ref="BV10:BZ10"/>
     <mergeCell ref="S10:W10"/>
+    <mergeCell ref="AM9:BA9"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AH10:AL10"/>
+    <mergeCell ref="AM10:AQ10"/>
+    <mergeCell ref="AR10:AV10"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:W9"/>
+    <mergeCell ref="X9:AL9"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
-  <conditionalFormatting sqref="H12:H21 H23:H94">
+  <conditionalFormatting sqref="H12:H21 H23:H103">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -10007,7 +10764,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H21 H23:H94">
+  <conditionalFormatting sqref="H12:H21 H23:H103">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -10023,12 +10780,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10261,15 +11015,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10294,18 +11060,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/planningdocuments/gannt/GanttChart_POS 6.xlsx
+++ b/docs/planningdocuments/gannt/GanttChart_POS 6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CPS353-POS\docs\planningdocuments\gannt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3C5AA1-1000-4348-80C3-12621C9118AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1789DFD3-EE0E-4655-9AAA-8DB0ECF04048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="121">
   <si>
     <t>GANTT CHART</t>
   </si>
@@ -447,21 +447,6 @@
   <si>
     <t>Store Order History</t>
   </si>
-  <si>
-    <t>Generate CSRF Tokens</t>
-  </si>
-  <si>
-    <t>Meet with Denizard to discuss implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allow classes to call password hash function </t>
-  </si>
-  <si>
-    <t>Integrate with User Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use PDO in DB connector, change query to prepare. </t>
-  </si>
 </sst>
 </file>
 
@@ -470,7 +455,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -685,14 +670,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
-  <fills count="26">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -835,12 +814,6 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1024,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1186,6 +1159,54 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1258,21 +1279,28 @@
     <xf numFmtId="3" fontId="24" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1314,45 +1342,73 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1367,8 +1423,17 @@
     <xf numFmtId="0" fontId="27" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="24" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1379,109 +1444,19 @@
     <xf numFmtId="0" fontId="24" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1800,21 +1775,23 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BZ103"/>
+  <dimension ref="A1:BZ94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D28" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI44" sqref="AI44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B33" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="49.21875" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="9" max="78" width="3.44140625" customWidth="1"/>
+    <col min="9" max="35" width="3.44140625" customWidth="1"/>
+    <col min="36" max="36" width="3.44140625" style="114" customWidth="1"/>
+    <col min="37" max="78" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1853,7 +1830,7 @@
       <c r="AG1" s="9"/>
       <c r="AH1" s="9"/>
       <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
+      <c r="AJ1" s="159"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
       <c r="AM1" s="1"/>
@@ -1899,43 +1876,43 @@
     </row>
     <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="136"/>
-      <c r="AA2" s="136"/>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="136"/>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="136"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
       <c r="AF2" s="11"/>
       <c r="AG2" s="11"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
-      <c r="AJ2" s="124"/>
+      <c r="AJ2" s="160"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
       <c r="AM2" s="1"/>
@@ -2015,7 +1992,7 @@
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
+      <c r="AJ3" s="159"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="1"/>
@@ -2061,41 +2038,41 @@
     </row>
     <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="140"/>
-      <c r="D4" s="141" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="P4" s="143" t="s">
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="142"/>
-      <c r="W4" s="142"/>
-      <c r="X4" s="142"/>
-      <c r="Y4" s="142"/>
-      <c r="Z4" s="142"/>
-      <c r="AA4" s="142"/>
-      <c r="AB4" s="142"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -2103,7 +2080,7 @@
       <c r="AG4" s="9"/>
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
+      <c r="AJ4" s="159"/>
       <c r="AK4" s="9"/>
       <c r="AL4" s="9"/>
       <c r="AM4" s="1"/>
@@ -2149,40 +2126,40 @@
     </row>
     <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="140"/>
-      <c r="D5" s="153" t="s">
+      <c r="C5" s="66"/>
+      <c r="D5" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="139" t="s">
+      <c r="I5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="154">
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="69">
         <v>44846</v>
       </c>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="142"/>
-      <c r="S5" s="142"/>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="142"/>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="142"/>
-      <c r="AA5" s="142"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -2191,7 +2168,7 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
+      <c r="AJ5" s="161"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="20"/>
       <c r="AM5" s="1"/>
@@ -2275,7 +2252,7 @@
       <c r="AG6" s="21"/>
       <c r="AH6" s="21"/>
       <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
+      <c r="AJ6" s="107"/>
       <c r="AK6" s="21"/>
       <c r="AL6" s="21"/>
       <c r="AM6" s="21"/>
@@ -2359,7 +2336,7 @@
       <c r="AG7" s="21"/>
       <c r="AH7" s="21"/>
       <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
+      <c r="AJ7" s="107"/>
       <c r="AK7" s="21"/>
       <c r="AL7" s="21"/>
       <c r="AM7" s="21"/>
@@ -2439,7 +2416,7 @@
       <c r="AG8" s="21"/>
       <c r="AH8" s="21"/>
       <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
+      <c r="AJ8" s="107"/>
       <c r="AK8" s="21"/>
       <c r="AL8" s="21"/>
       <c r="AM8" s="21"/>
@@ -2485,205 +2462,205 @@
     </row>
     <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="133" t="s">
+      <c r="D9" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="133" t="s">
+      <c r="E9" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="133" t="s">
+      <c r="F9" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="133" t="s">
+      <c r="G9" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="144" t="s">
+      <c r="H9" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="146"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="147"/>
-      <c r="W9" s="147"/>
-      <c r="X9" s="148"/>
-      <c r="Y9" s="147"/>
-      <c r="Z9" s="147"/>
-      <c r="AA9" s="147"/>
-      <c r="AB9" s="147"/>
-      <c r="AC9" s="147"/>
-      <c r="AD9" s="147"/>
-      <c r="AE9" s="147"/>
-      <c r="AF9" s="147"/>
-      <c r="AG9" s="147"/>
-      <c r="AH9" s="147"/>
-      <c r="AI9" s="147"/>
-      <c r="AJ9" s="147"/>
-      <c r="AK9" s="147"/>
-      <c r="AL9" s="147"/>
-      <c r="AM9" s="148"/>
-      <c r="AN9" s="147"/>
-      <c r="AO9" s="147"/>
-      <c r="AP9" s="147"/>
-      <c r="AQ9" s="147"/>
-      <c r="AR9" s="147"/>
-      <c r="AS9" s="147"/>
-      <c r="AT9" s="147"/>
-      <c r="AU9" s="147"/>
-      <c r="AV9" s="147"/>
-      <c r="AW9" s="147"/>
-      <c r="AX9" s="147"/>
-      <c r="AY9" s="147"/>
-      <c r="AZ9" s="147"/>
-      <c r="BA9" s="147"/>
-      <c r="BB9" s="148"/>
-      <c r="BC9" s="147"/>
-      <c r="BD9" s="147"/>
-      <c r="BE9" s="147"/>
-      <c r="BF9" s="147"/>
-      <c r="BG9" s="147"/>
-      <c r="BH9" s="147"/>
-      <c r="BI9" s="147"/>
-      <c r="BJ9" s="147"/>
-      <c r="BK9" s="147"/>
-      <c r="BL9" s="147"/>
-      <c r="BM9" s="147"/>
-      <c r="BN9" s="147"/>
-      <c r="BO9" s="147"/>
-      <c r="BP9" s="147"/>
-      <c r="BQ9" s="147"/>
-      <c r="BR9" s="147"/>
-      <c r="BS9" s="147"/>
-      <c r="BT9" s="147"/>
-      <c r="BU9" s="147"/>
-      <c r="BV9" s="147"/>
-      <c r="BW9" s="147"/>
-      <c r="BX9" s="147"/>
-      <c r="BY9" s="147"/>
-      <c r="BZ9" s="152"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="60"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="60"/>
+      <c r="AL9" s="60"/>
+      <c r="AM9" s="59"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="60"/>
+      <c r="AP9" s="60"/>
+      <c r="AQ9" s="60"/>
+      <c r="AR9" s="60"/>
+      <c r="AS9" s="60"/>
+      <c r="AT9" s="60"/>
+      <c r="AU9" s="60"/>
+      <c r="AV9" s="60"/>
+      <c r="AW9" s="60"/>
+      <c r="AX9" s="60"/>
+      <c r="AY9" s="60"/>
+      <c r="AZ9" s="60"/>
+      <c r="BA9" s="60"/>
+      <c r="BB9" s="59"/>
+      <c r="BC9" s="60"/>
+      <c r="BD9" s="60"/>
+      <c r="BE9" s="60"/>
+      <c r="BF9" s="60"/>
+      <c r="BG9" s="60"/>
+      <c r="BH9" s="60"/>
+      <c r="BI9" s="60"/>
+      <c r="BJ9" s="60"/>
+      <c r="BK9" s="60"/>
+      <c r="BL9" s="60"/>
+      <c r="BM9" s="60"/>
+      <c r="BN9" s="60"/>
+      <c r="BO9" s="60"/>
+      <c r="BP9" s="60"/>
+      <c r="BQ9" s="60"/>
+      <c r="BR9" s="60"/>
+      <c r="BS9" s="60"/>
+      <c r="BT9" s="60"/>
+      <c r="BU9" s="60"/>
+      <c r="BV9" s="60"/>
+      <c r="BW9" s="60"/>
+      <c r="BX9" s="60"/>
+      <c r="BY9" s="60"/>
+      <c r="BZ9" s="61"/>
     </row>
     <row r="10" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="149" t="s">
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="J10" s="150"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="149" t="s">
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="O10" s="150"/>
-      <c r="P10" s="150"/>
-      <c r="Q10" s="150"/>
-      <c r="R10" s="151"/>
-      <c r="S10" s="149" t="s">
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="T10" s="150"/>
-      <c r="U10" s="150"/>
-      <c r="V10" s="150"/>
-      <c r="W10" s="151"/>
-      <c r="X10" s="149" t="s">
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="Y10" s="150"/>
-      <c r="Z10" s="150"/>
-      <c r="AA10" s="150"/>
-      <c r="AB10" s="151"/>
-      <c r="AC10" s="149" t="s">
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="AD10" s="150"/>
-      <c r="AE10" s="150"/>
-      <c r="AF10" s="150"/>
-      <c r="AG10" s="151"/>
-      <c r="AH10" s="149" t="s">
+      <c r="AD10" s="63"/>
+      <c r="AE10" s="63"/>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="AI10" s="150"/>
-      <c r="AJ10" s="150"/>
-      <c r="AK10" s="150"/>
-      <c r="AL10" s="151"/>
-      <c r="AM10" s="149" t="s">
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="63"/>
+      <c r="AK10" s="63"/>
+      <c r="AL10" s="64"/>
+      <c r="AM10" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="AN10" s="150"/>
-      <c r="AO10" s="150"/>
-      <c r="AP10" s="150"/>
-      <c r="AQ10" s="151"/>
-      <c r="AR10" s="149" t="s">
+      <c r="AN10" s="63"/>
+      <c r="AO10" s="63"/>
+      <c r="AP10" s="63"/>
+      <c r="AQ10" s="64"/>
+      <c r="AR10" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="AS10" s="150"/>
-      <c r="AT10" s="150"/>
-      <c r="AU10" s="150"/>
-      <c r="AV10" s="151"/>
-      <c r="AW10" s="149" t="s">
+      <c r="AS10" s="63"/>
+      <c r="AT10" s="63"/>
+      <c r="AU10" s="63"/>
+      <c r="AV10" s="64"/>
+      <c r="AW10" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="AX10" s="150"/>
-      <c r="AY10" s="150"/>
-      <c r="AZ10" s="150"/>
-      <c r="BA10" s="151"/>
-      <c r="BB10" s="149" t="s">
+      <c r="AX10" s="63"/>
+      <c r="AY10" s="63"/>
+      <c r="AZ10" s="63"/>
+      <c r="BA10" s="64"/>
+      <c r="BB10" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="BC10" s="150"/>
-      <c r="BD10" s="150"/>
-      <c r="BE10" s="150"/>
-      <c r="BF10" s="151"/>
-      <c r="BG10" s="149" t="s">
+      <c r="BC10" s="63"/>
+      <c r="BD10" s="63"/>
+      <c r="BE10" s="63"/>
+      <c r="BF10" s="64"/>
+      <c r="BG10" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="BH10" s="150"/>
-      <c r="BI10" s="150"/>
-      <c r="BJ10" s="150"/>
-      <c r="BK10" s="151"/>
-      <c r="BL10" s="149" t="s">
+      <c r="BH10" s="63"/>
+      <c r="BI10" s="63"/>
+      <c r="BJ10" s="63"/>
+      <c r="BK10" s="64"/>
+      <c r="BL10" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="BM10" s="150"/>
-      <c r="BN10" s="150"/>
-      <c r="BO10" s="150"/>
-      <c r="BP10" s="151"/>
-      <c r="BQ10" s="149" t="s">
+      <c r="BM10" s="63"/>
+      <c r="BN10" s="63"/>
+      <c r="BO10" s="63"/>
+      <c r="BP10" s="64"/>
+      <c r="BQ10" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="BR10" s="150"/>
-      <c r="BS10" s="150"/>
-      <c r="BT10" s="150"/>
-      <c r="BU10" s="151"/>
-      <c r="BV10" s="149" t="s">
+      <c r="BR10" s="63"/>
+      <c r="BS10" s="63"/>
+      <c r="BT10" s="63"/>
+      <c r="BU10" s="64"/>
+      <c r="BV10" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="BW10" s="150"/>
-      <c r="BX10" s="150"/>
-      <c r="BY10" s="150"/>
-      <c r="BZ10" s="151"/>
+      <c r="BW10" s="63"/>
+      <c r="BX10" s="63"/>
+      <c r="BY10" s="63"/>
+      <c r="BZ10" s="64"/>
     </row>
     <row r="11" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
@@ -2779,7 +2756,7 @@
       <c r="AI11" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="AJ11" s="125" t="s">
+      <c r="AJ11" s="163" t="s">
         <v>107</v>
       </c>
       <c r="AK11" s="31" t="s">
@@ -2960,7 +2937,7 @@
       <c r="AG12" s="38"/>
       <c r="AH12" s="38"/>
       <c r="AI12" s="38"/>
-      <c r="AJ12" s="38"/>
+      <c r="AJ12" s="139"/>
       <c r="AK12" s="38"/>
       <c r="AL12" s="38"/>
       <c r="AM12" s="38"/>
@@ -3055,7 +3032,7 @@
       <c r="AG13" s="38"/>
       <c r="AH13" s="38"/>
       <c r="AI13" s="38"/>
-      <c r="AJ13" s="38"/>
+      <c r="AJ13" s="139"/>
       <c r="AK13" s="38"/>
       <c r="AL13" s="38"/>
       <c r="AM13" s="38"/>
@@ -3150,7 +3127,7 @@
       <c r="AG14" s="38"/>
       <c r="AH14" s="38"/>
       <c r="AI14" s="38"/>
-      <c r="AJ14" s="38"/>
+      <c r="AJ14" s="139"/>
       <c r="AK14" s="38"/>
       <c r="AL14" s="38"/>
       <c r="AM14" s="38"/>
@@ -3245,7 +3222,7 @@
       <c r="AG15" s="38"/>
       <c r="AH15" s="38"/>
       <c r="AI15" s="38"/>
-      <c r="AJ15" s="38"/>
+      <c r="AJ15" s="139"/>
       <c r="AK15" s="38"/>
       <c r="AL15" s="38"/>
       <c r="AM15" s="38"/>
@@ -3340,7 +3317,7 @@
       <c r="AG16" s="38"/>
       <c r="AH16" s="38"/>
       <c r="AI16" s="38"/>
-      <c r="AJ16" s="38"/>
+      <c r="AJ16" s="139"/>
       <c r="AK16" s="38"/>
       <c r="AL16" s="38"/>
       <c r="AM16" s="38"/>
@@ -3435,7 +3412,7 @@
       <c r="AG17" s="38"/>
       <c r="AH17" s="38"/>
       <c r="AI17" s="38"/>
-      <c r="AJ17" s="38"/>
+      <c r="AJ17" s="139"/>
       <c r="AK17" s="38"/>
       <c r="AL17" s="38"/>
       <c r="AM17" s="38"/>
@@ -3530,7 +3507,7 @@
       <c r="AG18" s="38"/>
       <c r="AH18" s="38"/>
       <c r="AI18" s="38"/>
-      <c r="AJ18" s="38"/>
+      <c r="AJ18" s="139"/>
       <c r="AK18" s="38"/>
       <c r="AL18" s="38"/>
       <c r="AM18" s="38"/>
@@ -3625,7 +3602,7 @@
       <c r="AG19" s="38"/>
       <c r="AH19" s="38"/>
       <c r="AI19" s="38"/>
-      <c r="AJ19" s="38"/>
+      <c r="AJ19" s="139"/>
       <c r="AK19" s="38"/>
       <c r="AL19" s="38"/>
       <c r="AM19" s="38"/>
@@ -3705,7 +3682,7 @@
       <c r="AG20" s="38"/>
       <c r="AH20" s="38"/>
       <c r="AI20" s="38"/>
-      <c r="AJ20" s="38"/>
+      <c r="AJ20" s="139"/>
       <c r="AK20" s="38"/>
       <c r="AL20" s="38"/>
       <c r="AM20" s="38"/>
@@ -3785,7 +3762,7 @@
       <c r="AG21" s="38"/>
       <c r="AH21" s="38"/>
       <c r="AI21" s="38"/>
-      <c r="AJ21" s="38"/>
+      <c r="AJ21" s="139"/>
       <c r="AK21" s="38"/>
       <c r="AL21" s="38"/>
       <c r="AM21" s="38"/>
@@ -3869,7 +3846,7 @@
       <c r="AG22" s="29"/>
       <c r="AH22" s="29"/>
       <c r="AI22" s="29"/>
-      <c r="AJ22" s="126"/>
+      <c r="AJ22" s="164"/>
       <c r="AK22" s="29"/>
       <c r="AL22" s="29"/>
       <c r="AM22" s="29"/>
@@ -3959,7 +3936,7 @@
       <c r="AG23" s="39"/>
       <c r="AH23" s="45"/>
       <c r="AI23" s="45"/>
-      <c r="AJ23" s="38"/>
+      <c r="AJ23" s="139"/>
       <c r="AK23" s="45"/>
       <c r="AL23" s="45"/>
       <c r="AM23" s="45"/>
@@ -4050,7 +4027,7 @@
       <c r="AG24" s="39"/>
       <c r="AH24" s="38"/>
       <c r="AI24" s="38"/>
-      <c r="AJ24" s="38"/>
+      <c r="AJ24" s="139"/>
       <c r="AK24" s="45"/>
       <c r="AL24" s="45"/>
       <c r="AM24" s="45"/>
@@ -4141,7 +4118,7 @@
       <c r="AG25" s="39"/>
       <c r="AH25" s="38"/>
       <c r="AI25" s="38"/>
-      <c r="AJ25" s="38"/>
+      <c r="AJ25" s="139"/>
       <c r="AK25" s="45"/>
       <c r="AL25" s="45"/>
       <c r="AM25" s="45"/>
@@ -4231,7 +4208,7 @@
       <c r="AG26" s="39"/>
       <c r="AH26" s="38"/>
       <c r="AI26" s="38"/>
-      <c r="AJ26" s="38"/>
+      <c r="AJ26" s="139"/>
       <c r="AK26" s="45"/>
       <c r="AL26" s="45"/>
       <c r="AM26" s="45"/>
@@ -4322,7 +4299,7 @@
       <c r="AG27" s="39"/>
       <c r="AH27" s="38"/>
       <c r="AI27" s="38"/>
-      <c r="AJ27" s="38"/>
+      <c r="AJ27" s="139"/>
       <c r="AK27" s="45"/>
       <c r="AL27" s="45"/>
       <c r="AM27" s="45"/>
@@ -4413,7 +4390,7 @@
       <c r="AG28" s="39"/>
       <c r="AH28" s="38"/>
       <c r="AI28" s="38"/>
-      <c r="AJ28" s="38"/>
+      <c r="AJ28" s="139"/>
       <c r="AK28" s="45"/>
       <c r="AL28" s="45"/>
       <c r="AM28" s="45"/>
@@ -4503,7 +4480,7 @@
       <c r="AG29" s="39"/>
       <c r="AH29" s="38"/>
       <c r="AI29" s="38"/>
-      <c r="AJ29" s="38"/>
+      <c r="AJ29" s="139"/>
       <c r="AK29" s="45"/>
       <c r="AL29" s="45"/>
       <c r="AM29" s="45"/>
@@ -4594,7 +4571,7 @@
       <c r="AG30" s="39"/>
       <c r="AH30" s="38"/>
       <c r="AI30" s="38"/>
-      <c r="AJ30" s="38"/>
+      <c r="AJ30" s="139"/>
       <c r="AK30" s="45"/>
       <c r="AL30" s="45"/>
       <c r="AM30" s="45"/>
@@ -4685,7 +4662,7 @@
       <c r="AG31" s="39"/>
       <c r="AH31" s="38"/>
       <c r="AI31" s="38"/>
-      <c r="AJ31" s="38"/>
+      <c r="AJ31" s="139"/>
       <c r="AK31" s="45"/>
       <c r="AL31" s="45"/>
       <c r="AM31" s="45"/>
@@ -4775,7 +4752,7 @@
       <c r="AG32" s="39"/>
       <c r="AH32" s="38"/>
       <c r="AI32" s="38"/>
-      <c r="AJ32" s="38"/>
+      <c r="AJ32" s="139"/>
       <c r="AK32" s="45"/>
       <c r="AL32" s="45"/>
       <c r="AM32" s="45"/>
@@ -4865,7 +4842,7 @@
       <c r="AG33" s="39"/>
       <c r="AH33" s="38"/>
       <c r="AI33" s="38"/>
-      <c r="AJ33" s="38"/>
+      <c r="AJ33" s="139"/>
       <c r="AK33" s="45"/>
       <c r="AL33" s="45"/>
       <c r="AM33" s="45"/>
@@ -4947,7 +4924,7 @@
       <c r="AG34" s="39"/>
       <c r="AH34" s="38"/>
       <c r="AI34" s="38"/>
-      <c r="AJ34" s="38"/>
+      <c r="AJ34" s="139"/>
       <c r="AK34" s="38"/>
       <c r="AL34" s="38"/>
       <c r="AM34" s="38"/>
@@ -5031,7 +5008,7 @@
       <c r="AG35" s="29"/>
       <c r="AH35" s="29"/>
       <c r="AI35" s="29"/>
-      <c r="AJ35" s="126"/>
+      <c r="AJ35" s="164"/>
       <c r="AK35" s="29"/>
       <c r="AL35" s="29"/>
       <c r="AM35" s="29"/>
@@ -5075,1190 +5052,1194 @@
       <c r="BY35" s="29"/>
       <c r="BZ35" s="29"/>
     </row>
-    <row r="36" spans="1:78" s="75" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="80" t="s">
+    <row r="36" spans="1:78" s="97" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="100"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="82"/>
-      <c r="T36" s="82"/>
-      <c r="U36" s="82"/>
-      <c r="V36" s="82"/>
-      <c r="W36" s="82"/>
-      <c r="X36" s="82"/>
-      <c r="Y36" s="82"/>
-      <c r="Z36" s="82"/>
-      <c r="AA36" s="82"/>
-      <c r="AB36" s="82"/>
-      <c r="AC36" s="82"/>
-      <c r="AD36" s="82"/>
-      <c r="AE36" s="82"/>
-      <c r="AF36" s="82"/>
-      <c r="AG36" s="82"/>
-      <c r="AH36" s="82"/>
-      <c r="AI36" s="82"/>
-      <c r="AJ36" s="127"/>
-      <c r="AK36" s="82"/>
-      <c r="AL36" s="82"/>
-      <c r="AM36" s="82"/>
-      <c r="AN36" s="82"/>
-      <c r="AO36" s="82"/>
-      <c r="AP36" s="82"/>
-      <c r="AQ36" s="82"/>
-      <c r="AR36" s="82"/>
-      <c r="AS36" s="82"/>
-      <c r="AT36" s="82"/>
-      <c r="AU36" s="82"/>
-      <c r="AV36" s="82"/>
-      <c r="AW36" s="82"/>
-      <c r="AX36" s="82"/>
-      <c r="AY36" s="82"/>
-      <c r="AZ36" s="82"/>
-      <c r="BA36" s="82"/>
-      <c r="BB36" s="82"/>
-      <c r="BC36" s="82"/>
-      <c r="BD36" s="82"/>
-      <c r="BE36" s="82"/>
-      <c r="BF36" s="82"/>
-      <c r="BG36" s="82"/>
-      <c r="BH36" s="82"/>
-      <c r="BI36" s="82"/>
-      <c r="BJ36" s="82"/>
-      <c r="BK36" s="82"/>
-      <c r="BL36" s="82"/>
-      <c r="BM36" s="82"/>
-      <c r="BN36" s="82"/>
-      <c r="BO36" s="82"/>
-      <c r="BP36" s="82"/>
-      <c r="BQ36" s="82"/>
-      <c r="BR36" s="82"/>
-      <c r="BS36" s="82"/>
-      <c r="BT36" s="82"/>
-      <c r="BU36" s="82"/>
-      <c r="BV36" s="82"/>
-      <c r="BW36" s="82"/>
-      <c r="BX36" s="82"/>
-      <c r="BY36" s="82"/>
-      <c r="BZ36" s="82"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="104"/>
+      <c r="N36" s="104"/>
+      <c r="O36" s="104"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="104"/>
+      <c r="R36" s="104"/>
+      <c r="S36" s="104"/>
+      <c r="T36" s="104"/>
+      <c r="U36" s="104"/>
+      <c r="V36" s="104"/>
+      <c r="W36" s="104"/>
+      <c r="X36" s="104"/>
+      <c r="Y36" s="104"/>
+      <c r="Z36" s="104"/>
+      <c r="AA36" s="104"/>
+      <c r="AB36" s="104"/>
+      <c r="AC36" s="104"/>
+      <c r="AD36" s="104"/>
+      <c r="AE36" s="104"/>
+      <c r="AF36" s="104"/>
+      <c r="AG36" s="104"/>
+      <c r="AH36" s="104"/>
+      <c r="AI36" s="104"/>
+      <c r="AJ36" s="165"/>
+      <c r="AK36" s="104"/>
+      <c r="AL36" s="104"/>
+      <c r="AM36" s="104"/>
+      <c r="AN36" s="104"/>
+      <c r="AO36" s="104"/>
+      <c r="AP36" s="104"/>
+      <c r="AQ36" s="104"/>
+      <c r="AR36" s="104"/>
+      <c r="AS36" s="104"/>
+      <c r="AT36" s="104"/>
+      <c r="AU36" s="104"/>
+      <c r="AV36" s="104"/>
+      <c r="AW36" s="104"/>
+      <c r="AX36" s="104"/>
+      <c r="AY36" s="104"/>
+      <c r="AZ36" s="104"/>
+      <c r="BA36" s="104"/>
+      <c r="BB36" s="104"/>
+      <c r="BC36" s="104"/>
+      <c r="BD36" s="104"/>
+      <c r="BE36" s="104"/>
+      <c r="BF36" s="104"/>
+      <c r="BG36" s="104"/>
+      <c r="BH36" s="104"/>
+      <c r="BI36" s="104"/>
+      <c r="BJ36" s="104"/>
+      <c r="BK36" s="104"/>
+      <c r="BL36" s="104"/>
+      <c r="BM36" s="104"/>
+      <c r="BN36" s="104"/>
+      <c r="BO36" s="104"/>
+      <c r="BP36" s="104"/>
+      <c r="BQ36" s="104"/>
+      <c r="BR36" s="104"/>
+      <c r="BS36" s="104"/>
+      <c r="BT36" s="104"/>
+      <c r="BU36" s="104"/>
+      <c r="BV36" s="104"/>
+      <c r="BW36" s="104"/>
+      <c r="BX36" s="104"/>
+      <c r="BY36" s="104"/>
+      <c r="BZ36" s="104"/>
     </row>
-    <row r="37" spans="1:78" s="104" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="155"/>
-      <c r="B37" s="156"/>
-      <c r="C37" s="167" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="157"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="157"/>
-      <c r="I37" s="158"/>
-      <c r="J37" s="159"/>
-      <c r="K37" s="160"/>
-      <c r="L37" s="160"/>
-      <c r="M37" s="158"/>
-      <c r="N37" s="158"/>
-      <c r="O37" s="158"/>
-      <c r="P37" s="158"/>
-      <c r="Q37" s="158"/>
-      <c r="R37" s="158"/>
-      <c r="S37" s="158"/>
-      <c r="T37" s="158"/>
-      <c r="U37" s="158"/>
-      <c r="V37" s="158"/>
-      <c r="W37" s="158"/>
-      <c r="X37" s="158"/>
-      <c r="Y37" s="158"/>
-      <c r="Z37" s="158"/>
-      <c r="AA37" s="158"/>
-      <c r="AB37" s="158"/>
-      <c r="AC37" s="158"/>
-      <c r="AD37" s="158"/>
-      <c r="AE37" s="158"/>
-      <c r="AF37" s="158"/>
-      <c r="AG37" s="158"/>
-      <c r="AH37" s="158"/>
-      <c r="AI37" s="158"/>
-      <c r="AJ37" s="161"/>
-      <c r="AK37" s="158"/>
-      <c r="AL37" s="158"/>
-      <c r="AM37" s="158"/>
-      <c r="AN37" s="158"/>
-      <c r="AO37" s="158"/>
-      <c r="AP37" s="158"/>
-      <c r="AQ37" s="158"/>
-      <c r="AR37" s="158"/>
-      <c r="AS37" s="158"/>
-      <c r="AT37" s="158"/>
-      <c r="AU37" s="158"/>
-      <c r="AV37" s="158"/>
-      <c r="AW37" s="158"/>
-      <c r="AX37" s="158"/>
-      <c r="AY37" s="158"/>
-      <c r="AZ37" s="158"/>
-      <c r="BA37" s="158"/>
-      <c r="BB37" s="158"/>
-      <c r="BC37" s="158"/>
-      <c r="BD37" s="158"/>
-      <c r="BE37" s="158"/>
-      <c r="BF37" s="158"/>
-      <c r="BG37" s="158"/>
-      <c r="BH37" s="158"/>
-      <c r="BI37" s="158"/>
-      <c r="BJ37" s="158"/>
-      <c r="BK37" s="158"/>
-      <c r="BL37" s="158"/>
-      <c r="BM37" s="158"/>
-      <c r="BN37" s="158"/>
-      <c r="BO37" s="158"/>
-      <c r="BP37" s="158"/>
-      <c r="BQ37" s="158"/>
-      <c r="BR37" s="158"/>
-      <c r="BS37" s="158"/>
-      <c r="BT37" s="158"/>
-      <c r="BU37" s="158"/>
-      <c r="BV37" s="158"/>
-      <c r="BW37" s="158"/>
-      <c r="BX37" s="158"/>
-      <c r="BY37" s="158"/>
-      <c r="BZ37" s="158"/>
+    <row r="37" spans="1:78" s="114" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="107"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="154" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="112"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="111"/>
+      <c r="P37" s="111"/>
+      <c r="Q37" s="111"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="111"/>
+      <c r="T37" s="111"/>
+      <c r="U37" s="111"/>
+      <c r="V37" s="111"/>
+      <c r="W37" s="111"/>
+      <c r="X37" s="111"/>
+      <c r="Y37" s="111"/>
+      <c r="Z37" s="111"/>
+      <c r="AA37" s="111"/>
+      <c r="AB37" s="111"/>
+      <c r="AC37" s="111"/>
+      <c r="AD37" s="111"/>
+      <c r="AE37" s="111"/>
+      <c r="AF37" s="111"/>
+      <c r="AG37" s="111"/>
+      <c r="AH37" s="111"/>
+      <c r="AI37" s="111"/>
+      <c r="AJ37" s="155"/>
+      <c r="AK37" s="155"/>
+      <c r="AL37" s="156"/>
+      <c r="AM37" s="111"/>
+      <c r="AN37" s="111"/>
+      <c r="AO37" s="111"/>
+      <c r="AP37" s="111"/>
+      <c r="AQ37" s="111"/>
+      <c r="AR37" s="111"/>
+      <c r="AS37" s="111"/>
+      <c r="AT37" s="111"/>
+      <c r="AU37" s="111"/>
+      <c r="AV37" s="111"/>
+      <c r="AW37" s="111"/>
+      <c r="AX37" s="111"/>
+      <c r="AY37" s="111"/>
+      <c r="AZ37" s="111"/>
+      <c r="BA37" s="111"/>
+      <c r="BB37" s="111"/>
+      <c r="BC37" s="111"/>
+      <c r="BD37" s="111"/>
+      <c r="BE37" s="111"/>
+      <c r="BF37" s="111"/>
+      <c r="BG37" s="111"/>
+      <c r="BH37" s="111"/>
+      <c r="BI37" s="111"/>
+      <c r="BJ37" s="111"/>
+      <c r="BK37" s="111"/>
+      <c r="BL37" s="111"/>
+      <c r="BM37" s="111"/>
+      <c r="BN37" s="111"/>
+      <c r="BO37" s="111"/>
+      <c r="BP37" s="111"/>
+      <c r="BQ37" s="111"/>
+      <c r="BR37" s="111"/>
+      <c r="BS37" s="111"/>
+      <c r="BT37" s="111"/>
+      <c r="BU37" s="111"/>
+      <c r="BV37" s="111"/>
+      <c r="BW37" s="111"/>
+      <c r="BX37" s="111"/>
+      <c r="BY37" s="111"/>
+      <c r="BZ37" s="111"/>
     </row>
-    <row r="38" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="119" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="87"/>
-      <c r="S38" s="87"/>
-      <c r="T38" s="87"/>
-      <c r="U38" s="87"/>
-      <c r="V38" s="87"/>
-      <c r="W38" s="87"/>
-      <c r="X38" s="87"/>
-      <c r="Y38" s="87"/>
-      <c r="Z38" s="87"/>
-      <c r="AA38" s="87"/>
-      <c r="AB38" s="87"/>
-      <c r="AC38" s="87"/>
-      <c r="AD38" s="87"/>
-      <c r="AE38" s="87"/>
-      <c r="AF38" s="87"/>
-      <c r="AG38" s="87"/>
-      <c r="AH38" s="87"/>
-      <c r="AI38" s="87"/>
-      <c r="AJ38" s="120"/>
-      <c r="AK38" s="120"/>
-      <c r="AL38" s="121"/>
-      <c r="AM38" s="87"/>
-      <c r="AN38" s="87"/>
-      <c r="AO38" s="87"/>
-      <c r="AP38" s="87"/>
-      <c r="AQ38" s="87"/>
-      <c r="AR38" s="87"/>
-      <c r="AS38" s="87"/>
-      <c r="AT38" s="87"/>
-      <c r="AU38" s="87"/>
-      <c r="AV38" s="87"/>
-      <c r="AW38" s="87"/>
-      <c r="AX38" s="87"/>
-      <c r="AY38" s="87"/>
-      <c r="AZ38" s="87"/>
-      <c r="BA38" s="87"/>
-      <c r="BB38" s="87"/>
-      <c r="BC38" s="87"/>
-      <c r="BD38" s="87"/>
-      <c r="BE38" s="87"/>
-      <c r="BF38" s="87"/>
-      <c r="BG38" s="87"/>
-      <c r="BH38" s="87"/>
-      <c r="BI38" s="87"/>
-      <c r="BJ38" s="87"/>
-      <c r="BK38" s="87"/>
-      <c r="BL38" s="87"/>
-      <c r="BM38" s="87"/>
-      <c r="BN38" s="87"/>
-      <c r="BO38" s="87"/>
-      <c r="BP38" s="87"/>
-      <c r="BQ38" s="87"/>
-      <c r="BR38" s="87"/>
-      <c r="BS38" s="87"/>
-      <c r="BT38" s="87"/>
-      <c r="BU38" s="87"/>
-      <c r="BV38" s="87"/>
-      <c r="BW38" s="87"/>
-      <c r="BX38" s="87"/>
-      <c r="BY38" s="87"/>
-      <c r="BZ38" s="87"/>
+    <row r="38" spans="1:78" s="114" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="107"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="154" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="112"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="113"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="111"/>
+      <c r="P38" s="111"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="111"/>
+      <c r="U38" s="111"/>
+      <c r="V38" s="111"/>
+      <c r="W38" s="111"/>
+      <c r="X38" s="111"/>
+      <c r="Y38" s="111"/>
+      <c r="Z38" s="111"/>
+      <c r="AA38" s="111"/>
+      <c r="AB38" s="111"/>
+      <c r="AC38" s="111"/>
+      <c r="AD38" s="111"/>
+      <c r="AE38" s="111"/>
+      <c r="AF38" s="111"/>
+      <c r="AG38" s="111"/>
+      <c r="AH38" s="111"/>
+      <c r="AI38" s="111"/>
+      <c r="AJ38" s="155"/>
+      <c r="AK38" s="155"/>
+      <c r="AL38" s="156"/>
+      <c r="AM38" s="111"/>
+      <c r="AN38" s="111"/>
+      <c r="AO38" s="111"/>
+      <c r="AP38" s="111"/>
+      <c r="AQ38" s="111"/>
+      <c r="AR38" s="111"/>
+      <c r="AS38" s="111"/>
+      <c r="AT38" s="111"/>
+      <c r="AU38" s="111"/>
+      <c r="AV38" s="111"/>
+      <c r="AW38" s="111"/>
+      <c r="AX38" s="111"/>
+      <c r="AY38" s="111"/>
+      <c r="AZ38" s="111"/>
+      <c r="BA38" s="111"/>
+      <c r="BB38" s="111"/>
+      <c r="BC38" s="111"/>
+      <c r="BD38" s="111"/>
+      <c r="BE38" s="111"/>
+      <c r="BF38" s="111"/>
+      <c r="BG38" s="111"/>
+      <c r="BH38" s="111"/>
+      <c r="BI38" s="111"/>
+      <c r="BJ38" s="111"/>
+      <c r="BK38" s="111"/>
+      <c r="BL38" s="111"/>
+      <c r="BM38" s="111"/>
+      <c r="BN38" s="111"/>
+      <c r="BO38" s="111"/>
+      <c r="BP38" s="111"/>
+      <c r="BQ38" s="111"/>
+      <c r="BR38" s="111"/>
+      <c r="BS38" s="111"/>
+      <c r="BT38" s="111"/>
+      <c r="BU38" s="111"/>
+      <c r="BV38" s="111"/>
+      <c r="BW38" s="111"/>
+      <c r="BX38" s="111"/>
+      <c r="BY38" s="111"/>
+      <c r="BZ38" s="111"/>
     </row>
-    <row r="39" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="119" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="87"/>
-      <c r="U39" s="87"/>
-      <c r="V39" s="87"/>
-      <c r="W39" s="87"/>
-      <c r="X39" s="87"/>
-      <c r="Y39" s="87"/>
-      <c r="Z39" s="87"/>
-      <c r="AA39" s="87"/>
-      <c r="AB39" s="87"/>
-      <c r="AC39" s="87"/>
-      <c r="AD39" s="87"/>
-      <c r="AE39" s="87"/>
-      <c r="AF39" s="87"/>
-      <c r="AG39" s="87"/>
-      <c r="AH39" s="87"/>
-      <c r="AI39" s="87"/>
-      <c r="AJ39" s="120"/>
-      <c r="AK39" s="120"/>
-      <c r="AL39" s="121"/>
-      <c r="AM39" s="120"/>
-      <c r="AN39" s="120"/>
-      <c r="AO39" s="120"/>
-      <c r="AP39" s="120"/>
-      <c r="AQ39" s="120"/>
-      <c r="AR39" s="121"/>
-      <c r="AS39" s="87"/>
-      <c r="AT39" s="87"/>
-      <c r="AU39" s="87"/>
-      <c r="AV39" s="87"/>
-      <c r="AW39" s="87"/>
-      <c r="AX39" s="87"/>
-      <c r="AY39" s="87"/>
-      <c r="AZ39" s="87"/>
-      <c r="BA39" s="87"/>
-      <c r="BB39" s="87"/>
-      <c r="BC39" s="87"/>
-      <c r="BD39" s="87"/>
-      <c r="BE39" s="87"/>
-      <c r="BF39" s="87"/>
-      <c r="BG39" s="87"/>
-      <c r="BH39" s="87"/>
-      <c r="BI39" s="87"/>
-      <c r="BJ39" s="87"/>
-      <c r="BK39" s="87"/>
-      <c r="BL39" s="87"/>
-      <c r="BM39" s="87"/>
-      <c r="BN39" s="87"/>
-      <c r="BO39" s="87"/>
-      <c r="BP39" s="87"/>
-      <c r="BQ39" s="87"/>
-      <c r="BR39" s="87"/>
-      <c r="BS39" s="87"/>
-      <c r="BT39" s="87"/>
-      <c r="BU39" s="87"/>
-      <c r="BV39" s="87"/>
-      <c r="BW39" s="87"/>
-      <c r="BX39" s="87"/>
-      <c r="BY39" s="87"/>
-      <c r="BZ39" s="87"/>
+    <row r="39" spans="1:78" s="114" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="107"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="112"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="111"/>
+      <c r="P39" s="111"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="111"/>
+      <c r="U39" s="111"/>
+      <c r="V39" s="111"/>
+      <c r="W39" s="111"/>
+      <c r="X39" s="111"/>
+      <c r="Y39" s="111"/>
+      <c r="Z39" s="111"/>
+      <c r="AA39" s="111"/>
+      <c r="AB39" s="111"/>
+      <c r="AC39" s="111"/>
+      <c r="AD39" s="111"/>
+      <c r="AE39" s="111"/>
+      <c r="AF39" s="111"/>
+      <c r="AG39" s="111"/>
+      <c r="AH39" s="111"/>
+      <c r="AI39" s="111"/>
+      <c r="AJ39" s="111"/>
+      <c r="AK39" s="111"/>
+      <c r="AL39" s="111"/>
+      <c r="AM39" s="111"/>
+      <c r="AN39" s="111"/>
+      <c r="AO39" s="111"/>
+      <c r="AP39" s="111"/>
+      <c r="AQ39" s="111"/>
+      <c r="AR39" s="111"/>
+      <c r="AS39" s="111"/>
+      <c r="AT39" s="111"/>
+      <c r="AU39" s="111"/>
+      <c r="AV39" s="111"/>
+      <c r="AW39" s="111"/>
+      <c r="AX39" s="111"/>
+      <c r="AY39" s="111"/>
+      <c r="AZ39" s="111"/>
+      <c r="BA39" s="111"/>
+      <c r="BB39" s="111"/>
+      <c r="BC39" s="111"/>
+      <c r="BD39" s="111"/>
+      <c r="BE39" s="111"/>
+      <c r="BF39" s="111"/>
+      <c r="BG39" s="111"/>
+      <c r="BH39" s="111"/>
+      <c r="BI39" s="111"/>
+      <c r="BJ39" s="111"/>
+      <c r="BK39" s="111"/>
+      <c r="BL39" s="111"/>
+      <c r="BM39" s="111"/>
+      <c r="BN39" s="111"/>
+      <c r="BO39" s="111"/>
+      <c r="BP39" s="111"/>
+      <c r="BQ39" s="111"/>
+      <c r="BR39" s="111"/>
+      <c r="BS39" s="111"/>
+      <c r="BT39" s="111"/>
+      <c r="BU39" s="111"/>
+      <c r="BV39" s="111"/>
+      <c r="BW39" s="111"/>
+      <c r="BX39" s="111"/>
+      <c r="BY39" s="111"/>
+      <c r="BZ39" s="111"/>
     </row>
-    <row r="40" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="119" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
+    <row r="40" spans="1:78" s="97" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="94"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="96"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="85"/>
       <c r="H40" s="86"/>
       <c r="I40" s="87"/>
       <c r="J40" s="88"/>
       <c r="K40" s="89"/>
       <c r="L40" s="89"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="87"/>
-      <c r="T40" s="87"/>
-      <c r="U40" s="87"/>
-      <c r="V40" s="87"/>
-      <c r="W40" s="87"/>
-      <c r="X40" s="87"/>
-      <c r="Y40" s="87"/>
-      <c r="Z40" s="87"/>
-      <c r="AA40" s="87"/>
-      <c r="AB40" s="87"/>
-      <c r="AC40" s="87"/>
-      <c r="AD40" s="87"/>
-      <c r="AE40" s="87"/>
-      <c r="AF40" s="87"/>
-      <c r="AG40" s="87"/>
-      <c r="AH40" s="87"/>
-      <c r="AI40" s="87"/>
-      <c r="AJ40" s="120"/>
-      <c r="AK40" s="120"/>
-      <c r="AL40" s="121"/>
-      <c r="AM40" s="87"/>
-      <c r="AN40" s="87"/>
-      <c r="AO40" s="87"/>
-      <c r="AP40" s="87"/>
-      <c r="AQ40" s="120"/>
-      <c r="AR40" s="120"/>
-      <c r="AS40" s="120"/>
-      <c r="AT40" s="168"/>
-      <c r="AU40" s="87"/>
-      <c r="AV40" s="87"/>
-      <c r="AW40" s="87"/>
-      <c r="AX40" s="87"/>
-      <c r="AY40" s="87"/>
-      <c r="AZ40" s="87"/>
-      <c r="BA40" s="87"/>
-      <c r="BB40" s="87"/>
-      <c r="BC40" s="87"/>
-      <c r="BD40" s="87"/>
-      <c r="BE40" s="87"/>
-      <c r="BF40" s="87"/>
-      <c r="BG40" s="87"/>
-      <c r="BH40" s="87"/>
-      <c r="BI40" s="87"/>
-      <c r="BJ40" s="87"/>
-      <c r="BK40" s="87"/>
-      <c r="BL40" s="87"/>
-      <c r="BM40" s="87"/>
-      <c r="BN40" s="87"/>
-      <c r="BO40" s="87"/>
-      <c r="BP40" s="87"/>
-      <c r="BQ40" s="87"/>
-      <c r="BR40" s="87"/>
-      <c r="BS40" s="87"/>
-      <c r="BT40" s="87"/>
-      <c r="BU40" s="87"/>
-      <c r="BV40" s="87"/>
-      <c r="BW40" s="87"/>
-      <c r="BX40" s="87"/>
-      <c r="BY40" s="87"/>
-      <c r="BZ40" s="87"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="90"/>
+      <c r="P40" s="90"/>
+      <c r="Q40" s="90"/>
+      <c r="R40" s="90"/>
+      <c r="S40" s="89"/>
+      <c r="T40" s="89"/>
+      <c r="U40" s="89"/>
+      <c r="V40" s="89"/>
+      <c r="W40" s="89"/>
+      <c r="X40" s="89"/>
+      <c r="Y40" s="89"/>
+      <c r="Z40" s="89"/>
+      <c r="AA40" s="89"/>
+      <c r="AB40" s="89"/>
+      <c r="AC40" s="91"/>
+      <c r="AD40" s="91"/>
+      <c r="AE40" s="91"/>
+      <c r="AF40" s="91"/>
+      <c r="AG40" s="91"/>
+      <c r="AH40" s="89"/>
+      <c r="AI40" s="89"/>
+      <c r="AJ40" s="89"/>
+      <c r="AK40" s="89"/>
+      <c r="AL40" s="89"/>
+      <c r="AM40" s="89"/>
+      <c r="AN40" s="89"/>
+      <c r="AO40" s="89"/>
+      <c r="AP40" s="89"/>
+      <c r="AQ40" s="89"/>
+      <c r="AR40" s="92"/>
+      <c r="AS40" s="92"/>
+      <c r="AT40" s="92"/>
+      <c r="AU40" s="92"/>
+      <c r="AV40" s="92"/>
+      <c r="AW40" s="89"/>
+      <c r="AX40" s="89"/>
+      <c r="AY40" s="89"/>
+      <c r="AZ40" s="89"/>
+      <c r="BA40" s="89"/>
+      <c r="BB40" s="89"/>
+      <c r="BC40" s="89"/>
+      <c r="BD40" s="89"/>
+      <c r="BE40" s="89"/>
+      <c r="BF40" s="89"/>
+      <c r="BG40" s="93"/>
+      <c r="BH40" s="93"/>
+      <c r="BI40" s="93"/>
+      <c r="BJ40" s="93"/>
+      <c r="BK40" s="93"/>
+      <c r="BL40" s="89"/>
+      <c r="BM40" s="89"/>
+      <c r="BN40" s="89"/>
+      <c r="BO40" s="89"/>
+      <c r="BP40" s="89"/>
+      <c r="BQ40" s="89"/>
+      <c r="BR40" s="89"/>
+      <c r="BS40" s="89"/>
+      <c r="BT40" s="89"/>
+      <c r="BU40" s="89"/>
+      <c r="BV40" s="89"/>
+      <c r="BW40" s="89"/>
+      <c r="BX40" s="89"/>
+      <c r="BY40" s="89"/>
+      <c r="BZ40" s="89"/>
     </row>
-    <row r="41" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
-      <c r="S41" s="87"/>
-      <c r="T41" s="87"/>
-      <c r="U41" s="87"/>
-      <c r="V41" s="87"/>
-      <c r="W41" s="87"/>
-      <c r="X41" s="87"/>
-      <c r="Y41" s="87"/>
-      <c r="Z41" s="87"/>
-      <c r="AA41" s="87"/>
-      <c r="AB41" s="87"/>
-      <c r="AC41" s="87"/>
-      <c r="AD41" s="87"/>
-      <c r="AE41" s="87"/>
-      <c r="AF41" s="87"/>
-      <c r="AG41" s="87"/>
-      <c r="AH41" s="87"/>
-      <c r="AI41" s="87"/>
-      <c r="AJ41" s="120"/>
-      <c r="AK41" s="120"/>
-      <c r="AL41" s="121"/>
-      <c r="AM41" s="87"/>
-      <c r="AN41" s="87"/>
-      <c r="AO41" s="87"/>
-      <c r="AP41" s="87"/>
-      <c r="AQ41" s="87"/>
-      <c r="AR41" s="87"/>
-      <c r="AS41" s="87"/>
-      <c r="AT41" s="87"/>
-      <c r="AU41" s="87"/>
-      <c r="AV41" s="87"/>
-      <c r="AW41" s="87"/>
-      <c r="AX41" s="87"/>
-      <c r="AY41" s="87"/>
-      <c r="AZ41" s="87"/>
-      <c r="BA41" s="87"/>
-      <c r="BB41" s="87"/>
-      <c r="BC41" s="87"/>
-      <c r="BD41" s="87"/>
-      <c r="BE41" s="87"/>
-      <c r="BF41" s="87"/>
-      <c r="BG41" s="87"/>
-      <c r="BH41" s="87"/>
-      <c r="BI41" s="87"/>
-      <c r="BJ41" s="87"/>
-      <c r="BK41" s="87"/>
-      <c r="BL41" s="87"/>
-      <c r="BM41" s="87"/>
-      <c r="BN41" s="87"/>
-      <c r="BO41" s="87"/>
-      <c r="BP41" s="87"/>
-      <c r="BQ41" s="87"/>
-      <c r="BR41" s="87"/>
-      <c r="BS41" s="87"/>
-      <c r="BT41" s="87"/>
-      <c r="BU41" s="87"/>
-      <c r="BV41" s="87"/>
-      <c r="BW41" s="87"/>
-      <c r="BX41" s="87"/>
-      <c r="BY41" s="87"/>
-      <c r="BZ41" s="87"/>
+    <row r="41" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="32"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="54"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="166"/>
+      <c r="J41" s="166"/>
+      <c r="K41" s="166"/>
+      <c r="L41" s="166"/>
+      <c r="M41" s="166"/>
+      <c r="N41" s="166"/>
+      <c r="O41" s="166"/>
+      <c r="P41" s="166"/>
+      <c r="Q41" s="166"/>
+      <c r="R41" s="166"/>
+      <c r="S41" s="166"/>
+      <c r="T41" s="166"/>
+      <c r="U41" s="166"/>
+      <c r="V41" s="166"/>
+      <c r="W41" s="166"/>
+      <c r="X41" s="166"/>
+      <c r="Y41" s="166"/>
+      <c r="Z41" s="166"/>
+      <c r="AA41" s="166"/>
+      <c r="AB41" s="166"/>
+      <c r="AC41" s="166"/>
+      <c r="AD41" s="166"/>
+      <c r="AE41" s="166"/>
+      <c r="AF41" s="166"/>
+      <c r="AG41" s="166"/>
+      <c r="AH41" s="139"/>
+      <c r="AI41" s="139"/>
+      <c r="AJ41" s="158"/>
+      <c r="AK41" s="158"/>
+      <c r="AL41" s="158"/>
+      <c r="AM41" s="58"/>
+      <c r="AN41" s="139"/>
+      <c r="AO41" s="38"/>
+      <c r="AP41" s="38"/>
+      <c r="AQ41" s="38"/>
+      <c r="AR41" s="40"/>
+      <c r="AS41" s="40"/>
+      <c r="AT41" s="40"/>
+      <c r="AU41" s="40"/>
+      <c r="AV41" s="40"/>
+      <c r="AW41" s="38"/>
+      <c r="AX41" s="38"/>
+      <c r="AY41" s="38"/>
+      <c r="AZ41" s="38"/>
+      <c r="BA41" s="38"/>
+      <c r="BB41" s="38"/>
+      <c r="BC41" s="38"/>
+      <c r="BD41" s="38"/>
+      <c r="BE41" s="38"/>
+      <c r="BF41" s="38"/>
+      <c r="BG41" s="41"/>
+      <c r="BH41" s="41"/>
+      <c r="BI41" s="41"/>
+      <c r="BJ41" s="41"/>
+      <c r="BK41" s="41"/>
+      <c r="BL41" s="38"/>
+      <c r="BM41" s="38"/>
+      <c r="BN41" s="38"/>
+      <c r="BO41" s="38"/>
+      <c r="BP41" s="38"/>
+      <c r="BQ41" s="38"/>
+      <c r="BR41" s="38"/>
+      <c r="BS41" s="38"/>
+      <c r="BT41" s="38"/>
+      <c r="BU41" s="38"/>
+      <c r="BV41" s="38"/>
+      <c r="BW41" s="38"/>
+      <c r="BX41" s="38"/>
+      <c r="BY41" s="38"/>
+      <c r="BZ41" s="38"/>
     </row>
-    <row r="42" spans="1:78" s="104" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="155"/>
-      <c r="B42" s="162"/>
-      <c r="C42" s="163" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="164"/>
-      <c r="E42" s="164"/>
-      <c r="F42" s="164"/>
-      <c r="G42" s="164"/>
-      <c r="H42" s="164"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="165"/>
+    <row r="42" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="54"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="166"/>
+      <c r="J42" s="166"/>
       <c r="K42" s="166"/>
       <c r="L42" s="166"/>
-      <c r="M42" s="161"/>
-      <c r="N42" s="161"/>
-      <c r="O42" s="161"/>
-      <c r="P42" s="161"/>
-      <c r="Q42" s="161"/>
-      <c r="R42" s="161"/>
-      <c r="S42" s="161"/>
-      <c r="T42" s="161"/>
-      <c r="U42" s="161"/>
-      <c r="V42" s="161"/>
-      <c r="W42" s="161"/>
-      <c r="X42" s="161"/>
-      <c r="Y42" s="161"/>
-      <c r="Z42" s="161"/>
-      <c r="AA42" s="161"/>
-      <c r="AB42" s="161"/>
-      <c r="AC42" s="161"/>
-      <c r="AD42" s="161"/>
-      <c r="AE42" s="161"/>
-      <c r="AF42" s="161"/>
-      <c r="AG42" s="161"/>
-      <c r="AH42" s="161"/>
-      <c r="AI42" s="161"/>
-      <c r="AJ42" s="161"/>
-      <c r="AK42" s="161"/>
-      <c r="AL42" s="161"/>
-      <c r="AM42" s="161"/>
-      <c r="AN42" s="161"/>
-      <c r="AO42" s="161"/>
-      <c r="AP42" s="161"/>
-      <c r="AQ42" s="161"/>
-      <c r="AR42" s="161"/>
-      <c r="AS42" s="161"/>
-      <c r="AT42" s="161"/>
-      <c r="AU42" s="161"/>
-      <c r="AV42" s="161"/>
-      <c r="AW42" s="161"/>
-      <c r="AX42" s="161"/>
-      <c r="AY42" s="161"/>
-      <c r="AZ42" s="161"/>
-      <c r="BA42" s="161"/>
-      <c r="BB42" s="161"/>
-      <c r="BC42" s="161"/>
-      <c r="BD42" s="161"/>
-      <c r="BE42" s="161"/>
-      <c r="BF42" s="161"/>
-      <c r="BG42" s="161"/>
-      <c r="BH42" s="161"/>
-      <c r="BI42" s="161"/>
-      <c r="BJ42" s="161"/>
-      <c r="BK42" s="161"/>
-      <c r="BL42" s="161"/>
-      <c r="BM42" s="161"/>
-      <c r="BN42" s="161"/>
-      <c r="BO42" s="161"/>
-      <c r="BP42" s="161"/>
-      <c r="BQ42" s="161"/>
-      <c r="BR42" s="161"/>
-      <c r="BS42" s="161"/>
-      <c r="BT42" s="161"/>
-      <c r="BU42" s="161"/>
-      <c r="BV42" s="161"/>
-      <c r="BW42" s="161"/>
-      <c r="BX42" s="161"/>
-      <c r="BY42" s="161"/>
-      <c r="BZ42" s="161"/>
+      <c r="M42" s="166"/>
+      <c r="N42" s="166"/>
+      <c r="O42" s="166"/>
+      <c r="P42" s="166"/>
+      <c r="Q42" s="166"/>
+      <c r="R42" s="166"/>
+      <c r="S42" s="166"/>
+      <c r="T42" s="166"/>
+      <c r="U42" s="166"/>
+      <c r="V42" s="166"/>
+      <c r="W42" s="166"/>
+      <c r="X42" s="166"/>
+      <c r="Y42" s="166"/>
+      <c r="Z42" s="166"/>
+      <c r="AA42" s="166"/>
+      <c r="AB42" s="166"/>
+      <c r="AC42" s="166"/>
+      <c r="AD42" s="166"/>
+      <c r="AE42" s="166"/>
+      <c r="AF42" s="166"/>
+      <c r="AG42" s="166"/>
+      <c r="AH42" s="139"/>
+      <c r="AI42" s="139"/>
+      <c r="AJ42" s="158"/>
+      <c r="AK42" s="158"/>
+      <c r="AL42" s="158"/>
+      <c r="AM42" s="58"/>
+      <c r="AN42" s="139"/>
+      <c r="AO42" s="38"/>
+      <c r="AP42" s="38"/>
+      <c r="AQ42" s="38"/>
+      <c r="AR42" s="40"/>
+      <c r="AS42" s="40"/>
+      <c r="AT42" s="40"/>
+      <c r="AU42" s="40"/>
+      <c r="AV42" s="40"/>
+      <c r="AW42" s="38"/>
+      <c r="AX42" s="38"/>
+      <c r="AY42" s="38"/>
+      <c r="AZ42" s="38"/>
+      <c r="BA42" s="38"/>
+      <c r="BB42" s="38"/>
+      <c r="BC42" s="38"/>
+      <c r="BD42" s="38"/>
+      <c r="BE42" s="38"/>
+      <c r="BF42" s="38"/>
+      <c r="BG42" s="41"/>
+      <c r="BH42" s="41"/>
+      <c r="BI42" s="41"/>
+      <c r="BJ42" s="41"/>
+      <c r="BK42" s="41"/>
+      <c r="BL42" s="38"/>
+      <c r="BM42" s="38"/>
+      <c r="BN42" s="38"/>
+      <c r="BO42" s="38"/>
+      <c r="BP42" s="38"/>
+      <c r="BQ42" s="38"/>
+      <c r="BR42" s="38"/>
+      <c r="BS42" s="38"/>
+      <c r="BT42" s="38"/>
+      <c r="BU42" s="38"/>
+      <c r="BV42" s="38"/>
+      <c r="BW42" s="38"/>
+      <c r="BX42" s="38"/>
+      <c r="BY42" s="38"/>
+      <c r="BZ42" s="38"/>
     </row>
-    <row r="43" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="119" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="87"/>
-      <c r="O43" s="87"/>
-      <c r="P43" s="87"/>
-      <c r="Q43" s="87"/>
-      <c r="R43" s="87"/>
-      <c r="S43" s="87"/>
-      <c r="T43" s="87"/>
-      <c r="U43" s="87"/>
-      <c r="V43" s="87"/>
-      <c r="W43" s="87"/>
-      <c r="X43" s="87"/>
-      <c r="Y43" s="87"/>
-      <c r="Z43" s="87"/>
-      <c r="AA43" s="87"/>
-      <c r="AB43" s="87"/>
-      <c r="AC43" s="87"/>
-      <c r="AD43" s="87"/>
-      <c r="AE43" s="87"/>
-      <c r="AF43" s="87"/>
-      <c r="AG43" s="87"/>
-      <c r="AH43" s="87"/>
-      <c r="AI43" s="87"/>
-      <c r="AJ43" s="120"/>
-      <c r="AK43" s="120"/>
-      <c r="AL43" s="121"/>
-      <c r="AM43" s="87"/>
-      <c r="AN43" s="87"/>
-      <c r="AO43" s="87"/>
-      <c r="AP43" s="87"/>
-      <c r="AQ43" s="87"/>
-      <c r="AR43" s="87"/>
-      <c r="AS43" s="87"/>
-      <c r="AT43" s="87"/>
-      <c r="AU43" s="87"/>
-      <c r="AV43" s="87"/>
-      <c r="AW43" s="87"/>
-      <c r="AX43" s="87"/>
-      <c r="AY43" s="87"/>
-      <c r="AZ43" s="87"/>
-      <c r="BA43" s="87"/>
-      <c r="BB43" s="87"/>
-      <c r="BC43" s="87"/>
-      <c r="BD43" s="87"/>
-      <c r="BE43" s="87"/>
-      <c r="BF43" s="87"/>
-      <c r="BG43" s="87"/>
-      <c r="BH43" s="87"/>
-      <c r="BI43" s="87"/>
-      <c r="BJ43" s="87"/>
-      <c r="BK43" s="87"/>
-      <c r="BL43" s="87"/>
-      <c r="BM43" s="87"/>
-      <c r="BN43" s="87"/>
-      <c r="BO43" s="87"/>
-      <c r="BP43" s="87"/>
-      <c r="BQ43" s="87"/>
-      <c r="BR43" s="87"/>
-      <c r="BS43" s="87"/>
-      <c r="BT43" s="87"/>
-      <c r="BU43" s="87"/>
-      <c r="BV43" s="87"/>
-      <c r="BW43" s="87"/>
-      <c r="BX43" s="87"/>
-      <c r="BY43" s="87"/>
-      <c r="BZ43" s="87"/>
+    <row r="43" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="54"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="166"/>
+      <c r="K43" s="166"/>
+      <c r="L43" s="166"/>
+      <c r="M43" s="166"/>
+      <c r="N43" s="166"/>
+      <c r="O43" s="166"/>
+      <c r="P43" s="166"/>
+      <c r="Q43" s="166"/>
+      <c r="R43" s="166"/>
+      <c r="S43" s="166"/>
+      <c r="T43" s="166"/>
+      <c r="U43" s="166"/>
+      <c r="V43" s="166"/>
+      <c r="W43" s="166"/>
+      <c r="X43" s="166"/>
+      <c r="Y43" s="166"/>
+      <c r="Z43" s="166"/>
+      <c r="AA43" s="166"/>
+      <c r="AB43" s="166"/>
+      <c r="AC43" s="166"/>
+      <c r="AD43" s="166"/>
+      <c r="AE43" s="166"/>
+      <c r="AF43" s="166"/>
+      <c r="AG43" s="166"/>
+      <c r="AH43" s="139"/>
+      <c r="AI43" s="139"/>
+      <c r="AJ43" s="158"/>
+      <c r="AK43" s="158"/>
+      <c r="AL43" s="158"/>
+      <c r="AM43" s="58"/>
+      <c r="AN43" s="168"/>
+      <c r="AO43" s="38"/>
+      <c r="AP43" s="38"/>
+      <c r="AQ43" s="38"/>
+      <c r="AR43" s="40"/>
+      <c r="AS43" s="40"/>
+      <c r="AT43" s="40"/>
+      <c r="AU43" s="40"/>
+      <c r="AV43" s="40"/>
+      <c r="AW43" s="38"/>
+      <c r="AX43" s="38"/>
+      <c r="AY43" s="38"/>
+      <c r="AZ43" s="38"/>
+      <c r="BA43" s="38"/>
+      <c r="BB43" s="38"/>
+      <c r="BC43" s="38"/>
+      <c r="BD43" s="38"/>
+      <c r="BE43" s="38"/>
+      <c r="BF43" s="38"/>
+      <c r="BG43" s="41"/>
+      <c r="BH43" s="41"/>
+      <c r="BI43" s="41"/>
+      <c r="BJ43" s="41"/>
+      <c r="BK43" s="41"/>
+      <c r="BL43" s="38"/>
+      <c r="BM43" s="38"/>
+      <c r="BN43" s="38"/>
+      <c r="BO43" s="38"/>
+      <c r="BP43" s="38"/>
+      <c r="BQ43" s="38"/>
+      <c r="BR43" s="38"/>
+      <c r="BS43" s="38"/>
+      <c r="BT43" s="38"/>
+      <c r="BU43" s="38"/>
+      <c r="BV43" s="38"/>
+      <c r="BW43" s="38"/>
+      <c r="BX43" s="38"/>
+      <c r="BY43" s="38"/>
+      <c r="BZ43" s="38"/>
     </row>
-    <row r="44" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="119" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="87"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="87"/>
-      <c r="O44" s="87"/>
-      <c r="P44" s="87"/>
-      <c r="Q44" s="87"/>
-      <c r="R44" s="87"/>
-      <c r="S44" s="87"/>
-      <c r="T44" s="87"/>
-      <c r="U44" s="87"/>
-      <c r="V44" s="87"/>
-      <c r="W44" s="87"/>
-      <c r="X44" s="87"/>
-      <c r="Y44" s="87"/>
-      <c r="Z44" s="87"/>
-      <c r="AA44" s="87"/>
-      <c r="AB44" s="87"/>
-      <c r="AC44" s="87"/>
-      <c r="AD44" s="87"/>
-      <c r="AE44" s="87"/>
-      <c r="AF44" s="87"/>
-      <c r="AG44" s="87"/>
-      <c r="AH44" s="87"/>
-      <c r="AI44" s="87"/>
-      <c r="AJ44" s="87"/>
-      <c r="AK44" s="87"/>
-      <c r="AL44" s="87"/>
-      <c r="AM44" s="120"/>
-      <c r="AN44" s="120"/>
-      <c r="AO44" s="120"/>
-      <c r="AP44" s="120"/>
-      <c r="AQ44" s="120"/>
-      <c r="AR44" s="121"/>
-      <c r="AS44" s="87"/>
-      <c r="AT44" s="87"/>
-      <c r="AU44" s="87"/>
-      <c r="AV44" s="87"/>
-      <c r="AW44" s="87"/>
-      <c r="AX44" s="87"/>
-      <c r="AY44" s="87"/>
-      <c r="AZ44" s="87"/>
-      <c r="BA44" s="87"/>
-      <c r="BB44" s="87"/>
-      <c r="BC44" s="87"/>
-      <c r="BD44" s="87"/>
-      <c r="BE44" s="87"/>
-      <c r="BF44" s="87"/>
-      <c r="BG44" s="87"/>
-      <c r="BH44" s="87"/>
-      <c r="BI44" s="87"/>
-      <c r="BJ44" s="87"/>
-      <c r="BK44" s="87"/>
-      <c r="BL44" s="87"/>
-      <c r="BM44" s="87"/>
-      <c r="BN44" s="87"/>
-      <c r="BO44" s="87"/>
-      <c r="BP44" s="87"/>
-      <c r="BQ44" s="87"/>
-      <c r="BR44" s="87"/>
-      <c r="BS44" s="87"/>
-      <c r="BT44" s="87"/>
-      <c r="BU44" s="87"/>
-      <c r="BV44" s="87"/>
-      <c r="BW44" s="87"/>
-      <c r="BX44" s="87"/>
-      <c r="BY44" s="87"/>
-      <c r="BZ44" s="87"/>
+    <row r="44" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="32"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="54"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="166"/>
+      <c r="J44" s="166"/>
+      <c r="K44" s="166"/>
+      <c r="L44" s="166"/>
+      <c r="M44" s="166"/>
+      <c r="N44" s="166"/>
+      <c r="O44" s="166"/>
+      <c r="P44" s="166"/>
+      <c r="Q44" s="166"/>
+      <c r="R44" s="166"/>
+      <c r="S44" s="166"/>
+      <c r="T44" s="166"/>
+      <c r="U44" s="166"/>
+      <c r="V44" s="166"/>
+      <c r="W44" s="166"/>
+      <c r="X44" s="166"/>
+      <c r="Y44" s="166"/>
+      <c r="Z44" s="166"/>
+      <c r="AA44" s="166"/>
+      <c r="AB44" s="166"/>
+      <c r="AC44" s="166"/>
+      <c r="AD44" s="166"/>
+      <c r="AE44" s="166"/>
+      <c r="AF44" s="166"/>
+      <c r="AG44" s="166"/>
+      <c r="AH44" s="139"/>
+      <c r="AI44" s="139"/>
+      <c r="AJ44" s="139"/>
+      <c r="AK44" s="139"/>
+      <c r="AL44" s="38"/>
+      <c r="AM44" s="38"/>
+      <c r="AN44" s="167"/>
+      <c r="AO44" s="38"/>
+      <c r="AP44" s="38"/>
+      <c r="AQ44" s="38"/>
+      <c r="AR44" s="40"/>
+      <c r="AS44" s="40"/>
+      <c r="AT44" s="40"/>
+      <c r="AU44" s="40"/>
+      <c r="AV44" s="40"/>
+      <c r="AW44" s="38"/>
+      <c r="AX44" s="38"/>
+      <c r="AY44" s="38"/>
+      <c r="AZ44" s="38"/>
+      <c r="BA44" s="38"/>
+      <c r="BB44" s="38"/>
+      <c r="BC44" s="38"/>
+      <c r="BD44" s="38"/>
+      <c r="BE44" s="38"/>
+      <c r="BF44" s="38"/>
+      <c r="BG44" s="41"/>
+      <c r="BH44" s="41"/>
+      <c r="BI44" s="41"/>
+      <c r="BJ44" s="41"/>
+      <c r="BK44" s="41"/>
+      <c r="BL44" s="38"/>
+      <c r="BM44" s="38"/>
+      <c r="BN44" s="38"/>
+      <c r="BO44" s="38"/>
+      <c r="BP44" s="38"/>
+      <c r="BQ44" s="38"/>
+      <c r="BR44" s="38"/>
+      <c r="BS44" s="38"/>
+      <c r="BT44" s="38"/>
+      <c r="BU44" s="38"/>
+      <c r="BV44" s="38"/>
+      <c r="BW44" s="38"/>
+      <c r="BX44" s="38"/>
+      <c r="BY44" s="38"/>
+      <c r="BZ44" s="38"/>
     </row>
-    <row r="45" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="119" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="87"/>
-      <c r="P45" s="87"/>
-      <c r="Q45" s="87"/>
-      <c r="R45" s="87"/>
-      <c r="S45" s="87"/>
-      <c r="T45" s="87"/>
-      <c r="U45" s="87"/>
-      <c r="V45" s="87"/>
-      <c r="W45" s="87"/>
-      <c r="X45" s="87"/>
-      <c r="Y45" s="87"/>
-      <c r="Z45" s="87"/>
-      <c r="AA45" s="87"/>
-      <c r="AB45" s="87"/>
-      <c r="AC45" s="87"/>
-      <c r="AD45" s="87"/>
-      <c r="AE45" s="87"/>
-      <c r="AF45" s="87"/>
-      <c r="AG45" s="87"/>
-      <c r="AH45" s="87"/>
-      <c r="AI45" s="87"/>
-      <c r="AJ45" s="87"/>
-      <c r="AK45" s="87"/>
-      <c r="AL45" s="87"/>
-      <c r="AM45" s="120"/>
-      <c r="AN45" s="120"/>
-      <c r="AO45" s="120"/>
-      <c r="AP45" s="120"/>
-      <c r="AQ45" s="120"/>
-      <c r="AR45" s="121"/>
-      <c r="AS45" s="87"/>
-      <c r="AT45" s="87"/>
-      <c r="AU45" s="87"/>
-      <c r="AV45" s="87"/>
-      <c r="AW45" s="87"/>
-      <c r="AX45" s="87"/>
-      <c r="AY45" s="87"/>
-      <c r="AZ45" s="87"/>
-      <c r="BA45" s="87"/>
-      <c r="BB45" s="87"/>
-      <c r="BC45" s="87"/>
-      <c r="BD45" s="87"/>
-      <c r="BE45" s="87"/>
-      <c r="BF45" s="87"/>
-      <c r="BG45" s="87"/>
-      <c r="BH45" s="87"/>
-      <c r="BI45" s="87"/>
-      <c r="BJ45" s="87"/>
-      <c r="BK45" s="87"/>
-      <c r="BL45" s="87"/>
-      <c r="BM45" s="87"/>
-      <c r="BN45" s="87"/>
-      <c r="BO45" s="87"/>
-      <c r="BP45" s="87"/>
-      <c r="BQ45" s="87"/>
-      <c r="BR45" s="87"/>
-      <c r="BS45" s="87"/>
-      <c r="BT45" s="87"/>
-      <c r="BU45" s="87"/>
-      <c r="BV45" s="87"/>
-      <c r="BW45" s="87"/>
-      <c r="BX45" s="87"/>
-      <c r="BY45" s="87"/>
-      <c r="BZ45" s="87"/>
+    <row r="45" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="32"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="54"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="166"/>
+      <c r="J45" s="166"/>
+      <c r="K45" s="166"/>
+      <c r="L45" s="166"/>
+      <c r="M45" s="166"/>
+      <c r="N45" s="166"/>
+      <c r="O45" s="166"/>
+      <c r="P45" s="166"/>
+      <c r="Q45" s="166"/>
+      <c r="R45" s="166"/>
+      <c r="S45" s="166"/>
+      <c r="T45" s="166"/>
+      <c r="U45" s="166"/>
+      <c r="V45" s="166"/>
+      <c r="W45" s="166"/>
+      <c r="X45" s="166"/>
+      <c r="Y45" s="166"/>
+      <c r="Z45" s="166"/>
+      <c r="AA45" s="166"/>
+      <c r="AB45" s="166"/>
+      <c r="AC45" s="166"/>
+      <c r="AD45" s="166"/>
+      <c r="AE45" s="166"/>
+      <c r="AF45" s="166"/>
+      <c r="AG45" s="166"/>
+      <c r="AH45" s="139"/>
+      <c r="AI45" s="139"/>
+      <c r="AJ45" s="139"/>
+      <c r="AK45" s="139"/>
+      <c r="AL45" s="38"/>
+      <c r="AM45" s="38"/>
+      <c r="AN45" s="38"/>
+      <c r="AO45" s="38"/>
+      <c r="AP45" s="38"/>
+      <c r="AQ45" s="38"/>
+      <c r="AR45" s="40"/>
+      <c r="AS45" s="40"/>
+      <c r="AT45" s="40"/>
+      <c r="AU45" s="40"/>
+      <c r="AV45" s="40"/>
+      <c r="AW45" s="38"/>
+      <c r="AX45" s="38"/>
+      <c r="AY45" s="38"/>
+      <c r="AZ45" s="38"/>
+      <c r="BA45" s="38"/>
+      <c r="BB45" s="38"/>
+      <c r="BC45" s="38"/>
+      <c r="BD45" s="38"/>
+      <c r="BE45" s="38"/>
+      <c r="BF45" s="38"/>
+      <c r="BG45" s="41"/>
+      <c r="BH45" s="41"/>
+      <c r="BI45" s="41"/>
+      <c r="BJ45" s="41"/>
+      <c r="BK45" s="41"/>
+      <c r="BL45" s="38"/>
+      <c r="BM45" s="38"/>
+      <c r="BN45" s="38"/>
+      <c r="BO45" s="38"/>
+      <c r="BP45" s="38"/>
+      <c r="BQ45" s="38"/>
+      <c r="BR45" s="38"/>
+      <c r="BS45" s="38"/>
+      <c r="BT45" s="38"/>
+      <c r="BU45" s="38"/>
+      <c r="BV45" s="38"/>
+      <c r="BW45" s="38"/>
+      <c r="BX45" s="38"/>
+      <c r="BY45" s="38"/>
+      <c r="BZ45" s="38"/>
     </row>
-    <row r="46" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="119" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="87"/>
-      <c r="N46" s="87"/>
-      <c r="O46" s="87"/>
-      <c r="P46" s="87"/>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="87"/>
-      <c r="S46" s="87"/>
-      <c r="T46" s="87"/>
-      <c r="U46" s="87"/>
-      <c r="V46" s="87"/>
-      <c r="W46" s="87"/>
-      <c r="X46" s="87"/>
-      <c r="Y46" s="87"/>
-      <c r="Z46" s="87"/>
-      <c r="AA46" s="87"/>
-      <c r="AB46" s="87"/>
-      <c r="AC46" s="87"/>
-      <c r="AD46" s="87"/>
-      <c r="AE46" s="87"/>
-      <c r="AF46" s="87"/>
-      <c r="AG46" s="87"/>
-      <c r="AH46" s="87"/>
-      <c r="AI46" s="87"/>
-      <c r="AJ46" s="87"/>
-      <c r="AK46" s="87"/>
-      <c r="AL46" s="87"/>
-      <c r="AM46" s="120"/>
-      <c r="AN46" s="120"/>
-      <c r="AO46" s="120"/>
-      <c r="AP46" s="120"/>
-      <c r="AQ46" s="120"/>
-      <c r="AR46" s="121"/>
-      <c r="AS46" s="87"/>
-      <c r="AT46" s="87"/>
-      <c r="AU46" s="87"/>
-      <c r="AV46" s="87"/>
-      <c r="AW46" s="87"/>
-      <c r="AX46" s="87"/>
-      <c r="AY46" s="87"/>
-      <c r="AZ46" s="87"/>
-      <c r="BA46" s="87"/>
-      <c r="BB46" s="87"/>
-      <c r="BC46" s="87"/>
-      <c r="BD46" s="87"/>
-      <c r="BE46" s="87"/>
-      <c r="BF46" s="87"/>
-      <c r="BG46" s="87"/>
-      <c r="BH46" s="87"/>
-      <c r="BI46" s="87"/>
-      <c r="BJ46" s="87"/>
-      <c r="BK46" s="87"/>
-      <c r="BL46" s="87"/>
-      <c r="BM46" s="87"/>
-      <c r="BN46" s="87"/>
-      <c r="BO46" s="87"/>
-      <c r="BP46" s="87"/>
-      <c r="BQ46" s="87"/>
-      <c r="BR46" s="87"/>
-      <c r="BS46" s="87"/>
-      <c r="BT46" s="87"/>
-      <c r="BU46" s="87"/>
-      <c r="BV46" s="87"/>
-      <c r="BW46" s="87"/>
-      <c r="BX46" s="87"/>
-      <c r="BY46" s="87"/>
-      <c r="BZ46" s="87"/>
+    <row r="46" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="32"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="54"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="166"/>
+      <c r="J46" s="166"/>
+      <c r="K46" s="166"/>
+      <c r="L46" s="166"/>
+      <c r="M46" s="166"/>
+      <c r="N46" s="166"/>
+      <c r="O46" s="166"/>
+      <c r="P46" s="166"/>
+      <c r="Q46" s="166"/>
+      <c r="R46" s="166"/>
+      <c r="S46" s="166"/>
+      <c r="T46" s="166"/>
+      <c r="U46" s="166"/>
+      <c r="V46" s="166"/>
+      <c r="W46" s="166"/>
+      <c r="X46" s="166"/>
+      <c r="Y46" s="166"/>
+      <c r="Z46" s="166"/>
+      <c r="AA46" s="166"/>
+      <c r="AB46" s="166"/>
+      <c r="AC46" s="166"/>
+      <c r="AD46" s="166"/>
+      <c r="AE46" s="166"/>
+      <c r="AF46" s="166"/>
+      <c r="AG46" s="166"/>
+      <c r="AH46" s="139"/>
+      <c r="AI46" s="139"/>
+      <c r="AJ46" s="139"/>
+      <c r="AK46" s="139"/>
+      <c r="AL46" s="38"/>
+      <c r="AM46" s="38"/>
+      <c r="AN46" s="38"/>
+      <c r="AO46" s="38"/>
+      <c r="AP46" s="38"/>
+      <c r="AQ46" s="38"/>
+      <c r="AR46" s="40"/>
+      <c r="AS46" s="40"/>
+      <c r="AT46" s="40"/>
+      <c r="AU46" s="40"/>
+      <c r="AV46" s="40"/>
+      <c r="AW46" s="38"/>
+      <c r="AX46" s="38"/>
+      <c r="AY46" s="38"/>
+      <c r="AZ46" s="38"/>
+      <c r="BA46" s="38"/>
+      <c r="BB46" s="38"/>
+      <c r="BC46" s="38"/>
+      <c r="BD46" s="38"/>
+      <c r="BE46" s="38"/>
+      <c r="BF46" s="38"/>
+      <c r="BG46" s="41"/>
+      <c r="BH46" s="41"/>
+      <c r="BI46" s="41"/>
+      <c r="BJ46" s="41"/>
+      <c r="BK46" s="41"/>
+      <c r="BL46" s="38"/>
+      <c r="BM46" s="38"/>
+      <c r="BN46" s="38"/>
+      <c r="BO46" s="38"/>
+      <c r="BP46" s="38"/>
+      <c r="BQ46" s="38"/>
+      <c r="BR46" s="38"/>
+      <c r="BS46" s="38"/>
+      <c r="BT46" s="38"/>
+      <c r="BU46" s="38"/>
+      <c r="BV46" s="38"/>
+      <c r="BW46" s="38"/>
+      <c r="BX46" s="38"/>
+      <c r="BY46" s="38"/>
+      <c r="BZ46" s="38"/>
     </row>
-    <row r="47" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="87"/>
-      <c r="N47" s="87"/>
-      <c r="O47" s="87"/>
-      <c r="P47" s="87"/>
-      <c r="Q47" s="87"/>
-      <c r="R47" s="87"/>
-      <c r="S47" s="87"/>
-      <c r="T47" s="87"/>
-      <c r="U47" s="87"/>
-      <c r="V47" s="87"/>
-      <c r="W47" s="87"/>
-      <c r="X47" s="87"/>
-      <c r="Y47" s="87"/>
-      <c r="Z47" s="87"/>
-      <c r="AA47" s="87"/>
-      <c r="AB47" s="87"/>
-      <c r="AC47" s="87"/>
-      <c r="AD47" s="87"/>
-      <c r="AE47" s="87"/>
-      <c r="AF47" s="87"/>
-      <c r="AG47" s="87"/>
-      <c r="AH47" s="87"/>
-      <c r="AI47" s="87"/>
-      <c r="AJ47" s="87"/>
-      <c r="AK47" s="87"/>
-      <c r="AL47" s="87"/>
-      <c r="AM47" s="87"/>
-      <c r="AN47" s="87"/>
-      <c r="AO47" s="87"/>
-      <c r="AP47" s="87"/>
-      <c r="AQ47" s="87"/>
-      <c r="AR47" s="87"/>
-      <c r="AS47" s="87"/>
-      <c r="AT47" s="87"/>
-      <c r="AU47" s="87"/>
-      <c r="AV47" s="87"/>
-      <c r="AW47" s="87"/>
-      <c r="AX47" s="87"/>
-      <c r="AY47" s="87"/>
-      <c r="AZ47" s="87"/>
-      <c r="BA47" s="87"/>
-      <c r="BB47" s="87"/>
-      <c r="BC47" s="87"/>
-      <c r="BD47" s="87"/>
-      <c r="BE47" s="87"/>
-      <c r="BF47" s="87"/>
-      <c r="BG47" s="87"/>
-      <c r="BH47" s="87"/>
-      <c r="BI47" s="87"/>
-      <c r="BJ47" s="87"/>
-      <c r="BK47" s="87"/>
-      <c r="BL47" s="87"/>
-      <c r="BM47" s="87"/>
-      <c r="BN47" s="87"/>
-      <c r="BO47" s="87"/>
-      <c r="BP47" s="87"/>
-      <c r="BQ47" s="87"/>
-      <c r="BR47" s="87"/>
-      <c r="BS47" s="87"/>
-      <c r="BT47" s="87"/>
-      <c r="BU47" s="87"/>
-      <c r="BV47" s="87"/>
-      <c r="BW47" s="87"/>
-      <c r="BX47" s="87"/>
-      <c r="BY47" s="87"/>
-      <c r="BZ47" s="87"/>
+    <row r="47" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="32"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="54"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="166"/>
+      <c r="J47" s="166"/>
+      <c r="K47" s="166"/>
+      <c r="L47" s="166"/>
+      <c r="M47" s="166"/>
+      <c r="N47" s="166"/>
+      <c r="O47" s="166"/>
+      <c r="P47" s="166"/>
+      <c r="Q47" s="166"/>
+      <c r="R47" s="166"/>
+      <c r="S47" s="166"/>
+      <c r="T47" s="166"/>
+      <c r="U47" s="166"/>
+      <c r="V47" s="166"/>
+      <c r="W47" s="166"/>
+      <c r="X47" s="166"/>
+      <c r="Y47" s="166"/>
+      <c r="Z47" s="166"/>
+      <c r="AA47" s="166"/>
+      <c r="AB47" s="166"/>
+      <c r="AC47" s="166"/>
+      <c r="AD47" s="166"/>
+      <c r="AE47" s="166"/>
+      <c r="AF47" s="166"/>
+      <c r="AG47" s="166"/>
+      <c r="AH47" s="139"/>
+      <c r="AI47" s="139"/>
+      <c r="AJ47" s="139"/>
+      <c r="AK47" s="139"/>
+      <c r="AL47" s="38"/>
+      <c r="AM47" s="38"/>
+      <c r="AN47" s="38"/>
+      <c r="AO47" s="38"/>
+      <c r="AP47" s="38"/>
+      <c r="AQ47" s="38"/>
+      <c r="AR47" s="40"/>
+      <c r="AS47" s="40"/>
+      <c r="AT47" s="40"/>
+      <c r="AU47" s="40"/>
+      <c r="AV47" s="40"/>
+      <c r="AW47" s="38"/>
+      <c r="AX47" s="38"/>
+      <c r="AY47" s="38"/>
+      <c r="AZ47" s="38"/>
+      <c r="BA47" s="38"/>
+      <c r="BB47" s="38"/>
+      <c r="BC47" s="38"/>
+      <c r="BD47" s="38"/>
+      <c r="BE47" s="38"/>
+      <c r="BF47" s="38"/>
+      <c r="BG47" s="41"/>
+      <c r="BH47" s="41"/>
+      <c r="BI47" s="41"/>
+      <c r="BJ47" s="41"/>
+      <c r="BK47" s="41"/>
+      <c r="BL47" s="38"/>
+      <c r="BM47" s="38"/>
+      <c r="BN47" s="38"/>
+      <c r="BO47" s="38"/>
+      <c r="BP47" s="38"/>
+      <c r="BQ47" s="38"/>
+      <c r="BR47" s="38"/>
+      <c r="BS47" s="38"/>
+      <c r="BT47" s="38"/>
+      <c r="BU47" s="38"/>
+      <c r="BV47" s="38"/>
+      <c r="BW47" s="38"/>
+      <c r="BX47" s="38"/>
+      <c r="BY47" s="38"/>
+      <c r="BZ47" s="38"/>
     </row>
-    <row r="48" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="87"/>
-      <c r="N48" s="87"/>
-      <c r="O48" s="87"/>
-      <c r="P48" s="87"/>
-      <c r="Q48" s="87"/>
-      <c r="R48" s="87"/>
-      <c r="S48" s="87"/>
-      <c r="T48" s="87"/>
-      <c r="U48" s="87"/>
-      <c r="V48" s="87"/>
-      <c r="W48" s="87"/>
-      <c r="X48" s="87"/>
-      <c r="Y48" s="87"/>
-      <c r="Z48" s="87"/>
-      <c r="AA48" s="87"/>
-      <c r="AB48" s="87"/>
-      <c r="AC48" s="87"/>
-      <c r="AD48" s="87"/>
-      <c r="AE48" s="87"/>
-      <c r="AF48" s="87"/>
-      <c r="AG48" s="87"/>
-      <c r="AH48" s="87"/>
-      <c r="AI48" s="87"/>
-      <c r="AJ48" s="87"/>
-      <c r="AK48" s="87"/>
-      <c r="AL48" s="87"/>
-      <c r="AM48" s="87"/>
-      <c r="AN48" s="87"/>
-      <c r="AO48" s="87"/>
-      <c r="AP48" s="87"/>
-      <c r="AQ48" s="87"/>
-      <c r="AR48" s="87"/>
-      <c r="AS48" s="87"/>
-      <c r="AT48" s="87"/>
-      <c r="AU48" s="87"/>
-      <c r="AV48" s="87"/>
-      <c r="AW48" s="87"/>
-      <c r="AX48" s="87"/>
-      <c r="AY48" s="87"/>
-      <c r="AZ48" s="87"/>
-      <c r="BA48" s="87"/>
-      <c r="BB48" s="87"/>
-      <c r="BC48" s="87"/>
-      <c r="BD48" s="87"/>
-      <c r="BE48" s="87"/>
-      <c r="BF48" s="87"/>
-      <c r="BG48" s="87"/>
-      <c r="BH48" s="87"/>
-      <c r="BI48" s="87"/>
-      <c r="BJ48" s="87"/>
-      <c r="BK48" s="87"/>
-      <c r="BL48" s="87"/>
-      <c r="BM48" s="87"/>
-      <c r="BN48" s="87"/>
-      <c r="BO48" s="87"/>
-      <c r="BP48" s="87"/>
-      <c r="BQ48" s="87"/>
-      <c r="BR48" s="87"/>
-      <c r="BS48" s="87"/>
-      <c r="BT48" s="87"/>
-      <c r="BU48" s="87"/>
-      <c r="BV48" s="87"/>
-      <c r="BW48" s="87"/>
-      <c r="BX48" s="87"/>
-      <c r="BY48" s="87"/>
-      <c r="BZ48" s="87"/>
+    <row r="48" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="32"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="54"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="38"/>
+      <c r="Y48" s="38"/>
+      <c r="Z48" s="38"/>
+      <c r="AA48" s="38"/>
+      <c r="AB48" s="38"/>
+      <c r="AC48" s="39"/>
+      <c r="AD48" s="39"/>
+      <c r="AE48" s="39"/>
+      <c r="AF48" s="39"/>
+      <c r="AG48" s="39"/>
+      <c r="AH48" s="38"/>
+      <c r="AI48" s="38"/>
+      <c r="AJ48" s="139"/>
+      <c r="AK48" s="38"/>
+      <c r="AL48" s="38"/>
+      <c r="AM48" s="38"/>
+      <c r="AN48" s="38"/>
+      <c r="AO48" s="38"/>
+      <c r="AP48" s="38"/>
+      <c r="AQ48" s="38"/>
+      <c r="AR48" s="40"/>
+      <c r="AS48" s="40"/>
+      <c r="AT48" s="40"/>
+      <c r="AU48" s="40"/>
+      <c r="AV48" s="40"/>
+      <c r="AW48" s="38"/>
+      <c r="AX48" s="38"/>
+      <c r="AY48" s="38"/>
+      <c r="AZ48" s="38"/>
+      <c r="BA48" s="38"/>
+      <c r="BB48" s="38"/>
+      <c r="BC48" s="38"/>
+      <c r="BD48" s="38"/>
+      <c r="BE48" s="38"/>
+      <c r="BF48" s="38"/>
+      <c r="BG48" s="41"/>
+      <c r="BH48" s="41"/>
+      <c r="BI48" s="41"/>
+      <c r="BJ48" s="41"/>
+      <c r="BK48" s="41"/>
+      <c r="BL48" s="38"/>
+      <c r="BM48" s="38"/>
+      <c r="BN48" s="38"/>
+      <c r="BO48" s="38"/>
+      <c r="BP48" s="38"/>
+      <c r="BQ48" s="38"/>
+      <c r="BR48" s="38"/>
+      <c r="BS48" s="38"/>
+      <c r="BT48" s="38"/>
+      <c r="BU48" s="38"/>
+      <c r="BV48" s="38"/>
+      <c r="BW48" s="38"/>
+      <c r="BX48" s="38"/>
+      <c r="BY48" s="38"/>
+      <c r="BZ48" s="38"/>
     </row>
-    <row r="49" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="72"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="74"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="67"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="68"/>
-      <c r="O49" s="68"/>
-      <c r="P49" s="68"/>
-      <c r="Q49" s="68"/>
-      <c r="R49" s="68"/>
-      <c r="S49" s="67"/>
-      <c r="T49" s="67"/>
-      <c r="U49" s="67"/>
-      <c r="V49" s="67"/>
-      <c r="W49" s="67"/>
-      <c r="X49" s="67"/>
-      <c r="Y49" s="67"/>
-      <c r="Z49" s="67"/>
-      <c r="AA49" s="67"/>
-      <c r="AB49" s="67"/>
-      <c r="AC49" s="69"/>
-      <c r="AD49" s="69"/>
-      <c r="AE49" s="69"/>
-      <c r="AF49" s="69"/>
-      <c r="AG49" s="69"/>
-      <c r="AH49" s="67"/>
-      <c r="AI49" s="67"/>
-      <c r="AJ49" s="67"/>
-      <c r="AK49" s="67"/>
-      <c r="AL49" s="67"/>
-      <c r="AM49" s="67"/>
-      <c r="AN49" s="67"/>
-      <c r="AO49" s="67"/>
-      <c r="AP49" s="67"/>
-      <c r="AQ49" s="67"/>
-      <c r="AR49" s="70"/>
-      <c r="AS49" s="70"/>
-      <c r="AT49" s="70"/>
-      <c r="AU49" s="70"/>
-      <c r="AV49" s="70"/>
-      <c r="AW49" s="67"/>
-      <c r="AX49" s="67"/>
-      <c r="AY49" s="67"/>
-      <c r="AZ49" s="67"/>
-      <c r="BA49" s="67"/>
-      <c r="BB49" s="67"/>
-      <c r="BC49" s="67"/>
-      <c r="BD49" s="67"/>
-      <c r="BE49" s="67"/>
-      <c r="BF49" s="67"/>
-      <c r="BG49" s="71"/>
-      <c r="BH49" s="71"/>
-      <c r="BI49" s="71"/>
-      <c r="BJ49" s="71"/>
-      <c r="BK49" s="71"/>
-      <c r="BL49" s="67"/>
-      <c r="BM49" s="67"/>
-      <c r="BN49" s="67"/>
-      <c r="BO49" s="67"/>
-      <c r="BP49" s="67"/>
-      <c r="BQ49" s="67"/>
-      <c r="BR49" s="67"/>
-      <c r="BS49" s="67"/>
-      <c r="BT49" s="67"/>
-      <c r="BU49" s="67"/>
-      <c r="BV49" s="67"/>
-      <c r="BW49" s="67"/>
-      <c r="BX49" s="67"/>
-      <c r="BY49" s="67"/>
-      <c r="BZ49" s="67"/>
+    <row r="49" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="54"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="38"/>
+      <c r="V49" s="38"/>
+      <c r="W49" s="38"/>
+      <c r="X49" s="38"/>
+      <c r="Y49" s="38"/>
+      <c r="Z49" s="38"/>
+      <c r="AA49" s="38"/>
+      <c r="AB49" s="38"/>
+      <c r="AC49" s="39"/>
+      <c r="AD49" s="39"/>
+      <c r="AE49" s="39"/>
+      <c r="AF49" s="39"/>
+      <c r="AG49" s="39"/>
+      <c r="AH49" s="38"/>
+      <c r="AI49" s="38"/>
+      <c r="AJ49" s="139"/>
+      <c r="AK49" s="38"/>
+      <c r="AL49" s="38"/>
+      <c r="AM49" s="38"/>
+      <c r="AN49" s="38"/>
+      <c r="AO49" s="38"/>
+      <c r="AP49" s="38"/>
+      <c r="AQ49" s="38"/>
+      <c r="AR49" s="40"/>
+      <c r="AS49" s="40"/>
+      <c r="AT49" s="40"/>
+      <c r="AU49" s="40"/>
+      <c r="AV49" s="40"/>
+      <c r="AW49" s="38"/>
+      <c r="AX49" s="38"/>
+      <c r="AY49" s="38"/>
+      <c r="AZ49" s="38"/>
+      <c r="BA49" s="38"/>
+      <c r="BB49" s="38"/>
+      <c r="BC49" s="38"/>
+      <c r="BD49" s="38"/>
+      <c r="BE49" s="38"/>
+      <c r="BF49" s="38"/>
+      <c r="BG49" s="41"/>
+      <c r="BH49" s="41"/>
+      <c r="BI49" s="41"/>
+      <c r="BJ49" s="41"/>
+      <c r="BK49" s="41"/>
+      <c r="BL49" s="38"/>
+      <c r="BM49" s="38"/>
+      <c r="BN49" s="38"/>
+      <c r="BO49" s="38"/>
+      <c r="BP49" s="38"/>
+      <c r="BQ49" s="38"/>
+      <c r="BR49" s="38"/>
+      <c r="BS49" s="38"/>
+      <c r="BT49" s="38"/>
+      <c r="BU49" s="38"/>
+      <c r="BV49" s="38"/>
+      <c r="BW49" s="38"/>
+      <c r="BX49" s="38"/>
+      <c r="BY49" s="38"/>
+      <c r="BZ49" s="38"/>
     </row>
     <row r="50" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32"/>
       <c r="B50" s="53"/>
       <c r="C50" s="56" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="D50" s="54"/>
       <c r="E50" s="35"/>
       <c r="F50" s="35"/>
       <c r="G50" s="36"/>
       <c r="H50" s="37"/>
-      <c r="I50" s="128"/>
-      <c r="J50" s="128"/>
-      <c r="K50" s="128"/>
-      <c r="L50" s="128"/>
-      <c r="M50" s="128"/>
-      <c r="N50" s="128"/>
-      <c r="O50" s="128"/>
-      <c r="P50" s="128"/>
-      <c r="Q50" s="128"/>
-      <c r="R50" s="128"/>
-      <c r="S50" s="128"/>
-      <c r="T50" s="128"/>
-      <c r="U50" s="128"/>
-      <c r="V50" s="128"/>
-      <c r="W50" s="128"/>
-      <c r="X50" s="128"/>
-      <c r="Y50" s="128"/>
-      <c r="Z50" s="128"/>
-      <c r="AA50" s="128"/>
-      <c r="AB50" s="128"/>
-      <c r="AC50" s="128"/>
-      <c r="AD50" s="128"/>
-      <c r="AE50" s="128"/>
-      <c r="AF50" s="128"/>
-      <c r="AG50" s="128"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="38"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="38"/>
+      <c r="Z50" s="38"/>
+      <c r="AA50" s="38"/>
+      <c r="AB50" s="38"/>
+      <c r="AC50" s="39"/>
+      <c r="AD50" s="39"/>
+      <c r="AE50" s="39"/>
+      <c r="AF50" s="39"/>
+      <c r="AG50" s="39"/>
       <c r="AH50" s="38"/>
       <c r="AI50" s="38"/>
-      <c r="AJ50" s="123"/>
-      <c r="AK50" s="123"/>
-      <c r="AL50" s="123"/>
-      <c r="AM50" s="58"/>
+      <c r="AJ50" s="139"/>
+      <c r="AK50" s="38"/>
+      <c r="AL50" s="38"/>
+      <c r="AM50" s="38"/>
       <c r="AN50" s="38"/>
       <c r="AO50" s="38"/>
       <c r="AP50" s="38"/>
@@ -6303,44 +6284,44 @@
       <c r="A51" s="32"/>
       <c r="B51" s="53"/>
       <c r="C51" s="56" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="D51" s="54"/>
       <c r="E51" s="35"/>
       <c r="F51" s="35"/>
       <c r="G51" s="36"/>
       <c r="H51" s="37"/>
-      <c r="I51" s="128"/>
-      <c r="J51" s="128"/>
-      <c r="K51" s="128"/>
-      <c r="L51" s="128"/>
-      <c r="M51" s="128"/>
-      <c r="N51" s="128"/>
-      <c r="O51" s="128"/>
-      <c r="P51" s="128"/>
-      <c r="Q51" s="128"/>
-      <c r="R51" s="128"/>
-      <c r="S51" s="128"/>
-      <c r="T51" s="128"/>
-      <c r="U51" s="128"/>
-      <c r="V51" s="128"/>
-      <c r="W51" s="128"/>
-      <c r="X51" s="128"/>
-      <c r="Y51" s="128"/>
-      <c r="Z51" s="128"/>
-      <c r="AA51" s="128"/>
-      <c r="AB51" s="128"/>
-      <c r="AC51" s="128"/>
-      <c r="AD51" s="128"/>
-      <c r="AE51" s="128"/>
-      <c r="AF51" s="128"/>
-      <c r="AG51" s="128"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="38"/>
+      <c r="T51" s="38"/>
+      <c r="U51" s="38"/>
+      <c r="V51" s="38"/>
+      <c r="W51" s="38"/>
+      <c r="X51" s="38"/>
+      <c r="Y51" s="38"/>
+      <c r="Z51" s="38"/>
+      <c r="AA51" s="38"/>
+      <c r="AB51" s="38"/>
+      <c r="AC51" s="39"/>
+      <c r="AD51" s="39"/>
+      <c r="AE51" s="39"/>
+      <c r="AF51" s="39"/>
+      <c r="AG51" s="39"/>
       <c r="AH51" s="38"/>
       <c r="AI51" s="38"/>
-      <c r="AJ51" s="123"/>
-      <c r="AK51" s="123"/>
-      <c r="AL51" s="123"/>
-      <c r="AM51" s="58"/>
+      <c r="AJ51" s="139"/>
+      <c r="AK51" s="38"/>
+      <c r="AL51" s="38"/>
+      <c r="AM51" s="38"/>
       <c r="AN51" s="38"/>
       <c r="AO51" s="38"/>
       <c r="AP51" s="38"/>
@@ -6385,45 +6366,45 @@
       <c r="A52" s="32"/>
       <c r="B52" s="53"/>
       <c r="C52" s="56" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="D52" s="54"/>
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
       <c r="G52" s="36"/>
       <c r="H52" s="37"/>
-      <c r="I52" s="128"/>
-      <c r="J52" s="128"/>
-      <c r="K52" s="128"/>
-      <c r="L52" s="128"/>
-      <c r="M52" s="128"/>
-      <c r="N52" s="128"/>
-      <c r="O52" s="128"/>
-      <c r="P52" s="128"/>
-      <c r="Q52" s="128"/>
-      <c r="R52" s="128"/>
-      <c r="S52" s="128"/>
-      <c r="T52" s="128"/>
-      <c r="U52" s="128"/>
-      <c r="V52" s="128"/>
-      <c r="W52" s="128"/>
-      <c r="X52" s="128"/>
-      <c r="Y52" s="128"/>
-      <c r="Z52" s="128"/>
-      <c r="AA52" s="128"/>
-      <c r="AB52" s="128"/>
-      <c r="AC52" s="128"/>
-      <c r="AD52" s="128"/>
-      <c r="AE52" s="128"/>
-      <c r="AF52" s="128"/>
-      <c r="AG52" s="128"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="38"/>
+      <c r="U52" s="38"/>
+      <c r="V52" s="38"/>
+      <c r="W52" s="38"/>
+      <c r="X52" s="38"/>
+      <c r="Y52" s="38"/>
+      <c r="Z52" s="38"/>
+      <c r="AA52" s="38"/>
+      <c r="AB52" s="38"/>
+      <c r="AC52" s="39"/>
+      <c r="AD52" s="39"/>
+      <c r="AE52" s="39"/>
+      <c r="AF52" s="39"/>
+      <c r="AG52" s="39"/>
       <c r="AH52" s="38"/>
       <c r="AI52" s="38"/>
-      <c r="AJ52" s="123"/>
-      <c r="AK52" s="123"/>
-      <c r="AL52" s="123"/>
-      <c r="AM52" s="58"/>
-      <c r="AN52" s="130"/>
+      <c r="AJ52" s="139"/>
+      <c r="AK52" s="38"/>
+      <c r="AL52" s="38"/>
+      <c r="AM52" s="38"/>
+      <c r="AN52" s="38"/>
       <c r="AO52" s="38"/>
       <c r="AP52" s="38"/>
       <c r="AQ52" s="38"/>
@@ -6466,46 +6447,44 @@
     <row r="53" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32"/>
       <c r="B53" s="53"/>
-      <c r="C53" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="C53" s="56"/>
       <c r="D53" s="54"/>
       <c r="E53" s="35"/>
       <c r="F53" s="35"/>
       <c r="G53" s="36"/>
       <c r="H53" s="37"/>
-      <c r="I53" s="128"/>
-      <c r="J53" s="128"/>
-      <c r="K53" s="128"/>
-      <c r="L53" s="128"/>
-      <c r="M53" s="128"/>
-      <c r="N53" s="128"/>
-      <c r="O53" s="128"/>
-      <c r="P53" s="128"/>
-      <c r="Q53" s="128"/>
-      <c r="R53" s="128"/>
-      <c r="S53" s="128"/>
-      <c r="T53" s="128"/>
-      <c r="U53" s="128"/>
-      <c r="V53" s="128"/>
-      <c r="W53" s="128"/>
-      <c r="X53" s="128"/>
-      <c r="Y53" s="128"/>
-      <c r="Z53" s="128"/>
-      <c r="AA53" s="128"/>
-      <c r="AB53" s="128"/>
-      <c r="AC53" s="128"/>
-      <c r="AD53" s="128"/>
-      <c r="AE53" s="128"/>
-      <c r="AF53" s="128"/>
-      <c r="AG53" s="128"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="44"/>
+      <c r="S53" s="38"/>
+      <c r="T53" s="38"/>
+      <c r="U53" s="38"/>
+      <c r="V53" s="38"/>
+      <c r="W53" s="38"/>
+      <c r="X53" s="38"/>
+      <c r="Y53" s="38"/>
+      <c r="Z53" s="38"/>
+      <c r="AA53" s="38"/>
+      <c r="AB53" s="38"/>
+      <c r="AC53" s="39"/>
+      <c r="AD53" s="39"/>
+      <c r="AE53" s="39"/>
+      <c r="AF53" s="39"/>
+      <c r="AG53" s="39"/>
       <c r="AH53" s="38"/>
       <c r="AI53" s="38"/>
-      <c r="AJ53" s="38"/>
+      <c r="AJ53" s="139"/>
       <c r="AK53" s="38"/>
       <c r="AL53" s="38"/>
       <c r="AM53" s="38"/>
-      <c r="AN53" s="129"/>
+      <c r="AN53" s="38"/>
       <c r="AO53" s="38"/>
       <c r="AP53" s="38"/>
       <c r="AQ53" s="38"/>
@@ -6547,128 +6526,128 @@
     </row>
     <row r="54" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="54"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="128"/>
-      <c r="J54" s="128"/>
-      <c r="K54" s="128"/>
-      <c r="L54" s="128"/>
-      <c r="M54" s="128"/>
-      <c r="N54" s="128"/>
-      <c r="O54" s="128"/>
-      <c r="P54" s="128"/>
-      <c r="Q54" s="128"/>
-      <c r="R54" s="128"/>
-      <c r="S54" s="128"/>
-      <c r="T54" s="128"/>
-      <c r="U54" s="128"/>
-      <c r="V54" s="128"/>
-      <c r="W54" s="128"/>
-      <c r="X54" s="128"/>
-      <c r="Y54" s="128"/>
-      <c r="Z54" s="128"/>
-      <c r="AA54" s="128"/>
-      <c r="AB54" s="128"/>
-      <c r="AC54" s="128"/>
-      <c r="AD54" s="128"/>
-      <c r="AE54" s="128"/>
-      <c r="AF54" s="128"/>
-      <c r="AG54" s="128"/>
-      <c r="AH54" s="38"/>
-      <c r="AI54" s="38"/>
-      <c r="AJ54" s="38"/>
-      <c r="AK54" s="38"/>
-      <c r="AL54" s="38"/>
-      <c r="AM54" s="38"/>
-      <c r="AN54" s="38"/>
-      <c r="AO54" s="38"/>
-      <c r="AP54" s="38"/>
-      <c r="AQ54" s="38"/>
-      <c r="AR54" s="40"/>
-      <c r="AS54" s="40"/>
-      <c r="AT54" s="40"/>
-      <c r="AU54" s="40"/>
-      <c r="AV54" s="40"/>
-      <c r="AW54" s="38"/>
-      <c r="AX54" s="38"/>
-      <c r="AY54" s="38"/>
-      <c r="AZ54" s="38"/>
-      <c r="BA54" s="38"/>
-      <c r="BB54" s="38"/>
-      <c r="BC54" s="38"/>
-      <c r="BD54" s="38"/>
-      <c r="BE54" s="38"/>
-      <c r="BF54" s="38"/>
-      <c r="BG54" s="41"/>
-      <c r="BH54" s="41"/>
-      <c r="BI54" s="41"/>
-      <c r="BJ54" s="41"/>
-      <c r="BK54" s="41"/>
-      <c r="BL54" s="38"/>
-      <c r="BM54" s="38"/>
-      <c r="BN54" s="38"/>
-      <c r="BO54" s="38"/>
-      <c r="BP54" s="38"/>
-      <c r="BQ54" s="38"/>
-      <c r="BR54" s="38"/>
-      <c r="BS54" s="38"/>
-      <c r="BT54" s="38"/>
-      <c r="BU54" s="38"/>
-      <c r="BV54" s="38"/>
-      <c r="BW54" s="38"/>
-      <c r="BX54" s="38"/>
-      <c r="BY54" s="38"/>
-      <c r="BZ54" s="38"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="83"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="86"/>
+      <c r="I54" s="87"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="89"/>
+      <c r="L54" s="89"/>
+      <c r="M54" s="89"/>
+      <c r="N54" s="90"/>
+      <c r="O54" s="90"/>
+      <c r="P54" s="90"/>
+      <c r="Q54" s="90"/>
+      <c r="R54" s="90"/>
+      <c r="S54" s="89"/>
+      <c r="T54" s="89"/>
+      <c r="U54" s="89"/>
+      <c r="V54" s="89"/>
+      <c r="W54" s="89"/>
+      <c r="X54" s="89"/>
+      <c r="Y54" s="89"/>
+      <c r="Z54" s="89"/>
+      <c r="AA54" s="89"/>
+      <c r="AB54" s="89"/>
+      <c r="AC54" s="91"/>
+      <c r="AD54" s="91"/>
+      <c r="AE54" s="91"/>
+      <c r="AF54" s="91"/>
+      <c r="AG54" s="91"/>
+      <c r="AH54" s="89"/>
+      <c r="AI54" s="89"/>
+      <c r="AJ54" s="89"/>
+      <c r="AK54" s="89"/>
+      <c r="AL54" s="89"/>
+      <c r="AM54" s="89"/>
+      <c r="AN54" s="89"/>
+      <c r="AO54" s="89"/>
+      <c r="AP54" s="89"/>
+      <c r="AQ54" s="89"/>
+      <c r="AR54" s="92"/>
+      <c r="AS54" s="92"/>
+      <c r="AT54" s="92"/>
+      <c r="AU54" s="92"/>
+      <c r="AV54" s="92"/>
+      <c r="AW54" s="89"/>
+      <c r="AX54" s="89"/>
+      <c r="AY54" s="89"/>
+      <c r="AZ54" s="89"/>
+      <c r="BA54" s="89"/>
+      <c r="BB54" s="89"/>
+      <c r="BC54" s="89"/>
+      <c r="BD54" s="89"/>
+      <c r="BE54" s="89"/>
+      <c r="BF54" s="89"/>
+      <c r="BG54" s="93"/>
+      <c r="BH54" s="93"/>
+      <c r="BI54" s="93"/>
+      <c r="BJ54" s="93"/>
+      <c r="BK54" s="93"/>
+      <c r="BL54" s="89"/>
+      <c r="BM54" s="89"/>
+      <c r="BN54" s="89"/>
+      <c r="BO54" s="89"/>
+      <c r="BP54" s="89"/>
+      <c r="BQ54" s="89"/>
+      <c r="BR54" s="89"/>
+      <c r="BS54" s="89"/>
+      <c r="BT54" s="89"/>
+      <c r="BU54" s="89"/>
+      <c r="BV54" s="89"/>
+      <c r="BW54" s="89"/>
+      <c r="BX54" s="89"/>
+      <c r="BY54" s="89"/>
+      <c r="BZ54" s="89"/>
     </row>
     <row r="55" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
       <c r="B55" s="53"/>
       <c r="C55" s="56" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D55" s="54"/>
       <c r="E55" s="35"/>
       <c r="F55" s="35"/>
       <c r="G55" s="36"/>
       <c r="H55" s="37"/>
-      <c r="I55" s="128"/>
-      <c r="J55" s="128"/>
-      <c r="K55" s="128"/>
-      <c r="L55" s="128"/>
-      <c r="M55" s="128"/>
-      <c r="N55" s="128"/>
-      <c r="O55" s="128"/>
-      <c r="P55" s="128"/>
-      <c r="Q55" s="128"/>
-      <c r="R55" s="128"/>
-      <c r="S55" s="128"/>
-      <c r="T55" s="128"/>
-      <c r="U55" s="128"/>
-      <c r="V55" s="128"/>
-      <c r="W55" s="128"/>
-      <c r="X55" s="128"/>
-      <c r="Y55" s="128"/>
-      <c r="Z55" s="128"/>
-      <c r="AA55" s="128"/>
-      <c r="AB55" s="128"/>
-      <c r="AC55" s="128"/>
-      <c r="AD55" s="128"/>
-      <c r="AE55" s="128"/>
-      <c r="AF55" s="128"/>
-      <c r="AG55" s="128"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="44"/>
+      <c r="S55" s="38"/>
+      <c r="T55" s="38"/>
+      <c r="U55" s="38"/>
+      <c r="V55" s="38"/>
+      <c r="W55" s="38"/>
+      <c r="X55" s="38"/>
+      <c r="Y55" s="38"/>
+      <c r="Z55" s="38"/>
+      <c r="AA55" s="38"/>
+      <c r="AB55" s="38"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="39"/>
+      <c r="AF55" s="39"/>
+      <c r="AG55" s="39"/>
       <c r="AH55" s="38"/>
-      <c r="AI55" s="38"/>
-      <c r="AJ55" s="38"/>
-      <c r="AK55" s="38"/>
-      <c r="AL55" s="38"/>
-      <c r="AM55" s="38"/>
+      <c r="AI55" s="158"/>
+      <c r="AJ55" s="158"/>
+      <c r="AK55" s="158"/>
+      <c r="AL55" s="158"/>
+      <c r="AM55" s="58"/>
       <c r="AN55" s="38"/>
       <c r="AO55" s="38"/>
       <c r="AP55" s="38"/>
@@ -6713,44 +6692,44 @@
       <c r="A56" s="32"/>
       <c r="B56" s="53"/>
       <c r="C56" s="56" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D56" s="54"/>
       <c r="E56" s="35"/>
       <c r="F56" s="35"/>
       <c r="G56" s="36"/>
       <c r="H56" s="37"/>
-      <c r="I56" s="128"/>
-      <c r="J56" s="128"/>
-      <c r="K56" s="128"/>
-      <c r="L56" s="128"/>
-      <c r="M56" s="128"/>
-      <c r="N56" s="128"/>
-      <c r="O56" s="128"/>
-      <c r="P56" s="128"/>
-      <c r="Q56" s="128"/>
-      <c r="R56" s="128"/>
-      <c r="S56" s="128"/>
-      <c r="T56" s="128"/>
-      <c r="U56" s="128"/>
-      <c r="V56" s="128"/>
-      <c r="W56" s="128"/>
-      <c r="X56" s="128"/>
-      <c r="Y56" s="128"/>
-      <c r="Z56" s="128"/>
-      <c r="AA56" s="128"/>
-      <c r="AB56" s="128"/>
-      <c r="AC56" s="128"/>
-      <c r="AD56" s="128"/>
-      <c r="AE56" s="128"/>
-      <c r="AF56" s="128"/>
-      <c r="AG56" s="128"/>
-      <c r="AH56" s="38"/>
-      <c r="AI56" s="38"/>
-      <c r="AJ56" s="38"/>
-      <c r="AK56" s="38"/>
-      <c r="AL56" s="38"/>
-      <c r="AM56" s="38"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="44"/>
+      <c r="O56" s="44"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="38"/>
+      <c r="V56" s="38"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="38"/>
+      <c r="Y56" s="38"/>
+      <c r="Z56" s="38"/>
+      <c r="AA56" s="38"/>
+      <c r="AB56" s="38"/>
+      <c r="AC56" s="139"/>
+      <c r="AD56" s="139"/>
+      <c r="AE56" s="139"/>
+      <c r="AF56" s="139"/>
+      <c r="AG56" s="139"/>
+      <c r="AH56" s="139"/>
+      <c r="AI56" s="158"/>
+      <c r="AJ56" s="158"/>
+      <c r="AK56" s="158"/>
+      <c r="AL56" s="158"/>
+      <c r="AM56" s="58"/>
       <c r="AN56" s="38"/>
       <c r="AO56" s="38"/>
       <c r="AP56" s="38"/>
@@ -6795,7 +6774,7 @@
       <c r="A57" s="32"/>
       <c r="B57" s="53"/>
       <c r="C57" s="56" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="D57" s="54"/>
       <c r="E57" s="35"/>
@@ -6822,17 +6801,17 @@
       <c r="Z57" s="38"/>
       <c r="AA57" s="38"/>
       <c r="AB57" s="38"/>
-      <c r="AC57" s="39"/>
-      <c r="AD57" s="39"/>
-      <c r="AE57" s="39"/>
-      <c r="AF57" s="39"/>
-      <c r="AG57" s="39"/>
-      <c r="AH57" s="38"/>
-      <c r="AI57" s="38"/>
-      <c r="AJ57" s="38"/>
-      <c r="AK57" s="38"/>
-      <c r="AL57" s="38"/>
-      <c r="AM57" s="38"/>
+      <c r="AC57" s="139"/>
+      <c r="AD57" s="139"/>
+      <c r="AE57" s="139"/>
+      <c r="AF57" s="139"/>
+      <c r="AG57" s="139"/>
+      <c r="AH57" s="139"/>
+      <c r="AI57" s="158"/>
+      <c r="AJ57" s="158"/>
+      <c r="AK57" s="158"/>
+      <c r="AL57" s="158"/>
+      <c r="AM57" s="58"/>
       <c r="AN57" s="38"/>
       <c r="AO57" s="38"/>
       <c r="AP57" s="38"/>
@@ -6877,7 +6856,7 @@
       <c r="A58" s="32"/>
       <c r="B58" s="53"/>
       <c r="C58" s="56" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D58" s="54"/>
       <c r="E58" s="35"/>
@@ -6910,11 +6889,11 @@
       <c r="AF58" s="39"/>
       <c r="AG58" s="39"/>
       <c r="AH58" s="38"/>
-      <c r="AI58" s="38"/>
-      <c r="AJ58" s="38"/>
-      <c r="AK58" s="38"/>
-      <c r="AL58" s="38"/>
-      <c r="AM58" s="38"/>
+      <c r="AI58" s="158"/>
+      <c r="AJ58" s="158"/>
+      <c r="AK58" s="158"/>
+      <c r="AL58" s="158"/>
+      <c r="AM58" s="58"/>
       <c r="AN58" s="38"/>
       <c r="AO58" s="38"/>
       <c r="AP58" s="38"/>
@@ -6959,7 +6938,7 @@
       <c r="A59" s="32"/>
       <c r="B59" s="53"/>
       <c r="C59" s="56" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D59" s="54"/>
       <c r="E59" s="35"/>
@@ -6992,11 +6971,11 @@
       <c r="AF59" s="39"/>
       <c r="AG59" s="39"/>
       <c r="AH59" s="38"/>
-      <c r="AI59" s="38"/>
-      <c r="AJ59" s="38"/>
-      <c r="AK59" s="38"/>
-      <c r="AL59" s="38"/>
-      <c r="AM59" s="38"/>
+      <c r="AI59" s="158"/>
+      <c r="AJ59" s="158"/>
+      <c r="AK59" s="158"/>
+      <c r="AL59" s="158"/>
+      <c r="AM59" s="58"/>
       <c r="AN59" s="38"/>
       <c r="AO59" s="38"/>
       <c r="AP59" s="38"/>
@@ -7041,7 +7020,7 @@
       <c r="A60" s="32"/>
       <c r="B60" s="53"/>
       <c r="C60" s="56" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="D60" s="54"/>
       <c r="E60" s="35"/>
@@ -7074,11 +7053,11 @@
       <c r="AF60" s="39"/>
       <c r="AG60" s="39"/>
       <c r="AH60" s="38"/>
-      <c r="AI60" s="38"/>
-      <c r="AJ60" s="38"/>
-      <c r="AK60" s="38"/>
-      <c r="AL60" s="38"/>
-      <c r="AM60" s="38"/>
+      <c r="AI60" s="169"/>
+      <c r="AJ60" s="169"/>
+      <c r="AK60" s="169"/>
+      <c r="AL60" s="169"/>
+      <c r="AM60" s="170"/>
       <c r="AN60" s="38"/>
       <c r="AO60" s="38"/>
       <c r="AP60" s="38"/>
@@ -7122,9 +7101,7 @@
     <row r="61" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="32"/>
       <c r="B61" s="53"/>
-      <c r="C61" s="56" t="s">
-        <v>78</v>
-      </c>
+      <c r="C61" s="56"/>
       <c r="D61" s="54"/>
       <c r="E61" s="35"/>
       <c r="F61" s="35"/>
@@ -7155,12 +7132,12 @@
       <c r="AE61" s="39"/>
       <c r="AF61" s="39"/>
       <c r="AG61" s="39"/>
-      <c r="AH61" s="38"/>
-      <c r="AI61" s="38"/>
-      <c r="AJ61" s="38"/>
-      <c r="AK61" s="38"/>
-      <c r="AL61" s="38"/>
-      <c r="AM61" s="38"/>
+      <c r="AH61" s="139"/>
+      <c r="AI61" s="139"/>
+      <c r="AJ61" s="139"/>
+      <c r="AK61" s="139"/>
+      <c r="AL61" s="139"/>
+      <c r="AM61" s="139"/>
       <c r="AN61" s="38"/>
       <c r="AO61" s="38"/>
       <c r="AP61" s="38"/>
@@ -7235,12 +7212,12 @@
       <c r="AE62" s="39"/>
       <c r="AF62" s="39"/>
       <c r="AG62" s="39"/>
-      <c r="AH62" s="38"/>
-      <c r="AI62" s="38"/>
-      <c r="AJ62" s="38"/>
-      <c r="AK62" s="38"/>
-      <c r="AL62" s="38"/>
-      <c r="AM62" s="38"/>
+      <c r="AH62" s="139"/>
+      <c r="AI62" s="139"/>
+      <c r="AJ62" s="139"/>
+      <c r="AK62" s="139"/>
+      <c r="AL62" s="139"/>
+      <c r="AM62" s="139"/>
       <c r="AN62" s="38"/>
       <c r="AO62" s="38"/>
       <c r="AP62" s="38"/>
@@ -7283,255 +7260,253 @@
     </row>
     <row r="63" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="32"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" s="61"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="63"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="66"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
-      <c r="N63" s="68"/>
-      <c r="O63" s="68"/>
-      <c r="P63" s="68"/>
-      <c r="Q63" s="68"/>
-      <c r="R63" s="68"/>
-      <c r="S63" s="67"/>
-      <c r="T63" s="67"/>
-      <c r="U63" s="67"/>
-      <c r="V63" s="67"/>
-      <c r="W63" s="67"/>
-      <c r="X63" s="67"/>
-      <c r="Y63" s="67"/>
-      <c r="Z63" s="67"/>
-      <c r="AA63" s="67"/>
-      <c r="AB63" s="67"/>
-      <c r="AC63" s="69"/>
-      <c r="AD63" s="69"/>
-      <c r="AE63" s="69"/>
-      <c r="AF63" s="69"/>
-      <c r="AG63" s="69"/>
-      <c r="AH63" s="67"/>
-      <c r="AI63" s="67"/>
-      <c r="AJ63" s="67"/>
-      <c r="AK63" s="67"/>
-      <c r="AL63" s="67"/>
-      <c r="AM63" s="67"/>
-      <c r="AN63" s="67"/>
-      <c r="AO63" s="67"/>
-      <c r="AP63" s="67"/>
-      <c r="AQ63" s="67"/>
-      <c r="AR63" s="70"/>
-      <c r="AS63" s="70"/>
-      <c r="AT63" s="70"/>
-      <c r="AU63" s="70"/>
-      <c r="AV63" s="70"/>
-      <c r="AW63" s="67"/>
-      <c r="AX63" s="67"/>
-      <c r="AY63" s="67"/>
-      <c r="AZ63" s="67"/>
-      <c r="BA63" s="67"/>
-      <c r="BB63" s="67"/>
-      <c r="BC63" s="67"/>
-      <c r="BD63" s="67"/>
-      <c r="BE63" s="67"/>
-      <c r="BF63" s="67"/>
-      <c r="BG63" s="71"/>
-      <c r="BH63" s="71"/>
-      <c r="BI63" s="71"/>
-      <c r="BJ63" s="71"/>
-      <c r="BK63" s="71"/>
-      <c r="BL63" s="67"/>
-      <c r="BM63" s="67"/>
-      <c r="BN63" s="67"/>
-      <c r="BO63" s="67"/>
-      <c r="BP63" s="67"/>
-      <c r="BQ63" s="67"/>
-      <c r="BR63" s="67"/>
-      <c r="BS63" s="67"/>
-      <c r="BT63" s="67"/>
-      <c r="BU63" s="67"/>
-      <c r="BV63" s="67"/>
-      <c r="BW63" s="67"/>
-      <c r="BX63" s="67"/>
-      <c r="BY63" s="67"/>
-      <c r="BZ63" s="67"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="44"/>
+      <c r="R63" s="44"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="38"/>
+      <c r="V63" s="38"/>
+      <c r="W63" s="38"/>
+      <c r="X63" s="38"/>
+      <c r="Y63" s="38"/>
+      <c r="Z63" s="38"/>
+      <c r="AA63" s="38"/>
+      <c r="AB63" s="38"/>
+      <c r="AC63" s="39"/>
+      <c r="AD63" s="39"/>
+      <c r="AE63" s="39"/>
+      <c r="AF63" s="39"/>
+      <c r="AG63" s="39"/>
+      <c r="AH63" s="139"/>
+      <c r="AI63" s="139"/>
+      <c r="AJ63" s="139"/>
+      <c r="AK63" s="139"/>
+      <c r="AL63" s="139"/>
+      <c r="AM63" s="139"/>
+      <c r="AN63" s="38"/>
+      <c r="AO63" s="38"/>
+      <c r="AP63" s="38"/>
+      <c r="AQ63" s="38"/>
+      <c r="AR63" s="40"/>
+      <c r="AS63" s="40"/>
+      <c r="AT63" s="40"/>
+      <c r="AU63" s="40"/>
+      <c r="AV63" s="40"/>
+      <c r="AW63" s="38"/>
+      <c r="AX63" s="38"/>
+      <c r="AY63" s="38"/>
+      <c r="AZ63" s="38"/>
+      <c r="BA63" s="38"/>
+      <c r="BB63" s="38"/>
+      <c r="BC63" s="38"/>
+      <c r="BD63" s="38"/>
+      <c r="BE63" s="38"/>
+      <c r="BF63" s="38"/>
+      <c r="BG63" s="41"/>
+      <c r="BH63" s="41"/>
+      <c r="BI63" s="41"/>
+      <c r="BJ63" s="41"/>
+      <c r="BK63" s="41"/>
+      <c r="BL63" s="38"/>
+      <c r="BM63" s="38"/>
+      <c r="BN63" s="38"/>
+      <c r="BO63" s="38"/>
+      <c r="BP63" s="38"/>
+      <c r="BQ63" s="38"/>
+      <c r="BR63" s="38"/>
+      <c r="BS63" s="38"/>
+      <c r="BT63" s="38"/>
+      <c r="BU63" s="38"/>
+      <c r="BV63" s="38"/>
+      <c r="BW63" s="38"/>
+      <c r="BX63" s="38"/>
+      <c r="BY63" s="38"/>
+      <c r="BZ63" s="38"/>
     </row>
-    <row r="64" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64" s="54"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="44"/>
-      <c r="O64" s="44"/>
-      <c r="P64" s="44"/>
-      <c r="Q64" s="44"/>
-      <c r="R64" s="44"/>
-      <c r="S64" s="38"/>
-      <c r="T64" s="38"/>
-      <c r="U64" s="38"/>
-      <c r="V64" s="38"/>
-      <c r="W64" s="38"/>
-      <c r="X64" s="38"/>
-      <c r="Y64" s="38"/>
-      <c r="Z64" s="38"/>
-      <c r="AA64" s="38"/>
-      <c r="AB64" s="38"/>
-      <c r="AC64" s="39"/>
-      <c r="AD64" s="39"/>
-      <c r="AE64" s="39"/>
-      <c r="AF64" s="39"/>
-      <c r="AG64" s="39"/>
-      <c r="AH64" s="38"/>
-      <c r="AI64" s="123"/>
-      <c r="AJ64" s="123"/>
-      <c r="AK64" s="123"/>
-      <c r="AL64" s="123"/>
-      <c r="AM64" s="58"/>
-      <c r="AN64" s="38"/>
-      <c r="AO64" s="38"/>
-      <c r="AP64" s="38"/>
-      <c r="AQ64" s="38"/>
-      <c r="AR64" s="40"/>
-      <c r="AS64" s="40"/>
-      <c r="AT64" s="40"/>
-      <c r="AU64" s="40"/>
-      <c r="AV64" s="40"/>
-      <c r="AW64" s="38"/>
-      <c r="AX64" s="38"/>
-      <c r="AY64" s="38"/>
-      <c r="AZ64" s="38"/>
-      <c r="BA64" s="38"/>
-      <c r="BB64" s="38"/>
-      <c r="BC64" s="38"/>
-      <c r="BD64" s="38"/>
-      <c r="BE64" s="38"/>
-      <c r="BF64" s="38"/>
-      <c r="BG64" s="41"/>
-      <c r="BH64" s="41"/>
-      <c r="BI64" s="41"/>
-      <c r="BJ64" s="41"/>
-      <c r="BK64" s="41"/>
-      <c r="BL64" s="38"/>
-      <c r="BM64" s="38"/>
-      <c r="BN64" s="38"/>
-      <c r="BO64" s="38"/>
-      <c r="BP64" s="38"/>
-      <c r="BQ64" s="38"/>
-      <c r="BR64" s="38"/>
-      <c r="BS64" s="38"/>
-      <c r="BT64" s="38"/>
-      <c r="BU64" s="38"/>
-      <c r="BV64" s="38"/>
-      <c r="BW64" s="38"/>
-      <c r="BX64" s="38"/>
-      <c r="BY64" s="38"/>
-      <c r="BZ64" s="38"/>
+    <row r="64" spans="1:78" s="97" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="94"/>
+      <c r="B64" s="81"/>
+      <c r="C64" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" s="83"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="86"/>
+      <c r="I64" s="87"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="89"/>
+      <c r="L64" s="89"/>
+      <c r="M64" s="89"/>
+      <c r="N64" s="90"/>
+      <c r="O64" s="90"/>
+      <c r="P64" s="90"/>
+      <c r="Q64" s="90"/>
+      <c r="R64" s="90"/>
+      <c r="S64" s="89"/>
+      <c r="T64" s="89"/>
+      <c r="U64" s="89"/>
+      <c r="V64" s="89"/>
+      <c r="W64" s="89"/>
+      <c r="X64" s="89"/>
+      <c r="Y64" s="89"/>
+      <c r="Z64" s="89"/>
+      <c r="AA64" s="89"/>
+      <c r="AB64" s="89"/>
+      <c r="AC64" s="91"/>
+      <c r="AD64" s="91"/>
+      <c r="AE64" s="91"/>
+      <c r="AF64" s="91"/>
+      <c r="AG64" s="91"/>
+      <c r="AH64" s="89"/>
+      <c r="AI64" s="89"/>
+      <c r="AJ64" s="91"/>
+      <c r="AK64" s="89"/>
+      <c r="AL64" s="89"/>
+      <c r="AM64" s="89"/>
+      <c r="AN64" s="89"/>
+      <c r="AO64" s="89"/>
+      <c r="AP64" s="89"/>
+      <c r="AQ64" s="89"/>
+      <c r="AR64" s="92"/>
+      <c r="AS64" s="92"/>
+      <c r="AT64" s="92"/>
+      <c r="AU64" s="92"/>
+      <c r="AV64" s="92"/>
+      <c r="AW64" s="89"/>
+      <c r="AX64" s="89"/>
+      <c r="AY64" s="89"/>
+      <c r="AZ64" s="89"/>
+      <c r="BA64" s="89"/>
+      <c r="BB64" s="89"/>
+      <c r="BC64" s="89"/>
+      <c r="BD64" s="89"/>
+      <c r="BE64" s="89"/>
+      <c r="BF64" s="89"/>
+      <c r="BG64" s="93"/>
+      <c r="BH64" s="93"/>
+      <c r="BI64" s="93"/>
+      <c r="BJ64" s="93"/>
+      <c r="BK64" s="93"/>
+      <c r="BL64" s="89"/>
+      <c r="BM64" s="89"/>
+      <c r="BN64" s="89"/>
+      <c r="BO64" s="89"/>
+      <c r="BP64" s="89"/>
+      <c r="BQ64" s="89"/>
+      <c r="BR64" s="89"/>
+      <c r="BS64" s="89"/>
+      <c r="BT64" s="89"/>
+      <c r="BU64" s="89"/>
+      <c r="BV64" s="89"/>
+      <c r="BW64" s="89"/>
+      <c r="BX64" s="89"/>
+      <c r="BY64" s="89"/>
+      <c r="BZ64" s="89"/>
     </row>
-    <row r="65" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="D65" s="54"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="44"/>
-      <c r="O65" s="44"/>
-      <c r="P65" s="44"/>
-      <c r="Q65" s="44"/>
-      <c r="R65" s="44"/>
-      <c r="S65" s="38"/>
-      <c r="T65" s="38"/>
-      <c r="U65" s="38"/>
-      <c r="V65" s="38"/>
-      <c r="W65" s="38"/>
-      <c r="X65" s="38"/>
-      <c r="Y65" s="38"/>
-      <c r="Z65" s="38"/>
-      <c r="AA65" s="38"/>
-      <c r="AB65" s="38"/>
-      <c r="AC65" s="38"/>
-      <c r="AD65" s="38"/>
-      <c r="AE65" s="38"/>
-      <c r="AF65" s="38"/>
-      <c r="AG65" s="38"/>
-      <c r="AH65" s="38"/>
-      <c r="AI65" s="123"/>
-      <c r="AJ65" s="123"/>
-      <c r="AK65" s="123"/>
-      <c r="AL65" s="123"/>
-      <c r="AM65" s="58"/>
-      <c r="AN65" s="38"/>
-      <c r="AO65" s="38"/>
-      <c r="AP65" s="38"/>
-      <c r="AQ65" s="38"/>
-      <c r="AR65" s="40"/>
-      <c r="AS65" s="40"/>
-      <c r="AT65" s="40"/>
-      <c r="AU65" s="40"/>
-      <c r="AV65" s="40"/>
-      <c r="AW65" s="38"/>
-      <c r="AX65" s="38"/>
-      <c r="AY65" s="38"/>
-      <c r="AZ65" s="38"/>
-      <c r="BA65" s="38"/>
-      <c r="BB65" s="38"/>
-      <c r="BC65" s="38"/>
-      <c r="BD65" s="38"/>
-      <c r="BE65" s="38"/>
-      <c r="BF65" s="38"/>
-      <c r="BG65" s="41"/>
-      <c r="BH65" s="41"/>
-      <c r="BI65" s="41"/>
-      <c r="BJ65" s="41"/>
-      <c r="BK65" s="41"/>
-      <c r="BL65" s="38"/>
-      <c r="BM65" s="38"/>
-      <c r="BN65" s="38"/>
-      <c r="BO65" s="38"/>
-      <c r="BP65" s="38"/>
-      <c r="BQ65" s="38"/>
-      <c r="BR65" s="38"/>
-      <c r="BS65" s="38"/>
-      <c r="BT65" s="38"/>
-      <c r="BU65" s="38"/>
-      <c r="BV65" s="38"/>
-      <c r="BW65" s="38"/>
-      <c r="BX65" s="38"/>
-      <c r="BY65" s="38"/>
-      <c r="BZ65" s="38"/>
+    <row r="65" spans="1:78" s="129" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="115"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="117" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" s="118"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="119"/>
+      <c r="G65" s="120"/>
+      <c r="H65" s="121"/>
+      <c r="I65" s="122"/>
+      <c r="J65" s="123"/>
+      <c r="K65" s="124"/>
+      <c r="L65" s="124"/>
+      <c r="M65" s="124"/>
+      <c r="N65" s="125"/>
+      <c r="O65" s="125"/>
+      <c r="P65" s="125"/>
+      <c r="Q65" s="125"/>
+      <c r="R65" s="125"/>
+      <c r="S65" s="124"/>
+      <c r="T65" s="124"/>
+      <c r="U65" s="124"/>
+      <c r="V65" s="124"/>
+      <c r="W65" s="124"/>
+      <c r="X65" s="124"/>
+      <c r="Y65" s="124"/>
+      <c r="Z65" s="124"/>
+      <c r="AA65" s="124"/>
+      <c r="AB65" s="124"/>
+      <c r="AC65" s="126"/>
+      <c r="AD65" s="126"/>
+      <c r="AE65" s="126"/>
+      <c r="AF65" s="126"/>
+      <c r="AG65" s="126"/>
+      <c r="AH65" s="124"/>
+      <c r="AI65" s="124"/>
+      <c r="AJ65" s="126"/>
+      <c r="AK65" s="124"/>
+      <c r="AL65" s="124"/>
+      <c r="AM65" s="124"/>
+      <c r="AN65" s="124"/>
+      <c r="AO65" s="124"/>
+      <c r="AP65" s="124"/>
+      <c r="AQ65" s="124"/>
+      <c r="AR65" s="127"/>
+      <c r="AS65" s="127"/>
+      <c r="AT65" s="127"/>
+      <c r="AU65" s="127"/>
+      <c r="AV65" s="127"/>
+      <c r="AW65" s="124"/>
+      <c r="AX65" s="124"/>
+      <c r="AY65" s="124"/>
+      <c r="AZ65" s="124"/>
+      <c r="BA65" s="124"/>
+      <c r="BB65" s="124"/>
+      <c r="BC65" s="124"/>
+      <c r="BD65" s="124"/>
+      <c r="BE65" s="124"/>
+      <c r="BF65" s="124"/>
+      <c r="BG65" s="128"/>
+      <c r="BH65" s="128"/>
+      <c r="BI65" s="128"/>
+      <c r="BJ65" s="128"/>
+      <c r="BK65" s="128"/>
+      <c r="BL65" s="124"/>
+      <c r="BM65" s="124"/>
+      <c r="BN65" s="124"/>
+      <c r="BO65" s="124"/>
+      <c r="BP65" s="124"/>
+      <c r="BQ65" s="124"/>
+      <c r="BR65" s="124"/>
+      <c r="BS65" s="124"/>
+      <c r="BT65" s="124"/>
+      <c r="BU65" s="124"/>
+      <c r="BV65" s="124"/>
+      <c r="BW65" s="124"/>
+      <c r="BX65" s="124"/>
+      <c r="BY65" s="124"/>
+      <c r="BZ65" s="124"/>
     </row>
     <row r="66" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
       <c r="B66" s="53"/>
       <c r="C66" s="56" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D66" s="54"/>
       <c r="E66" s="35"/>
@@ -7558,16 +7533,16 @@
       <c r="Z66" s="38"/>
       <c r="AA66" s="38"/>
       <c r="AB66" s="38"/>
-      <c r="AC66" s="38"/>
-      <c r="AD66" s="38"/>
-      <c r="AE66" s="38"/>
-      <c r="AF66" s="38"/>
-      <c r="AG66" s="38"/>
-      <c r="AH66" s="38"/>
-      <c r="AI66" s="123"/>
-      <c r="AJ66" s="123"/>
-      <c r="AK66" s="123"/>
-      <c r="AL66" s="123"/>
+      <c r="AC66" s="139"/>
+      <c r="AD66" s="139"/>
+      <c r="AE66" s="139"/>
+      <c r="AF66" s="139"/>
+      <c r="AG66" s="139"/>
+      <c r="AH66" s="157"/>
+      <c r="AI66" s="157"/>
+      <c r="AJ66" s="157"/>
+      <c r="AK66" s="157"/>
+      <c r="AL66" s="157"/>
       <c r="AM66" s="58"/>
       <c r="AN66" s="38"/>
       <c r="AO66" s="38"/>
@@ -7613,7 +7588,7 @@
       <c r="A67" s="32"/>
       <c r="B67" s="53"/>
       <c r="C67" s="56" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D67" s="54"/>
       <c r="E67" s="35"/>
@@ -7640,17 +7615,17 @@
       <c r="Z67" s="38"/>
       <c r="AA67" s="38"/>
       <c r="AB67" s="38"/>
-      <c r="AC67" s="39"/>
-      <c r="AD67" s="39"/>
-      <c r="AE67" s="39"/>
-      <c r="AF67" s="39"/>
-      <c r="AG67" s="39"/>
-      <c r="AH67" s="38"/>
-      <c r="AI67" s="123"/>
-      <c r="AJ67" s="123"/>
-      <c r="AK67" s="123"/>
-      <c r="AL67" s="123"/>
-      <c r="AM67" s="58"/>
+      <c r="AC67" s="139"/>
+      <c r="AD67" s="139"/>
+      <c r="AE67" s="139"/>
+      <c r="AF67" s="139"/>
+      <c r="AG67" s="139"/>
+      <c r="AH67" s="39"/>
+      <c r="AI67" s="39"/>
+      <c r="AJ67" s="139"/>
+      <c r="AK67" s="39"/>
+      <c r="AL67" s="39"/>
+      <c r="AM67" s="38"/>
       <c r="AN67" s="38"/>
       <c r="AO67" s="38"/>
       <c r="AP67" s="38"/>
@@ -7695,7 +7670,7 @@
       <c r="A68" s="32"/>
       <c r="B68" s="53"/>
       <c r="C68" s="56" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D68" s="54"/>
       <c r="E68" s="35"/>
@@ -7722,17 +7697,17 @@
       <c r="Z68" s="38"/>
       <c r="AA68" s="38"/>
       <c r="AB68" s="38"/>
-      <c r="AC68" s="39"/>
-      <c r="AD68" s="39"/>
-      <c r="AE68" s="39"/>
-      <c r="AF68" s="39"/>
-      <c r="AG68" s="39"/>
-      <c r="AH68" s="38"/>
-      <c r="AI68" s="123"/>
-      <c r="AJ68" s="123"/>
-      <c r="AK68" s="123"/>
-      <c r="AL68" s="123"/>
-      <c r="AM68" s="58"/>
+      <c r="AC68" s="139"/>
+      <c r="AD68" s="139"/>
+      <c r="AE68" s="139"/>
+      <c r="AF68" s="139"/>
+      <c r="AG68" s="139"/>
+      <c r="AH68" s="39"/>
+      <c r="AI68" s="39"/>
+      <c r="AJ68" s="139"/>
+      <c r="AK68" s="39"/>
+      <c r="AL68" s="39"/>
+      <c r="AM68" s="38"/>
       <c r="AN68" s="38"/>
       <c r="AO68" s="38"/>
       <c r="AP68" s="38"/>
@@ -7773,11 +7748,11 @@
       <c r="BY68" s="38"/>
       <c r="BZ68" s="38"/>
     </row>
-    <row r="69" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:78" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
       <c r="B69" s="53"/>
       <c r="C69" s="56" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D69" s="54"/>
       <c r="E69" s="35"/>
@@ -7804,17 +7779,17 @@
       <c r="Z69" s="38"/>
       <c r="AA69" s="38"/>
       <c r="AB69" s="38"/>
-      <c r="AC69" s="39"/>
-      <c r="AD69" s="39"/>
-      <c r="AE69" s="39"/>
-      <c r="AF69" s="39"/>
-      <c r="AG69" s="39"/>
-      <c r="AH69" s="38"/>
-      <c r="AI69" s="131"/>
-      <c r="AJ69" s="131"/>
-      <c r="AK69" s="131"/>
-      <c r="AL69" s="131"/>
-      <c r="AM69" s="132"/>
+      <c r="AC69" s="139"/>
+      <c r="AD69" s="139"/>
+      <c r="AE69" s="139"/>
+      <c r="AF69" s="139"/>
+      <c r="AG69" s="139"/>
+      <c r="AH69" s="39"/>
+      <c r="AI69" s="39"/>
+      <c r="AJ69" s="139"/>
+      <c r="AK69" s="157"/>
+      <c r="AL69" s="157"/>
+      <c r="AM69" s="58"/>
       <c r="AN69" s="38"/>
       <c r="AO69" s="38"/>
       <c r="AP69" s="38"/>
@@ -7858,7 +7833,9 @@
     <row r="70" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="32"/>
       <c r="B70" s="53"/>
-      <c r="C70" s="56"/>
+      <c r="C70" s="56" t="s">
+        <v>95</v>
+      </c>
       <c r="D70" s="54"/>
       <c r="E70" s="35"/>
       <c r="F70" s="35"/>
@@ -7884,17 +7861,17 @@
       <c r="Z70" s="38"/>
       <c r="AA70" s="38"/>
       <c r="AB70" s="38"/>
-      <c r="AC70" s="39"/>
-      <c r="AD70" s="39"/>
-      <c r="AE70" s="39"/>
-      <c r="AF70" s="39"/>
-      <c r="AG70" s="39"/>
-      <c r="AH70" s="38"/>
-      <c r="AI70" s="38"/>
-      <c r="AJ70" s="38"/>
-      <c r="AK70" s="38"/>
-      <c r="AL70" s="38"/>
-      <c r="AM70" s="38"/>
+      <c r="AC70" s="139"/>
+      <c r="AD70" s="139"/>
+      <c r="AE70" s="139"/>
+      <c r="AF70" s="139"/>
+      <c r="AG70" s="139"/>
+      <c r="AH70" s="39"/>
+      <c r="AI70" s="39"/>
+      <c r="AJ70" s="139"/>
+      <c r="AK70" s="157"/>
+      <c r="AL70" s="157"/>
+      <c r="AM70" s="58"/>
       <c r="AN70" s="38"/>
       <c r="AO70" s="38"/>
       <c r="AP70" s="38"/>
@@ -7938,7 +7915,9 @@
     <row r="71" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="32"/>
       <c r="B71" s="53"/>
-      <c r="C71" s="56"/>
+      <c r="C71" s="56" t="s">
+        <v>96</v>
+      </c>
       <c r="D71" s="54"/>
       <c r="E71" s="35"/>
       <c r="F71" s="35"/>
@@ -7964,17 +7943,17 @@
       <c r="Z71" s="38"/>
       <c r="AA71" s="38"/>
       <c r="AB71" s="38"/>
-      <c r="AC71" s="39"/>
-      <c r="AD71" s="39"/>
-      <c r="AE71" s="39"/>
-      <c r="AF71" s="39"/>
-      <c r="AG71" s="39"/>
-      <c r="AH71" s="38"/>
-      <c r="AI71" s="38"/>
-      <c r="AJ71" s="38"/>
-      <c r="AK71" s="38"/>
-      <c r="AL71" s="38"/>
-      <c r="AM71" s="38"/>
+      <c r="AC71" s="139"/>
+      <c r="AD71" s="139"/>
+      <c r="AE71" s="139"/>
+      <c r="AF71" s="139"/>
+      <c r="AG71" s="139"/>
+      <c r="AH71" s="39"/>
+      <c r="AI71" s="39"/>
+      <c r="AJ71" s="139"/>
+      <c r="AK71" s="157"/>
+      <c r="AL71" s="157"/>
+      <c r="AM71" s="58"/>
       <c r="AN71" s="38"/>
       <c r="AO71" s="38"/>
       <c r="AP71" s="38"/>
@@ -8051,7 +8030,7 @@
       <c r="AG72" s="39"/>
       <c r="AH72" s="38"/>
       <c r="AI72" s="38"/>
-      <c r="AJ72" s="38"/>
+      <c r="AJ72" s="139"/>
       <c r="AK72" s="38"/>
       <c r="AL72" s="38"/>
       <c r="AM72" s="38"/>
@@ -8095,421 +8074,419 @@
       <c r="BY72" s="38"/>
       <c r="BZ72" s="38"/>
     </row>
-    <row r="73" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="72"/>
-      <c r="B73" s="59"/>
-      <c r="C73" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="D73" s="61"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="63"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="65"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="67"/>
-      <c r="L73" s="67"/>
-      <c r="M73" s="67"/>
-      <c r="N73" s="68"/>
-      <c r="O73" s="68"/>
-      <c r="P73" s="68"/>
-      <c r="Q73" s="68"/>
-      <c r="R73" s="68"/>
-      <c r="S73" s="67"/>
-      <c r="T73" s="67"/>
-      <c r="U73" s="67"/>
-      <c r="V73" s="67"/>
-      <c r="W73" s="67"/>
-      <c r="X73" s="67"/>
-      <c r="Y73" s="67"/>
-      <c r="Z73" s="67"/>
-      <c r="AA73" s="67"/>
-      <c r="AB73" s="67"/>
-      <c r="AC73" s="69"/>
-      <c r="AD73" s="69"/>
-      <c r="AE73" s="69"/>
-      <c r="AF73" s="69"/>
-      <c r="AG73" s="69"/>
-      <c r="AH73" s="67"/>
-      <c r="AI73" s="67"/>
-      <c r="AJ73" s="69"/>
-      <c r="AK73" s="67"/>
-      <c r="AL73" s="67"/>
-      <c r="AM73" s="67"/>
-      <c r="AN73" s="67"/>
-      <c r="AO73" s="67"/>
-      <c r="AP73" s="67"/>
-      <c r="AQ73" s="67"/>
-      <c r="AR73" s="70"/>
-      <c r="AS73" s="70"/>
-      <c r="AT73" s="70"/>
-      <c r="AU73" s="70"/>
-      <c r="AV73" s="70"/>
-      <c r="AW73" s="67"/>
-      <c r="AX73" s="67"/>
-      <c r="AY73" s="67"/>
-      <c r="AZ73" s="67"/>
-      <c r="BA73" s="67"/>
-      <c r="BB73" s="67"/>
-      <c r="BC73" s="67"/>
-      <c r="BD73" s="67"/>
-      <c r="BE73" s="67"/>
-      <c r="BF73" s="67"/>
-      <c r="BG73" s="71"/>
-      <c r="BH73" s="71"/>
-      <c r="BI73" s="71"/>
-      <c r="BJ73" s="71"/>
-      <c r="BK73" s="71"/>
-      <c r="BL73" s="67"/>
-      <c r="BM73" s="67"/>
-      <c r="BN73" s="67"/>
-      <c r="BO73" s="67"/>
-      <c r="BP73" s="67"/>
-      <c r="BQ73" s="67"/>
-      <c r="BR73" s="67"/>
-      <c r="BS73" s="67"/>
-      <c r="BT73" s="67"/>
-      <c r="BU73" s="67"/>
-      <c r="BV73" s="67"/>
-      <c r="BW73" s="67"/>
-      <c r="BX73" s="67"/>
-      <c r="BY73" s="67"/>
-      <c r="BZ73" s="67"/>
+    <row r="73" spans="1:78" s="129" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="115"/>
+      <c r="B73" s="116"/>
+      <c r="C73" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="118"/>
+      <c r="E73" s="119"/>
+      <c r="F73" s="119"/>
+      <c r="G73" s="120"/>
+      <c r="H73" s="121"/>
+      <c r="I73" s="122"/>
+      <c r="J73" s="123"/>
+      <c r="K73" s="124"/>
+      <c r="L73" s="124"/>
+      <c r="M73" s="124"/>
+      <c r="N73" s="125"/>
+      <c r="O73" s="125"/>
+      <c r="P73" s="125"/>
+      <c r="Q73" s="125"/>
+      <c r="R73" s="125"/>
+      <c r="S73" s="124"/>
+      <c r="T73" s="124"/>
+      <c r="U73" s="124"/>
+      <c r="V73" s="124"/>
+      <c r="W73" s="124"/>
+      <c r="X73" s="124"/>
+      <c r="Y73" s="124"/>
+      <c r="Z73" s="124"/>
+      <c r="AA73" s="124"/>
+      <c r="AB73" s="124"/>
+      <c r="AC73" s="126"/>
+      <c r="AD73" s="126"/>
+      <c r="AE73" s="126"/>
+      <c r="AF73" s="126"/>
+      <c r="AG73" s="126"/>
+      <c r="AH73" s="124"/>
+      <c r="AI73" s="124"/>
+      <c r="AJ73" s="124"/>
+      <c r="AK73" s="124"/>
+      <c r="AL73" s="124"/>
+      <c r="AM73" s="124"/>
+      <c r="AN73" s="124"/>
+      <c r="AO73" s="124"/>
+      <c r="AP73" s="124"/>
+      <c r="AQ73" s="124"/>
+      <c r="AR73" s="127"/>
+      <c r="AS73" s="127"/>
+      <c r="AT73" s="127"/>
+      <c r="AU73" s="127"/>
+      <c r="AV73" s="127"/>
+      <c r="AW73" s="124"/>
+      <c r="AX73" s="124"/>
+      <c r="AY73" s="124"/>
+      <c r="AZ73" s="124"/>
+      <c r="BA73" s="124"/>
+      <c r="BB73" s="124"/>
+      <c r="BC73" s="124"/>
+      <c r="BD73" s="124"/>
+      <c r="BE73" s="124"/>
+      <c r="BF73" s="124"/>
+      <c r="BG73" s="128"/>
+      <c r="BH73" s="128"/>
+      <c r="BI73" s="128"/>
+      <c r="BJ73" s="128"/>
+      <c r="BK73" s="128"/>
+      <c r="BL73" s="124"/>
+      <c r="BM73" s="124"/>
+      <c r="BN73" s="124"/>
+      <c r="BO73" s="124"/>
+      <c r="BP73" s="124"/>
+      <c r="BQ73" s="124"/>
+      <c r="BR73" s="124"/>
+      <c r="BS73" s="124"/>
+      <c r="BT73" s="124"/>
+      <c r="BU73" s="124"/>
+      <c r="BV73" s="124"/>
+      <c r="BW73" s="124"/>
+      <c r="BX73" s="124"/>
+      <c r="BY73" s="124"/>
+      <c r="BZ73" s="124"/>
     </row>
-    <row r="74" spans="1:78" s="104" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="90"/>
-      <c r="B74" s="91"/>
-      <c r="C74" s="92" t="s">
-        <v>89</v>
-      </c>
-      <c r="D74" s="93"/>
-      <c r="E74" s="94"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="95"/>
-      <c r="H74" s="96"/>
-      <c r="I74" s="97"/>
-      <c r="J74" s="98"/>
-      <c r="K74" s="99"/>
-      <c r="L74" s="99"/>
-      <c r="M74" s="99"/>
-      <c r="N74" s="100"/>
-      <c r="O74" s="100"/>
-      <c r="P74" s="100"/>
-      <c r="Q74" s="100"/>
-      <c r="R74" s="100"/>
-      <c r="S74" s="99"/>
-      <c r="T74" s="99"/>
-      <c r="U74" s="99"/>
-      <c r="V74" s="99"/>
-      <c r="W74" s="99"/>
-      <c r="X74" s="99"/>
-      <c r="Y74" s="99"/>
-      <c r="Z74" s="99"/>
-      <c r="AA74" s="99"/>
-      <c r="AB74" s="99"/>
-      <c r="AC74" s="101"/>
-      <c r="AD74" s="101"/>
-      <c r="AE74" s="101"/>
-      <c r="AF74" s="101"/>
-      <c r="AG74" s="101"/>
-      <c r="AH74" s="99"/>
-      <c r="AI74" s="99"/>
-      <c r="AJ74" s="101"/>
-      <c r="AK74" s="99"/>
-      <c r="AL74" s="99"/>
-      <c r="AM74" s="99"/>
-      <c r="AN74" s="99"/>
-      <c r="AO74" s="99"/>
-      <c r="AP74" s="99"/>
-      <c r="AQ74" s="99"/>
-      <c r="AR74" s="102"/>
-      <c r="AS74" s="102"/>
-      <c r="AT74" s="102"/>
-      <c r="AU74" s="102"/>
-      <c r="AV74" s="102"/>
-      <c r="AW74" s="99"/>
-      <c r="AX74" s="99"/>
-      <c r="AY74" s="99"/>
-      <c r="AZ74" s="99"/>
-      <c r="BA74" s="99"/>
-      <c r="BB74" s="99"/>
-      <c r="BC74" s="99"/>
-      <c r="BD74" s="99"/>
-      <c r="BE74" s="99"/>
-      <c r="BF74" s="99"/>
-      <c r="BG74" s="103"/>
-      <c r="BH74" s="103"/>
-      <c r="BI74" s="103"/>
-      <c r="BJ74" s="103"/>
-      <c r="BK74" s="103"/>
-      <c r="BL74" s="99"/>
-      <c r="BM74" s="99"/>
-      <c r="BN74" s="99"/>
-      <c r="BO74" s="99"/>
-      <c r="BP74" s="99"/>
-      <c r="BQ74" s="99"/>
-      <c r="BR74" s="99"/>
-      <c r="BS74" s="99"/>
-      <c r="BT74" s="99"/>
-      <c r="BU74" s="99"/>
-      <c r="BV74" s="99"/>
-      <c r="BW74" s="99"/>
-      <c r="BX74" s="99"/>
-      <c r="BY74" s="99"/>
-      <c r="BZ74" s="99"/>
+    <row r="74" spans="1:78" s="114" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="130"/>
+      <c r="B74" s="131"/>
+      <c r="C74" s="132" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="133"/>
+      <c r="E74" s="134"/>
+      <c r="F74" s="134"/>
+      <c r="G74" s="135"/>
+      <c r="H74" s="136"/>
+      <c r="I74" s="137"/>
+      <c r="J74" s="138"/>
+      <c r="K74" s="139"/>
+      <c r="L74" s="139"/>
+      <c r="M74" s="139"/>
+      <c r="N74" s="139"/>
+      <c r="O74" s="139"/>
+      <c r="P74" s="139"/>
+      <c r="Q74" s="139"/>
+      <c r="R74" s="139"/>
+      <c r="S74" s="139"/>
+      <c r="T74" s="139"/>
+      <c r="U74" s="139"/>
+      <c r="V74" s="139"/>
+      <c r="W74" s="139"/>
+      <c r="X74" s="139"/>
+      <c r="Y74" s="139"/>
+      <c r="Z74" s="139"/>
+      <c r="AA74" s="139"/>
+      <c r="AB74" s="139"/>
+      <c r="AC74" s="139"/>
+      <c r="AD74" s="139"/>
+      <c r="AE74" s="139"/>
+      <c r="AF74" s="139"/>
+      <c r="AG74" s="139"/>
+      <c r="AH74" s="139"/>
+      <c r="AI74" s="139"/>
+      <c r="AJ74" s="139"/>
+      <c r="AK74" s="139"/>
+      <c r="AL74" s="139"/>
+      <c r="AM74" s="139"/>
+      <c r="AN74" s="139"/>
+      <c r="AO74" s="139"/>
+      <c r="AP74" s="139"/>
+      <c r="AQ74" s="139"/>
+      <c r="AR74" s="139"/>
+      <c r="AS74" s="139"/>
+      <c r="AT74" s="139"/>
+      <c r="AU74" s="139"/>
+      <c r="AV74" s="139"/>
+      <c r="AW74" s="139"/>
+      <c r="AX74" s="139"/>
+      <c r="AY74" s="139"/>
+      <c r="AZ74" s="139"/>
+      <c r="BA74" s="139"/>
+      <c r="BB74" s="139"/>
+      <c r="BC74" s="139"/>
+      <c r="BD74" s="139"/>
+      <c r="BE74" s="139"/>
+      <c r="BF74" s="139"/>
+      <c r="BG74" s="139"/>
+      <c r="BH74" s="139"/>
+      <c r="BI74" s="139"/>
+      <c r="BJ74" s="139"/>
+      <c r="BK74" s="139"/>
+      <c r="BL74" s="139"/>
+      <c r="BM74" s="139"/>
+      <c r="BN74" s="139"/>
+      <c r="BO74" s="139"/>
+      <c r="BP74" s="139"/>
+      <c r="BQ74" s="139"/>
+      <c r="BR74" s="139"/>
+      <c r="BS74" s="139"/>
+      <c r="BT74" s="139"/>
+      <c r="BU74" s="139"/>
+      <c r="BV74" s="139"/>
+      <c r="BW74" s="139"/>
+      <c r="BX74" s="139"/>
+      <c r="BY74" s="139"/>
+      <c r="BZ74" s="139"/>
     </row>
-    <row r="75" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="32"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="54"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="38"/>
-      <c r="M75" s="38"/>
-      <c r="N75" s="44"/>
-      <c r="O75" s="44"/>
-      <c r="P75" s="44"/>
-      <c r="Q75" s="44"/>
-      <c r="R75" s="44"/>
-      <c r="S75" s="38"/>
-      <c r="T75" s="38"/>
-      <c r="U75" s="38"/>
-      <c r="V75" s="38"/>
-      <c r="W75" s="38"/>
-      <c r="X75" s="38"/>
-      <c r="Y75" s="38"/>
-      <c r="Z75" s="38"/>
-      <c r="AA75" s="38"/>
-      <c r="AB75" s="38"/>
-      <c r="AC75" s="38"/>
-      <c r="AD75" s="38"/>
-      <c r="AE75" s="38"/>
-      <c r="AF75" s="38"/>
-      <c r="AG75" s="38"/>
-      <c r="AH75" s="122"/>
-      <c r="AI75" s="122"/>
-      <c r="AJ75" s="122"/>
-      <c r="AK75" s="122"/>
-      <c r="AL75" s="122"/>
-      <c r="AM75" s="58"/>
-      <c r="AN75" s="38"/>
-      <c r="AO75" s="38"/>
-      <c r="AP75" s="38"/>
-      <c r="AQ75" s="38"/>
-      <c r="AR75" s="40"/>
-      <c r="AS75" s="40"/>
-      <c r="AT75" s="40"/>
-      <c r="AU75" s="40"/>
-      <c r="AV75" s="40"/>
-      <c r="AW75" s="38"/>
-      <c r="AX75" s="38"/>
-      <c r="AY75" s="38"/>
-      <c r="AZ75" s="38"/>
-      <c r="BA75" s="38"/>
-      <c r="BB75" s="38"/>
-      <c r="BC75" s="38"/>
-      <c r="BD75" s="38"/>
-      <c r="BE75" s="38"/>
-      <c r="BF75" s="38"/>
-      <c r="BG75" s="41"/>
-      <c r="BH75" s="41"/>
-      <c r="BI75" s="41"/>
-      <c r="BJ75" s="41"/>
-      <c r="BK75" s="41"/>
-      <c r="BL75" s="38"/>
-      <c r="BM75" s="38"/>
-      <c r="BN75" s="38"/>
-      <c r="BO75" s="38"/>
-      <c r="BP75" s="38"/>
-      <c r="BQ75" s="38"/>
-      <c r="BR75" s="38"/>
-      <c r="BS75" s="38"/>
-      <c r="BT75" s="38"/>
-      <c r="BU75" s="38"/>
-      <c r="BV75" s="38"/>
-      <c r="BW75" s="38"/>
-      <c r="BX75" s="38"/>
-      <c r="BY75" s="38"/>
-      <c r="BZ75" s="38"/>
+    <row r="75" spans="1:78" s="114" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="130"/>
+      <c r="B75" s="131"/>
+      <c r="C75" s="132" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" s="133"/>
+      <c r="E75" s="134"/>
+      <c r="F75" s="134"/>
+      <c r="G75" s="135"/>
+      <c r="H75" s="136"/>
+      <c r="I75" s="137"/>
+      <c r="J75" s="138"/>
+      <c r="K75" s="139"/>
+      <c r="L75" s="139"/>
+      <c r="M75" s="139"/>
+      <c r="N75" s="139"/>
+      <c r="O75" s="139"/>
+      <c r="P75" s="139"/>
+      <c r="Q75" s="139"/>
+      <c r="R75" s="139"/>
+      <c r="S75" s="139"/>
+      <c r="T75" s="139"/>
+      <c r="U75" s="139"/>
+      <c r="V75" s="139"/>
+      <c r="W75" s="139"/>
+      <c r="X75" s="139"/>
+      <c r="Y75" s="139"/>
+      <c r="Z75" s="139"/>
+      <c r="AA75" s="139"/>
+      <c r="AB75" s="139"/>
+      <c r="AC75" s="139"/>
+      <c r="AD75" s="139"/>
+      <c r="AE75" s="139"/>
+      <c r="AF75" s="139"/>
+      <c r="AG75" s="139"/>
+      <c r="AH75" s="139"/>
+      <c r="AI75" s="139"/>
+      <c r="AJ75" s="139"/>
+      <c r="AK75" s="139"/>
+      <c r="AL75" s="139"/>
+      <c r="AM75" s="139"/>
+      <c r="AN75" s="139"/>
+      <c r="AO75" s="139"/>
+      <c r="AP75" s="139"/>
+      <c r="AQ75" s="139"/>
+      <c r="AR75" s="139"/>
+      <c r="AS75" s="139"/>
+      <c r="AT75" s="139"/>
+      <c r="AU75" s="139"/>
+      <c r="AV75" s="139"/>
+      <c r="AW75" s="139"/>
+      <c r="AX75" s="139"/>
+      <c r="AY75" s="139"/>
+      <c r="AZ75" s="139"/>
+      <c r="BA75" s="139"/>
+      <c r="BB75" s="139"/>
+      <c r="BC75" s="139"/>
+      <c r="BD75" s="139"/>
+      <c r="BE75" s="139"/>
+      <c r="BF75" s="139"/>
+      <c r="BG75" s="139"/>
+      <c r="BH75" s="139"/>
+      <c r="BI75" s="139"/>
+      <c r="BJ75" s="139"/>
+      <c r="BK75" s="139"/>
+      <c r="BL75" s="139"/>
+      <c r="BM75" s="139"/>
+      <c r="BN75" s="139"/>
+      <c r="BO75" s="139"/>
+      <c r="BP75" s="139"/>
+      <c r="BQ75" s="139"/>
+      <c r="BR75" s="139"/>
+      <c r="BS75" s="139"/>
+      <c r="BT75" s="139"/>
+      <c r="BU75" s="139"/>
+      <c r="BV75" s="139"/>
+      <c r="BW75" s="139"/>
+      <c r="BX75" s="139"/>
+      <c r="BY75" s="139"/>
+      <c r="BZ75" s="139"/>
     </row>
-    <row r="76" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="32"/>
-      <c r="B76" s="53"/>
-      <c r="C76" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="D76" s="54"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="38"/>
-      <c r="M76" s="38"/>
-      <c r="N76" s="44"/>
-      <c r="O76" s="44"/>
-      <c r="P76" s="44"/>
-      <c r="Q76" s="44"/>
-      <c r="R76" s="44"/>
-      <c r="S76" s="38"/>
-      <c r="T76" s="38"/>
-      <c r="U76" s="38"/>
-      <c r="V76" s="38"/>
-      <c r="W76" s="38"/>
-      <c r="X76" s="38"/>
-      <c r="Y76" s="38"/>
-      <c r="Z76" s="38"/>
-      <c r="AA76" s="38"/>
-      <c r="AB76" s="38"/>
-      <c r="AC76" s="38"/>
-      <c r="AD76" s="38"/>
-      <c r="AE76" s="38"/>
-      <c r="AF76" s="38"/>
-      <c r="AG76" s="38"/>
-      <c r="AH76" s="39"/>
-      <c r="AI76" s="39"/>
-      <c r="AJ76" s="38"/>
-      <c r="AK76" s="39"/>
-      <c r="AL76" s="39"/>
-      <c r="AM76" s="38"/>
-      <c r="AN76" s="38"/>
-      <c r="AO76" s="38"/>
-      <c r="AP76" s="38"/>
-      <c r="AQ76" s="38"/>
-      <c r="AR76" s="40"/>
-      <c r="AS76" s="40"/>
-      <c r="AT76" s="40"/>
-      <c r="AU76" s="40"/>
-      <c r="AV76" s="40"/>
-      <c r="AW76" s="38"/>
-      <c r="AX76" s="38"/>
-      <c r="AY76" s="38"/>
-      <c r="AZ76" s="38"/>
-      <c r="BA76" s="38"/>
-      <c r="BB76" s="38"/>
-      <c r="BC76" s="38"/>
-      <c r="BD76" s="38"/>
-      <c r="BE76" s="38"/>
-      <c r="BF76" s="38"/>
-      <c r="BG76" s="41"/>
-      <c r="BH76" s="41"/>
-      <c r="BI76" s="41"/>
-      <c r="BJ76" s="41"/>
-      <c r="BK76" s="41"/>
-      <c r="BL76" s="38"/>
-      <c r="BM76" s="38"/>
-      <c r="BN76" s="38"/>
-      <c r="BO76" s="38"/>
-      <c r="BP76" s="38"/>
-      <c r="BQ76" s="38"/>
-      <c r="BR76" s="38"/>
-      <c r="BS76" s="38"/>
-      <c r="BT76" s="38"/>
-      <c r="BU76" s="38"/>
-      <c r="BV76" s="38"/>
-      <c r="BW76" s="38"/>
-      <c r="BX76" s="38"/>
-      <c r="BY76" s="38"/>
-      <c r="BZ76" s="38"/>
+    <row r="76" spans="1:78" s="114" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="130"/>
+      <c r="B76" s="131"/>
+      <c r="C76" s="132"/>
+      <c r="D76" s="133"/>
+      <c r="E76" s="134"/>
+      <c r="F76" s="134"/>
+      <c r="G76" s="135"/>
+      <c r="H76" s="136"/>
+      <c r="I76" s="137"/>
+      <c r="J76" s="138"/>
+      <c r="K76" s="139"/>
+      <c r="L76" s="139"/>
+      <c r="M76" s="139"/>
+      <c r="N76" s="139"/>
+      <c r="O76" s="139"/>
+      <c r="P76" s="139"/>
+      <c r="Q76" s="139"/>
+      <c r="R76" s="139"/>
+      <c r="S76" s="139"/>
+      <c r="T76" s="139"/>
+      <c r="U76" s="139"/>
+      <c r="V76" s="139"/>
+      <c r="W76" s="139"/>
+      <c r="X76" s="139"/>
+      <c r="Y76" s="139"/>
+      <c r="Z76" s="139"/>
+      <c r="AA76" s="139"/>
+      <c r="AB76" s="139"/>
+      <c r="AC76" s="139"/>
+      <c r="AD76" s="139"/>
+      <c r="AE76" s="139"/>
+      <c r="AF76" s="139"/>
+      <c r="AG76" s="139"/>
+      <c r="AH76" s="139"/>
+      <c r="AI76" s="139"/>
+      <c r="AJ76" s="139"/>
+      <c r="AK76" s="139"/>
+      <c r="AL76" s="139"/>
+      <c r="AM76" s="139"/>
+      <c r="AN76" s="139"/>
+      <c r="AO76" s="139"/>
+      <c r="AP76" s="139"/>
+      <c r="AQ76" s="139"/>
+      <c r="AR76" s="139"/>
+      <c r="AS76" s="139"/>
+      <c r="AT76" s="139"/>
+      <c r="AU76" s="139"/>
+      <c r="AV76" s="139"/>
+      <c r="AW76" s="139"/>
+      <c r="AX76" s="139"/>
+      <c r="AY76" s="139"/>
+      <c r="AZ76" s="139"/>
+      <c r="BA76" s="139"/>
+      <c r="BB76" s="139"/>
+      <c r="BC76" s="139"/>
+      <c r="BD76" s="139"/>
+      <c r="BE76" s="139"/>
+      <c r="BF76" s="139"/>
+      <c r="BG76" s="139"/>
+      <c r="BH76" s="139"/>
+      <c r="BI76" s="139"/>
+      <c r="BJ76" s="139"/>
+      <c r="BK76" s="139"/>
+      <c r="BL76" s="139"/>
+      <c r="BM76" s="139"/>
+      <c r="BN76" s="139"/>
+      <c r="BO76" s="139"/>
+      <c r="BP76" s="139"/>
+      <c r="BQ76" s="139"/>
+      <c r="BR76" s="139"/>
+      <c r="BS76" s="139"/>
+      <c r="BT76" s="139"/>
+      <c r="BU76" s="139"/>
+      <c r="BV76" s="139"/>
+      <c r="BW76" s="139"/>
+      <c r="BX76" s="139"/>
+      <c r="BY76" s="139"/>
+      <c r="BZ76" s="139"/>
     </row>
-    <row r="77" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="32"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D77" s="54"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="38"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="44"/>
-      <c r="O77" s="44"/>
-      <c r="P77" s="44"/>
-      <c r="Q77" s="44"/>
-      <c r="R77" s="44"/>
-      <c r="S77" s="38"/>
-      <c r="T77" s="38"/>
-      <c r="U77" s="38"/>
-      <c r="V77" s="38"/>
-      <c r="W77" s="38"/>
-      <c r="X77" s="38"/>
-      <c r="Y77" s="38"/>
-      <c r="Z77" s="38"/>
-      <c r="AA77" s="38"/>
-      <c r="AB77" s="38"/>
-      <c r="AC77" s="38"/>
-      <c r="AD77" s="38"/>
-      <c r="AE77" s="38"/>
-      <c r="AF77" s="38"/>
-      <c r="AG77" s="38"/>
-      <c r="AH77" s="39"/>
-      <c r="AI77" s="39"/>
-      <c r="AJ77" s="38"/>
-      <c r="AK77" s="39"/>
-      <c r="AL77" s="39"/>
-      <c r="AM77" s="38"/>
-      <c r="AN77" s="38"/>
-      <c r="AO77" s="38"/>
-      <c r="AP77" s="38"/>
-      <c r="AQ77" s="38"/>
-      <c r="AR77" s="40"/>
-      <c r="AS77" s="40"/>
-      <c r="AT77" s="40"/>
-      <c r="AU77" s="40"/>
-      <c r="AV77" s="40"/>
-      <c r="AW77" s="38"/>
-      <c r="AX77" s="38"/>
-      <c r="AY77" s="38"/>
-      <c r="AZ77" s="38"/>
-      <c r="BA77" s="38"/>
-      <c r="BB77" s="38"/>
-      <c r="BC77" s="38"/>
-      <c r="BD77" s="38"/>
-      <c r="BE77" s="38"/>
-      <c r="BF77" s="38"/>
-      <c r="BG77" s="41"/>
-      <c r="BH77" s="41"/>
-      <c r="BI77" s="41"/>
-      <c r="BJ77" s="41"/>
-      <c r="BK77" s="41"/>
-      <c r="BL77" s="38"/>
-      <c r="BM77" s="38"/>
-      <c r="BN77" s="38"/>
-      <c r="BO77" s="38"/>
-      <c r="BP77" s="38"/>
-      <c r="BQ77" s="38"/>
-      <c r="BR77" s="38"/>
-      <c r="BS77" s="38"/>
-      <c r="BT77" s="38"/>
-      <c r="BU77" s="38"/>
-      <c r="BV77" s="38"/>
-      <c r="BW77" s="38"/>
-      <c r="BX77" s="38"/>
-      <c r="BY77" s="38"/>
-      <c r="BZ77" s="38"/>
+    <row r="77" spans="1:78" s="97" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="94"/>
+      <c r="B77" s="81"/>
+      <c r="C77" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="83"/>
+      <c r="E77" s="84"/>
+      <c r="F77" s="84"/>
+      <c r="G77" s="85"/>
+      <c r="H77" s="86"/>
+      <c r="I77" s="87"/>
+      <c r="J77" s="88"/>
+      <c r="K77" s="89"/>
+      <c r="L77" s="89"/>
+      <c r="M77" s="89"/>
+      <c r="N77" s="90"/>
+      <c r="O77" s="90"/>
+      <c r="P77" s="90"/>
+      <c r="Q77" s="90"/>
+      <c r="R77" s="90"/>
+      <c r="S77" s="89"/>
+      <c r="T77" s="89"/>
+      <c r="U77" s="89"/>
+      <c r="V77" s="89"/>
+      <c r="W77" s="89"/>
+      <c r="X77" s="89"/>
+      <c r="Y77" s="89"/>
+      <c r="Z77" s="89"/>
+      <c r="AA77" s="89"/>
+      <c r="AB77" s="89"/>
+      <c r="AC77" s="91"/>
+      <c r="AD77" s="91"/>
+      <c r="AE77" s="91"/>
+      <c r="AF77" s="91"/>
+      <c r="AG77" s="91"/>
+      <c r="AH77" s="89"/>
+      <c r="AI77" s="89"/>
+      <c r="AJ77" s="89"/>
+      <c r="AK77" s="89"/>
+      <c r="AL77" s="89"/>
+      <c r="AM77" s="89"/>
+      <c r="AN77" s="89"/>
+      <c r="AO77" s="89"/>
+      <c r="AP77" s="89"/>
+      <c r="AQ77" s="89"/>
+      <c r="AR77" s="92"/>
+      <c r="AS77" s="92"/>
+      <c r="AT77" s="92"/>
+      <c r="AU77" s="92"/>
+      <c r="AV77" s="92"/>
+      <c r="AW77" s="89"/>
+      <c r="AX77" s="89"/>
+      <c r="AY77" s="89"/>
+      <c r="AZ77" s="89"/>
+      <c r="BA77" s="89"/>
+      <c r="BB77" s="89"/>
+      <c r="BC77" s="89"/>
+      <c r="BD77" s="89"/>
+      <c r="BE77" s="89"/>
+      <c r="BF77" s="89"/>
+      <c r="BG77" s="93"/>
+      <c r="BH77" s="93"/>
+      <c r="BI77" s="93"/>
+      <c r="BJ77" s="93"/>
+      <c r="BK77" s="93"/>
+      <c r="BL77" s="89"/>
+      <c r="BM77" s="89"/>
+      <c r="BN77" s="89"/>
+      <c r="BO77" s="89"/>
+      <c r="BP77" s="89"/>
+      <c r="BQ77" s="89"/>
+      <c r="BR77" s="89"/>
+      <c r="BS77" s="89"/>
+      <c r="BT77" s="89"/>
+      <c r="BU77" s="89"/>
+      <c r="BV77" s="89"/>
+      <c r="BW77" s="89"/>
+      <c r="BX77" s="89"/>
+      <c r="BY77" s="89"/>
+      <c r="BZ77" s="89"/>
     </row>
-    <row r="78" spans="1:78" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
       <c r="B78" s="53"/>
       <c r="C78" s="56" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D78" s="54"/>
       <c r="E78" s="35"/>
@@ -8536,16 +8513,16 @@
       <c r="Z78" s="38"/>
       <c r="AA78" s="38"/>
       <c r="AB78" s="38"/>
-      <c r="AC78" s="38"/>
-      <c r="AD78" s="38"/>
-      <c r="AE78" s="38"/>
-      <c r="AF78" s="38"/>
-      <c r="AG78" s="38"/>
-      <c r="AH78" s="39"/>
-      <c r="AI78" s="39"/>
-      <c r="AJ78" s="38"/>
-      <c r="AK78" s="122"/>
-      <c r="AL78" s="122"/>
+      <c r="AC78" s="39"/>
+      <c r="AD78" s="39"/>
+      <c r="AE78" s="39"/>
+      <c r="AF78" s="39"/>
+      <c r="AG78" s="39"/>
+      <c r="AH78" s="158"/>
+      <c r="AI78" s="158"/>
+      <c r="AJ78" s="158"/>
+      <c r="AK78" s="158"/>
+      <c r="AL78" s="158"/>
       <c r="AM78" s="58"/>
       <c r="AN78" s="38"/>
       <c r="AO78" s="38"/>
@@ -8591,7 +8568,7 @@
       <c r="A79" s="32"/>
       <c r="B79" s="53"/>
       <c r="C79" s="56" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D79" s="54"/>
       <c r="E79" s="35"/>
@@ -8618,16 +8595,16 @@
       <c r="Z79" s="38"/>
       <c r="AA79" s="38"/>
       <c r="AB79" s="38"/>
-      <c r="AC79" s="38"/>
-      <c r="AD79" s="38"/>
-      <c r="AE79" s="38"/>
-      <c r="AF79" s="38"/>
-      <c r="AG79" s="38"/>
-      <c r="AH79" s="39"/>
-      <c r="AI79" s="39"/>
-      <c r="AJ79" s="38"/>
-      <c r="AK79" s="122"/>
-      <c r="AL79" s="122"/>
+      <c r="AC79" s="39"/>
+      <c r="AD79" s="39"/>
+      <c r="AE79" s="39"/>
+      <c r="AF79" s="39"/>
+      <c r="AG79" s="39"/>
+      <c r="AH79" s="158"/>
+      <c r="AI79" s="158"/>
+      <c r="AJ79" s="158"/>
+      <c r="AK79" s="158"/>
+      <c r="AL79" s="158"/>
       <c r="AM79" s="58"/>
       <c r="AN79" s="38"/>
       <c r="AO79" s="38"/>
@@ -8672,9 +8649,7 @@
     <row r="80" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="32"/>
       <c r="B80" s="53"/>
-      <c r="C80" s="56" t="s">
-        <v>96</v>
-      </c>
+      <c r="C80" s="56"/>
       <c r="D80" s="54"/>
       <c r="E80" s="35"/>
       <c r="F80" s="35"/>
@@ -8700,17 +8675,17 @@
       <c r="Z80" s="38"/>
       <c r="AA80" s="38"/>
       <c r="AB80" s="38"/>
-      <c r="AC80" s="38"/>
-      <c r="AD80" s="38"/>
-      <c r="AE80" s="38"/>
-      <c r="AF80" s="38"/>
-      <c r="AG80" s="38"/>
-      <c r="AH80" s="39"/>
-      <c r="AI80" s="39"/>
-      <c r="AJ80" s="38"/>
-      <c r="AK80" s="122"/>
-      <c r="AL80" s="122"/>
-      <c r="AM80" s="58"/>
+      <c r="AC80" s="39"/>
+      <c r="AD80" s="39"/>
+      <c r="AE80" s="39"/>
+      <c r="AF80" s="39"/>
+      <c r="AG80" s="39"/>
+      <c r="AH80" s="38"/>
+      <c r="AI80" s="38"/>
+      <c r="AJ80" s="139"/>
+      <c r="AK80" s="38"/>
+      <c r="AL80" s="38"/>
+      <c r="AM80" s="38"/>
       <c r="AN80" s="38"/>
       <c r="AO80" s="38"/>
       <c r="AP80" s="38"/>
@@ -8787,7 +8762,7 @@
       <c r="AG81" s="39"/>
       <c r="AH81" s="38"/>
       <c r="AI81" s="38"/>
-      <c r="AJ81" s="38"/>
+      <c r="AJ81" s="139"/>
       <c r="AK81" s="38"/>
       <c r="AL81" s="38"/>
       <c r="AM81" s="38"/>
@@ -8831,94 +8806,90 @@
       <c r="BY81" s="38"/>
       <c r="BZ81" s="38"/>
     </row>
-    <row r="82" spans="1:78" s="104" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="90"/>
-      <c r="B82" s="91"/>
-      <c r="C82" s="92" t="s">
-        <v>90</v>
-      </c>
-      <c r="D82" s="93"/>
-      <c r="E82" s="94"/>
-      <c r="F82" s="94"/>
-      <c r="G82" s="95"/>
-      <c r="H82" s="96"/>
-      <c r="I82" s="97"/>
-      <c r="J82" s="98"/>
-      <c r="K82" s="99"/>
-      <c r="L82" s="99"/>
-      <c r="M82" s="99"/>
-      <c r="N82" s="100"/>
-      <c r="O82" s="100"/>
-      <c r="P82" s="100"/>
-      <c r="Q82" s="100"/>
-      <c r="R82" s="100"/>
-      <c r="S82" s="99"/>
-      <c r="T82" s="99"/>
-      <c r="U82" s="99"/>
-      <c r="V82" s="99"/>
-      <c r="W82" s="99"/>
-      <c r="X82" s="99"/>
-      <c r="Y82" s="99"/>
-      <c r="Z82" s="99"/>
-      <c r="AA82" s="99"/>
-      <c r="AB82" s="99"/>
-      <c r="AC82" s="101"/>
-      <c r="AD82" s="101"/>
-      <c r="AE82" s="101"/>
-      <c r="AF82" s="101"/>
-      <c r="AG82" s="101"/>
-      <c r="AH82" s="99"/>
-      <c r="AI82" s="99"/>
-      <c r="AJ82" s="99"/>
-      <c r="AK82" s="99"/>
-      <c r="AL82" s="99"/>
-      <c r="AM82" s="99"/>
-      <c r="AN82" s="99"/>
-      <c r="AO82" s="99"/>
-      <c r="AP82" s="99"/>
-      <c r="AQ82" s="99"/>
-      <c r="AR82" s="102"/>
-      <c r="AS82" s="102"/>
-      <c r="AT82" s="102"/>
-      <c r="AU82" s="102"/>
-      <c r="AV82" s="102"/>
-      <c r="AW82" s="99"/>
-      <c r="AX82" s="99"/>
-      <c r="AY82" s="99"/>
-      <c r="AZ82" s="99"/>
-      <c r="BA82" s="99"/>
-      <c r="BB82" s="99"/>
-      <c r="BC82" s="99"/>
-      <c r="BD82" s="99"/>
-      <c r="BE82" s="99"/>
-      <c r="BF82" s="99"/>
-      <c r="BG82" s="103"/>
-      <c r="BH82" s="103"/>
-      <c r="BI82" s="103"/>
-      <c r="BJ82" s="103"/>
-      <c r="BK82" s="103"/>
-      <c r="BL82" s="99"/>
-      <c r="BM82" s="99"/>
-      <c r="BN82" s="99"/>
-      <c r="BO82" s="99"/>
-      <c r="BP82" s="99"/>
-      <c r="BQ82" s="99"/>
-      <c r="BR82" s="99"/>
-      <c r="BS82" s="99"/>
-      <c r="BT82" s="99"/>
-      <c r="BU82" s="99"/>
-      <c r="BV82" s="99"/>
-      <c r="BW82" s="99"/>
-      <c r="BX82" s="99"/>
-      <c r="BY82" s="99"/>
-      <c r="BZ82" s="99"/>
+    <row r="82" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="32"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="43"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="38"/>
+      <c r="N82" s="44"/>
+      <c r="O82" s="44"/>
+      <c r="P82" s="44"/>
+      <c r="Q82" s="44"/>
+      <c r="R82" s="44"/>
+      <c r="S82" s="38"/>
+      <c r="T82" s="38"/>
+      <c r="U82" s="38"/>
+      <c r="V82" s="38"/>
+      <c r="W82" s="38"/>
+      <c r="X82" s="38"/>
+      <c r="Y82" s="38"/>
+      <c r="Z82" s="38"/>
+      <c r="AA82" s="38"/>
+      <c r="AB82" s="38"/>
+      <c r="AC82" s="39"/>
+      <c r="AD82" s="39"/>
+      <c r="AE82" s="39"/>
+      <c r="AF82" s="39"/>
+      <c r="AG82" s="39"/>
+      <c r="AH82" s="38"/>
+      <c r="AI82" s="38"/>
+      <c r="AJ82" s="139"/>
+      <c r="AK82" s="38"/>
+      <c r="AL82" s="38"/>
+      <c r="AM82" s="38"/>
+      <c r="AN82" s="38"/>
+      <c r="AO82" s="38"/>
+      <c r="AP82" s="38"/>
+      <c r="AQ82" s="38"/>
+      <c r="AR82" s="40"/>
+      <c r="AS82" s="40"/>
+      <c r="AT82" s="40"/>
+      <c r="AU82" s="40"/>
+      <c r="AV82" s="40"/>
+      <c r="AW82" s="38"/>
+      <c r="AX82" s="38"/>
+      <c r="AY82" s="38"/>
+      <c r="AZ82" s="38"/>
+      <c r="BA82" s="38"/>
+      <c r="BB82" s="38"/>
+      <c r="BC82" s="38"/>
+      <c r="BD82" s="38"/>
+      <c r="BE82" s="38"/>
+      <c r="BF82" s="38"/>
+      <c r="BG82" s="41"/>
+      <c r="BH82" s="41"/>
+      <c r="BI82" s="41"/>
+      <c r="BJ82" s="41"/>
+      <c r="BK82" s="41"/>
+      <c r="BL82" s="38"/>
+      <c r="BM82" s="38"/>
+      <c r="BN82" s="38"/>
+      <c r="BO82" s="38"/>
+      <c r="BP82" s="38"/>
+      <c r="BQ82" s="38"/>
+      <c r="BR82" s="38"/>
+      <c r="BS82" s="38"/>
+      <c r="BT82" s="38"/>
+      <c r="BU82" s="38"/>
+      <c r="BV82" s="38"/>
+      <c r="BW82" s="38"/>
+      <c r="BX82" s="38"/>
+      <c r="BY82" s="38"/>
+      <c r="BZ82" s="38"/>
     </row>
     <row r="83" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="32"/>
       <c r="B83" s="53"/>
-      <c r="C83" s="56" t="s">
-        <v>97</v>
-      </c>
+      <c r="C83" s="56"/>
       <c r="D83" s="54"/>
       <c r="E83" s="35"/>
       <c r="F83" s="35"/>
@@ -8929,11 +8900,11 @@
       <c r="K83" s="38"/>
       <c r="L83" s="38"/>
       <c r="M83" s="38"/>
-      <c r="N83" s="38"/>
-      <c r="O83" s="38"/>
-      <c r="P83" s="38"/>
-      <c r="Q83" s="38"/>
-      <c r="R83" s="38"/>
+      <c r="N83" s="44"/>
+      <c r="O83" s="44"/>
+      <c r="P83" s="44"/>
+      <c r="Q83" s="44"/>
+      <c r="R83" s="44"/>
       <c r="S83" s="38"/>
       <c r="T83" s="38"/>
       <c r="U83" s="38"/>
@@ -8944,14 +8915,14 @@
       <c r="Z83" s="38"/>
       <c r="AA83" s="38"/>
       <c r="AB83" s="38"/>
-      <c r="AC83" s="38"/>
-      <c r="AD83" s="38"/>
-      <c r="AE83" s="38"/>
-      <c r="AF83" s="38"/>
-      <c r="AG83" s="38"/>
+      <c r="AC83" s="39"/>
+      <c r="AD83" s="39"/>
+      <c r="AE83" s="39"/>
+      <c r="AF83" s="39"/>
+      <c r="AG83" s="39"/>
       <c r="AH83" s="38"/>
       <c r="AI83" s="38"/>
-      <c r="AJ83" s="38"/>
+      <c r="AJ83" s="139"/>
       <c r="AK83" s="38"/>
       <c r="AL83" s="38"/>
       <c r="AM83" s="38"/>
@@ -8959,11 +8930,11 @@
       <c r="AO83" s="38"/>
       <c r="AP83" s="38"/>
       <c r="AQ83" s="38"/>
-      <c r="AR83" s="38"/>
-      <c r="AS83" s="38"/>
-      <c r="AT83" s="38"/>
-      <c r="AU83" s="38"/>
-      <c r="AV83" s="38"/>
+      <c r="AR83" s="40"/>
+      <c r="AS83" s="40"/>
+      <c r="AT83" s="40"/>
+      <c r="AU83" s="40"/>
+      <c r="AV83" s="40"/>
       <c r="AW83" s="38"/>
       <c r="AX83" s="38"/>
       <c r="AY83" s="38"/>
@@ -8974,11 +8945,11 @@
       <c r="BD83" s="38"/>
       <c r="BE83" s="38"/>
       <c r="BF83" s="38"/>
-      <c r="BG83" s="38"/>
-      <c r="BH83" s="38"/>
-      <c r="BI83" s="38"/>
-      <c r="BJ83" s="38"/>
-      <c r="BK83" s="38"/>
+      <c r="BG83" s="41"/>
+      <c r="BH83" s="41"/>
+      <c r="BI83" s="41"/>
+      <c r="BJ83" s="41"/>
+      <c r="BK83" s="41"/>
       <c r="BL83" s="38"/>
       <c r="BM83" s="38"/>
       <c r="BN83" s="38"/>
@@ -8998,9 +8969,7 @@
     <row r="84" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="32"/>
       <c r="B84" s="53"/>
-      <c r="C84" s="56" t="s">
-        <v>98</v>
-      </c>
+      <c r="C84" s="57"/>
       <c r="D84" s="54"/>
       <c r="E84" s="35"/>
       <c r="F84" s="35"/>
@@ -9011,11 +8980,11 @@
       <c r="K84" s="38"/>
       <c r="L84" s="38"/>
       <c r="M84" s="38"/>
-      <c r="N84" s="38"/>
-      <c r="O84" s="38"/>
-      <c r="P84" s="38"/>
-      <c r="Q84" s="38"/>
-      <c r="R84" s="38"/>
+      <c r="N84" s="44"/>
+      <c r="O84" s="44"/>
+      <c r="P84" s="44"/>
+      <c r="Q84" s="44"/>
+      <c r="R84" s="44"/>
       <c r="S84" s="38"/>
       <c r="T84" s="38"/>
       <c r="U84" s="38"/>
@@ -9026,14 +8995,14 @@
       <c r="Z84" s="38"/>
       <c r="AA84" s="38"/>
       <c r="AB84" s="38"/>
-      <c r="AC84" s="38"/>
-      <c r="AD84" s="38"/>
-      <c r="AE84" s="38"/>
-      <c r="AF84" s="38"/>
-      <c r="AG84" s="38"/>
+      <c r="AC84" s="39"/>
+      <c r="AD84" s="39"/>
+      <c r="AE84" s="39"/>
+      <c r="AF84" s="39"/>
+      <c r="AG84" s="39"/>
       <c r="AH84" s="38"/>
       <c r="AI84" s="38"/>
-      <c r="AJ84" s="38"/>
+      <c r="AJ84" s="139"/>
       <c r="AK84" s="38"/>
       <c r="AL84" s="38"/>
       <c r="AM84" s="38"/>
@@ -9041,11 +9010,11 @@
       <c r="AO84" s="38"/>
       <c r="AP84" s="38"/>
       <c r="AQ84" s="38"/>
-      <c r="AR84" s="38"/>
-      <c r="AS84" s="38"/>
-      <c r="AT84" s="38"/>
-      <c r="AU84" s="38"/>
-      <c r="AV84" s="38"/>
+      <c r="AR84" s="40"/>
+      <c r="AS84" s="40"/>
+      <c r="AT84" s="40"/>
+      <c r="AU84" s="40"/>
+      <c r="AV84" s="40"/>
       <c r="AW84" s="38"/>
       <c r="AX84" s="38"/>
       <c r="AY84" s="38"/>
@@ -9056,11 +9025,11 @@
       <c r="BD84" s="38"/>
       <c r="BE84" s="38"/>
       <c r="BF84" s="38"/>
-      <c r="BG84" s="38"/>
-      <c r="BH84" s="38"/>
-      <c r="BI84" s="38"/>
-      <c r="BJ84" s="38"/>
-      <c r="BK84" s="38"/>
+      <c r="BG84" s="41"/>
+      <c r="BH84" s="41"/>
+      <c r="BI84" s="41"/>
+      <c r="BJ84" s="41"/>
+      <c r="BK84" s="41"/>
       <c r="BL84" s="38"/>
       <c r="BM84" s="38"/>
       <c r="BN84" s="38"/>
@@ -9077,179 +9046,205 @@
       <c r="BY84" s="38"/>
       <c r="BZ84" s="38"/>
     </row>
-    <row r="85" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="32"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="43"/>
-      <c r="K85" s="38"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="38"/>
-      <c r="N85" s="38"/>
-      <c r="O85" s="38"/>
-      <c r="P85" s="38"/>
-      <c r="Q85" s="38"/>
-      <c r="R85" s="38"/>
-      <c r="S85" s="38"/>
-      <c r="T85" s="38"/>
-      <c r="U85" s="38"/>
-      <c r="V85" s="38"/>
-      <c r="W85" s="38"/>
-      <c r="X85" s="38"/>
-      <c r="Y85" s="38"/>
-      <c r="Z85" s="38"/>
-      <c r="AA85" s="38"/>
-      <c r="AB85" s="38"/>
-      <c r="AC85" s="38"/>
-      <c r="AD85" s="38"/>
-      <c r="AE85" s="38"/>
-      <c r="AF85" s="38"/>
-      <c r="AG85" s="38"/>
-      <c r="AH85" s="38"/>
-      <c r="AI85" s="38"/>
-      <c r="AJ85" s="38"/>
-      <c r="AK85" s="38"/>
-      <c r="AL85" s="38"/>
-      <c r="AM85" s="38"/>
-      <c r="AN85" s="38"/>
-      <c r="AO85" s="38"/>
-      <c r="AP85" s="38"/>
-      <c r="AQ85" s="38"/>
-      <c r="AR85" s="38"/>
-      <c r="AS85" s="38"/>
-      <c r="AT85" s="38"/>
-      <c r="AU85" s="38"/>
-      <c r="AV85" s="38"/>
-      <c r="AW85" s="38"/>
-      <c r="AX85" s="38"/>
-      <c r="AY85" s="38"/>
-      <c r="AZ85" s="38"/>
-      <c r="BA85" s="38"/>
-      <c r="BB85" s="38"/>
-      <c r="BC85" s="38"/>
-      <c r="BD85" s="38"/>
-      <c r="BE85" s="38"/>
-      <c r="BF85" s="38"/>
-      <c r="BG85" s="38"/>
-      <c r="BH85" s="38"/>
-      <c r="BI85" s="38"/>
-      <c r="BJ85" s="38"/>
-      <c r="BK85" s="38"/>
-      <c r="BL85" s="38"/>
-      <c r="BM85" s="38"/>
-      <c r="BN85" s="38"/>
-      <c r="BO85" s="38"/>
-      <c r="BP85" s="38"/>
-      <c r="BQ85" s="38"/>
-      <c r="BR85" s="38"/>
-      <c r="BS85" s="38"/>
-      <c r="BT85" s="38"/>
-      <c r="BU85" s="38"/>
-      <c r="BV85" s="38"/>
-      <c r="BW85" s="38"/>
-      <c r="BX85" s="38"/>
-      <c r="BY85" s="38"/>
-      <c r="BZ85" s="38"/>
+    <row r="85" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="26">
+        <v>4</v>
+      </c>
+      <c r="C85" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="31"/>
+      <c r="L85" s="31"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="29"/>
+      <c r="Q85" s="29"/>
+      <c r="R85" s="29"/>
+      <c r="S85" s="29"/>
+      <c r="T85" s="29"/>
+      <c r="U85" s="29"/>
+      <c r="V85" s="29"/>
+      <c r="W85" s="29"/>
+      <c r="X85" s="29"/>
+      <c r="Y85" s="29"/>
+      <c r="Z85" s="29"/>
+      <c r="AA85" s="29"/>
+      <c r="AB85" s="29"/>
+      <c r="AC85" s="29"/>
+      <c r="AD85" s="29"/>
+      <c r="AE85" s="29"/>
+      <c r="AF85" s="29"/>
+      <c r="AG85" s="29"/>
+      <c r="AH85" s="29"/>
+      <c r="AI85" s="29"/>
+      <c r="AJ85" s="29"/>
+      <c r="AK85" s="29"/>
+      <c r="AL85" s="29"/>
+      <c r="AM85" s="29"/>
+      <c r="AN85" s="29"/>
+      <c r="AO85" s="29"/>
+      <c r="AP85" s="29"/>
+      <c r="AQ85" s="29"/>
+      <c r="AR85" s="29"/>
+      <c r="AS85" s="29"/>
+      <c r="AT85" s="29"/>
+      <c r="AU85" s="29"/>
+      <c r="AV85" s="29"/>
+      <c r="AW85" s="29"/>
+      <c r="AX85" s="29"/>
+      <c r="AY85" s="29"/>
+      <c r="AZ85" s="29"/>
+      <c r="BA85" s="29"/>
+      <c r="BB85" s="29"/>
+      <c r="BC85" s="29"/>
+      <c r="BD85" s="29"/>
+      <c r="BE85" s="29"/>
+      <c r="BF85" s="29"/>
+      <c r="BG85" s="29"/>
+      <c r="BH85" s="29"/>
+      <c r="BI85" s="29"/>
+      <c r="BJ85" s="29"/>
+      <c r="BK85" s="29"/>
+      <c r="BL85" s="29"/>
+      <c r="BM85" s="29"/>
+      <c r="BN85" s="29"/>
+      <c r="BO85" s="29"/>
+      <c r="BP85" s="29"/>
+      <c r="BQ85" s="29"/>
+      <c r="BR85" s="29"/>
+      <c r="BS85" s="29"/>
+      <c r="BT85" s="29"/>
+      <c r="BU85" s="29"/>
+      <c r="BV85" s="29"/>
+      <c r="BW85" s="29"/>
+      <c r="BX85" s="29"/>
+      <c r="BY85" s="29"/>
+      <c r="BZ85" s="29"/>
     </row>
-    <row r="86" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="72"/>
-      <c r="B86" s="59"/>
-      <c r="C86" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="D86" s="61"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="64"/>
-      <c r="I86" s="65"/>
-      <c r="J86" s="66"/>
-      <c r="K86" s="67"/>
-      <c r="L86" s="67"/>
-      <c r="M86" s="67"/>
-      <c r="N86" s="68"/>
-      <c r="O86" s="68"/>
-      <c r="P86" s="68"/>
-      <c r="Q86" s="68"/>
-      <c r="R86" s="68"/>
-      <c r="S86" s="67"/>
-      <c r="T86" s="67"/>
-      <c r="U86" s="67"/>
-      <c r="V86" s="67"/>
-      <c r="W86" s="67"/>
-      <c r="X86" s="67"/>
-      <c r="Y86" s="67"/>
-      <c r="Z86" s="67"/>
-      <c r="AA86" s="67"/>
-      <c r="AB86" s="67"/>
-      <c r="AC86" s="69"/>
-      <c r="AD86" s="69"/>
-      <c r="AE86" s="69"/>
-      <c r="AF86" s="69"/>
-      <c r="AG86" s="69"/>
-      <c r="AH86" s="67"/>
-      <c r="AI86" s="67"/>
-      <c r="AJ86" s="67"/>
-      <c r="AK86" s="67"/>
-      <c r="AL86" s="67"/>
-      <c r="AM86" s="67"/>
-      <c r="AN86" s="67"/>
-      <c r="AO86" s="67"/>
-      <c r="AP86" s="67"/>
-      <c r="AQ86" s="67"/>
-      <c r="AR86" s="70"/>
-      <c r="AS86" s="70"/>
-      <c r="AT86" s="70"/>
-      <c r="AU86" s="70"/>
-      <c r="AV86" s="70"/>
-      <c r="AW86" s="67"/>
-      <c r="AX86" s="67"/>
-      <c r="AY86" s="67"/>
-      <c r="AZ86" s="67"/>
-      <c r="BA86" s="67"/>
-      <c r="BB86" s="67"/>
-      <c r="BC86" s="67"/>
-      <c r="BD86" s="67"/>
-      <c r="BE86" s="67"/>
-      <c r="BF86" s="67"/>
-      <c r="BG86" s="71"/>
-      <c r="BH86" s="71"/>
-      <c r="BI86" s="71"/>
-      <c r="BJ86" s="71"/>
-      <c r="BK86" s="71"/>
-      <c r="BL86" s="67"/>
-      <c r="BM86" s="67"/>
-      <c r="BN86" s="67"/>
-      <c r="BO86" s="67"/>
-      <c r="BP86" s="67"/>
-      <c r="BQ86" s="67"/>
-      <c r="BR86" s="67"/>
-      <c r="BS86" s="67"/>
-      <c r="BT86" s="67"/>
-      <c r="BU86" s="67"/>
-      <c r="BV86" s="67"/>
-      <c r="BW86" s="67"/>
-      <c r="BX86" s="67"/>
-      <c r="BY86" s="67"/>
-      <c r="BZ86" s="67"/>
+    <row r="86" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="33">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C86" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F86" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G86" s="36" t="e">
+        <f>DAYS360(E86,F86)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H86" s="37">
+        <v>1</v>
+      </c>
+      <c r="I86" s="42"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="38"/>
+      <c r="N86" s="44"/>
+      <c r="O86" s="44"/>
+      <c r="P86" s="44"/>
+      <c r="Q86" s="44"/>
+      <c r="R86" s="44"/>
+      <c r="S86" s="38"/>
+      <c r="T86" s="38"/>
+      <c r="U86" s="38"/>
+      <c r="V86" s="38"/>
+      <c r="W86" s="38"/>
+      <c r="X86" s="38"/>
+      <c r="Y86" s="38"/>
+      <c r="Z86" s="38"/>
+      <c r="AA86" s="38"/>
+      <c r="AB86" s="38"/>
+      <c r="AC86" s="39"/>
+      <c r="AD86" s="39"/>
+      <c r="AE86" s="39"/>
+      <c r="AF86" s="39"/>
+      <c r="AG86" s="39"/>
+      <c r="AH86" s="38"/>
+      <c r="AI86" s="38"/>
+      <c r="AJ86" s="139"/>
+      <c r="AK86" s="38"/>
+      <c r="AL86" s="38"/>
+      <c r="AM86" s="38"/>
+      <c r="AN86" s="38"/>
+      <c r="AO86" s="38"/>
+      <c r="AP86" s="38"/>
+      <c r="AQ86" s="38"/>
+      <c r="AR86" s="40"/>
+      <c r="AS86" s="40"/>
+      <c r="AT86" s="40"/>
+      <c r="AU86" s="40"/>
+      <c r="AV86" s="40"/>
+      <c r="AW86" s="38"/>
+      <c r="AX86" s="38"/>
+      <c r="AY86" s="38"/>
+      <c r="AZ86" s="38"/>
+      <c r="BA86" s="38"/>
+      <c r="BB86" s="38"/>
+      <c r="BC86" s="38"/>
+      <c r="BD86" s="38"/>
+      <c r="BE86" s="38"/>
+      <c r="BF86" s="38"/>
+      <c r="BG86" s="41"/>
+      <c r="BH86" s="41"/>
+      <c r="BI86" s="41"/>
+      <c r="BJ86" s="41"/>
+      <c r="BK86" s="41"/>
+      <c r="BL86" s="38"/>
+      <c r="BM86" s="38"/>
+      <c r="BN86" s="38"/>
+      <c r="BO86" s="38"/>
+      <c r="BP86" s="38"/>
+      <c r="BQ86" s="38"/>
+      <c r="BR86" s="38"/>
+      <c r="BS86" s="38"/>
+      <c r="BT86" s="38"/>
+      <c r="BU86" s="38"/>
+      <c r="BV86" s="38"/>
+      <c r="BW86" s="38"/>
+      <c r="BX86" s="38"/>
+      <c r="BY86" s="38"/>
+      <c r="BZ86" s="38"/>
     </row>
-    <row r="87" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="32"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87" s="54"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="37"/>
+    <row r="87" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="33">
+        <v>4.2</v>
+      </c>
+      <c r="C87" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D87" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G87" s="36">
+        <v>0</v>
+      </c>
+      <c r="H87" s="37">
+        <v>1</v>
+      </c>
       <c r="I87" s="42"/>
       <c r="J87" s="43"/>
       <c r="K87" s="38"/>
@@ -9275,12 +9270,12 @@
       <c r="AE87" s="39"/>
       <c r="AF87" s="39"/>
       <c r="AG87" s="39"/>
-      <c r="AH87" s="123"/>
-      <c r="AI87" s="123"/>
-      <c r="AJ87" s="123"/>
-      <c r="AK87" s="123"/>
-      <c r="AL87" s="123"/>
-      <c r="AM87" s="58"/>
+      <c r="AH87" s="38"/>
+      <c r="AI87" s="38"/>
+      <c r="AJ87" s="139"/>
+      <c r="AK87" s="38"/>
+      <c r="AL87" s="38"/>
+      <c r="AM87" s="38"/>
       <c r="AN87" s="38"/>
       <c r="AO87" s="38"/>
       <c r="AP87" s="38"/>
@@ -9321,17 +9316,29 @@
       <c r="BY87" s="38"/>
       <c r="BZ87" s="38"/>
     </row>
-    <row r="88" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="32"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="D88" s="54"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="37"/>
+    <row r="88" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D88" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="35">
+        <v>44823</v>
+      </c>
+      <c r="F88" s="35">
+        <v>44823</v>
+      </c>
+      <c r="G88" s="36">
+        <f t="shared" ref="G88:G92" si="4">DAYS360(E88,F88)</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="37">
+        <v>1</v>
+      </c>
       <c r="I88" s="42"/>
       <c r="J88" s="43"/>
       <c r="K88" s="38"/>
@@ -9357,12 +9364,12 @@
       <c r="AE88" s="39"/>
       <c r="AF88" s="39"/>
       <c r="AG88" s="39"/>
-      <c r="AH88" s="123"/>
-      <c r="AI88" s="123"/>
-      <c r="AJ88" s="123"/>
-      <c r="AK88" s="123"/>
-      <c r="AL88" s="123"/>
-      <c r="AM88" s="58"/>
+      <c r="AH88" s="38"/>
+      <c r="AI88" s="38"/>
+      <c r="AJ88" s="139"/>
+      <c r="AK88" s="38"/>
+      <c r="AL88" s="38"/>
+      <c r="AM88" s="38"/>
       <c r="AN88" s="38"/>
       <c r="AO88" s="38"/>
       <c r="AP88" s="38"/>
@@ -9403,15 +9410,29 @@
       <c r="BY88" s="38"/>
       <c r="BZ88" s="38"/>
     </row>
-    <row r="89" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="54"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="37"/>
+    <row r="89" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D89" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E89" s="35">
+        <v>44829</v>
+      </c>
+      <c r="F89" s="35">
+        <v>44829</v>
+      </c>
+      <c r="G89" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="52">
+        <v>1</v>
+      </c>
       <c r="I89" s="42"/>
       <c r="J89" s="43"/>
       <c r="K89" s="38"/>
@@ -9439,7 +9460,7 @@
       <c r="AG89" s="39"/>
       <c r="AH89" s="38"/>
       <c r="AI89" s="38"/>
-      <c r="AJ89" s="38"/>
+      <c r="AJ89" s="139"/>
       <c r="AK89" s="38"/>
       <c r="AL89" s="38"/>
       <c r="AM89" s="38"/>
@@ -9483,15 +9504,29 @@
       <c r="BY89" s="38"/>
       <c r="BZ89" s="38"/>
     </row>
-    <row r="90" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="37"/>
+    <row r="90" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D90" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="35">
+        <v>44830</v>
+      </c>
+      <c r="F90" s="35">
+        <v>44830</v>
+      </c>
+      <c r="G90" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H90" s="37">
+        <v>1</v>
+      </c>
       <c r="I90" s="42"/>
       <c r="J90" s="43"/>
       <c r="K90" s="38"/>
@@ -9519,7 +9554,7 @@
       <c r="AG90" s="39"/>
       <c r="AH90" s="38"/>
       <c r="AI90" s="38"/>
-      <c r="AJ90" s="38"/>
+      <c r="AJ90" s="139"/>
       <c r="AK90" s="38"/>
       <c r="AL90" s="38"/>
       <c r="AM90" s="38"/>
@@ -9563,15 +9598,29 @@
       <c r="BY90" s="38"/>
       <c r="BZ90" s="38"/>
     </row>
-    <row r="91" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="56"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="37"/>
+    <row r="91" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="35">
+        <v>44837</v>
+      </c>
+      <c r="F91" s="35">
+        <v>44837</v>
+      </c>
+      <c r="G91" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="37">
+        <v>1</v>
+      </c>
       <c r="I91" s="42"/>
       <c r="J91" s="43"/>
       <c r="K91" s="38"/>
@@ -9599,7 +9648,7 @@
       <c r="AG91" s="39"/>
       <c r="AH91" s="38"/>
       <c r="AI91" s="38"/>
-      <c r="AJ91" s="38"/>
+      <c r="AJ91" s="139"/>
       <c r="AK91" s="38"/>
       <c r="AL91" s="38"/>
       <c r="AM91" s="38"/>
@@ -9643,15 +9692,27 @@
       <c r="BY91" s="38"/>
       <c r="BZ91" s="38"/>
     </row>
-    <row r="92" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
-      <c r="B92" s="53"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="54"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="37"/>
+    <row r="92" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="33"/>
+      <c r="C92" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D92" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="35">
+        <v>44844</v>
+      </c>
+      <c r="F92" s="35">
+        <v>44844</v>
+      </c>
+      <c r="G92" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="37">
+        <v>1</v>
+      </c>
       <c r="I92" s="42"/>
       <c r="J92" s="43"/>
       <c r="K92" s="38"/>
@@ -9679,7 +9740,7 @@
       <c r="AG92" s="39"/>
       <c r="AH92" s="38"/>
       <c r="AI92" s="38"/>
-      <c r="AJ92" s="38"/>
+      <c r="AJ92" s="139"/>
       <c r="AK92" s="38"/>
       <c r="AL92" s="38"/>
       <c r="AM92" s="38"/>
@@ -9723,15 +9784,29 @@
       <c r="BY92" s="38"/>
       <c r="BZ92" s="38"/>
     </row>
-    <row r="93" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="32"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="57"/>
-      <c r="D93" s="54"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="37"/>
+    <row r="93" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" s="140" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="35">
+        <v>44844</v>
+      </c>
+      <c r="F93" s="35">
+        <v>44844</v>
+      </c>
+      <c r="G93" s="36">
+        <f t="shared" ref="G93" si="5">DAYS360(E93,F93)</f>
+        <v>0</v>
+      </c>
+      <c r="H93" s="37">
+        <v>1</v>
+      </c>
       <c r="I93" s="42"/>
       <c r="J93" s="43"/>
       <c r="K93" s="38"/>
@@ -9759,7 +9834,7 @@
       <c r="AG93" s="39"/>
       <c r="AH93" s="38"/>
       <c r="AI93" s="38"/>
-      <c r="AJ93" s="38"/>
+      <c r="AJ93" s="139"/>
       <c r="AK93" s="38"/>
       <c r="AL93" s="38"/>
       <c r="AM93" s="38"/>
@@ -9804,918 +9879,106 @@
       <c r="BZ93" s="38"/>
     </row>
     <row r="94" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="26">
-        <v>4</v>
-      </c>
-      <c r="C94" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="30"/>
-      <c r="K94" s="31"/>
-      <c r="L94" s="31"/>
-      <c r="M94" s="29"/>
-      <c r="N94" s="29"/>
-      <c r="O94" s="29"/>
-      <c r="P94" s="29"/>
-      <c r="Q94" s="29"/>
-      <c r="R94" s="29"/>
-      <c r="S94" s="29"/>
-      <c r="T94" s="29"/>
-      <c r="U94" s="29"/>
-      <c r="V94" s="29"/>
-      <c r="W94" s="29"/>
-      <c r="X94" s="29"/>
-      <c r="Y94" s="29"/>
-      <c r="Z94" s="29"/>
-      <c r="AA94" s="29"/>
-      <c r="AB94" s="29"/>
-      <c r="AC94" s="29"/>
-      <c r="AD94" s="29"/>
-      <c r="AE94" s="29"/>
-      <c r="AF94" s="29"/>
-      <c r="AG94" s="29"/>
-      <c r="AH94" s="29"/>
-      <c r="AI94" s="29"/>
-      <c r="AJ94" s="29"/>
-      <c r="AK94" s="29"/>
-      <c r="AL94" s="29"/>
-      <c r="AM94" s="29"/>
-      <c r="AN94" s="29"/>
-      <c r="AO94" s="29"/>
-      <c r="AP94" s="29"/>
-      <c r="AQ94" s="29"/>
-      <c r="AR94" s="29"/>
-      <c r="AS94" s="29"/>
-      <c r="AT94" s="29"/>
-      <c r="AU94" s="29"/>
-      <c r="AV94" s="29"/>
-      <c r="AW94" s="29"/>
-      <c r="AX94" s="29"/>
-      <c r="AY94" s="29"/>
-      <c r="AZ94" s="29"/>
-      <c r="BA94" s="29"/>
-      <c r="BB94" s="29"/>
-      <c r="BC94" s="29"/>
-      <c r="BD94" s="29"/>
-      <c r="BE94" s="29"/>
-      <c r="BF94" s="29"/>
-      <c r="BG94" s="29"/>
-      <c r="BH94" s="29"/>
-      <c r="BI94" s="29"/>
-      <c r="BJ94" s="29"/>
-      <c r="BK94" s="29"/>
-      <c r="BL94" s="29"/>
-      <c r="BM94" s="29"/>
-      <c r="BN94" s="29"/>
-      <c r="BO94" s="29"/>
-      <c r="BP94" s="29"/>
-      <c r="BQ94" s="29"/>
-      <c r="BR94" s="29"/>
-      <c r="BS94" s="29"/>
-      <c r="BT94" s="29"/>
-      <c r="BU94" s="29"/>
-      <c r="BV94" s="29"/>
-      <c r="BW94" s="29"/>
-      <c r="BX94" s="29"/>
-      <c r="BY94" s="29"/>
-      <c r="BZ94" s="29"/>
-    </row>
-    <row r="95" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="33">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C95" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="D95" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E95" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="F95" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G95" s="36" t="e">
-        <f>DAYS360(E95,F95)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H95" s="37">
-        <v>1</v>
-      </c>
-      <c r="I95" s="42"/>
-      <c r="J95" s="43"/>
-      <c r="K95" s="38"/>
-      <c r="L95" s="38"/>
-      <c r="M95" s="38"/>
-      <c r="N95" s="44"/>
-      <c r="O95" s="44"/>
-      <c r="P95" s="44"/>
-      <c r="Q95" s="44"/>
-      <c r="R95" s="44"/>
-      <c r="S95" s="38"/>
-      <c r="T95" s="38"/>
-      <c r="U95" s="38"/>
-      <c r="V95" s="38"/>
-      <c r="W95" s="38"/>
-      <c r="X95" s="38"/>
-      <c r="Y95" s="38"/>
-      <c r="Z95" s="38"/>
-      <c r="AA95" s="38"/>
-      <c r="AB95" s="38"/>
-      <c r="AC95" s="39"/>
-      <c r="AD95" s="39"/>
-      <c r="AE95" s="39"/>
-      <c r="AF95" s="39"/>
-      <c r="AG95" s="39"/>
-      <c r="AH95" s="38"/>
-      <c r="AI95" s="38"/>
-      <c r="AJ95" s="38"/>
-      <c r="AK95" s="38"/>
-      <c r="AL95" s="38"/>
-      <c r="AM95" s="38"/>
-      <c r="AN95" s="38"/>
-      <c r="AO95" s="38"/>
-      <c r="AP95" s="38"/>
-      <c r="AQ95" s="38"/>
-      <c r="AR95" s="40"/>
-      <c r="AS95" s="40"/>
-      <c r="AT95" s="40"/>
-      <c r="AU95" s="40"/>
-      <c r="AV95" s="40"/>
-      <c r="AW95" s="38"/>
-      <c r="AX95" s="38"/>
-      <c r="AY95" s="38"/>
-      <c r="AZ95" s="38"/>
-      <c r="BA95" s="38"/>
-      <c r="BB95" s="38"/>
-      <c r="BC95" s="38"/>
-      <c r="BD95" s="38"/>
-      <c r="BE95" s="38"/>
-      <c r="BF95" s="38"/>
-      <c r="BG95" s="41"/>
-      <c r="BH95" s="41"/>
-      <c r="BI95" s="41"/>
-      <c r="BJ95" s="41"/>
-      <c r="BK95" s="41"/>
-      <c r="BL95" s="38"/>
-      <c r="BM95" s="38"/>
-      <c r="BN95" s="38"/>
-      <c r="BO95" s="38"/>
-      <c r="BP95" s="38"/>
-      <c r="BQ95" s="38"/>
-      <c r="BR95" s="38"/>
-      <c r="BS95" s="38"/>
-      <c r="BT95" s="38"/>
-      <c r="BU95" s="38"/>
-      <c r="BV95" s="38"/>
-      <c r="BW95" s="38"/>
-      <c r="BX95" s="38"/>
-      <c r="BY95" s="38"/>
-      <c r="BZ95" s="38"/>
-    </row>
-    <row r="96" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="33">
-        <v>4.2</v>
-      </c>
-      <c r="C96" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D96" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E96" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="F96" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G96" s="36">
-        <v>0</v>
-      </c>
-      <c r="H96" s="37">
-        <v>1</v>
-      </c>
-      <c r="I96" s="42"/>
-      <c r="J96" s="43"/>
-      <c r="K96" s="38"/>
-      <c r="L96" s="38"/>
-      <c r="M96" s="38"/>
-      <c r="N96" s="44"/>
-      <c r="O96" s="44"/>
-      <c r="P96" s="44"/>
-      <c r="Q96" s="44"/>
-      <c r="R96" s="44"/>
-      <c r="S96" s="38"/>
-      <c r="T96" s="38"/>
-      <c r="U96" s="38"/>
-      <c r="V96" s="38"/>
-      <c r="W96" s="38"/>
-      <c r="X96" s="38"/>
-      <c r="Y96" s="38"/>
-      <c r="Z96" s="38"/>
-      <c r="AA96" s="38"/>
-      <c r="AB96" s="38"/>
-      <c r="AC96" s="39"/>
-      <c r="AD96" s="39"/>
-      <c r="AE96" s="39"/>
-      <c r="AF96" s="39"/>
-      <c r="AG96" s="39"/>
-      <c r="AH96" s="38"/>
-      <c r="AI96" s="38"/>
-      <c r="AJ96" s="38"/>
-      <c r="AK96" s="38"/>
-      <c r="AL96" s="38"/>
-      <c r="AM96" s="38"/>
-      <c r="AN96" s="38"/>
-      <c r="AO96" s="38"/>
-      <c r="AP96" s="38"/>
-      <c r="AQ96" s="38"/>
-      <c r="AR96" s="40"/>
-      <c r="AS96" s="40"/>
-      <c r="AT96" s="40"/>
-      <c r="AU96" s="40"/>
-      <c r="AV96" s="40"/>
-      <c r="AW96" s="38"/>
-      <c r="AX96" s="38"/>
-      <c r="AY96" s="38"/>
-      <c r="AZ96" s="38"/>
-      <c r="BA96" s="38"/>
-      <c r="BB96" s="38"/>
-      <c r="BC96" s="38"/>
-      <c r="BD96" s="38"/>
-      <c r="BE96" s="38"/>
-      <c r="BF96" s="38"/>
-      <c r="BG96" s="41"/>
-      <c r="BH96" s="41"/>
-      <c r="BI96" s="41"/>
-      <c r="BJ96" s="41"/>
-      <c r="BK96" s="41"/>
-      <c r="BL96" s="38"/>
-      <c r="BM96" s="38"/>
-      <c r="BN96" s="38"/>
-      <c r="BO96" s="38"/>
-      <c r="BP96" s="38"/>
-      <c r="BQ96" s="38"/>
-      <c r="BR96" s="38"/>
-      <c r="BS96" s="38"/>
-      <c r="BT96" s="38"/>
-      <c r="BU96" s="38"/>
-      <c r="BV96" s="38"/>
-      <c r="BW96" s="38"/>
-      <c r="BX96" s="38"/>
-      <c r="BY96" s="38"/>
-      <c r="BZ96" s="38"/>
-    </row>
-    <row r="97" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="D97" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E97" s="35">
-        <v>44823</v>
-      </c>
-      <c r="F97" s="35">
-        <v>44823</v>
-      </c>
-      <c r="G97" s="36">
-        <f t="shared" ref="G97:G101" si="4">DAYS360(E97,F97)</f>
-        <v>0</v>
-      </c>
-      <c r="H97" s="37">
-        <v>1</v>
-      </c>
-      <c r="I97" s="42"/>
-      <c r="J97" s="43"/>
-      <c r="K97" s="38"/>
-      <c r="L97" s="38"/>
-      <c r="M97" s="38"/>
-      <c r="N97" s="44"/>
-      <c r="O97" s="44"/>
-      <c r="P97" s="44"/>
-      <c r="Q97" s="44"/>
-      <c r="R97" s="44"/>
-      <c r="S97" s="38"/>
-      <c r="T97" s="38"/>
-      <c r="U97" s="38"/>
-      <c r="V97" s="38"/>
-      <c r="W97" s="38"/>
-      <c r="X97" s="38"/>
-      <c r="Y97" s="38"/>
-      <c r="Z97" s="38"/>
-      <c r="AA97" s="38"/>
-      <c r="AB97" s="38"/>
-      <c r="AC97" s="39"/>
-      <c r="AD97" s="39"/>
-      <c r="AE97" s="39"/>
-      <c r="AF97" s="39"/>
-      <c r="AG97" s="39"/>
-      <c r="AH97" s="38"/>
-      <c r="AI97" s="38"/>
-      <c r="AJ97" s="38"/>
-      <c r="AK97" s="38"/>
-      <c r="AL97" s="38"/>
-      <c r="AM97" s="38"/>
-      <c r="AN97" s="38"/>
-      <c r="AO97" s="38"/>
-      <c r="AP97" s="38"/>
-      <c r="AQ97" s="38"/>
-      <c r="AR97" s="40"/>
-      <c r="AS97" s="40"/>
-      <c r="AT97" s="40"/>
-      <c r="AU97" s="40"/>
-      <c r="AV97" s="40"/>
-      <c r="AW97" s="38"/>
-      <c r="AX97" s="38"/>
-      <c r="AY97" s="38"/>
-      <c r="AZ97" s="38"/>
-      <c r="BA97" s="38"/>
-      <c r="BB97" s="38"/>
-      <c r="BC97" s="38"/>
-      <c r="BD97" s="38"/>
-      <c r="BE97" s="38"/>
-      <c r="BF97" s="38"/>
-      <c r="BG97" s="41"/>
-      <c r="BH97" s="41"/>
-      <c r="BI97" s="41"/>
-      <c r="BJ97" s="41"/>
-      <c r="BK97" s="41"/>
-      <c r="BL97" s="38"/>
-      <c r="BM97" s="38"/>
-      <c r="BN97" s="38"/>
-      <c r="BO97" s="38"/>
-      <c r="BP97" s="38"/>
-      <c r="BQ97" s="38"/>
-      <c r="BR97" s="38"/>
-      <c r="BS97" s="38"/>
-      <c r="BT97" s="38"/>
-      <c r="BU97" s="38"/>
-      <c r="BV97" s="38"/>
-      <c r="BW97" s="38"/>
-      <c r="BX97" s="38"/>
-      <c r="BY97" s="38"/>
-      <c r="BZ97" s="38"/>
-    </row>
-    <row r="98" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C98" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="D98" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E98" s="35">
-        <v>44829</v>
-      </c>
-      <c r="F98" s="35">
-        <v>44829</v>
-      </c>
-      <c r="G98" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H98" s="52">
-        <v>1</v>
-      </c>
-      <c r="I98" s="42"/>
-      <c r="J98" s="43"/>
-      <c r="K98" s="38"/>
-      <c r="L98" s="38"/>
-      <c r="M98" s="38"/>
-      <c r="N98" s="44"/>
-      <c r="O98" s="44"/>
-      <c r="P98" s="44"/>
-      <c r="Q98" s="44"/>
-      <c r="R98" s="44"/>
-      <c r="S98" s="38"/>
-      <c r="T98" s="38"/>
-      <c r="U98" s="38"/>
-      <c r="V98" s="38"/>
-      <c r="W98" s="38"/>
-      <c r="X98" s="38"/>
-      <c r="Y98" s="38"/>
-      <c r="Z98" s="38"/>
-      <c r="AA98" s="38"/>
-      <c r="AB98" s="38"/>
-      <c r="AC98" s="39"/>
-      <c r="AD98" s="39"/>
-      <c r="AE98" s="39"/>
-      <c r="AF98" s="39"/>
-      <c r="AG98" s="39"/>
-      <c r="AH98" s="38"/>
-      <c r="AI98" s="38"/>
-      <c r="AJ98" s="38"/>
-      <c r="AK98" s="38"/>
-      <c r="AL98" s="38"/>
-      <c r="AM98" s="38"/>
-      <c r="AN98" s="38"/>
-      <c r="AO98" s="38"/>
-      <c r="AP98" s="38"/>
-      <c r="AQ98" s="38"/>
-      <c r="AR98" s="40"/>
-      <c r="AS98" s="40"/>
-      <c r="AT98" s="40"/>
-      <c r="AU98" s="40"/>
-      <c r="AV98" s="40"/>
-      <c r="AW98" s="38"/>
-      <c r="AX98" s="38"/>
-      <c r="AY98" s="38"/>
-      <c r="AZ98" s="38"/>
-      <c r="BA98" s="38"/>
-      <c r="BB98" s="38"/>
-      <c r="BC98" s="38"/>
-      <c r="BD98" s="38"/>
-      <c r="BE98" s="38"/>
-      <c r="BF98" s="38"/>
-      <c r="BG98" s="41"/>
-      <c r="BH98" s="41"/>
-      <c r="BI98" s="41"/>
-      <c r="BJ98" s="41"/>
-      <c r="BK98" s="41"/>
-      <c r="BL98" s="38"/>
-      <c r="BM98" s="38"/>
-      <c r="BN98" s="38"/>
-      <c r="BO98" s="38"/>
-      <c r="BP98" s="38"/>
-      <c r="BQ98" s="38"/>
-      <c r="BR98" s="38"/>
-      <c r="BS98" s="38"/>
-      <c r="BT98" s="38"/>
-      <c r="BU98" s="38"/>
-      <c r="BV98" s="38"/>
-      <c r="BW98" s="38"/>
-      <c r="BX98" s="38"/>
-      <c r="BY98" s="38"/>
-      <c r="BZ98" s="38"/>
-    </row>
-    <row r="99" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C99" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="D99" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E99" s="35">
-        <v>44830</v>
-      </c>
-      <c r="F99" s="35">
-        <v>44830</v>
-      </c>
-      <c r="G99" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H99" s="37">
-        <v>1</v>
-      </c>
-      <c r="I99" s="42"/>
-      <c r="J99" s="43"/>
-      <c r="K99" s="38"/>
-      <c r="L99" s="38"/>
-      <c r="M99" s="38"/>
-      <c r="N99" s="44"/>
-      <c r="O99" s="44"/>
-      <c r="P99" s="44"/>
-      <c r="Q99" s="44"/>
-      <c r="R99" s="44"/>
-      <c r="S99" s="38"/>
-      <c r="T99" s="38"/>
-      <c r="U99" s="38"/>
-      <c r="V99" s="38"/>
-      <c r="W99" s="38"/>
-      <c r="X99" s="38"/>
-      <c r="Y99" s="38"/>
-      <c r="Z99" s="38"/>
-      <c r="AA99" s="38"/>
-      <c r="AB99" s="38"/>
-      <c r="AC99" s="39"/>
-      <c r="AD99" s="39"/>
-      <c r="AE99" s="39"/>
-      <c r="AF99" s="39"/>
-      <c r="AG99" s="39"/>
-      <c r="AH99" s="38"/>
-      <c r="AI99" s="38"/>
-      <c r="AJ99" s="38"/>
-      <c r="AK99" s="38"/>
-      <c r="AL99" s="38"/>
-      <c r="AM99" s="38"/>
-      <c r="AN99" s="38"/>
-      <c r="AO99" s="38"/>
-      <c r="AP99" s="38"/>
-      <c r="AQ99" s="38"/>
-      <c r="AR99" s="40"/>
-      <c r="AS99" s="40"/>
-      <c r="AT99" s="40"/>
-      <c r="AU99" s="40"/>
-      <c r="AV99" s="40"/>
-      <c r="AW99" s="38"/>
-      <c r="AX99" s="38"/>
-      <c r="AY99" s="38"/>
-      <c r="AZ99" s="38"/>
-      <c r="BA99" s="38"/>
-      <c r="BB99" s="38"/>
-      <c r="BC99" s="38"/>
-      <c r="BD99" s="38"/>
-      <c r="BE99" s="38"/>
-      <c r="BF99" s="38"/>
-      <c r="BG99" s="41"/>
-      <c r="BH99" s="41"/>
-      <c r="BI99" s="41"/>
-      <c r="BJ99" s="41"/>
-      <c r="BK99" s="41"/>
-      <c r="BL99" s="38"/>
-      <c r="BM99" s="38"/>
-      <c r="BN99" s="38"/>
-      <c r="BO99" s="38"/>
-      <c r="BP99" s="38"/>
-      <c r="BQ99" s="38"/>
-      <c r="BR99" s="38"/>
-      <c r="BS99" s="38"/>
-      <c r="BT99" s="38"/>
-      <c r="BU99" s="38"/>
-      <c r="BV99" s="38"/>
-      <c r="BW99" s="38"/>
-      <c r="BX99" s="38"/>
-      <c r="BY99" s="38"/>
-      <c r="BZ99" s="38"/>
-    </row>
-    <row r="100" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C100" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="D100" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E100" s="35">
-        <v>44837</v>
-      </c>
-      <c r="F100" s="35">
-        <v>44837</v>
-      </c>
-      <c r="G100" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H100" s="37">
-        <v>1</v>
-      </c>
-      <c r="I100" s="42"/>
-      <c r="J100" s="43"/>
-      <c r="K100" s="38"/>
-      <c r="L100" s="38"/>
-      <c r="M100" s="38"/>
-      <c r="N100" s="44"/>
-      <c r="O100" s="44"/>
-      <c r="P100" s="44"/>
-      <c r="Q100" s="44"/>
-      <c r="R100" s="44"/>
-      <c r="S100" s="38"/>
-      <c r="T100" s="38"/>
-      <c r="U100" s="38"/>
-      <c r="V100" s="38"/>
-      <c r="W100" s="38"/>
-      <c r="X100" s="38"/>
-      <c r="Y100" s="38"/>
-      <c r="Z100" s="38"/>
-      <c r="AA100" s="38"/>
-      <c r="AB100" s="38"/>
-      <c r="AC100" s="39"/>
-      <c r="AD100" s="39"/>
-      <c r="AE100" s="39"/>
-      <c r="AF100" s="39"/>
-      <c r="AG100" s="39"/>
-      <c r="AH100" s="38"/>
-      <c r="AI100" s="38"/>
-      <c r="AJ100" s="38"/>
-      <c r="AK100" s="38"/>
-      <c r="AL100" s="38"/>
-      <c r="AM100" s="38"/>
-      <c r="AN100" s="38"/>
-      <c r="AO100" s="38"/>
-      <c r="AP100" s="38"/>
-      <c r="AQ100" s="38"/>
-      <c r="AR100" s="40"/>
-      <c r="AS100" s="40"/>
-      <c r="AT100" s="40"/>
-      <c r="AU100" s="40"/>
-      <c r="AV100" s="40"/>
-      <c r="AW100" s="38"/>
-      <c r="AX100" s="38"/>
-      <c r="AY100" s="38"/>
-      <c r="AZ100" s="38"/>
-      <c r="BA100" s="38"/>
-      <c r="BB100" s="38"/>
-      <c r="BC100" s="38"/>
-      <c r="BD100" s="38"/>
-      <c r="BE100" s="38"/>
-      <c r="BF100" s="38"/>
-      <c r="BG100" s="41"/>
-      <c r="BH100" s="41"/>
-      <c r="BI100" s="41"/>
-      <c r="BJ100" s="41"/>
-      <c r="BK100" s="41"/>
-      <c r="BL100" s="38"/>
-      <c r="BM100" s="38"/>
-      <c r="BN100" s="38"/>
-      <c r="BO100" s="38"/>
-      <c r="BP100" s="38"/>
-      <c r="BQ100" s="38"/>
-      <c r="BR100" s="38"/>
-      <c r="BS100" s="38"/>
-      <c r="BT100" s="38"/>
-      <c r="BU100" s="38"/>
-      <c r="BV100" s="38"/>
-      <c r="BW100" s="38"/>
-      <c r="BX100" s="38"/>
-      <c r="BY100" s="38"/>
-      <c r="BZ100" s="38"/>
-    </row>
-    <row r="101" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="33"/>
-      <c r="C101" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="D101" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E101" s="35">
-        <v>44844</v>
-      </c>
-      <c r="F101" s="35">
-        <v>44844</v>
-      </c>
-      <c r="G101" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H101" s="37">
-        <v>1</v>
-      </c>
-      <c r="I101" s="42"/>
-      <c r="J101" s="43"/>
-      <c r="K101" s="38"/>
-      <c r="L101" s="38"/>
-      <c r="M101" s="38"/>
-      <c r="N101" s="44"/>
-      <c r="O101" s="44"/>
-      <c r="P101" s="44"/>
-      <c r="Q101" s="44"/>
-      <c r="R101" s="44"/>
-      <c r="S101" s="38"/>
-      <c r="T101" s="38"/>
-      <c r="U101" s="38"/>
-      <c r="V101" s="38"/>
-      <c r="W101" s="38"/>
-      <c r="X101" s="38"/>
-      <c r="Y101" s="38"/>
-      <c r="Z101" s="38"/>
-      <c r="AA101" s="38"/>
-      <c r="AB101" s="38"/>
-      <c r="AC101" s="39"/>
-      <c r="AD101" s="39"/>
-      <c r="AE101" s="39"/>
-      <c r="AF101" s="39"/>
-      <c r="AG101" s="39"/>
-      <c r="AH101" s="38"/>
-      <c r="AI101" s="38"/>
-      <c r="AJ101" s="38"/>
-      <c r="AK101" s="38"/>
-      <c r="AL101" s="38"/>
-      <c r="AM101" s="38"/>
-      <c r="AN101" s="38"/>
-      <c r="AO101" s="38"/>
-      <c r="AP101" s="38"/>
-      <c r="AQ101" s="38"/>
-      <c r="AR101" s="40"/>
-      <c r="AS101" s="40"/>
-      <c r="AT101" s="40"/>
-      <c r="AU101" s="40"/>
-      <c r="AV101" s="40"/>
-      <c r="AW101" s="38"/>
-      <c r="AX101" s="38"/>
-      <c r="AY101" s="38"/>
-      <c r="AZ101" s="38"/>
-      <c r="BA101" s="38"/>
-      <c r="BB101" s="38"/>
-      <c r="BC101" s="38"/>
-      <c r="BD101" s="38"/>
-      <c r="BE101" s="38"/>
-      <c r="BF101" s="38"/>
-      <c r="BG101" s="41"/>
-      <c r="BH101" s="41"/>
-      <c r="BI101" s="41"/>
-      <c r="BJ101" s="41"/>
-      <c r="BK101" s="41"/>
-      <c r="BL101" s="38"/>
-      <c r="BM101" s="38"/>
-      <c r="BN101" s="38"/>
-      <c r="BO101" s="38"/>
-      <c r="BP101" s="38"/>
-      <c r="BQ101" s="38"/>
-      <c r="BR101" s="38"/>
-      <c r="BS101" s="38"/>
-      <c r="BT101" s="38"/>
-      <c r="BU101" s="38"/>
-      <c r="BV101" s="38"/>
-      <c r="BW101" s="38"/>
-      <c r="BX101" s="38"/>
-      <c r="BY101" s="38"/>
-      <c r="BZ101" s="38"/>
-    </row>
-    <row r="102" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C102" s="105" t="s">
-        <v>99</v>
-      </c>
-      <c r="D102" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E102" s="35">
-        <v>44844</v>
-      </c>
-      <c r="F102" s="35">
-        <v>44844</v>
-      </c>
-      <c r="G102" s="36">
-        <f t="shared" ref="G102" si="5">DAYS360(E102,F102)</f>
-        <v>0</v>
-      </c>
-      <c r="H102" s="37">
-        <v>1</v>
-      </c>
-      <c r="I102" s="42"/>
-      <c r="J102" s="43"/>
-      <c r="K102" s="38"/>
-      <c r="L102" s="38"/>
-      <c r="M102" s="38"/>
-      <c r="N102" s="44"/>
-      <c r="O102" s="44"/>
-      <c r="P102" s="44"/>
-      <c r="Q102" s="44"/>
-      <c r="R102" s="44"/>
-      <c r="S102" s="38"/>
-      <c r="T102" s="38"/>
-      <c r="U102" s="38"/>
-      <c r="V102" s="38"/>
-      <c r="W102" s="38"/>
-      <c r="X102" s="38"/>
-      <c r="Y102" s="38"/>
-      <c r="Z102" s="38"/>
-      <c r="AA102" s="38"/>
-      <c r="AB102" s="38"/>
-      <c r="AC102" s="39"/>
-      <c r="AD102" s="39"/>
-      <c r="AE102" s="39"/>
-      <c r="AF102" s="39"/>
-      <c r="AG102" s="39"/>
-      <c r="AH102" s="38"/>
-      <c r="AI102" s="38"/>
-      <c r="AJ102" s="38"/>
-      <c r="AK102" s="38"/>
-      <c r="AL102" s="38"/>
-      <c r="AM102" s="38"/>
-      <c r="AN102" s="38"/>
-      <c r="AO102" s="38"/>
-      <c r="AP102" s="38"/>
-      <c r="AQ102" s="38"/>
-      <c r="AR102" s="40"/>
-      <c r="AS102" s="40"/>
-      <c r="AT102" s="40"/>
-      <c r="AU102" s="40"/>
-      <c r="AV102" s="40"/>
-      <c r="AW102" s="38"/>
-      <c r="AX102" s="38"/>
-      <c r="AY102" s="38"/>
-      <c r="AZ102" s="38"/>
-      <c r="BA102" s="38"/>
-      <c r="BB102" s="38"/>
-      <c r="BC102" s="38"/>
-      <c r="BD102" s="38"/>
-      <c r="BE102" s="38"/>
-      <c r="BF102" s="38"/>
-      <c r="BG102" s="41"/>
-      <c r="BH102" s="41"/>
-      <c r="BI102" s="41"/>
-      <c r="BJ102" s="41"/>
-      <c r="BK102" s="41"/>
-      <c r="BL102" s="38"/>
-      <c r="BM102" s="38"/>
-      <c r="BN102" s="38"/>
-      <c r="BO102" s="38"/>
-      <c r="BP102" s="38"/>
-      <c r="BQ102" s="38"/>
-      <c r="BR102" s="38"/>
-      <c r="BS102" s="38"/>
-      <c r="BT102" s="38"/>
-      <c r="BU102" s="38"/>
-      <c r="BV102" s="38"/>
-      <c r="BW102" s="38"/>
-      <c r="BX102" s="38"/>
-      <c r="BY102" s="38"/>
-      <c r="BZ102" s="38"/>
-    </row>
-    <row r="103" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="106"/>
-      <c r="C103" s="107"/>
-      <c r="D103" s="108"/>
-      <c r="E103" s="109"/>
-      <c r="F103" s="109"/>
-      <c r="G103" s="110"/>
-      <c r="H103" s="111"/>
-      <c r="I103" s="112"/>
-      <c r="J103" s="113"/>
-      <c r="K103" s="114"/>
-      <c r="L103" s="114"/>
-      <c r="M103" s="114"/>
-      <c r="N103" s="115"/>
-      <c r="O103" s="115"/>
-      <c r="P103" s="115"/>
-      <c r="Q103" s="115"/>
-      <c r="R103" s="115"/>
-      <c r="S103" s="114"/>
-      <c r="T103" s="114"/>
-      <c r="U103" s="114"/>
-      <c r="V103" s="114"/>
-      <c r="W103" s="114"/>
-      <c r="X103" s="114"/>
-      <c r="Y103" s="114"/>
-      <c r="Z103" s="114"/>
-      <c r="AA103" s="114"/>
-      <c r="AB103" s="114"/>
-      <c r="AC103" s="116"/>
-      <c r="AD103" s="116"/>
-      <c r="AE103" s="116"/>
-      <c r="AF103" s="116"/>
-      <c r="AG103" s="116"/>
-      <c r="AH103" s="114"/>
-      <c r="AI103" s="114"/>
-      <c r="AJ103" s="114"/>
-      <c r="AK103" s="114"/>
-      <c r="AL103" s="114"/>
-      <c r="AM103" s="114"/>
-      <c r="AN103" s="114"/>
-      <c r="AO103" s="114"/>
-      <c r="AP103" s="114"/>
-      <c r="AQ103" s="114"/>
-      <c r="AR103" s="117"/>
-      <c r="AS103" s="117"/>
-      <c r="AT103" s="117"/>
-      <c r="AU103" s="117"/>
-      <c r="AV103" s="117"/>
-      <c r="AW103" s="114"/>
-      <c r="AX103" s="114"/>
-      <c r="AY103" s="114"/>
-      <c r="AZ103" s="114"/>
-      <c r="BA103" s="114"/>
-      <c r="BB103" s="114"/>
-      <c r="BC103" s="114"/>
-      <c r="BD103" s="114"/>
-      <c r="BE103" s="114"/>
-      <c r="BF103" s="114"/>
-      <c r="BG103" s="118"/>
-      <c r="BH103" s="118"/>
-      <c r="BI103" s="118"/>
-      <c r="BJ103" s="118"/>
-      <c r="BK103" s="118"/>
-      <c r="BL103" s="114"/>
-      <c r="BM103" s="114"/>
-      <c r="BN103" s="114"/>
-      <c r="BO103" s="114"/>
-      <c r="BP103" s="114"/>
-      <c r="BQ103" s="114"/>
-      <c r="BR103" s="114"/>
-      <c r="BS103" s="114"/>
-      <c r="BT103" s="114"/>
-      <c r="BU103" s="114"/>
-      <c r="BV103" s="114"/>
-      <c r="BW103" s="114"/>
-      <c r="BX103" s="114"/>
-      <c r="BY103" s="114"/>
-      <c r="BZ103" s="114"/>
+      <c r="B94" s="141"/>
+      <c r="C94" s="142"/>
+      <c r="D94" s="143"/>
+      <c r="E94" s="144"/>
+      <c r="F94" s="144"/>
+      <c r="G94" s="145"/>
+      <c r="H94" s="146"/>
+      <c r="I94" s="147"/>
+      <c r="J94" s="148"/>
+      <c r="K94" s="149"/>
+      <c r="L94" s="149"/>
+      <c r="M94" s="149"/>
+      <c r="N94" s="150"/>
+      <c r="O94" s="150"/>
+      <c r="P94" s="150"/>
+      <c r="Q94" s="150"/>
+      <c r="R94" s="150"/>
+      <c r="S94" s="149"/>
+      <c r="T94" s="149"/>
+      <c r="U94" s="149"/>
+      <c r="V94" s="149"/>
+      <c r="W94" s="149"/>
+      <c r="X94" s="149"/>
+      <c r="Y94" s="149"/>
+      <c r="Z94" s="149"/>
+      <c r="AA94" s="149"/>
+      <c r="AB94" s="149"/>
+      <c r="AC94" s="151"/>
+      <c r="AD94" s="151"/>
+      <c r="AE94" s="151"/>
+      <c r="AF94" s="151"/>
+      <c r="AG94" s="151"/>
+      <c r="AH94" s="149"/>
+      <c r="AI94" s="149"/>
+      <c r="AJ94" s="162"/>
+      <c r="AK94" s="149"/>
+      <c r="AL94" s="149"/>
+      <c r="AM94" s="149"/>
+      <c r="AN94" s="149"/>
+      <c r="AO94" s="149"/>
+      <c r="AP94" s="149"/>
+      <c r="AQ94" s="149"/>
+      <c r="AR94" s="152"/>
+      <c r="AS94" s="152"/>
+      <c r="AT94" s="152"/>
+      <c r="AU94" s="152"/>
+      <c r="AV94" s="152"/>
+      <c r="AW94" s="149"/>
+      <c r="AX94" s="149"/>
+      <c r="AY94" s="149"/>
+      <c r="AZ94" s="149"/>
+      <c r="BA94" s="149"/>
+      <c r="BB94" s="149"/>
+      <c r="BC94" s="149"/>
+      <c r="BD94" s="149"/>
+      <c r="BE94" s="149"/>
+      <c r="BF94" s="149"/>
+      <c r="BG94" s="153"/>
+      <c r="BH94" s="153"/>
+      <c r="BI94" s="153"/>
+      <c r="BJ94" s="153"/>
+      <c r="BK94" s="153"/>
+      <c r="BL94" s="149"/>
+      <c r="BM94" s="149"/>
+      <c r="BN94" s="149"/>
+      <c r="BO94" s="149"/>
+      <c r="BP94" s="149"/>
+      <c r="BQ94" s="149"/>
+      <c r="BR94" s="149"/>
+      <c r="BS94" s="149"/>
+      <c r="BT94" s="149"/>
+      <c r="BU94" s="149"/>
+      <c r="BV94" s="149"/>
+      <c r="BW94" s="149"/>
+      <c r="BX94" s="149"/>
+      <c r="BY94" s="149"/>
+      <c r="BZ94" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:W9"/>
+    <mergeCell ref="X9:AL9"/>
+    <mergeCell ref="AM9:BA9"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AH10:AL10"/>
+    <mergeCell ref="AM10:AQ10"/>
+    <mergeCell ref="AR10:AV10"/>
+    <mergeCell ref="AW10:BA10"/>
     <mergeCell ref="BB9:BZ9"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="N10:R10"/>
@@ -10732,29 +9995,9 @@
     <mergeCell ref="BQ10:BU10"/>
     <mergeCell ref="BV10:BZ10"/>
     <mergeCell ref="S10:W10"/>
-    <mergeCell ref="AM9:BA9"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AH10:AL10"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="AR10:AV10"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:W9"/>
-    <mergeCell ref="X9:AL9"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
-  <conditionalFormatting sqref="H12:H21 H23:H103">
+  <conditionalFormatting sqref="H12:H21 H23:H94">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -10764,7 +10007,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H21 H23:H103">
+  <conditionalFormatting sqref="H12:H21 H23:H94">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -10780,9 +10023,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11015,27 +10261,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11060,9 +10294,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>